--- a/google_ranked.xlsx
+++ b/google_ranked.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\leet\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0708762C-0684-4C30-A828-A6D42B4F5D54}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="8507" windowHeight="4380"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8505" windowHeight="4380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="227">
   <si>
     <t>Google</t>
   </si>
@@ -130,584 +136,585 @@
     <t>Binary Tree Paths</t>
   </si>
   <si>
+    <t>Max Consecutive Ones</t>
+  </si>
+  <si>
+    <t>Relative Ranks</t>
+  </si>
+  <si>
+    <t>Number of Boomerangs</t>
+  </si>
+  <si>
+    <t>Longest Uncommon Subsequence I</t>
+  </si>
+  <si>
+    <t>Reverse String II</t>
+  </si>
+  <si>
+    <t>Shortest Unsorted Continuous Subarray</t>
+  </si>
+  <si>
+    <t>Design Compressed String Iterator</t>
+  </si>
+  <si>
+    <t>Maximum Average Subarray I</t>
+  </si>
+  <si>
+    <t>Judge Route Circle</t>
+  </si>
+  <si>
+    <t>Non-decreasing Array</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>Maximum Vacation Days</t>
+  </si>
+  <si>
+    <t>Shortest Distance from All Buildings</t>
+  </si>
+  <si>
+    <t>Number of Islands II</t>
+  </si>
+  <si>
+    <t>The Skyline Problem</t>
+  </si>
+  <si>
+    <t>Longest Substring with At Most Two Distinct Characters</t>
+  </si>
+  <si>
+    <t>Longest Increasing Path in a Matrix</t>
+  </si>
+  <si>
+    <t>Encode String with Shortest Length</t>
+  </si>
+  <si>
+    <t>Perfect Rectangle</t>
+  </si>
+  <si>
+    <t>Trapping Rain Water II</t>
+  </si>
+  <si>
+    <t>Serialize and Deserialize Binary Tree</t>
+  </si>
+  <si>
+    <t>LRU Cache</t>
+  </si>
+  <si>
+    <t>Find Median from Data Stream</t>
+  </si>
+  <si>
+    <t>Trapping Rain Water</t>
+  </si>
+  <si>
+    <t>Count of Smaller Numbers After Self</t>
+  </si>
+  <si>
+    <t>Minimum Unique Word Abbreviation</t>
+  </si>
+  <si>
+    <t>Alien Dictionary</t>
+  </si>
+  <si>
+    <t>Sliding Window Maximum</t>
+  </si>
+  <si>
+    <t>Optimal Account Balancing</t>
+  </si>
+  <si>
+    <t>Longest Consecutive Sequence</t>
+  </si>
+  <si>
+    <t>Read N Characters Given Read4 II - Call multiple times</t>
+  </si>
+  <si>
+    <t>Merge k Sorted Lists</t>
+  </si>
+  <si>
+    <t>Regular Expression Matching</t>
+  </si>
+  <si>
+    <t>Word Search II</t>
+  </si>
+  <si>
+    <t>Median of Two Sorted Arrays</t>
+  </si>
+  <si>
+    <t>Rearrange String k Distance Apart</t>
+  </si>
+  <si>
+    <t>Erect the Fence</t>
+  </si>
+  <si>
+    <t>24 Game</t>
+  </si>
+  <si>
+    <t>Word Break II</t>
+  </si>
+  <si>
+    <t>Basic Calculator</t>
+  </si>
+  <si>
+    <t>Count of Range Sum</t>
+  </si>
+  <si>
+    <t>Insert Interval</t>
+  </si>
+  <si>
+    <t>Palindrome Pairs</t>
+  </si>
+  <si>
+    <t>Wildcard Matching</t>
+  </si>
+  <si>
+    <t>LFU Cache</t>
+  </si>
+  <si>
+    <t>Max Sum of Rectangle No Larger Than K</t>
+  </si>
+  <si>
+    <t>Russian Doll Envelopes</t>
+  </si>
+  <si>
+    <t>Closest Binary Search Tree Value II</t>
+  </si>
+  <si>
+    <t>Shortest Palindrome</t>
+  </si>
+  <si>
+    <t>Expression Add Operators</t>
+  </si>
+  <si>
+    <t>Smallest Rectangle Enclosing Black Pixels</t>
+  </si>
+  <si>
+    <t>Create Maximum Number</t>
+  </si>
+  <si>
+    <t>Sliding Window Median</t>
+  </si>
+  <si>
+    <t>Smallest Good Base</t>
+  </si>
+  <si>
+    <t>Burst Balloons</t>
+  </si>
+  <si>
+    <t>Reverse Pairs</t>
+  </si>
+  <si>
+    <t>Freedom Trail</t>
+  </si>
+  <si>
+    <t>Word Abbreviation</t>
+  </si>
+  <si>
+    <t>Remove Duplicate Letters</t>
+  </si>
+  <si>
+    <t>Patching Array</t>
+  </si>
+  <si>
+    <t>Student Attendance Record II</t>
+  </si>
+  <si>
+    <t>Median Employee Salary</t>
+  </si>
+  <si>
+    <t>Maximum Average Subarray II</t>
+  </si>
+  <si>
+    <t>Coin Path</t>
+  </si>
+  <si>
+    <t>Kth Smallest Number in Multiplication Table</t>
+  </si>
+  <si>
+    <t>Redundant Connection II</t>
+  </si>
+  <si>
+    <t>Maximum Sum of 3 Non-Overlapping Subarrays</t>
+  </si>
+  <si>
+    <t>Find K-th Smallest Pair Distance</t>
+  </si>
+  <si>
+    <t>Number of Atoms</t>
+  </si>
+  <si>
+    <t>Minimum Window Subsequence</t>
+  </si>
+  <si>
+    <t>Design TinyURL</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Longest Absolute File Path</t>
+  </si>
+  <si>
+    <t>Next Closest Time</t>
+  </si>
+  <si>
+    <t>License Key Formatting</t>
+  </si>
+  <si>
+    <t>Binary Tree Longest Consecutive Sequence</t>
+  </si>
+  <si>
+    <t>Sentence Screen Fitting</t>
+  </si>
+  <si>
+    <t>Zigzag Iterator</t>
+  </si>
+  <si>
+    <t>Bomb Enemy</t>
+  </si>
+  <si>
+    <t>Decode String</t>
+  </si>
+  <si>
+    <t>UTF-8 Validation</t>
+  </si>
+  <si>
+    <t>Missing Ranges</t>
+  </si>
+  <si>
+    <t>Android Unlock Patterns</t>
+  </si>
+  <si>
+    <t>Encode and Decode Strings</t>
+  </si>
+  <si>
+    <t>Game of Life</t>
+  </si>
+  <si>
+    <t>Unique Word Abbreviation</t>
+  </si>
+  <si>
+    <t>Number of Islands</t>
+  </si>
+  <si>
+    <t>Wiggle Sort</t>
+  </si>
+  <si>
+    <t>Add Bold Tag in String</t>
+  </si>
+  <si>
+    <t>3Sum Smaller</t>
+  </si>
+  <si>
+    <t>Evaluate Division</t>
+  </si>
+  <si>
+    <t>Pacific Atlantic Water Flow</t>
+  </si>
+  <si>
+    <t>Queue Reconstruction by Height</t>
+  </si>
+  <si>
+    <t>Perfect Squares</t>
+  </si>
+  <si>
+    <t>Merge Intervals</t>
+  </si>
+  <si>
+    <t>Peeking Iterator</t>
+  </si>
+  <si>
+    <t>Strobogrammatic Number II</t>
+  </si>
+  <si>
+    <t>Longest Word in Dictionary through Deleting</t>
+  </si>
+  <si>
+    <t>Summary Ranges</t>
+  </si>
+  <si>
+    <t>Walls and Gates</t>
+  </si>
+  <si>
+    <t>Design Hit Counter</t>
+  </si>
+  <si>
+    <t>Flip Game II</t>
+  </si>
+  <si>
+    <t>Insert Delete GetRandom O(1)</t>
+  </si>
+  <si>
+    <t>Group Shifted Strings</t>
+  </si>
+  <si>
+    <t>Generalized Abbreviation</t>
+  </si>
+  <si>
+    <t>The Maze II</t>
+  </si>
+  <si>
+    <t>Flatten Nested List Iterator</t>
+  </si>
+  <si>
+    <t>Sort Transformed Array</t>
+  </si>
+  <si>
+    <t>H-Index</t>
+  </si>
+  <si>
+    <t>Meeting Rooms II</t>
+  </si>
+  <si>
+    <t>Word Break</t>
+  </si>
+  <si>
+    <t>Kth Smallest Element in a BST</t>
+  </si>
+  <si>
+    <t>Find Peak Element</t>
+  </si>
+  <si>
+    <t>Diagonal Traverse</t>
+  </si>
+  <si>
+    <t>The Maze</t>
+  </si>
+  <si>
+    <t>Maximum Product of Word Lengths</t>
+  </si>
+  <si>
+    <t>Find K Pairs with Smallest Sums</t>
+  </si>
+  <si>
+    <t>Plus One Linked List</t>
+  </si>
+  <si>
+    <t>Flatten 2D Vector</t>
+  </si>
+  <si>
+    <t>Reconstruct Itinerary</t>
+  </si>
+  <si>
+    <t>Binary Search Tree Iterator</t>
+  </si>
+  <si>
+    <t>Spiral Matrix</t>
+  </si>
+  <si>
+    <t>Wiggle Sort II</t>
+  </si>
+  <si>
+    <t>Letter Combinations of a Phone Number</t>
+  </si>
+  <si>
+    <t>Find Permutation</t>
+  </si>
+  <si>
+    <t>Longest Line of Consecutive One in Matrix</t>
+  </si>
+  <si>
+    <t>Fraction to Recurring Decimal</t>
+  </si>
+  <si>
+    <t>Generate Parentheses</t>
+  </si>
+  <si>
+    <t>Next Permutation</t>
+  </si>
+  <si>
+    <t>Implement Magic Dictionary</t>
+  </si>
+  <si>
+    <t>Maximum XOR of Two Numbers in an Array</t>
+  </si>
+  <si>
+    <t>Next Greater Element II</t>
+  </si>
+  <si>
+    <t>Redundant Connection</t>
+  </si>
+  <si>
+    <t>Clone Graph</t>
+  </si>
+  <si>
+    <t>Pow(x, n)</t>
+  </si>
+  <si>
+    <t>Implement Trie (Prefix Tree)</t>
+  </si>
+  <si>
+    <t>Design Tic-Tac-Toe</t>
+  </si>
+  <si>
+    <t>Find Duplicate Subtrees</t>
+  </si>
+  <si>
+    <t>Sequence Reconstruction</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock with Cooldown</t>
+  </si>
+  <si>
+    <t>Linked List Random Node</t>
+  </si>
+  <si>
+    <t>Remove K Digits</t>
+  </si>
+  <si>
+    <t>Range Addition</t>
+  </si>
+  <si>
+    <t>Combination Sum IV</t>
+  </si>
+  <si>
+    <t>Design Phone Directory</t>
+  </si>
+  <si>
+    <t>Design Snake Game</t>
+  </si>
+  <si>
+    <t>Guess Number Higher or Lower II</t>
+  </si>
+  <si>
+    <t>Line Reflection</t>
+  </si>
+  <si>
+    <t>Graph Valid Tree</t>
+  </si>
+  <si>
+    <t>Predict the Winner</t>
+  </si>
+  <si>
+    <t>01 Matrix</t>
+  </si>
+  <si>
+    <t>Integer Replacement</t>
+  </si>
+  <si>
+    <t>Largest Divisible Subset</t>
+  </si>
+  <si>
+    <t>Kth Smallest Element in a Sorted Matrix</t>
+  </si>
+  <si>
+    <t>Super Ugly Number</t>
+  </si>
+  <si>
+    <t>Verify Preorder Serialization of a Binary Tree</t>
+  </si>
+  <si>
+    <t>Number of Connected Components in an Undirected Graph</t>
+  </si>
+  <si>
+    <t>Sort Characters By Frequency</t>
+  </si>
+  <si>
+    <t>Minimum Height Trees</t>
+  </si>
+  <si>
+    <t>My Calendar I</t>
+  </si>
+  <si>
+    <t>Convex Polygon</t>
+  </si>
+  <si>
+    <t>Ones and Zeroes</t>
+  </si>
+  <si>
+    <t>Magical String</t>
+  </si>
+  <si>
+    <t>Binary Tree Vertical Order Traversal</t>
+  </si>
+  <si>
+    <t>Count Numbers with Unique Digits</t>
+  </si>
+  <si>
+    <t>Max Consecutive Ones II</t>
+  </si>
+  <si>
+    <t>Target Sum</t>
+  </si>
+  <si>
+    <t>Longest Uncommon Subsequence II</t>
+  </si>
+  <si>
+    <t>Lonely Pixel I</t>
+  </si>
+  <si>
+    <t>Lonely Pixel II</t>
+  </si>
+  <si>
+    <t>Encode and Decode TinyURL</t>
+  </si>
+  <si>
+    <t>Output Contest Matches</t>
+  </si>
+  <si>
+    <t>Boundary of Binary Tree</t>
+  </si>
+  <si>
+    <t>Binary Tree Longest Consecutive Sequence II</t>
+  </si>
+  <si>
+    <t>Subarray Sum Equals K</t>
+  </si>
+  <si>
+    <t>Delete Operation for Two Strings</t>
+  </si>
+  <si>
+    <t>Shopping Offers</t>
+  </si>
+  <si>
+    <t>4 Keys Keyboard</t>
+  </si>
+  <si>
+    <t>Find K Closest Elements</t>
+  </si>
+  <si>
+    <t>Split Array into Consecutive Subsequences</t>
+  </si>
+  <si>
+    <t>Beautiful Arrangement II</t>
+  </si>
+  <si>
+    <t>My Calendar II</t>
+  </si>
+  <si>
     <t>Detect Capital</t>
-  </si>
-  <si>
-    <t>Max Consecutive Ones</t>
-  </si>
-  <si>
-    <t>Relative Ranks</t>
-  </si>
-  <si>
-    <t>Number of Boomerangs</t>
-  </si>
-  <si>
-    <t>Longest Uncommon Subsequence I</t>
-  </si>
-  <si>
-    <t>Reverse String II</t>
-  </si>
-  <si>
-    <t>Shortest Unsorted Continuous Subarray</t>
-  </si>
-  <si>
-    <t>Design Compressed String Iterator</t>
-  </si>
-  <si>
-    <t>Maximum Average Subarray I</t>
-  </si>
-  <si>
-    <t>Judge Route Circle</t>
-  </si>
-  <si>
-    <t>Non-decreasing Array</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>K Empty Slots</t>
-  </si>
-  <si>
-    <t>Hard</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Longest Substring with At Most K Distinct Characters</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beautiful Arrangement</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Search a 2D Matrix II</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Range Sum Query 2D - Mutable</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Word Squares</t>
-  </si>
-  <si>
-    <t>Maximum Vacation Days</t>
-  </si>
-  <si>
-    <t>Shortest Distance from All Buildings</t>
-  </si>
-  <si>
-    <t>Number of Islands II</t>
-  </si>
-  <si>
-    <t>The Skyline Problem</t>
-  </si>
-  <si>
-    <t>Longest Substring with At Most Two Distinct Characters</t>
-  </si>
-  <si>
-    <t>Longest Increasing Path in a Matrix</t>
-  </si>
-  <si>
-    <t>Encode String with Shortest Length</t>
-  </si>
-  <si>
-    <t>Perfect Rectangle</t>
-  </si>
-  <si>
-    <t>Trapping Rain Water II</t>
-  </si>
-  <si>
-    <t>Serialize and Deserialize Binary Tree</t>
-  </si>
-  <si>
-    <t>LRU Cache</t>
-  </si>
-  <si>
-    <t>Find Median from Data Stream</t>
-  </si>
-  <si>
-    <t>Trapping Rain Water</t>
-  </si>
-  <si>
-    <t>Count of Smaller Numbers After Self</t>
-  </si>
-  <si>
-    <t>Minimum Unique Word Abbreviation</t>
-  </si>
-  <si>
-    <t>Alien Dictionary</t>
-  </si>
-  <si>
-    <t>Sliding Window Maximum</t>
-  </si>
-  <si>
-    <t>Optimal Account Balancing</t>
-  </si>
-  <si>
-    <t>Longest Consecutive Sequence</t>
-  </si>
-  <si>
-    <t>Read N Characters Given Read4 II - Call multiple times</t>
-  </si>
-  <si>
-    <t>Merge k Sorted Lists</t>
-  </si>
-  <si>
-    <t>Regular Expression Matching</t>
-  </si>
-  <si>
-    <t>Word Search II</t>
-  </si>
-  <si>
-    <t>Median of Two Sorted Arrays</t>
-  </si>
-  <si>
-    <t>Rearrange String k Distance Apart</t>
-  </si>
-  <si>
-    <t>Erect the Fence</t>
-  </si>
-  <si>
-    <t>24 Game</t>
-  </si>
-  <si>
-    <t>Word Break II</t>
-  </si>
-  <si>
-    <t>Basic Calculator</t>
-  </si>
-  <si>
-    <t>Count of Range Sum</t>
-  </si>
-  <si>
-    <t>Insert Interval</t>
-  </si>
-  <si>
-    <t>Palindrome Pairs</t>
-  </si>
-  <si>
-    <t>Wildcard Matching</t>
-  </si>
-  <si>
-    <t>LFU Cache</t>
-  </si>
-  <si>
-    <t>Max Sum of Rectangle No Larger Than K</t>
-  </si>
-  <si>
-    <t>Russian Doll Envelopes</t>
-  </si>
-  <si>
-    <t>Closest Binary Search Tree Value II</t>
-  </si>
-  <si>
-    <t>Shortest Palindrome</t>
-  </si>
-  <si>
-    <t>Expression Add Operators</t>
-  </si>
-  <si>
-    <t>Smallest Rectangle Enclosing Black Pixels</t>
-  </si>
-  <si>
-    <t>Create Maximum Number</t>
-  </si>
-  <si>
-    <t>Sliding Window Median</t>
-  </si>
-  <si>
-    <t>Smallest Good Base</t>
-  </si>
-  <si>
-    <t>Burst Balloons</t>
-  </si>
-  <si>
-    <t>Reverse Pairs</t>
-  </si>
-  <si>
-    <t>Freedom Trail</t>
-  </si>
-  <si>
-    <t>Word Abbreviation</t>
-  </si>
-  <si>
-    <t>Remove Duplicate Letters</t>
-  </si>
-  <si>
-    <t>Patching Array</t>
-  </si>
-  <si>
-    <t>Student Attendance Record II</t>
-  </si>
-  <si>
-    <t>Median Employee Salary</t>
-  </si>
-  <si>
-    <t>Maximum Average Subarray II</t>
-  </si>
-  <si>
-    <t>Coin Path</t>
-  </si>
-  <si>
-    <t>Kth Smallest Number in Multiplication Table</t>
-  </si>
-  <si>
-    <t>Redundant Connection II</t>
-  </si>
-  <si>
-    <t>Maximum Sum of 3 Non-Overlapping Subarrays</t>
-  </si>
-  <si>
-    <t>Find K-th Smallest Pair Distance</t>
-  </si>
-  <si>
-    <t>Number of Atoms</t>
-  </si>
-  <si>
-    <t>Minimum Window Subsequence</t>
-  </si>
-  <si>
-    <t>Design TinyURL</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>Longest Absolute File Path</t>
-  </si>
-  <si>
-    <t>Next Closest Time</t>
-  </si>
-  <si>
-    <t>License Key Formatting</t>
-  </si>
-  <si>
-    <t>Binary Tree Longest Consecutive Sequence</t>
-  </si>
-  <si>
-    <t>Sentence Screen Fitting</t>
-  </si>
-  <si>
-    <t>Zigzag Iterator</t>
-  </si>
-  <si>
-    <t>Bomb Enemy</t>
-  </si>
-  <si>
-    <t>Decode String</t>
-  </si>
-  <si>
-    <t>UTF-8 Validation</t>
-  </si>
-  <si>
-    <t>Missing Ranges</t>
-  </si>
-  <si>
-    <t>Android Unlock Patterns</t>
-  </si>
-  <si>
-    <t>Encode and Decode Strings</t>
-  </si>
-  <si>
-    <t>Game of Life</t>
-  </si>
-  <si>
-    <t>Unique Word Abbreviation</t>
-  </si>
-  <si>
-    <t>Number of Islands</t>
-  </si>
-  <si>
-    <t>Wiggle Sort</t>
-  </si>
-  <si>
-    <t>Add Bold Tag in String</t>
-  </si>
-  <si>
-    <t>3Sum Smaller</t>
-  </si>
-  <si>
-    <t>Evaluate Division</t>
-  </si>
-  <si>
-    <t>Pacific Atlantic Water Flow</t>
-  </si>
-  <si>
-    <t>Queue Reconstruction by Height</t>
-  </si>
-  <si>
-    <t>Perfect Squares</t>
-  </si>
-  <si>
-    <t>Merge Intervals</t>
-  </si>
-  <si>
-    <t>Peeking Iterator</t>
-  </si>
-  <si>
-    <t>Strobogrammatic Number II</t>
-  </si>
-  <si>
-    <t>Longest Word in Dictionary through Deleting</t>
-  </si>
-  <si>
-    <t>Summary Ranges</t>
-  </si>
-  <si>
-    <t>Walls and Gates</t>
-  </si>
-  <si>
-    <t>Design Hit Counter</t>
-  </si>
-  <si>
-    <t>Flip Game II</t>
-  </si>
-  <si>
-    <t>Insert Delete GetRandom O(1)</t>
-  </si>
-  <si>
-    <t>Group Shifted Strings</t>
-  </si>
-  <si>
-    <t>Generalized Abbreviation</t>
-  </si>
-  <si>
-    <t>The Maze II</t>
-  </si>
-  <si>
-    <t>Flatten Nested List Iterator</t>
-  </si>
-  <si>
-    <t>Sort Transformed Array</t>
-  </si>
-  <si>
-    <t>H-Index</t>
-  </si>
-  <si>
-    <t>Meeting Rooms II</t>
-  </si>
-  <si>
-    <t>Word Break</t>
-  </si>
-  <si>
-    <t>Kth Smallest Element in a BST</t>
-  </si>
-  <si>
-    <t>Find Peak Element</t>
-  </si>
-  <si>
-    <t>Diagonal Traverse</t>
-  </si>
-  <si>
-    <t>The Maze</t>
-  </si>
-  <si>
-    <t>Maximum Product of Word Lengths</t>
-  </si>
-  <si>
-    <t>Search a 2D Matrix II</t>
-  </si>
-  <si>
-    <t>Find K Pairs with Smallest Sums</t>
-  </si>
-  <si>
-    <t>Plus One Linked List</t>
-  </si>
-  <si>
-    <t>Flatten 2D Vector</t>
-  </si>
-  <si>
-    <t>Reconstruct Itinerary</t>
-  </si>
-  <si>
-    <t>Binary Search Tree Iterator</t>
-  </si>
-  <si>
-    <t>Spiral Matrix</t>
-  </si>
-  <si>
-    <t>Wiggle Sort II</t>
-  </si>
-  <si>
-    <t>Letter Combinations of a Phone Number</t>
-  </si>
-  <si>
-    <t>Find Permutation</t>
-  </si>
-  <si>
-    <t>Longest Line of Consecutive One in Matrix</t>
-  </si>
-  <si>
-    <t>Fraction to Recurring Decimal</t>
-  </si>
-  <si>
-    <t>Generate Parentheses</t>
-  </si>
-  <si>
-    <t>Next Permutation</t>
-  </si>
-  <si>
-    <t>Implement Magic Dictionary</t>
-  </si>
-  <si>
-    <t>Maximum XOR of Two Numbers in an Array</t>
-  </si>
-  <si>
-    <t>Next Greater Element II</t>
-  </si>
-  <si>
-    <t>Redundant Connection</t>
-  </si>
-  <si>
-    <t>Clone Graph</t>
-  </si>
-  <si>
-    <t>Pow(x, n)</t>
-  </si>
-  <si>
-    <t>Implement Trie (Prefix Tree)</t>
-  </si>
-  <si>
-    <t>Design Tic-Tac-Toe</t>
-  </si>
-  <si>
-    <t>Find Duplicate Subtrees</t>
-  </si>
-  <si>
-    <t>Sequence Reconstruction</t>
-  </si>
-  <si>
-    <t>Best Time to Buy and Sell Stock with Cooldown</t>
-  </si>
-  <si>
-    <t>Linked List Random Node</t>
-  </si>
-  <si>
-    <t>Remove K Digits</t>
-  </si>
-  <si>
-    <t>Range Addition</t>
-  </si>
-  <si>
-    <t>Combination Sum IV</t>
-  </si>
-  <si>
-    <t>Design Phone Directory</t>
-  </si>
-  <si>
-    <t>Design Snake Game</t>
-  </si>
-  <si>
-    <t>Guess Number Higher or Lower II</t>
-  </si>
-  <si>
-    <t>Line Reflection</t>
-  </si>
-  <si>
-    <t>Graph Valid Tree</t>
-  </si>
-  <si>
-    <t>Predict the Winner</t>
-  </si>
-  <si>
-    <t>01 Matrix</t>
-  </si>
-  <si>
-    <t>Integer Replacement</t>
-  </si>
-  <si>
-    <t>Largest Divisible Subset</t>
-  </si>
-  <si>
-    <t>Kth Smallest Element in a Sorted Matrix</t>
-  </si>
-  <si>
-    <t>Super Ugly Number</t>
-  </si>
-  <si>
-    <t>Verify Preorder Serialization of a Binary Tree</t>
-  </si>
-  <si>
-    <t>Number of Connected Components in an Undirected Graph</t>
-  </si>
-  <si>
-    <t>Sort Characters By Frequency</t>
-  </si>
-  <si>
-    <t>Minimum Height Trees</t>
-  </si>
-  <si>
-    <t>My Calendar I</t>
-  </si>
-  <si>
-    <t>Convex Polygon</t>
-  </si>
-  <si>
-    <t>Ones and Zeroes</t>
-  </si>
-  <si>
-    <t>Magical String</t>
-  </si>
-  <si>
-    <t>Binary Tree Vertical Order Traversal</t>
-  </si>
-  <si>
-    <t>Count Numbers with Unique Digits</t>
-  </si>
-  <si>
-    <t>Max Consecutive Ones II</t>
-  </si>
-  <si>
-    <t>Target Sum</t>
-  </si>
-  <si>
-    <t>Longest Uncommon Subsequence II</t>
-  </si>
-  <si>
-    <t>Beautiful Arrangement</t>
-  </si>
-  <si>
-    <t>Lonely Pixel I</t>
-  </si>
-  <si>
-    <t>Lonely Pixel II</t>
-  </si>
-  <si>
-    <t>Encode and Decode TinyURL</t>
-  </si>
-  <si>
-    <t>Output Contest Matches</t>
-  </si>
-  <si>
-    <t>Boundary of Binary Tree</t>
-  </si>
-  <si>
-    <t>Binary Tree Longest Consecutive Sequence II</t>
-  </si>
-  <si>
-    <t>Subarray Sum Equals K</t>
-  </si>
-  <si>
-    <t>Delete Operation for Two Strings</t>
-  </si>
-  <si>
-    <t>Shopping Offers</t>
-  </si>
-  <si>
-    <t>4 Keys Keyboard</t>
-  </si>
-  <si>
-    <t>Find K Closest Elements</t>
-  </si>
-  <si>
-    <t>Split Array into Consecutive Subsequences</t>
-  </si>
-  <si>
-    <t>Beautiful Arrangement II</t>
-  </si>
-  <si>
-    <t>My Calendar II</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -719,13 +726,13 @@
       <sz val="22"/>
       <color rgb="FF24292E"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF24292E"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -743,143 +750,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -912,180 +795,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1117,253 +832,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1377,70 +859,30 @@
     <xf numFmtId="10" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="31" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="7" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="3" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="4">
+    <cellStyle name="差" xfId="1" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="好" xfId="2" builtinId="26"/>
+    <cellStyle name="适中" xfId="3" builtinId="28"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1698,32 +1140,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E221"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="B135" sqref="B135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.8796296296296" customWidth="1"/>
+    <col min="1" max="1" width="39.875" customWidth="1"/>
     <col min="2" max="2" width="41.75" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
-    <col min="4" max="4" width="29.6296296296296" customWidth="1"/>
+    <col min="4" max="4" width="29.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33.15" spans="1:1">
+    <row r="1" spans="1:5" ht="33" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="19.95" spans="1:4">
+    <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1737,7 +1179,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="19.95" spans="1:5">
+    <row r="3" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>346</v>
       </c>
@@ -1745,14 +1187,14 @@
         <v>5</v>
       </c>
       <c r="C3" s="4">
-        <v>0.595</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" ht="19.95" spans="1:5">
+    <row r="4" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>66</v>
       </c>
@@ -1760,14 +1202,14 @@
         <v>7</v>
       </c>
       <c r="C4" s="4">
-        <v>0.391</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" ht="19.95" spans="1:5">
+    <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>686</v>
       </c>
@@ -1775,14 +1217,14 @@
         <v>8</v>
       </c>
       <c r="C5" s="7">
-        <v>0.329</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" ht="19.95" spans="1:4">
+    <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>246</v>
       </c>
@@ -1796,7 +1238,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" ht="19.95" spans="1:5">
+    <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>345</v>
       </c>
@@ -1804,14 +1246,14 @@
         <v>10</v>
       </c>
       <c r="C7" s="4">
-        <v>0.387</v>
+        <v>0.38700000000000001</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" ht="19.95" spans="1:4">
+    <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>687</v>
       </c>
@@ -1819,13 +1261,13 @@
         <v>11</v>
       </c>
       <c r="C8" s="4">
-        <v>0.333</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" ht="19.95" spans="1:4">
+    <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>276</v>
       </c>
@@ -1833,13 +1275,13 @@
         <v>12</v>
       </c>
       <c r="C9" s="4">
-        <v>0.347</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" ht="19.95" spans="1:4">
+    <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>401</v>
       </c>
@@ -1847,13 +1289,13 @@
         <v>13</v>
       </c>
       <c r="C10" s="7">
-        <v>0.449</v>
+        <v>0.44900000000000001</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" ht="19.95" spans="1:4">
+    <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>463</v>
       </c>
@@ -1861,13 +1303,13 @@
         <v>14</v>
       </c>
       <c r="C11" s="4">
-        <v>0.575</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" ht="19.95" spans="1:4">
+    <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>266</v>
       </c>
@@ -1875,13 +1317,13 @@
         <v>15</v>
       </c>
       <c r="C12" s="7">
-        <v>0.575</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" ht="19.95" spans="1:5">
+    <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>389</v>
       </c>
@@ -1896,7 +1338,7 @@
       </c>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" ht="19.95" spans="1:4">
+    <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>20</v>
       </c>
@@ -1904,13 +1346,13 @@
         <v>17</v>
       </c>
       <c r="C14" s="4">
-        <v>0.337</v>
+        <v>0.33700000000000002</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" ht="19.95" spans="1:4">
+    <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>293</v>
       </c>
@@ -1918,13 +1360,13 @@
         <v>18</v>
       </c>
       <c r="C15" s="4">
-        <v>0.565</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" ht="19.95" spans="1:4">
+    <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>415</v>
       </c>
@@ -1932,13 +1374,13 @@
         <v>19</v>
       </c>
       <c r="C16" s="4">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" ht="19.95" spans="1:4">
+    <row r="17" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>359</v>
       </c>
@@ -1946,13 +1388,13 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>0.601</v>
+        <v>0.60099999999999998</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" ht="19.95" spans="1:4">
+    <row r="18" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>270</v>
       </c>
@@ -1960,13 +1402,13 @@
         <v>21</v>
       </c>
       <c r="C18" s="4">
-        <v>0.401</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" ht="19.95" spans="1:4">
+    <row r="19" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>400</v>
       </c>
@@ -1974,13 +1416,13 @@
         <v>22</v>
       </c>
       <c r="C19" s="7">
-        <v>0.301</v>
+        <v>0.30099999999999999</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" ht="19.95" spans="1:4">
+    <row r="20" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>422</v>
       </c>
@@ -1988,13 +1430,13 @@
         <v>23</v>
       </c>
       <c r="C20" s="4">
-        <v>0.364</v>
+        <v>0.36399999999999999</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" ht="19.95" spans="1:4">
+    <row r="21" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>155</v>
       </c>
@@ -2002,13 +1444,13 @@
         <v>24</v>
       </c>
       <c r="C21" s="4">
-        <v>0.297</v>
+        <v>0.29699999999999999</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" ht="19.95" spans="1:4">
+    <row r="22" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>409</v>
       </c>
@@ -2016,13 +1458,13 @@
         <v>25</v>
       </c>
       <c r="C22" s="4">
-        <v>0.455</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" ht="19.95" spans="1:4">
+    <row r="23" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>543</v>
       </c>
@@ -2030,13 +1472,13 @@
         <v>26</v>
       </c>
       <c r="C23" s="7">
-        <v>0.447</v>
+        <v>0.44700000000000001</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" ht="19.95" spans="1:4">
+    <row r="24" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>231</v>
       </c>
@@ -2044,13 +1486,13 @@
         <v>27</v>
       </c>
       <c r="C24" s="7">
-        <v>0.404</v>
+        <v>0.40400000000000003</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" ht="19.95" spans="1:4">
+    <row r="25" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>501</v>
       </c>
@@ -2064,7 +1506,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" ht="19.95" spans="1:4">
+    <row r="26" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>475</v>
       </c>
@@ -2072,13 +1514,13 @@
         <v>29</v>
       </c>
       <c r="C26" s="4">
-        <v>0.296</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="27" ht="19.95" spans="1:4">
+    <row r="27" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>551</v>
       </c>
@@ -2092,7 +1534,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" ht="19.95" spans="1:4">
+    <row r="28" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>459</v>
       </c>
@@ -2100,13 +1542,13 @@
         <v>31</v>
       </c>
       <c r="C28" s="7">
-        <v>0.382</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="29" ht="19.95" spans="1:4">
+    <row r="29" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>408</v>
       </c>
@@ -2114,13 +1556,13 @@
         <v>32</v>
       </c>
       <c r="C29" s="4">
-        <v>0.282</v>
+        <v>0.28199999999999997</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="30" ht="19.95" spans="1:4">
+    <row r="30" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>530</v>
       </c>
@@ -2128,13 +1570,13 @@
         <v>33</v>
       </c>
       <c r="C30" s="7">
-        <v>0.471</v>
+        <v>0.47099999999999997</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="31" ht="19.95" spans="1:4">
+    <row r="31" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>374</v>
       </c>
@@ -2142,13 +1584,13 @@
         <v>34</v>
       </c>
       <c r="C31" s="4">
-        <v>0.359</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="32" ht="19.95" spans="1:4">
+    <row r="32" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>448</v>
       </c>
@@ -2156,13 +1598,13 @@
         <v>35</v>
       </c>
       <c r="C32" s="7">
-        <v>0.512</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="33" ht="19.95" spans="1:4">
+    <row r="33" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>326</v>
       </c>
@@ -2170,13 +1612,13 @@
         <v>36</v>
       </c>
       <c r="C33" s="7">
-        <v>0.404</v>
+        <v>0.40400000000000003</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="34" ht="19.95" spans="1:4">
+    <row r="34" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>257</v>
       </c>
@@ -2184,32 +1626,33 @@
         <v>37</v>
       </c>
       <c r="C34" s="4">
-        <v>0.397</v>
+        <v>0.39700000000000002</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="35" ht="19.95" spans="1:4">
+    <row r="35" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>520</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>38</v>
+        <v>220</v>
       </c>
       <c r="C35" s="7">
-        <v>0.519</v>
+        <v>0.51900000000000002</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="36" ht="19.95" spans="1:4">
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>485</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C36" s="4">
         <v>0.54</v>
@@ -2218,54 +1661,54 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" ht="19.95" spans="1:4">
+    <row r="37" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>506</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="7">
-        <v>0.466</v>
+        <v>0.46600000000000003</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="38" ht="19.95" spans="1:4">
+    <row r="38" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>447</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C38" s="7">
-        <v>0.457</v>
+        <v>0.45700000000000002</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="39" ht="19.95" spans="1:4">
+    <row r="39" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>521</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C39" s="4">
-        <v>0.559</v>
+        <v>0.55900000000000005</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="40" ht="19.95" spans="1:4">
+    <row r="40" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>541</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C40" s="4">
         <v>0.437</v>
@@ -2274,40 +1717,40 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" ht="19.95" spans="1:4">
+    <row r="41" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>581</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C41" s="4">
-        <v>0.293</v>
+        <v>0.29299999999999998</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="42" ht="19.95" spans="1:4">
+    <row r="42" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>604</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C42" s="4">
-        <v>0.325</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="43" ht="19.95" spans="1:4">
+    <row r="43" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>643</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C43" s="4">
         <v>0.378</v>
@@ -2316,2504 +1759,2505 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" ht="19.95" spans="1:4">
+    <row r="44" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>657</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C44" s="4">
-        <v>0.686</v>
+        <v>0.68600000000000005</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="45" ht="19.95" spans="1:4">
+    <row r="45" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
         <v>665</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C45" s="7">
-        <v>0.211</v>
+        <v>0.21099999999999999</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="46" ht="19.95" spans="1:4">
+    <row r="46" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
         <v>683</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>49</v>
+        <v>221</v>
       </c>
       <c r="C46" s="7">
-        <v>0.366</v>
+        <v>0.36599999999999999</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="47" ht="39.15" spans="1:4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="34.5" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
         <v>340</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>51</v>
+        <v>222</v>
       </c>
       <c r="C47" s="7">
-        <v>0.392</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" ht="19.95" spans="1:4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
         <v>308</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>52</v>
+        <v>225</v>
       </c>
       <c r="C48" s="7">
-        <v>0.241</v>
+        <v>0.24099999999999999</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" ht="19.95" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="E48" s="9"/>
+    </row>
+    <row r="49" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>425</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>53</v>
+        <v>226</v>
       </c>
       <c r="C49" s="4">
         <v>0.435</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="50" ht="19.95" spans="1:4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>568</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C50" s="4">
-        <v>0.391</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" ht="19.95" spans="1:4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
         <v>317</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C51" s="7">
-        <v>0.344</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" ht="19.95" spans="1:4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
         <v>305</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C52" s="7">
-        <v>0.393</v>
+        <v>0.39300000000000002</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" ht="19.95" spans="1:4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>218</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C53" s="4">
-        <v>0.282</v>
+        <v>0.28199999999999997</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="54" ht="39.15" spans="1:4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="34.5" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>159</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C54" s="4">
-        <v>0.419</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="55" ht="19.95" spans="1:4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>329</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C55" s="4">
-        <v>0.369</v>
+        <v>0.36899999999999999</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="56" ht="19.95" spans="1:4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>471</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C56" s="4">
-        <v>0.428</v>
+        <v>0.42799999999999999</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="57" ht="19.95" spans="1:4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>391</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C57" s="4">
-        <v>0.271</v>
+        <v>0.27100000000000002</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="58" ht="19.95" spans="1:4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
         <v>407</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C58" s="7">
         <v>0.376</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="59" ht="19.95" spans="1:4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>297</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C59" s="4">
         <v>0.34</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="60" ht="19.95" spans="1:4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>146</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C60" s="4">
         <v>0.187</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="61" ht="19.95" spans="1:4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>295</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C61" s="4">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="62" ht="19.95" spans="1:4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
         <v>42</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C62" s="7">
         <v>0.372</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="63" ht="19.95" spans="1:4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>315</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C63" s="4">
-        <v>0.348</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="64" ht="19.95" spans="1:4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>411</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C64" s="4">
-        <v>0.333</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="65" ht="19.95" spans="1:4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A65" s="6">
         <v>269</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C65" s="7">
         <v>0.252</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="66" ht="19.95" spans="1:4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>239</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C66" s="4">
-        <v>0.336</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="67" ht="19.95" spans="1:4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>465</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C67" s="4">
         <v>0.378</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="68" ht="19.95" spans="1:4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A68" s="6">
         <v>128</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C68" s="7">
         <v>0.375</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="69" ht="39.15" spans="1:4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="34.5" x14ac:dyDescent="0.2">
       <c r="A69" s="6">
         <v>158</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C69" s="7">
         <v>0.245</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="70" ht="19.95" spans="1:4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A70" s="6">
         <v>23</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C70" s="7">
-        <v>0.277</v>
+        <v>0.27700000000000002</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="71" ht="19.95" spans="1:4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>10</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C71" s="4">
-        <v>0.243</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="72" ht="19.95" spans="1:4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A72" s="6">
         <v>212</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C72" s="7">
         <v>0.24</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="73" ht="19.95" spans="1:4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>4</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C73" s="4">
         <v>0.223</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="74" ht="19.95" spans="1:4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A74" s="6">
         <v>358</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C74" s="7">
         <v>0.317</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="75" ht="19.95" spans="1:4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A75" s="6">
         <v>587</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C75" s="7">
-        <v>0.326</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="76" ht="19.95" spans="1:4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>679</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C76" s="4">
-        <v>0.389</v>
+        <v>0.38900000000000001</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="77" ht="19.95" spans="1:4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A77" s="6">
         <v>140</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C77" s="7">
-        <v>0.239</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="78" ht="19.95" spans="1:4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A78" s="6">
         <v>224</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C78" s="7">
-        <v>0.278</v>
+        <v>0.27800000000000002</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="79" ht="19.95" spans="1:4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>327</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C79" s="4">
-        <v>0.301</v>
+        <v>0.30099999999999999</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="80" ht="19.95" spans="1:4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>57</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C80" s="4">
-        <v>0.283</v>
+        <v>0.28299999999999997</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="81" ht="19.95" spans="1:4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>336</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C81" s="4">
-        <v>0.266</v>
+        <v>0.26600000000000001</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="82" ht="19.95" spans="1:4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A82" s="6">
         <v>44</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C82" s="7">
-        <v>0.206</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="83" ht="19.95" spans="1:4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>460</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C83" s="4">
-        <v>0.244</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="84" ht="19.95" spans="1:4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A84" s="6">
         <v>363</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C84" s="7">
-        <v>0.334</v>
+        <v>0.33400000000000002</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="85" ht="19.95" spans="1:4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>354</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C85" s="4">
-        <v>0.323</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="86" ht="19.95" spans="1:4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A86" s="6">
         <v>272</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C86" s="7">
-        <v>0.394</v>
+        <v>0.39400000000000002</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="87" ht="19.95" spans="1:4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A87" s="6">
         <v>214</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C87" s="7">
         <v>0.247</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="88" ht="19.95" spans="1:4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>282</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C88" s="4">
-        <v>0.302</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="89" ht="19.95" spans="1:4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A89" s="6">
         <v>302</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C89" s="7">
-        <v>0.459</v>
+        <v>0.45900000000000002</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="90" ht="19.95" spans="1:4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A90" s="6">
         <v>321</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C90" s="7">
         <v>0.248</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="91" ht="19.95" spans="1:4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A91" s="6">
         <v>480</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C91" s="7">
         <v>0.311</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="92" ht="19.95" spans="1:4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A92" s="6">
         <v>483</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C92" s="7">
-        <v>0.334</v>
+        <v>0.33400000000000002</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="93" ht="19.95" spans="1:4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A93" s="6">
         <v>312</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C93" s="7">
         <v>0.432</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="94" ht="19.95" spans="1:4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A94" s="6">
         <v>493</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C94" s="7">
-        <v>0.206</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="95" ht="19.95" spans="1:4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>514</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C95" s="4">
-        <v>0.391</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="96" ht="19.95" spans="1:4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A96" s="6">
         <v>527</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C96" s="7">
-        <v>0.419</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="97" ht="19.95" spans="1:4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>316</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C97" s="4">
-        <v>0.299</v>
+        <v>0.29899999999999999</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="98" ht="19.95" spans="1:4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A98" s="6">
         <v>330</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C98" s="7">
-        <v>0.323</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="99" ht="19.95" spans="1:4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A99" s="6">
         <v>552</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C99" s="7">
         <v>0.313</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="100" ht="19.95" spans="1:4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A100" s="6">
         <v>569</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C100" s="7">
-        <v>0.342</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="101" ht="19.95" spans="1:4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A101" s="6">
         <v>644</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C101" s="7">
         <v>0.23</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="102" ht="19.95" spans="1:4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A102" s="6">
         <v>656</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C102" s="7">
         <v>0.251</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="103" ht="39.15" spans="1:4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A103" s="6">
         <v>668</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C103" s="7">
         <v>0.377</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="104" ht="19.95" spans="1:4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
         <v>685</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C104" s="4">
-        <v>0.284</v>
+        <v>0.28399999999999997</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="105" ht="39.15" spans="1:4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="34.5" x14ac:dyDescent="0.2">
       <c r="A105" s="6">
         <v>689</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C105" s="7">
-        <v>0.413</v>
+        <v>0.41299999999999998</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="106" ht="19.95" spans="1:4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
         <v>719</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C106" s="4">
         <v>0.253</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="107" ht="19.95" spans="1:4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A107" s="6">
         <v>726</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C107" s="7">
-        <v>0.457</v>
+        <v>0.45700000000000002</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="108" ht="19.95" spans="1:4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
         <v>727</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C108" s="4">
-        <v>0.291</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="109" ht="19.95" spans="1:4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A109" s="6">
         <v>534</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C109" s="7">
         <v>0</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="110" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
         <v>388</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C110" s="4">
         <v>0.371</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="111" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
         <v>681</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C111" s="4">
-        <v>0.429</v>
+        <v>0.42899999999999999</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="112" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
         <v>482</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C112" s="4">
-        <v>0.418</v>
+        <v>0.41799999999999998</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="113" ht="39.15" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A113" s="6">
         <v>298</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C113" s="7">
-        <v>0.414</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="114" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
         <v>418</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C114" s="4">
-        <v>0.278</v>
+        <v>0.27800000000000002</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="115" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A115" s="6">
         <v>281</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C115" s="7">
-        <v>0.514</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="116" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A116" s="6">
         <v>361</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C116" s="7">
-        <v>0.394</v>
+        <v>0.39400000000000002</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="117" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
         <v>394</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C117" s="4">
-        <v>0.417</v>
+        <v>0.41699999999999998</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="118" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A118" s="6">
         <v>393</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C118" s="7">
-        <v>0.347</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="119" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A119" s="6">
         <v>163</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C119" s="7">
-        <v>0.238</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="120" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
         <v>351</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C120" s="4">
         <v>0.443</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="121" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
         <v>271</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C121" s="4">
-        <v>0.262</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="122" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A122" s="6">
         <v>289</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C122" s="7">
         <v>0.371</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="123" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
         <v>288</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C123" s="4">
-        <v>0.173</v>
+        <v>0.17299999999999999</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="124" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
         <v>200</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C124" s="4">
-        <v>0.356</v>
+        <v>0.35599999999999998</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="125" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A125" s="6">
         <v>280</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C125" s="7">
-        <v>0.579</v>
+        <v>0.57899999999999996</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="126" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
         <v>616</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C126" s="4">
-        <v>0.387</v>
+        <v>0.38700000000000001</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="127" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A127" s="6">
         <v>259</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C127" s="7">
-        <v>0.417</v>
+        <v>0.41699999999999998</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="128" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A128" s="6">
         <v>399</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C128" s="7">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="129" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A129" s="6">
         <v>417</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C129" s="7">
-        <v>0.341</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="130" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
         <v>406</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C130" s="4">
-        <v>0.562</v>
+        <v>0.56200000000000006</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="131" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A131" s="6">
         <v>279</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C131" s="7">
         <v>0.375</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="132" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A132" s="6">
         <v>56</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C132" s="7">
         <v>0.31</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="133" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A133" s="6">
         <v>284</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C133" s="7">
-        <v>0.355</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="134" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
         <v>247</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C134" s="4">
-        <v>0.405</v>
+        <v>0.40500000000000003</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="135" ht="39.15" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A135" s="6">
         <v>524</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C135" s="7">
         <v>0.433</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="136" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A136" s="6">
         <v>228</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C136" s="7">
         <v>0.308</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="137" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A137" s="3">
         <v>286</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C137" s="4">
-        <v>0.448</v>
+        <v>0.44800000000000001</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="138" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A138" s="6">
         <v>362</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C138" s="7">
-        <v>0.544</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="139" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A139" s="6">
         <v>294</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C139" s="7">
-        <v>0.466</v>
+        <v>0.46600000000000003</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="140" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A140" s="6">
         <v>380</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C140" s="7">
-        <v>0.394</v>
+        <v>0.39400000000000002</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="141" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A141" s="6">
         <v>249</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C141" s="7">
-        <v>0.427</v>
+        <v>0.42699999999999999</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="142" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A142" s="3">
         <v>320</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C142" s="4">
-        <v>0.455</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="143" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A143" s="6">
         <v>505</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C143" s="7">
-        <v>0.382</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="144" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A144" s="3">
         <v>341</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C144" s="4">
-        <v>0.422</v>
+        <v>0.42199999999999999</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="145" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A145" s="6">
         <v>360</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C145" s="7">
-        <v>0.445</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="146" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A146" s="6">
         <v>274</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C146" s="7">
-        <v>0.335</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="147" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A147" s="3">
         <v>253</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C147" s="4">
-        <v>0.393</v>
+        <v>0.39300000000000002</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="148" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A148" s="6">
         <v>139</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C148" s="7">
         <v>0.308</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="149" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A149" s="3">
         <v>230</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C149" s="4">
-        <v>0.445</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="150" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A150" s="6">
         <v>162</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C150" s="7">
-        <v>0.381</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="151" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A151" s="3">
         <v>498</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C151" s="4">
-        <v>0.461</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="152" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A152" s="3">
         <v>490</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C152" s="4">
         <v>0.432</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="153" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A153" s="6">
         <v>318</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C153" s="7">
-        <v>0.449</v>
+        <v>0.44900000000000001</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="154" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A154" s="3">
         <v>240</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>159</v>
+        <v>224</v>
       </c>
       <c r="C154" s="4">
-        <v>0.388</v>
+        <v>0.38800000000000001</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="155" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A155" s="6">
         <v>373</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C155" s="7">
         <v>0.309</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="156" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A156" s="6">
         <v>369</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C156" s="7">
-        <v>0.548</v>
+        <v>0.54800000000000004</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="157" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A157" s="6">
         <v>251</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C157" s="7">
-        <v>0.409</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="158" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A158" s="3">
         <v>332</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C158" s="4">
-        <v>0.294</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="159" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A159" s="6">
         <v>173</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C159" s="7">
-        <v>0.424</v>
+        <v>0.42399999999999999</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="160" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A160" s="3">
         <v>54</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C160" s="4">
-        <v>0.266</v>
+        <v>0.26600000000000001</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="161" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A161" s="3">
         <v>324</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C161" s="4">
-        <v>0.262</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="162" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A162" s="6">
         <v>17</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C162" s="7">
-        <v>0.354</v>
+        <v>0.35399999999999998</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="163" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A163" s="3">
         <v>484</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C163" s="4">
-        <v>0.551</v>
+        <v>0.55100000000000005</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="164" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A164" s="6">
         <v>562</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C164" s="7">
-        <v>0.409</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="165" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A165" s="3">
         <v>166</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C165" s="4">
-        <v>0.178</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="166" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A166" s="6">
         <v>22</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C166" s="7">
-        <v>0.463</v>
+        <v>0.46300000000000002</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="167" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A167" s="3">
         <v>31</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C167" s="4">
-        <v>0.288</v>
+        <v>0.28799999999999998</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="168" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A168" s="6">
         <v>676</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C168" s="7">
         <v>0.5</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="169" ht="39.15" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A169" s="6">
         <v>421</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C169" s="7">
-        <v>0.469</v>
+        <v>0.46899999999999997</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="170" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A170" s="6">
         <v>503</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C170" s="7">
-        <v>0.473</v>
+        <v>0.47299999999999998</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="171" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A171" s="6">
         <v>684</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C171" s="7">
-        <v>0.392</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="172" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A172" s="3">
         <v>133</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C172" s="4">
         <v>0.251</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="173" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A173" s="3">
         <v>50</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C173" s="4">
         <v>0.26</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="174" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A174" s="3">
         <v>208</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C174" s="4">
-        <v>0.295</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="175" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A175" s="6">
         <v>348</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C175" s="7">
-        <v>0.458</v>
+        <v>0.45800000000000002</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="176" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A176" s="3">
         <v>652</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C176" s="4">
-        <v>0.358</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="177" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A177" s="6">
         <v>444</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C177" s="7">
-        <v>0.196</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="178" ht="39.15" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="34.5" x14ac:dyDescent="0.2">
       <c r="A178" s="3">
         <v>309</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C178" s="4">
-        <v>0.413</v>
+        <v>0.41299999999999998</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="179" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A179" s="3">
         <v>382</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C179" s="4">
-        <v>0.471</v>
+        <v>0.47099999999999997</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="180" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A180" s="6">
         <v>402</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C180" s="7">
         <v>0.26</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="181" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A181" s="3">
         <v>370</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C181" s="4">
-        <v>0.565</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="182" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A182" s="6">
         <v>377</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C182" s="7">
-        <v>0.424</v>
+        <v>0.42399999999999999</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="183" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A183" s="3">
         <v>379</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C183" s="4">
-        <v>0.341</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="184" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A184" s="6">
         <v>353</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C184" s="7">
-        <v>0.268</v>
+        <v>0.26800000000000002</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="185" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A185" s="3">
         <v>375</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C185" s="4">
-        <v>0.359</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="186" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A186" s="3">
         <v>356</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C186" s="4">
-        <v>0.301</v>
+        <v>0.30099999999999999</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="187" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A187" s="6">
         <v>261</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C187" s="7">
-        <v>0.381</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="188" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A188" s="3">
         <v>486</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C188" s="4">
-        <v>0.451</v>
+        <v>0.45100000000000001</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="189" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A189" s="6">
         <v>542</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C189" s="7">
         <v>0.33</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="190" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A190" s="3">
         <v>397</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C190" s="4">
-        <v>0.302</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="191" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A191" s="6">
         <v>368</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C191" s="7">
-        <v>0.337</v>
+        <v>0.33700000000000002</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="192" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A192" s="3">
         <v>378</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C192" s="4">
-        <v>0.452</v>
+        <v>0.45200000000000001</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="193" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A193" s="3">
         <v>313</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C193" s="4">
         <v>0.38</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="194" ht="39.15" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A194" s="6">
         <v>331</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C194" s="7">
-        <v>0.366</v>
+        <v>0.36599999999999999</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="195" ht="39.15" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="34.5" x14ac:dyDescent="0.2">
       <c r="A195" s="3">
         <v>323</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C195" s="4">
-        <v>0.483</v>
+        <v>0.48299999999999998</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="196" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A196" s="6">
         <v>451</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C196" s="7">
-        <v>0.511</v>
+        <v>0.51100000000000001</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="197" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A197" s="3">
         <v>310</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C197" s="4">
-        <v>0.289</v>
+        <v>0.28899999999999998</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="198" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A198" s="3">
         <v>729</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C198" s="4">
-        <v>0.361</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="199" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A199" s="6">
         <v>469</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C199" s="7">
-        <v>0.334</v>
+        <v>0.33400000000000002</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="200" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A200" s="3">
         <v>474</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C200" s="4">
-        <v>0.391</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="201" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A201" s="3">
         <v>481</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C201" s="4">
-        <v>0.456</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="202" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A202" s="3">
         <v>314</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C202" s="4">
         <v>0.373</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="203" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A203" s="6">
         <v>357</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C203" s="7">
-        <v>0.461</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="204" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A204" s="3">
         <v>487</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C204" s="4">
-        <v>0.456</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="205" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A205" s="3">
         <v>494</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C205" s="4">
         <v>0.436</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="206" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A206" s="6">
         <v>522</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C206" s="7">
         <v>0.318</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="207" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A207" s="3">
         <v>526</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="C207" s="4">
-        <v>0.542</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="208" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A208" s="6">
         <v>531</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C208" s="7">
-        <v>0.556</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="209" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A209" s="3">
         <v>533</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C209" s="4">
-        <v>0.446</v>
+        <v>0.44600000000000001</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="210" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A210" s="6">
         <v>535</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C210" s="7">
-        <v>0.742</v>
+        <v>0.74199999999999999</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="211" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A211" s="3">
         <v>544</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C211" s="4">
-        <v>0.709</v>
+        <v>0.70899999999999996</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="212" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A212" s="6">
         <v>545</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C212" s="7">
-        <v>0.319</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="D212" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="213" ht="39.15" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A213" s="3">
         <v>549</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C213" s="4">
-        <v>0.419</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="214" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A214" s="3">
         <v>560</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C214" s="4">
-        <v>0.404</v>
+        <v>0.40400000000000003</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="215" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A215" s="6">
         <v>583</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C215" s="7">
         <v>0.442</v>
       </c>
       <c r="D215" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="216" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A216" s="6">
         <v>638</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C216" s="7">
         <v>0.434</v>
       </c>
       <c r="D216" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="217" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A217" s="3">
         <v>651</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C217" s="4">
-        <v>0.488</v>
+        <v>0.48799999999999999</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="218" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A218" s="6">
         <v>658</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C218" s="7">
-        <v>0.353</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="219" ht="39.15" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A219" s="3">
         <v>659</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C219" s="4">
-        <v>0.357</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="220" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A220" s="3">
         <v>667</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C220" s="4">
-        <v>0.515</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="221" ht="19.95" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A221" s="6">
         <v>731</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C221" s="7">
         <v>0.316</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A3:D221">
     <sortCondition ref="D10"/>
   </sortState>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/google_ranked.xlsx
+++ b/google_ranked.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\leet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0708762C-0684-4C30-A828-A6D42B4F5D54}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62FA6B10-44C6-40B2-A500-C57F08622FF2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="8505" windowHeight="4380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,18 +58,12 @@
     <t>Longest Univalue Path</t>
   </si>
   <si>
-    <t>Paint Fence</t>
-  </si>
-  <si>
     <t>Binary Watch</t>
   </si>
   <si>
     <t>Island Perimeter</t>
   </si>
   <si>
-    <t>Palindrome Permutation</t>
-  </si>
-  <si>
     <t>Find the Difference</t>
   </si>
   <si>
@@ -97,12 +91,6 @@
     <t>Min Stack</t>
   </si>
   <si>
-    <t>Longest Palindrome</t>
-  </si>
-  <si>
-    <t>Diameter of Binary Tree</t>
-  </si>
-  <si>
     <t>Power of Two</t>
   </si>
   <si>
@@ -115,18 +103,6 @@
     <t>Student Attendance Record I</t>
   </si>
   <si>
-    <t>Repeated Substring Pattern</t>
-  </si>
-  <si>
-    <t>Valid Word Abbreviation</t>
-  </si>
-  <si>
-    <t>Minimum Absolute Difference in BST</t>
-  </si>
-  <si>
-    <t>Guess Number Higher or Lower</t>
-  </si>
-  <si>
     <t>Find All Numbers Disappeared in an Array</t>
   </si>
   <si>
@@ -346,19 +322,10 @@
     <t>Minimum Window Subsequence</t>
   </si>
   <si>
-    <t>Design TinyURL</t>
-  </si>
-  <si>
     <t>Medium</t>
   </si>
   <si>
-    <t>Longest Absolute File Path</t>
-  </si>
-  <si>
     <t>Next Closest Time</t>
-  </si>
-  <si>
-    <t>License Key Formatting</t>
   </si>
   <si>
     <t>Binary Tree Longest Consecutive Sequence</t>
@@ -707,6 +674,50 @@
   </si>
   <si>
     <t>Word Squares</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Palindrome Permutation</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paint Fence</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Longest Palindrome</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diameter of Binary Tree</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Repeated Substring Pattern</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Valid Word Abbreviation</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minimum Absolute Difference in BST</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guess Number Higher or Lower</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Longest Absolute File Path</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Design TinyURL</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>License Key Formatting</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1148,8 +1159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="B135" sqref="B135"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="E211" sqref="E211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1272,7 +1283,7 @@
         <v>276</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>12</v>
+        <v>217</v>
       </c>
       <c r="C9" s="4">
         <v>0.34699999999999998</v>
@@ -1280,13 +1291,14 @@
       <c r="D9" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>401</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="7">
         <v>0.44900000000000001</v>
@@ -1294,13 +1306,14 @@
       <c r="D10" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>463</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="4">
         <v>0.57499999999999996</v>
@@ -1314,7 +1327,7 @@
         <v>266</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>15</v>
+        <v>216</v>
       </c>
       <c r="C12" s="7">
         <v>0.57499999999999996</v>
@@ -1322,13 +1335,14 @@
       <c r="D12" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>389</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13" s="7">
         <v>0.51</v>
@@ -1343,7 +1357,7 @@
         <v>20</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C14" s="4">
         <v>0.33700000000000002</v>
@@ -1351,13 +1365,14 @@
       <c r="D14" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>293</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C15" s="4">
         <v>0.56499999999999995</v>
@@ -1365,13 +1380,14 @@
       <c r="D15" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>415</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C16" s="4">
         <v>0.41499999999999998</v>
@@ -1379,13 +1395,14 @@
       <c r="D16" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>359</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
         <v>0.60099999999999998</v>
@@ -1393,13 +1410,14 @@
       <c r="D17" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>270</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C18" s="4">
         <v>0.40100000000000002</v>
@@ -1408,12 +1426,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>400</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C19" s="7">
         <v>0.30099999999999999</v>
@@ -1421,13 +1439,14 @@
       <c r="D19" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>422</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C20" s="4">
         <v>0.36399999999999999</v>
@@ -1436,12 +1455,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>155</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C21" s="4">
         <v>0.29699999999999999</v>
@@ -1450,12 +1469,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>409</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>25</v>
+        <v>218</v>
       </c>
       <c r="C22" s="4">
         <v>0.45500000000000002</v>
@@ -1463,13 +1482,14 @@
       <c r="D22" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>543</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>26</v>
+        <v>219</v>
       </c>
       <c r="C23" s="7">
         <v>0.44700000000000001</v>
@@ -1478,12 +1498,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>231</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C24" s="7">
         <v>0.40400000000000003</v>
@@ -1492,12 +1512,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>501</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C25" s="7">
         <v>0.377</v>
@@ -1506,12 +1526,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>475</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C26" s="4">
         <v>0.29599999999999999</v>
@@ -1519,13 +1539,14 @@
       <c r="D26" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>551</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C27" s="4">
         <v>0.441</v>
@@ -1533,13 +1554,14 @@
       <c r="D27" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>459</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>31</v>
+        <v>220</v>
       </c>
       <c r="C28" s="7">
         <v>0.38200000000000001</v>
@@ -1547,13 +1569,14 @@
       <c r="D28" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E28" s="9"/>
+    </row>
+    <row r="29" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>408</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>32</v>
+        <v>221</v>
       </c>
       <c r="C29" s="4">
         <v>0.28199999999999997</v>
@@ -1561,13 +1584,14 @@
       <c r="D29" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>530</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>33</v>
+        <v>222</v>
       </c>
       <c r="C30" s="7">
         <v>0.47099999999999997</v>
@@ -1575,13 +1599,14 @@
       <c r="D30" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>374</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>34</v>
+        <v>223</v>
       </c>
       <c r="C31" s="4">
         <v>0.35899999999999999</v>
@@ -1590,12 +1615,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>448</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C32" s="7">
         <v>0.51200000000000001</v>
@@ -1609,7 +1634,7 @@
         <v>326</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C33" s="7">
         <v>0.40400000000000003</v>
@@ -1623,7 +1648,7 @@
         <v>257</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C34" s="4">
         <v>0.39700000000000002</v>
@@ -1637,7 +1662,7 @@
         <v>520</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="C35" s="7">
         <v>0.51900000000000002</v>
@@ -1652,7 +1677,7 @@
         <v>485</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C36" s="4">
         <v>0.54</v>
@@ -1660,13 +1685,14 @@
       <c r="D36" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="E36" s="5"/>
     </row>
     <row r="37" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>506</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C37" s="7">
         <v>0.46600000000000003</v>
@@ -1680,7 +1706,7 @@
         <v>447</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C38" s="7">
         <v>0.45700000000000002</v>
@@ -1694,7 +1720,7 @@
         <v>521</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C39" s="4">
         <v>0.55900000000000005</v>
@@ -1708,7 +1734,7 @@
         <v>541</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C40" s="4">
         <v>0.437</v>
@@ -1722,7 +1748,7 @@
         <v>581</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C41" s="4">
         <v>0.29299999999999998</v>
@@ -1730,13 +1756,14 @@
       <c r="D41" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="E41" s="5"/>
     </row>
     <row r="42" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>604</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C42" s="4">
         <v>0.32500000000000001</v>
@@ -1750,7 +1777,7 @@
         <v>643</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C43" s="4">
         <v>0.378</v>
@@ -1758,13 +1785,14 @@
       <c r="D43" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="E43" s="5"/>
     </row>
     <row r="44" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>657</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C44" s="4">
         <v>0.68600000000000005</v>
@@ -1772,13 +1800,14 @@
       <c r="D44" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="E44" s="5"/>
     </row>
     <row r="45" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
         <v>665</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C45" s="7">
         <v>0.21099999999999999</v>
@@ -1786,19 +1815,20 @@
       <c r="D45" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="E45" s="5"/>
     </row>
     <row r="46" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
         <v>683</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="C46" s="7">
         <v>0.36599999999999999</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="34.5" x14ac:dyDescent="0.2">
@@ -1806,13 +1836,13 @@
         <v>340</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C47" s="7">
         <v>0.39200000000000002</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1820,13 +1850,13 @@
         <v>308</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="C48" s="7">
         <v>0.24099999999999999</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E48" s="9"/>
     </row>
@@ -1835,13 +1865,13 @@
         <v>425</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="C49" s="4">
         <v>0.435</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -1849,13 +1879,13 @@
         <v>568</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C50" s="4">
         <v>0.39100000000000001</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -1863,13 +1893,13 @@
         <v>317</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C51" s="7">
         <v>0.34399999999999997</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -1877,13 +1907,13 @@
         <v>305</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C52" s="7">
         <v>0.39300000000000002</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -1891,13 +1921,13 @@
         <v>218</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C53" s="4">
         <v>0.28199999999999997</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="34.5" x14ac:dyDescent="0.2">
@@ -1905,13 +1935,13 @@
         <v>159</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C54" s="4">
         <v>0.41899999999999998</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -1919,13 +1949,13 @@
         <v>329</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C55" s="4">
         <v>0.36899999999999999</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -1933,13 +1963,13 @@
         <v>471</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C56" s="4">
         <v>0.42799999999999999</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -1947,13 +1977,13 @@
         <v>391</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C57" s="4">
         <v>0.27100000000000002</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -1961,13 +1991,13 @@
         <v>407</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C58" s="7">
         <v>0.376</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -1975,13 +2005,13 @@
         <v>297</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C59" s="4">
         <v>0.34</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -1989,13 +2019,13 @@
         <v>146</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C60" s="4">
         <v>0.187</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -2003,13 +2033,13 @@
         <v>295</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C61" s="4">
         <v>0.28000000000000003</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -2017,13 +2047,13 @@
         <v>42</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C62" s="7">
         <v>0.372</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -2031,13 +2061,13 @@
         <v>315</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C63" s="4">
         <v>0.34799999999999998</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -2045,13 +2075,13 @@
         <v>411</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C64" s="4">
         <v>0.33300000000000002</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -2059,13 +2089,13 @@
         <v>269</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C65" s="7">
         <v>0.252</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -2073,13 +2103,13 @@
         <v>239</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C66" s="4">
         <v>0.33600000000000002</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -2087,13 +2117,13 @@
         <v>465</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C67" s="4">
         <v>0.378</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -2101,13 +2131,13 @@
         <v>128</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C68" s="7">
         <v>0.375</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="34.5" x14ac:dyDescent="0.2">
@@ -2115,13 +2145,13 @@
         <v>158</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C69" s="7">
         <v>0.245</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -2129,13 +2159,13 @@
         <v>23</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C70" s="7">
         <v>0.27700000000000002</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -2143,13 +2173,13 @@
         <v>10</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C71" s="4">
         <v>0.24299999999999999</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -2157,13 +2187,13 @@
         <v>212</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C72" s="7">
         <v>0.24</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -2171,13 +2201,13 @@
         <v>4</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C73" s="4">
         <v>0.223</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -2185,13 +2215,13 @@
         <v>358</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C74" s="7">
         <v>0.317</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -2199,13 +2229,13 @@
         <v>587</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C75" s="7">
         <v>0.32600000000000001</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -2213,13 +2243,13 @@
         <v>679</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C76" s="4">
         <v>0.38900000000000001</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -2227,13 +2257,13 @@
         <v>140</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C77" s="7">
         <v>0.23899999999999999</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -2241,13 +2271,13 @@
         <v>224</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C78" s="7">
         <v>0.27800000000000002</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -2255,13 +2285,13 @@
         <v>327</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C79" s="4">
         <v>0.30099999999999999</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -2269,13 +2299,13 @@
         <v>57</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C80" s="4">
         <v>0.28299999999999997</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -2283,13 +2313,13 @@
         <v>336</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C81" s="4">
         <v>0.26600000000000001</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -2297,13 +2327,13 @@
         <v>44</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C82" s="7">
         <v>0.20599999999999999</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -2311,13 +2341,13 @@
         <v>460</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C83" s="4">
         <v>0.24399999999999999</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -2325,13 +2355,13 @@
         <v>363</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C84" s="7">
         <v>0.33400000000000002</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -2339,13 +2369,13 @@
         <v>354</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C85" s="4">
         <v>0.32300000000000001</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -2353,13 +2383,13 @@
         <v>272</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C86" s="7">
         <v>0.39400000000000002</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -2367,13 +2397,13 @@
         <v>214</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C87" s="7">
         <v>0.247</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -2381,13 +2411,13 @@
         <v>282</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C88" s="4">
         <v>0.30199999999999999</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -2395,13 +2425,13 @@
         <v>302</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C89" s="7">
         <v>0.45900000000000002</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -2409,13 +2439,13 @@
         <v>321</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C90" s="7">
         <v>0.248</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -2423,13 +2453,13 @@
         <v>480</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C91" s="7">
         <v>0.311</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -2437,13 +2467,13 @@
         <v>483</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C92" s="7">
         <v>0.33400000000000002</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -2451,13 +2481,13 @@
         <v>312</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C93" s="7">
         <v>0.432</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -2465,13 +2495,13 @@
         <v>493</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C94" s="7">
         <v>0.20599999999999999</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -2479,13 +2509,13 @@
         <v>514</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C95" s="4">
         <v>0.39100000000000001</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -2493,13 +2523,13 @@
         <v>527</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C96" s="7">
         <v>0.41899999999999998</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -2507,13 +2537,13 @@
         <v>316</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C97" s="4">
         <v>0.29899999999999999</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -2521,13 +2551,13 @@
         <v>330</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C98" s="7">
         <v>0.32300000000000001</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -2535,13 +2565,13 @@
         <v>552</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C99" s="7">
         <v>0.313</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -2549,13 +2579,13 @@
         <v>569</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C100" s="7">
         <v>0.34200000000000003</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -2563,13 +2593,13 @@
         <v>644</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C101" s="7">
         <v>0.23</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -2577,13 +2607,13 @@
         <v>656</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C102" s="7">
         <v>0.251</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -2591,13 +2621,13 @@
         <v>668</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C103" s="7">
         <v>0.377</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -2605,13 +2635,13 @@
         <v>685</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C104" s="4">
         <v>0.28399999999999997</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="34.5" x14ac:dyDescent="0.2">
@@ -2619,13 +2649,13 @@
         <v>689</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C105" s="7">
         <v>0.41299999999999998</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -2633,13 +2663,13 @@
         <v>719</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C106" s="4">
         <v>0.253</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -2647,13 +2677,13 @@
         <v>726</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C107" s="7">
         <v>0.45700000000000002</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -2661,13 +2691,13 @@
         <v>727</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C108" s="4">
         <v>0.29099999999999998</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -2675,13 +2705,13 @@
         <v>534</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>108</v>
+        <v>225</v>
       </c>
       <c r="C109" s="7">
         <v>0</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -2689,13 +2719,13 @@
         <v>388</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>110</v>
+        <v>224</v>
       </c>
       <c r="C110" s="4">
         <v>0.371</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -2703,13 +2733,13 @@
         <v>681</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C111" s="4">
         <v>0.42899999999999999</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -2717,13 +2747,13 @@
         <v>482</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>112</v>
+        <v>226</v>
       </c>
       <c r="C112" s="4">
         <v>0.41799999999999998</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -2731,13 +2761,13 @@
         <v>298</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C113" s="7">
         <v>0.41399999999999998</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -2745,13 +2775,13 @@
         <v>418</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C114" s="4">
         <v>0.27800000000000002</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -2759,13 +2789,13 @@
         <v>281</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C115" s="7">
         <v>0.51400000000000001</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -2773,13 +2803,13 @@
         <v>361</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C116" s="7">
         <v>0.39400000000000002</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -2787,13 +2817,13 @@
         <v>394</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="C117" s="4">
         <v>0.41699999999999998</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -2801,13 +2831,13 @@
         <v>393</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C118" s="7">
         <v>0.34699999999999998</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -2815,13 +2845,13 @@
         <v>163</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C119" s="7">
         <v>0.23799999999999999</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -2829,13 +2859,13 @@
         <v>351</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C120" s="4">
         <v>0.443</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -2843,13 +2873,13 @@
         <v>271</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C121" s="4">
         <v>0.26200000000000001</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -2857,13 +2887,13 @@
         <v>289</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C122" s="7">
         <v>0.371</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -2871,13 +2901,13 @@
         <v>288</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C123" s="4">
         <v>0.17299999999999999</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -2885,13 +2915,13 @@
         <v>200</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C124" s="4">
         <v>0.35599999999999998</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -2899,13 +2929,13 @@
         <v>280</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="C125" s="7">
         <v>0.57899999999999996</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -2913,13 +2943,13 @@
         <v>616</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="C126" s="4">
         <v>0.38700000000000001</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -2927,13 +2957,13 @@
         <v>259</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="C127" s="7">
         <v>0.41699999999999998</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -2941,13 +2971,13 @@
         <v>399</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="C128" s="7">
         <v>0.41499999999999998</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -2955,13 +2985,13 @@
         <v>417</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="C129" s="7">
         <v>0.34100000000000003</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -2969,13 +2999,13 @@
         <v>406</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="C130" s="4">
         <v>0.56200000000000006</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -2983,13 +3013,13 @@
         <v>279</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="C131" s="7">
         <v>0.375</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -2997,13 +3027,13 @@
         <v>56</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C132" s="7">
         <v>0.31</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -3011,13 +3041,13 @@
         <v>284</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C133" s="7">
         <v>0.35499999999999998</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -3025,13 +3055,13 @@
         <v>247</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="C134" s="4">
         <v>0.40500000000000003</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -3039,13 +3069,13 @@
         <v>524</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C135" s="7">
         <v>0.433</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -3053,13 +3083,13 @@
         <v>228</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C136" s="7">
         <v>0.308</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -3067,13 +3097,13 @@
         <v>286</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="C137" s="4">
         <v>0.44800000000000001</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -3081,13 +3111,13 @@
         <v>362</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="C138" s="7">
         <v>0.54400000000000004</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -3095,13 +3125,13 @@
         <v>294</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C139" s="7">
         <v>0.46600000000000003</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -3109,13 +3139,13 @@
         <v>380</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C140" s="7">
         <v>0.39400000000000002</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -3123,13 +3153,13 @@
         <v>249</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C141" s="7">
         <v>0.42699999999999999</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -3137,13 +3167,13 @@
         <v>320</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C142" s="4">
         <v>0.45500000000000002</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -3151,13 +3181,13 @@
         <v>505</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C143" s="7">
         <v>0.38200000000000001</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -3165,13 +3195,13 @@
         <v>341</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="C144" s="4">
         <v>0.42199999999999999</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -3179,13 +3209,13 @@
         <v>360</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="C145" s="7">
         <v>0.44500000000000001</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -3193,13 +3223,13 @@
         <v>274</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C146" s="7">
         <v>0.33500000000000002</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -3207,13 +3237,13 @@
         <v>253</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="C147" s="4">
         <v>0.39300000000000002</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -3221,13 +3251,13 @@
         <v>139</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="C148" s="7">
         <v>0.308</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -3235,13 +3265,13 @@
         <v>230</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C149" s="4">
         <v>0.44500000000000001</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -3249,13 +3279,13 @@
         <v>162</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C150" s="7">
         <v>0.38100000000000001</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -3263,13 +3293,13 @@
         <v>498</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C151" s="4">
         <v>0.46100000000000002</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -3277,13 +3307,13 @@
         <v>490</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C152" s="4">
         <v>0.432</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -3291,13 +3321,13 @@
         <v>318</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C153" s="7">
         <v>0.44900000000000001</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -3305,13 +3335,13 @@
         <v>240</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="C154" s="4">
         <v>0.38800000000000001</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -3319,13 +3349,13 @@
         <v>373</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C155" s="7">
         <v>0.309</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -3333,13 +3363,13 @@
         <v>369</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C156" s="7">
         <v>0.54800000000000004</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -3347,13 +3377,13 @@
         <v>251</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C157" s="7">
         <v>0.40899999999999997</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -3361,13 +3391,13 @@
         <v>332</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C158" s="4">
         <v>0.29399999999999998</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -3375,13 +3405,13 @@
         <v>173</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C159" s="7">
         <v>0.42399999999999999</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -3389,13 +3419,13 @@
         <v>54</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C160" s="4">
         <v>0.26600000000000001</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -3403,13 +3433,13 @@
         <v>324</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="C161" s="4">
         <v>0.26200000000000001</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -3417,13 +3447,13 @@
         <v>17</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="C162" s="7">
         <v>0.35399999999999998</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -3431,13 +3461,13 @@
         <v>484</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="C163" s="4">
         <v>0.55100000000000005</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -3445,13 +3475,13 @@
         <v>562</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="C164" s="7">
         <v>0.40899999999999997</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -3459,13 +3489,13 @@
         <v>166</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="C165" s="4">
         <v>0.17799999999999999</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -3473,13 +3503,13 @@
         <v>22</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C166" s="7">
         <v>0.46300000000000002</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -3487,13 +3517,13 @@
         <v>31</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C167" s="4">
         <v>0.28799999999999998</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -3501,13 +3531,13 @@
         <v>676</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="C168" s="7">
         <v>0.5</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -3515,13 +3545,13 @@
         <v>421</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="C169" s="7">
         <v>0.46899999999999997</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -3529,13 +3559,13 @@
         <v>503</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="C170" s="7">
         <v>0.47299999999999998</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -3543,13 +3573,13 @@
         <v>684</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="C171" s="7">
         <v>0.39200000000000002</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -3557,13 +3587,13 @@
         <v>133</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="C172" s="4">
         <v>0.251</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -3571,13 +3601,13 @@
         <v>50</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C173" s="4">
         <v>0.26</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -3585,13 +3615,13 @@
         <v>208</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="C174" s="4">
         <v>0.29499999999999998</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -3599,13 +3629,13 @@
         <v>348</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="C175" s="7">
         <v>0.45800000000000002</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -3613,13 +3643,13 @@
         <v>652</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="C176" s="4">
         <v>0.35799999999999998</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -3627,13 +3657,13 @@
         <v>444</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="C177" s="7">
         <v>0.19600000000000001</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="34.5" x14ac:dyDescent="0.2">
@@ -3641,13 +3671,13 @@
         <v>309</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="C178" s="4">
         <v>0.41299999999999998</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -3655,13 +3685,13 @@
         <v>382</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="C179" s="4">
         <v>0.47099999999999997</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -3669,13 +3699,13 @@
         <v>402</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="C180" s="7">
         <v>0.26</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -3683,13 +3713,13 @@
         <v>370</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C181" s="4">
         <v>0.56499999999999995</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -3697,13 +3727,13 @@
         <v>377</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="C182" s="7">
         <v>0.42399999999999999</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -3711,13 +3741,13 @@
         <v>379</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="C183" s="4">
         <v>0.34100000000000003</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -3725,13 +3755,13 @@
         <v>353</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="C184" s="7">
         <v>0.26800000000000002</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -3739,13 +3769,13 @@
         <v>375</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="C185" s="4">
         <v>0.35899999999999999</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -3753,13 +3783,13 @@
         <v>356</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="C186" s="4">
         <v>0.30099999999999999</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -3767,13 +3797,13 @@
         <v>261</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="C187" s="7">
         <v>0.38100000000000001</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="188" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -3781,13 +3811,13 @@
         <v>486</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C188" s="4">
         <v>0.45100000000000001</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -3795,13 +3825,13 @@
         <v>542</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="C189" s="7">
         <v>0.33</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -3809,13 +3839,13 @@
         <v>397</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="C190" s="4">
         <v>0.30199999999999999</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -3823,13 +3853,13 @@
         <v>368</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="C191" s="7">
         <v>0.33700000000000002</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -3837,13 +3867,13 @@
         <v>378</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="C192" s="4">
         <v>0.45200000000000001</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -3851,13 +3881,13 @@
         <v>313</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C193" s="4">
         <v>0.38</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -3865,13 +3895,13 @@
         <v>331</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C194" s="7">
         <v>0.36599999999999999</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="34.5" x14ac:dyDescent="0.2">
@@ -3879,13 +3909,13 @@
         <v>323</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="C195" s="4">
         <v>0.48299999999999998</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -3893,13 +3923,13 @@
         <v>451</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C196" s="7">
         <v>0.51100000000000001</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -3907,13 +3937,13 @@
         <v>310</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="C197" s="4">
         <v>0.28899999999999998</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -3921,13 +3951,13 @@
         <v>729</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="C198" s="4">
         <v>0.36099999999999999</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -3935,13 +3965,13 @@
         <v>469</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="C199" s="7">
         <v>0.33400000000000002</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -3949,13 +3979,13 @@
         <v>474</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="C200" s="4">
         <v>0.39100000000000001</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -3963,13 +3993,13 @@
         <v>481</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C201" s="4">
         <v>0.45600000000000002</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -3977,13 +4007,13 @@
         <v>314</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="C202" s="4">
         <v>0.373</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="203" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -3991,13 +4021,13 @@
         <v>357</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="C203" s="7">
         <v>0.46100000000000002</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="204" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -4005,13 +4035,13 @@
         <v>487</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="C204" s="4">
         <v>0.45600000000000002</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -4019,13 +4049,13 @@
         <v>494</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="C205" s="4">
         <v>0.436</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="206" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -4033,13 +4063,13 @@
         <v>522</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="C206" s="7">
         <v>0.318</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -4047,13 +4077,13 @@
         <v>526</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="C207" s="4">
         <v>0.54200000000000004</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -4061,195 +4091,196 @@
         <v>531</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C208" s="7">
         <v>0.55600000000000005</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A209" s="3">
         <v>533</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="C209" s="4">
         <v>0.44600000000000001</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A210" s="6">
         <v>535</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="C210" s="7">
         <v>0.74199999999999999</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A211" s="3">
         <v>544</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="C211" s="4">
         <v>0.70899999999999996</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A212" s="6">
         <v>545</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="C212" s="7">
         <v>0.31900000000000001</v>
       </c>
       <c r="D212" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A213" s="3">
         <v>549</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="C213" s="4">
         <v>0.41899999999999998</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A214" s="3">
         <v>560</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C214" s="4">
         <v>0.40400000000000003</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A215" s="6">
         <v>583</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C215" s="7">
         <v>0.442</v>
       </c>
       <c r="D215" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A216" s="6">
         <v>638</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C216" s="7">
         <v>0.434</v>
       </c>
       <c r="D216" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A217" s="3">
         <v>651</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="C217" s="4">
         <v>0.48799999999999999</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A218" s="6">
         <v>658</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="C218" s="7">
         <v>0.35299999999999998</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="E218" s="9"/>
+    </row>
+    <row r="219" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A219" s="3">
         <v>659</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="C219" s="4">
         <v>0.35699999999999998</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A220" s="3">
         <v>667</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C220" s="4">
         <v>0.51500000000000001</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A221" s="6">
         <v>731</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="C221" s="7">
         <v>0.316</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/google_ranked.xlsx
+++ b/google_ranked.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\leet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62FA6B10-44C6-40B2-A500-C57F08622FF2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF904104-4846-439D-B974-50EF8EEF06F9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="8505" windowHeight="4380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="229">
   <si>
     <t>Google</t>
   </si>
@@ -325,24 +325,6 @@
     <t>Medium</t>
   </si>
   <si>
-    <t>Next Closest Time</t>
-  </si>
-  <si>
-    <t>Binary Tree Longest Consecutive Sequence</t>
-  </si>
-  <si>
-    <t>Sentence Screen Fitting</t>
-  </si>
-  <si>
-    <t>Zigzag Iterator</t>
-  </si>
-  <si>
-    <t>Bomb Enemy</t>
-  </si>
-  <si>
-    <t>Decode String</t>
-  </si>
-  <si>
     <t>UTF-8 Validation</t>
   </si>
   <si>
@@ -418,18 +400,12 @@
     <t>Generalized Abbreviation</t>
   </si>
   <si>
-    <t>The Maze II</t>
-  </si>
-  <si>
     <t>Flatten Nested List Iterator</t>
   </si>
   <si>
     <t>Sort Transformed Array</t>
   </si>
   <si>
-    <t>H-Index</t>
-  </si>
-  <si>
     <t>Meeting Rooms II</t>
   </si>
   <si>
@@ -580,9 +556,6 @@
     <t>Minimum Height Trees</t>
   </si>
   <si>
-    <t>My Calendar I</t>
-  </si>
-  <si>
     <t>Convex Polygon</t>
   </si>
   <si>
@@ -592,21 +565,6 @@
     <t>Magical String</t>
   </si>
   <si>
-    <t>Binary Tree Vertical Order Traversal</t>
-  </si>
-  <si>
-    <t>Count Numbers with Unique Digits</t>
-  </si>
-  <si>
-    <t>Max Consecutive Ones II</t>
-  </si>
-  <si>
-    <t>Target Sum</t>
-  </si>
-  <si>
-    <t>Longest Uncommon Subsequence II</t>
-  </si>
-  <si>
     <t>Lonely Pixel I</t>
   </si>
   <si>
@@ -622,18 +580,9 @@
     <t>Boundary of Binary Tree</t>
   </si>
   <si>
-    <t>Binary Tree Longest Consecutive Sequence II</t>
-  </si>
-  <si>
     <t>Subarray Sum Equals K</t>
   </si>
   <si>
-    <t>Delete Operation for Two Strings</t>
-  </si>
-  <si>
-    <t>Shopping Offers</t>
-  </si>
-  <si>
     <t>4 Keys Keyboard</t>
   </si>
   <si>
@@ -641,9 +590,6 @@
   </si>
   <si>
     <t>Split Array into Consecutive Subsequences</t>
-  </si>
-  <si>
-    <t>Beautiful Arrangement II</t>
   </si>
   <si>
     <t>My Calendar II</t>
@@ -718,6 +664,85 @@
   </si>
   <si>
     <t>License Key Formatting</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Maze II</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>H-Index</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delete Operation for Two Strings</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>My Calendar I</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Next Closest Time</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shopping Offers</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beautiful Arrangement II</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary Tree Vertical Order Traversal</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Count Numbers with Unique Digits</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Max Consecutive Ones II</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/grandyang/p/6376115.html</t>
+  </si>
+  <si>
+    <t>Target Sum</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Longest Uncommon Subsequence II</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary Tree Longest Consecutive Sequence II</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sentence Screen Fitting</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/IAet94C1FCc?feature=oembed</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary Tree Longest Consecutive Sequence</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zigzag Iterator</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bomb Enemy</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decode String</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -725,7 +750,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -768,6 +793,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -844,7 +877,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -855,8 +888,9 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -879,10 +913,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="差" xfId="1" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="4" builtinId="8"/>
     <cellStyle name="好" xfId="2" builtinId="26"/>
     <cellStyle name="适中" xfId="3" builtinId="28"/>
   </cellStyles>
@@ -1157,10 +1193,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E221"/>
+  <dimension ref="A1:F221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="E211" sqref="E211"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1169,6 +1205,7 @@
     <col min="2" max="2" width="41.75" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
     <col min="4" max="4" width="29.625" customWidth="1"/>
+    <col min="6" max="6" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" x14ac:dyDescent="0.2">
@@ -1283,7 +1320,7 @@
         <v>276</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="C9" s="4">
         <v>0.34699999999999998</v>
@@ -1327,7 +1364,7 @@
         <v>266</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="C12" s="7">
         <v>0.57499999999999996</v>
@@ -1474,7 +1511,7 @@
         <v>409</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="C22" s="4">
         <v>0.45500000000000002</v>
@@ -1489,7 +1526,7 @@
         <v>543</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="C23" s="7">
         <v>0.44700000000000001</v>
@@ -1561,7 +1598,7 @@
         <v>459</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="C28" s="7">
         <v>0.38200000000000001</v>
@@ -1576,7 +1613,7 @@
         <v>408</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="C29" s="4">
         <v>0.28199999999999997</v>
@@ -1591,7 +1628,7 @@
         <v>530</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="C30" s="7">
         <v>0.47099999999999997</v>
@@ -1606,7 +1643,7 @@
         <v>374</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="C31" s="4">
         <v>0.35899999999999999</v>
@@ -1662,7 +1699,7 @@
         <v>520</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="C35" s="7">
         <v>0.51900000000000002</v>
@@ -1822,7 +1859,7 @@
         <v>683</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="C46" s="7">
         <v>0.36599999999999999</v>
@@ -1836,7 +1873,7 @@
         <v>340</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="C47" s="7">
         <v>0.39200000000000002</v>
@@ -1850,7 +1887,7 @@
         <v>308</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="C48" s="7">
         <v>0.24099999999999999</v>
@@ -1865,7 +1902,7 @@
         <v>425</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="C49" s="4">
         <v>0.435</v>
@@ -2532,7 +2569,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>316</v>
       </c>
@@ -2546,7 +2583,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A98" s="6">
         <v>330</v>
       </c>
@@ -2560,7 +2597,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A99" s="6">
         <v>552</v>
       </c>
@@ -2574,7 +2611,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A100" s="6">
         <v>569</v>
       </c>
@@ -2588,7 +2625,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A101" s="6">
         <v>644</v>
       </c>
@@ -2602,7 +2639,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A102" s="6">
         <v>656</v>
       </c>
@@ -2616,7 +2653,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A103" s="6">
         <v>668</v>
       </c>
@@ -2630,7 +2667,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
         <v>685</v>
       </c>
@@ -2644,7 +2681,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="34.5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="A105" s="6">
         <v>689</v>
       </c>
@@ -2658,7 +2695,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
         <v>719</v>
       </c>
@@ -2672,7 +2709,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A107" s="6">
         <v>726</v>
       </c>
@@ -2686,7 +2723,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
         <v>727</v>
       </c>
@@ -2700,12 +2737,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A109" s="6">
         <v>534</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="C109" s="7">
         <v>0</v>
@@ -2714,12 +2751,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
         <v>388</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C110" s="4">
         <v>0.371</v>
@@ -2727,13 +2764,14 @@
       <c r="D110" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E110" s="9"/>
+    </row>
+    <row r="111" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
         <v>681</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>101</v>
+        <v>213</v>
       </c>
       <c r="C111" s="4">
         <v>0.42899999999999999</v>
@@ -2741,13 +2779,17 @@
       <c r="D111" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E111" s="5"/>
+      <c r="F111" s="10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
         <v>482</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="C112" s="4">
         <v>0.41799999999999998</v>
@@ -2755,13 +2797,14 @@
       <c r="D112" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E112" s="9"/>
+    </row>
+    <row r="113" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A113" s="6">
         <v>298</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>102</v>
+        <v>225</v>
       </c>
       <c r="C113" s="7">
         <v>0.41399999999999998</v>
@@ -2770,12 +2813,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
         <v>418</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>103</v>
+        <v>223</v>
       </c>
       <c r="C114" s="4">
         <v>0.27800000000000002</v>
@@ -2784,12 +2827,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A115" s="6">
         <v>281</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>104</v>
+        <v>226</v>
       </c>
       <c r="C115" s="7">
         <v>0.51400000000000001</v>
@@ -2797,13 +2840,14 @@
       <c r="D115" s="6" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E115" s="5"/>
+    </row>
+    <row r="116" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A116" s="6">
         <v>361</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>105</v>
+        <v>227</v>
       </c>
       <c r="C116" s="7">
         <v>0.39400000000000002</v>
@@ -2811,13 +2855,14 @@
       <c r="D116" s="6" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E116" s="9"/>
+    </row>
+    <row r="117" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
         <v>394</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>106</v>
+        <v>228</v>
       </c>
       <c r="C117" s="4">
         <v>0.41699999999999998</v>
@@ -2826,12 +2871,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A118" s="6">
         <v>393</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C118" s="7">
         <v>0.34699999999999998</v>
@@ -2839,13 +2884,14 @@
       <c r="D118" s="6" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E118" s="9"/>
+    </row>
+    <row r="119" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A119" s="6">
         <v>163</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C119" s="7">
         <v>0.23799999999999999</v>
@@ -2854,12 +2900,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
         <v>351</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C120" s="4">
         <v>0.443</v>
@@ -2868,12 +2914,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
         <v>271</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C121" s="4">
         <v>0.26200000000000001</v>
@@ -2882,12 +2928,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A122" s="6">
         <v>289</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C122" s="7">
         <v>0.371</v>
@@ -2896,12 +2942,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
         <v>288</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C123" s="4">
         <v>0.17299999999999999</v>
@@ -2910,12 +2956,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
         <v>200</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C124" s="4">
         <v>0.35599999999999998</v>
@@ -2923,13 +2969,14 @@
       <c r="D124" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E124" s="5"/>
+    </row>
+    <row r="125" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A125" s="6">
         <v>280</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C125" s="7">
         <v>0.57899999999999996</v>
@@ -2938,12 +2985,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
         <v>616</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C126" s="4">
         <v>0.38700000000000001</v>
@@ -2952,12 +2999,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A127" s="6">
         <v>259</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C127" s="7">
         <v>0.41699999999999998</v>
@@ -2966,12 +3013,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A128" s="6">
         <v>399</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C128" s="7">
         <v>0.41499999999999998</v>
@@ -2985,7 +3032,7 @@
         <v>417</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C129" s="7">
         <v>0.34100000000000003</v>
@@ -2999,7 +3046,7 @@
         <v>406</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C130" s="4">
         <v>0.56200000000000006</v>
@@ -3013,7 +3060,7 @@
         <v>279</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C131" s="7">
         <v>0.375</v>
@@ -3027,7 +3074,7 @@
         <v>56</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C132" s="7">
         <v>0.31</v>
@@ -3041,7 +3088,7 @@
         <v>284</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C133" s="7">
         <v>0.35499999999999998</v>
@@ -3055,7 +3102,7 @@
         <v>247</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C134" s="4">
         <v>0.40500000000000003</v>
@@ -3069,7 +3116,7 @@
         <v>524</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C135" s="7">
         <v>0.433</v>
@@ -3083,7 +3130,7 @@
         <v>228</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C136" s="7">
         <v>0.308</v>
@@ -3097,7 +3144,7 @@
         <v>286</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C137" s="4">
         <v>0.44800000000000001</v>
@@ -3111,7 +3158,7 @@
         <v>362</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C138" s="7">
         <v>0.54400000000000004</v>
@@ -3125,7 +3172,7 @@
         <v>294</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C139" s="7">
         <v>0.46600000000000003</v>
@@ -3139,7 +3186,7 @@
         <v>380</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C140" s="7">
         <v>0.39400000000000002</v>
@@ -3153,7 +3200,7 @@
         <v>249</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C141" s="7">
         <v>0.42699999999999999</v>
@@ -3167,7 +3214,7 @@
         <v>320</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C142" s="4">
         <v>0.45500000000000002</v>
@@ -3181,7 +3228,7 @@
         <v>505</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>132</v>
+        <v>209</v>
       </c>
       <c r="C143" s="7">
         <v>0.38200000000000001</v>
@@ -3195,7 +3242,7 @@
         <v>341</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C144" s="4">
         <v>0.42199999999999999</v>
@@ -3204,12 +3251,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A145" s="6">
         <v>360</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C145" s="7">
         <v>0.44500000000000001</v>
@@ -3218,12 +3265,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A146" s="6">
         <v>274</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>135</v>
+        <v>210</v>
       </c>
       <c r="C146" s="7">
         <v>0.33500000000000002</v>
@@ -3232,12 +3279,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A147" s="3">
         <v>253</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C147" s="4">
         <v>0.39300000000000002</v>
@@ -3246,12 +3293,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A148" s="6">
         <v>139</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C148" s="7">
         <v>0.308</v>
@@ -3260,12 +3307,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A149" s="3">
         <v>230</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C149" s="4">
         <v>0.44500000000000001</v>
@@ -3274,12 +3321,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A150" s="6">
         <v>162</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C150" s="7">
         <v>0.38100000000000001</v>
@@ -3288,12 +3335,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A151" s="3">
         <v>498</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C151" s="4">
         <v>0.46100000000000002</v>
@@ -3302,12 +3349,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A152" s="3">
         <v>490</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C152" s="4">
         <v>0.432</v>
@@ -3316,12 +3363,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A153" s="6">
         <v>318</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C153" s="7">
         <v>0.44900000000000001</v>
@@ -3330,12 +3377,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A154" s="3">
         <v>240</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="C154" s="4">
         <v>0.38800000000000001</v>
@@ -3344,12 +3391,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A155" s="6">
         <v>373</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C155" s="7">
         <v>0.309</v>
@@ -3358,12 +3405,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A156" s="6">
         <v>369</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C156" s="7">
         <v>0.54800000000000004</v>
@@ -3371,13 +3418,14 @@
       <c r="D156" s="6" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E156" s="9"/>
+    </row>
+    <row r="157" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A157" s="6">
         <v>251</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C157" s="7">
         <v>0.40899999999999997</v>
@@ -3386,12 +3434,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A158" s="3">
         <v>332</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C158" s="4">
         <v>0.29399999999999998</v>
@@ -3400,12 +3448,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A159" s="6">
         <v>173</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C159" s="7">
         <v>0.42399999999999999</v>
@@ -3414,12 +3462,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A160" s="3">
         <v>54</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C160" s="4">
         <v>0.26600000000000001</v>
@@ -3433,7 +3481,7 @@
         <v>324</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C161" s="4">
         <v>0.26200000000000001</v>
@@ -3447,7 +3495,7 @@
         <v>17</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C162" s="7">
         <v>0.35399999999999998</v>
@@ -3461,7 +3509,7 @@
         <v>484</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C163" s="4">
         <v>0.55100000000000005</v>
@@ -3475,7 +3523,7 @@
         <v>562</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C164" s="7">
         <v>0.40899999999999997</v>
@@ -3489,7 +3537,7 @@
         <v>166</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C165" s="4">
         <v>0.17799999999999999</v>
@@ -3503,7 +3551,7 @@
         <v>22</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C166" s="7">
         <v>0.46300000000000002</v>
@@ -3517,7 +3565,7 @@
         <v>31</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C167" s="4">
         <v>0.28799999999999998</v>
@@ -3531,7 +3579,7 @@
         <v>676</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C168" s="7">
         <v>0.5</v>
@@ -3545,7 +3593,7 @@
         <v>421</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C169" s="7">
         <v>0.46899999999999997</v>
@@ -3559,7 +3607,7 @@
         <v>503</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C170" s="7">
         <v>0.47299999999999998</v>
@@ -3573,7 +3621,7 @@
         <v>684</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C171" s="7">
         <v>0.39200000000000002</v>
@@ -3587,7 +3635,7 @@
         <v>133</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C172" s="4">
         <v>0.251</v>
@@ -3601,7 +3649,7 @@
         <v>50</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C173" s="4">
         <v>0.26</v>
@@ -3615,7 +3663,7 @@
         <v>208</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C174" s="4">
         <v>0.29499999999999998</v>
@@ -3629,7 +3677,7 @@
         <v>348</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C175" s="7">
         <v>0.45800000000000002</v>
@@ -3643,7 +3691,7 @@
         <v>652</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C176" s="4">
         <v>0.35799999999999998</v>
@@ -3657,7 +3705,7 @@
         <v>444</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C177" s="7">
         <v>0.19600000000000001</v>
@@ -3671,7 +3719,7 @@
         <v>309</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C178" s="4">
         <v>0.41299999999999998</v>
@@ -3685,7 +3733,7 @@
         <v>382</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C179" s="4">
         <v>0.47099999999999997</v>
@@ -3699,7 +3747,7 @@
         <v>402</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C180" s="7">
         <v>0.26</v>
@@ -3713,7 +3761,7 @@
         <v>370</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C181" s="4">
         <v>0.56499999999999995</v>
@@ -3727,7 +3775,7 @@
         <v>377</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C182" s="7">
         <v>0.42399999999999999</v>
@@ -3741,7 +3789,7 @@
         <v>379</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C183" s="4">
         <v>0.34100000000000003</v>
@@ -3755,7 +3803,7 @@
         <v>353</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C184" s="7">
         <v>0.26800000000000002</v>
@@ -3769,7 +3817,7 @@
         <v>375</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C185" s="4">
         <v>0.35899999999999999</v>
@@ -3783,7 +3831,7 @@
         <v>356</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C186" s="4">
         <v>0.30099999999999999</v>
@@ -3797,7 +3845,7 @@
         <v>261</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C187" s="7">
         <v>0.38100000000000001</v>
@@ -3811,7 +3859,7 @@
         <v>486</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C188" s="4">
         <v>0.45100000000000001</v>
@@ -3825,7 +3873,7 @@
         <v>542</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C189" s="7">
         <v>0.33</v>
@@ -3839,7 +3887,7 @@
         <v>397</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C190" s="4">
         <v>0.30199999999999999</v>
@@ -3853,7 +3901,7 @@
         <v>368</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C191" s="7">
         <v>0.33700000000000002</v>
@@ -3867,7 +3915,7 @@
         <v>378</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C192" s="4">
         <v>0.45200000000000001</v>
@@ -3876,12 +3924,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A193" s="3">
         <v>313</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C193" s="4">
         <v>0.38</v>
@@ -3890,12 +3938,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A194" s="6">
         <v>331</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C194" s="7">
         <v>0.36599999999999999</v>
@@ -3904,12 +3952,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="34.5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="A195" s="3">
         <v>323</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C195" s="4">
         <v>0.48299999999999998</v>
@@ -3918,12 +3966,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A196" s="6">
         <v>451</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C196" s="7">
         <v>0.51100000000000001</v>
@@ -3931,13 +3979,14 @@
       <c r="D196" s="6" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E196" s="5"/>
+    </row>
+    <row r="197" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A197" s="3">
         <v>310</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C197" s="4">
         <v>0.28899999999999998</v>
@@ -3946,12 +3995,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A198" s="3">
         <v>729</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="C198" s="4">
         <v>0.36099999999999999</v>
@@ -3960,12 +4009,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A199" s="6">
         <v>469</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C199" s="7">
         <v>0.33400000000000002</v>
@@ -3974,12 +4023,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A200" s="3">
         <v>474</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C200" s="4">
         <v>0.39100000000000001</v>
@@ -3988,12 +4037,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A201" s="3">
         <v>481</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C201" s="4">
         <v>0.45600000000000002</v>
@@ -4002,12 +4051,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A202" s="3">
         <v>314</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="C202" s="4">
         <v>0.373</v>
@@ -4015,13 +4064,14 @@
       <c r="D202" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E202" s="5"/>
+    </row>
+    <row r="203" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A203" s="6">
         <v>357</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="C203" s="7">
         <v>0.46100000000000002</v>
@@ -4030,12 +4080,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A204" s="3">
         <v>487</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="C204" s="4">
         <v>0.45600000000000002</v>
@@ -4043,13 +4093,17 @@
       <c r="D204" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E204" s="9"/>
+      <c r="F204" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A205" s="3">
         <v>494</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="C205" s="4">
         <v>0.436</v>
@@ -4057,13 +4111,14 @@
       <c r="D205" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E205" s="9"/>
+    </row>
+    <row r="206" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A206" s="6">
         <v>522</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="C206" s="7">
         <v>0.318</v>
@@ -4071,13 +4126,14 @@
       <c r="D206" s="6" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E206" s="9"/>
+    </row>
+    <row r="207" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A207" s="3">
         <v>526</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="C207" s="4">
         <v>0.54200000000000004</v>
@@ -4085,13 +4141,14 @@
       <c r="D207" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E207" s="5"/>
+    </row>
+    <row r="208" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A208" s="6">
         <v>531</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="C208" s="7">
         <v>0.55600000000000005</v>
@@ -4105,7 +4162,7 @@
         <v>533</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="C209" s="4">
         <v>0.44600000000000001</v>
@@ -4119,7 +4176,7 @@
         <v>535</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="C210" s="7">
         <v>0.74199999999999999</v>
@@ -4133,7 +4190,7 @@
         <v>544</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="C211" s="4">
         <v>0.70899999999999996</v>
@@ -4141,13 +4198,14 @@
       <c r="D211" s="3" t="s">
         <v>100</v>
       </c>
+      <c r="E211" s="5"/>
     </row>
     <row r="212" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A212" s="6">
         <v>545</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="C212" s="7">
         <v>0.31900000000000001</v>
@@ -4155,13 +4213,14 @@
       <c r="D212" s="6" t="s">
         <v>100</v>
       </c>
+      <c r="E212" s="9"/>
     </row>
     <row r="213" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A213" s="3">
         <v>549</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="C213" s="4">
         <v>0.41899999999999998</v>
@@ -4175,7 +4234,7 @@
         <v>560</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="C214" s="4">
         <v>0.40400000000000003</v>
@@ -4183,13 +4242,14 @@
       <c r="D214" s="3" t="s">
         <v>100</v>
       </c>
+      <c r="E214" s="9"/>
     </row>
     <row r="215" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A215" s="6">
         <v>583</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="C215" s="7">
         <v>0.442</v>
@@ -4203,7 +4263,7 @@
         <v>638</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="C216" s="7">
         <v>0.434</v>
@@ -4217,7 +4277,7 @@
         <v>651</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="C217" s="4">
         <v>0.48799999999999999</v>
@@ -4225,13 +4285,14 @@
       <c r="D217" s="3" t="s">
         <v>100</v>
       </c>
+      <c r="E217" s="9"/>
     </row>
     <row r="218" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A218" s="6">
         <v>658</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="C218" s="7">
         <v>0.35299999999999998</v>
@@ -4246,7 +4307,7 @@
         <v>659</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="C219" s="4">
         <v>0.35699999999999998</v>
@@ -4260,7 +4321,7 @@
         <v>667</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="C220" s="4">
         <v>0.51500000000000001</v>
@@ -4274,7 +4335,7 @@
         <v>731</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="C221" s="7">
         <v>0.316</v>
@@ -4288,6 +4349,9 @@
     <sortCondition ref="D10"/>
   </sortState>
   <phoneticPr fontId="6" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F111" r:id="rId1" xr:uid="{5057EDAC-1BC6-48BB-A4CD-FD8649B635B6}"/>
+  </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/google_ranked.xlsx
+++ b/google_ranked.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\leet\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF904104-4846-439D-B974-50EF8EEF06F9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8505" windowHeight="4380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22368" windowHeight="9935"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231">
   <si>
     <t>Google</t>
   </si>
@@ -58,12 +52,18 @@
     <t>Longest Univalue Path</t>
   </si>
   <si>
+    <t>Paint Fence</t>
+  </si>
+  <si>
     <t>Binary Watch</t>
   </si>
   <si>
     <t>Island Perimeter</t>
   </si>
   <si>
+    <t>Palindrome Permutation</t>
+  </si>
+  <si>
     <t>Find the Difference</t>
   </si>
   <si>
@@ -91,6 +91,12 @@
     <t>Min Stack</t>
   </si>
   <si>
+    <t>Longest Palindrome</t>
+  </si>
+  <si>
+    <t>Diameter of Binary Tree</t>
+  </si>
+  <si>
     <t>Power of Two</t>
   </si>
   <si>
@@ -103,6 +109,18 @@
     <t>Student Attendance Record I</t>
   </si>
   <si>
+    <t>Repeated Substring Pattern</t>
+  </si>
+  <si>
+    <t>Valid Word Abbreviation</t>
+  </si>
+  <si>
+    <t>Minimum Absolute Difference in BST</t>
+  </si>
+  <si>
+    <t>Guess Number Higher or Lower</t>
+  </si>
+  <si>
     <t>Find All Numbers Disappeared in an Array</t>
   </si>
   <si>
@@ -112,6 +130,9 @@
     <t>Binary Tree Paths</t>
   </si>
   <si>
+    <t>Detect Capital</t>
+  </si>
+  <si>
     <t>Max Consecutive Ones</t>
   </si>
   <si>
@@ -142,9 +163,21 @@
     <t>Non-decreasing Array</t>
   </si>
   <si>
+    <t>K Empty Slots</t>
+  </si>
+  <si>
     <t>Hard</t>
   </si>
   <si>
+    <t>Longest Substring with At Most K Distinct Characters</t>
+  </si>
+  <si>
+    <t>Range Sum Query 2D - Mutable</t>
+  </si>
+  <si>
+    <t>Word Squares</t>
+  </si>
+  <si>
     <t>Maximum Vacation Days</t>
   </si>
   <si>
@@ -322,15 +355,48 @@
     <t>Minimum Window Subsequence</t>
   </si>
   <si>
+    <t>Design TinyURL</t>
+  </si>
+  <si>
     <t>Medium</t>
   </si>
   <si>
+    <t>Longest Absolute File Path</t>
+  </si>
+  <si>
+    <t>Next Closest Time</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/IAet94C1FCc?feature=oembed</t>
+  </si>
+  <si>
+    <t>License Key Formatting</t>
+  </si>
+  <si>
+    <t>Binary Tree Longest Consecutive Sequence</t>
+  </si>
+  <si>
+    <t>Sentence Screen Fitting</t>
+  </si>
+  <si>
+    <t>Zigzag Iterator</t>
+  </si>
+  <si>
+    <t>Bomb Enemy</t>
+  </si>
+  <si>
+    <t>Decode String</t>
+  </si>
+  <si>
     <t>UTF-8 Validation</t>
   </si>
   <si>
     <t>Missing Ranges</t>
   </si>
   <si>
+    <t>https://www.cnblogs.com/grandyang/p/5184890.html</t>
+  </si>
+  <si>
     <t>Android Unlock Patterns</t>
   </si>
   <si>
@@ -382,6 +448,9 @@
     <t>Summary Ranges</t>
   </si>
   <si>
+    <t>http://www.cnblogs.com/grandyang/p/4603555.html</t>
+  </si>
+  <si>
     <t>Walls and Gates</t>
   </si>
   <si>
@@ -400,12 +469,18 @@
     <t>Generalized Abbreviation</t>
   </si>
   <si>
+    <t>The Maze II</t>
+  </si>
+  <si>
     <t>Flatten Nested List Iterator</t>
   </si>
   <si>
     <t>Sort Transformed Array</t>
   </si>
   <si>
+    <t>H-Index</t>
+  </si>
+  <si>
     <t>Meeting Rooms II</t>
   </si>
   <si>
@@ -427,6 +502,9 @@
     <t>Maximum Product of Word Lengths</t>
   </si>
   <si>
+    <t>Search a 2D Matrix II</t>
+  </si>
+  <si>
     <t>Find K Pairs with Smallest Sums</t>
   </si>
   <si>
@@ -556,6 +634,9 @@
     <t>Minimum Height Trees</t>
   </si>
   <si>
+    <t>My Calendar I</t>
+  </si>
+  <si>
     <t>Convex Polygon</t>
   </si>
   <si>
@@ -565,6 +646,27 @@
     <t>Magical String</t>
   </si>
   <si>
+    <t>Binary Tree Vertical Order Traversal</t>
+  </si>
+  <si>
+    <t>Count Numbers with Unique Digits</t>
+  </si>
+  <si>
+    <t>Max Consecutive Ones II</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/grandyang/p/6376115.html</t>
+  </si>
+  <si>
+    <t>Target Sum</t>
+  </si>
+  <si>
+    <t>Longest Uncommon Subsequence II</t>
+  </si>
+  <si>
+    <t>Beautiful Arrangement</t>
+  </si>
+  <si>
     <t>Lonely Pixel I</t>
   </si>
   <si>
@@ -580,9 +682,18 @@
     <t>Boundary of Binary Tree</t>
   </si>
   <si>
+    <t>Binary Tree Longest Consecutive Sequence II</t>
+  </si>
+  <si>
     <t>Subarray Sum Equals K</t>
   </si>
   <si>
+    <t>Delete Operation for Two Strings</t>
+  </si>
+  <si>
+    <t>Shopping Offers</t>
+  </si>
+  <si>
     <t>4 Keys Keyboard</t>
   </si>
   <si>
@@ -592,165 +703,23 @@
     <t>Split Array into Consecutive Subsequences</t>
   </si>
   <si>
+    <t>Beautiful Arrangement II</t>
+  </si>
+  <si>
     <t>My Calendar II</t>
-  </si>
-  <si>
-    <t>Detect Capital</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>K Empty Slots</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Longest Substring with At Most K Distinct Characters</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Beautiful Arrangement</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Search a 2D Matrix II</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Range Sum Query 2D - Mutable</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Word Squares</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Palindrome Permutation</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Paint Fence</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Longest Palindrome</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Diameter of Binary Tree</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Repeated Substring Pattern</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Valid Word Abbreviation</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Minimum Absolute Difference in BST</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Guess Number Higher or Lower</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Longest Absolute File Path</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Design TinyURL</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>License Key Formatting</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>The Maze II</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>H-Index</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Delete Operation for Two Strings</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>My Calendar I</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Next Closest Time</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shopping Offers</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Beautiful Arrangement II</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Binary Tree Vertical Order Traversal</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Count Numbers with Unique Digits</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Max Consecutive Ones II</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.cnblogs.com/grandyang/p/6376115.html</t>
-  </si>
-  <si>
-    <t>Target Sum</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Longest Uncommon Subsequence II</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Binary Tree Longest Consecutive Sequence II</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sentence Screen Fitting</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/IAet94C1FCc?feature=oembed</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Binary Tree Longest Consecutive Sequence</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zigzag Iterator</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bomb Enemy</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Decode String</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -762,13 +731,13 @@
       <sz val="22"/>
       <color rgb="FF24292E"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF24292E"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -792,12 +761,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -805,8 +768,123 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -843,8 +921,176 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -876,19 +1122,249 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -904,32 +1380,72 @@
     <xf numFmtId="10" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="31" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="3" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="7" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="32" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10"/>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="差" xfId="1" builtinId="27"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="4" builtinId="8"/>
-    <cellStyle name="好" xfId="2" builtinId="26"/>
-    <cellStyle name="适中" xfId="3" builtinId="28"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1187,33 +1703,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="B117" sqref="B117"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="39.875" customWidth="1"/>
+    <col min="1" max="1" width="39.8796296296296" customWidth="1"/>
     <col min="2" max="2" width="41.75" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
-    <col min="4" max="4" width="29.625" customWidth="1"/>
-    <col min="6" max="6" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="29.6296296296296" customWidth="1"/>
+    <col min="6" max="6" width="17.3796296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33" x14ac:dyDescent="0.2">
+    <row r="1" ht="33.15" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="2" ht="19.95" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1227,7 +1743,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="3" ht="19.95" spans="1:5">
       <c r="A3" s="3">
         <v>346</v>
       </c>
@@ -1235,14 +1751,14 @@
         <v>5</v>
       </c>
       <c r="C3" s="4">
-        <v>0.59499999999999997</v>
+        <v>0.595</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="4" ht="19.95" spans="1:5">
       <c r="A4" s="3">
         <v>66</v>
       </c>
@@ -1250,14 +1766,14 @@
         <v>7</v>
       </c>
       <c r="C4" s="4">
-        <v>0.39100000000000001</v>
+        <v>0.391</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="5" ht="19.95" spans="1:5">
       <c r="A5" s="6">
         <v>686</v>
       </c>
@@ -1265,14 +1781,14 @@
         <v>8</v>
       </c>
       <c r="C5" s="7">
-        <v>0.32900000000000001</v>
+        <v>0.329</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="6" ht="19.95" spans="1:4">
       <c r="A6" s="6">
         <v>246</v>
       </c>
@@ -1286,7 +1802,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="7" ht="19.95" spans="1:5">
       <c r="A7" s="3">
         <v>345</v>
       </c>
@@ -1294,14 +1810,14 @@
         <v>10</v>
       </c>
       <c r="C7" s="4">
-        <v>0.38700000000000001</v>
+        <v>0.387</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="8" ht="19.95" spans="1:4">
       <c r="A8" s="3">
         <v>687</v>
       </c>
@@ -1309,77 +1825,77 @@
         <v>11</v>
       </c>
       <c r="C8" s="4">
-        <v>0.33300000000000002</v>
+        <v>0.333</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="9" ht="19.95" spans="1:5">
       <c r="A9" s="3">
         <v>276</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>199</v>
+        <v>12</v>
       </c>
       <c r="C9" s="4">
-        <v>0.34699999999999998</v>
+        <v>0.347</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="10" ht="19.95" spans="1:5">
       <c r="A10" s="6">
         <v>401</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" s="7">
-        <v>0.44900000000000001</v>
+        <v>0.449</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="11" ht="19.95" spans="1:4">
       <c r="A11" s="3">
         <v>463</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" s="4">
-        <v>0.57499999999999996</v>
+        <v>0.575</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="12" ht="19.95" spans="1:5">
       <c r="A12" s="6">
         <v>266</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>198</v>
+        <v>15</v>
       </c>
       <c r="C12" s="7">
-        <v>0.57499999999999996</v>
+        <v>0.575</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="13" ht="19.95" spans="1:5">
       <c r="A13" s="6">
         <v>389</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
         <v>0.51</v>
@@ -1389,172 +1905,172 @@
       </c>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="14" ht="19.95" spans="1:5">
       <c r="A14" s="3">
         <v>20</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C14" s="4">
-        <v>0.33700000000000002</v>
+        <v>0.337</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="15" ht="19.95" spans="1:5">
       <c r="A15" s="3">
         <v>293</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C15" s="4">
-        <v>0.56499999999999995</v>
+        <v>0.565</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="16" ht="19.95" spans="1:5">
       <c r="A16" s="3">
         <v>415</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C16" s="4">
-        <v>0.41499999999999998</v>
+        <v>0.415</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="17" ht="19.95" spans="1:5">
       <c r="A17" s="6">
         <v>359</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>0.60099999999999998</v>
+        <v>0.601</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="18" ht="19.95" spans="1:4">
       <c r="A18" s="3">
         <v>270</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C18" s="4">
-        <v>0.40100000000000002</v>
+        <v>0.401</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="19" ht="19.95" spans="1:5">
       <c r="A19" s="6">
         <v>400</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C19" s="7">
-        <v>0.30099999999999999</v>
+        <v>0.301</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="20" ht="19.95" spans="1:4">
       <c r="A20" s="3">
         <v>422</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C20" s="4">
-        <v>0.36399999999999999</v>
+        <v>0.364</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="21" ht="19.95" spans="1:4">
       <c r="A21" s="3">
         <v>155</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C21" s="4">
-        <v>0.29699999999999999</v>
+        <v>0.297</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="22" ht="19.95" spans="1:5">
       <c r="A22" s="3">
         <v>409</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="C22" s="4">
-        <v>0.45500000000000002</v>
+        <v>0.455</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="23" ht="19.95" spans="1:4">
       <c r="A23" s="6">
         <v>543</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>201</v>
+        <v>26</v>
       </c>
       <c r="C23" s="7">
-        <v>0.44700000000000001</v>
+        <v>0.447</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="24" ht="19.95" spans="1:4">
       <c r="A24" s="6">
         <v>231</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C24" s="7">
-        <v>0.40400000000000003</v>
+        <v>0.404</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="25" ht="19.95" spans="1:4">
       <c r="A25" s="6">
         <v>501</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C25" s="7">
         <v>0.377</v>
@@ -1563,27 +2079,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="26" ht="19.95" spans="1:5">
       <c r="A26" s="3">
         <v>475</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C26" s="4">
-        <v>0.29599999999999999</v>
+        <v>0.296</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="27" ht="19.95" spans="1:5">
       <c r="A27" s="3">
         <v>551</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C27" s="4">
         <v>0.441</v>
@@ -1593,128 +2109,128 @@
       </c>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="28" ht="19.95" spans="1:5">
       <c r="A28" s="6">
         <v>459</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>202</v>
+        <v>31</v>
       </c>
       <c r="C28" s="7">
-        <v>0.38200000000000001</v>
+        <v>0.382</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E28" s="9"/>
     </row>
-    <row r="29" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="29" ht="19.95" spans="1:5">
       <c r="A29" s="3">
         <v>408</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>203</v>
+        <v>32</v>
       </c>
       <c r="C29" s="4">
-        <v>0.28199999999999997</v>
+        <v>0.282</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="30" ht="19.95" spans="1:5">
       <c r="A30" s="6">
         <v>530</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>204</v>
+        <v>33</v>
       </c>
       <c r="C30" s="7">
-        <v>0.47099999999999997</v>
+        <v>0.471</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E30" s="5"/>
     </row>
-    <row r="31" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="31" ht="19.95" spans="1:4">
       <c r="A31" s="3">
         <v>374</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>205</v>
+        <v>34</v>
       </c>
       <c r="C31" s="4">
-        <v>0.35899999999999999</v>
+        <v>0.359</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="32" ht="39.15" spans="1:4">
       <c r="A32" s="6">
         <v>448</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C32" s="7">
-        <v>0.51200000000000001</v>
+        <v>0.512</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="33" ht="19.95" spans="1:4">
       <c r="A33" s="6">
         <v>326</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C33" s="7">
-        <v>0.40400000000000003</v>
+        <v>0.404</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="34" ht="19.95" spans="1:4">
       <c r="A34" s="3">
         <v>257</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C34" s="4">
-        <v>0.39700000000000002</v>
+        <v>0.397</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="35" ht="19.95" spans="1:5">
       <c r="A35" s="6">
         <v>520</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>191</v>
+        <v>38</v>
       </c>
       <c r="C35" s="7">
-        <v>0.51900000000000002</v>
+        <v>0.519</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E35" s="5"/>
     </row>
-    <row r="36" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="36" ht="19.95" spans="1:5">
       <c r="A36" s="3">
         <v>485</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C36" s="4">
         <v>0.54</v>
@@ -1724,54 +2240,54 @@
       </c>
       <c r="E36" s="5"/>
     </row>
-    <row r="37" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="37" ht="19.95" spans="1:4">
       <c r="A37" s="6">
         <v>506</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>0.46600000000000003</v>
+        <v>0.466</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="38" ht="19.95" spans="1:4">
       <c r="A38" s="6">
         <v>447</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C38" s="7">
-        <v>0.45700000000000002</v>
+        <v>0.457</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="39" ht="19.95" spans="1:4">
       <c r="A39" s="3">
         <v>521</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C39" s="4">
-        <v>0.55900000000000005</v>
+        <v>0.559</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="40" ht="19.95" spans="1:4">
       <c r="A40" s="3">
         <v>541</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C40" s="4">
         <v>0.437</v>
@@ -1780,41 +2296,41 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="41" ht="19.95" spans="1:5">
       <c r="A41" s="3">
         <v>581</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C41" s="4">
-        <v>0.29299999999999998</v>
+        <v>0.293</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E41" s="5"/>
     </row>
-    <row r="42" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="42" ht="19.95" spans="1:4">
       <c r="A42" s="3">
         <v>604</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C42" s="4">
-        <v>0.32500000000000001</v>
+        <v>0.325</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="43" ht="19.95" spans="1:5">
       <c r="A43" s="3">
         <v>643</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C43" s="4">
         <v>0.378</v>
@@ -1824,2398 +2340,2414 @@
       </c>
       <c r="E43" s="5"/>
     </row>
-    <row r="44" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="44" ht="19.95" spans="1:5">
       <c r="A44" s="3">
         <v>657</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C44" s="4">
-        <v>0.68600000000000005</v>
+        <v>0.686</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E44" s="5"/>
     </row>
-    <row r="45" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="45" ht="19.95" spans="1:5">
       <c r="A45" s="6">
         <v>665</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C45" s="7">
-        <v>0.21099999999999999</v>
+        <v>0.211</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E45" s="5"/>
     </row>
-    <row r="46" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="46" ht="19.95" spans="1:4">
       <c r="A46" s="6">
         <v>683</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>192</v>
+        <v>49</v>
       </c>
       <c r="C46" s="7">
-        <v>0.36599999999999999</v>
+        <v>0.366</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="34.5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" ht="39.15" spans="1:4">
       <c r="A47" s="6">
         <v>340</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>193</v>
+        <v>51</v>
       </c>
       <c r="C47" s="7">
-        <v>0.39200000000000002</v>
+        <v>0.392</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" ht="19.95" spans="1:5">
       <c r="A48" s="6">
         <v>308</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>196</v>
+        <v>52</v>
       </c>
       <c r="C48" s="7">
-        <v>0.24099999999999999</v>
+        <v>0.241</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E48" s="9"/>
     </row>
-    <row r="49" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="49" ht="19.95" spans="1:4">
       <c r="A49" s="3">
         <v>425</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>197</v>
+        <v>53</v>
       </c>
       <c r="C49" s="4">
         <v>0.435</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" ht="19.95" spans="1:4">
       <c r="A50" s="3">
         <v>568</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C50" s="4">
-        <v>0.39100000000000001</v>
+        <v>0.391</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" ht="19.95" spans="1:4">
       <c r="A51" s="6">
         <v>317</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C51" s="7">
-        <v>0.34399999999999997</v>
+        <v>0.344</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" ht="19.95" spans="1:4">
       <c r="A52" s="6">
         <v>305</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C52" s="7">
-        <v>0.39300000000000002</v>
+        <v>0.393</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" ht="19.95" spans="1:4">
       <c r="A53" s="3">
         <v>218</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C53" s="4">
-        <v>0.28199999999999997</v>
+        <v>0.282</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="34.5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" ht="39.15" spans="1:4">
       <c r="A54" s="3">
         <v>159</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C54" s="4">
-        <v>0.41899999999999998</v>
+        <v>0.419</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" ht="19.95" spans="1:4">
       <c r="A55" s="3">
         <v>329</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C55" s="4">
-        <v>0.36899999999999999</v>
+        <v>0.369</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" ht="19.95" spans="1:4">
       <c r="A56" s="3">
         <v>471</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C56" s="4">
-        <v>0.42799999999999999</v>
+        <v>0.428</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" ht="19.95" spans="1:4">
       <c r="A57" s="3">
         <v>391</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="C57" s="4">
-        <v>0.27100000000000002</v>
+        <v>0.271</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" ht="19.95" spans="1:4">
       <c r="A58" s="6">
         <v>407</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C58" s="7">
         <v>0.376</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" ht="19.95" spans="1:4">
       <c r="A59" s="3">
         <v>297</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="C59" s="4">
         <v>0.34</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" ht="19.95" spans="1:4">
       <c r="A60" s="3">
         <v>146</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C60" s="4">
         <v>0.187</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" ht="19.95" spans="1:4">
       <c r="A61" s="3">
         <v>295</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="C61" s="4">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" ht="19.95" spans="1:4">
       <c r="A62" s="6">
         <v>42</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C62" s="7">
         <v>0.372</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" ht="19.95" spans="1:4">
       <c r="A63" s="3">
         <v>315</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C63" s="4">
-        <v>0.34799999999999998</v>
+        <v>0.348</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" ht="19.95" spans="1:4">
       <c r="A64" s="3">
         <v>411</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C64" s="4">
-        <v>0.33300000000000002</v>
+        <v>0.333</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" ht="19.95" spans="1:4">
       <c r="A65" s="6">
         <v>269</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="C65" s="7">
         <v>0.252</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" ht="19.95" spans="1:4">
       <c r="A66" s="3">
         <v>239</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="C66" s="4">
-        <v>0.33600000000000002</v>
+        <v>0.336</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" ht="19.95" spans="1:4">
       <c r="A67" s="3">
         <v>465</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="C67" s="4">
         <v>0.378</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" ht="19.95" spans="1:4">
       <c r="A68" s="6">
         <v>128</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C68" s="7">
         <v>0.375</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="34.5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" ht="39.15" spans="1:4">
       <c r="A69" s="6">
         <v>158</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C69" s="7">
         <v>0.245</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" ht="19.95" spans="1:4">
       <c r="A70" s="6">
         <v>23</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C70" s="7">
-        <v>0.27700000000000002</v>
+        <v>0.277</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" ht="19.95" spans="1:4">
       <c r="A71" s="3">
         <v>10</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="C71" s="4">
-        <v>0.24299999999999999</v>
+        <v>0.243</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" ht="19.95" spans="1:4">
       <c r="A72" s="6">
         <v>212</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C72" s="7">
         <v>0.24</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" ht="19.95" spans="1:4">
       <c r="A73" s="3">
         <v>4</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C73" s="4">
         <v>0.223</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" ht="19.95" spans="1:4">
       <c r="A74" s="6">
         <v>358</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C74" s="7">
         <v>0.317</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" ht="19.95" spans="1:4">
       <c r="A75" s="6">
         <v>587</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C75" s="7">
-        <v>0.32600000000000001</v>
+        <v>0.326</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" ht="19.95" spans="1:4">
       <c r="A76" s="3">
         <v>679</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="C76" s="4">
-        <v>0.38900000000000001</v>
+        <v>0.389</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77" ht="19.95" spans="1:4">
       <c r="A77" s="6">
         <v>140</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C77" s="7">
-        <v>0.23899999999999999</v>
+        <v>0.239</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78" ht="19.95" spans="1:4">
       <c r="A78" s="6">
         <v>224</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="C78" s="7">
-        <v>0.27800000000000002</v>
+        <v>0.278</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" ht="19.95" spans="1:5">
       <c r="A79" s="3">
         <v>327</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="C79" s="4">
-        <v>0.30099999999999999</v>
+        <v>0.301</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="E79" s="9"/>
+    </row>
+    <row r="80" ht="19.95" spans="1:5">
       <c r="A80" s="3">
         <v>57</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="C80" s="4">
-        <v>0.28299999999999997</v>
+        <v>0.283</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="E80" s="9"/>
+    </row>
+    <row r="81" ht="19.95" spans="1:4">
       <c r="A81" s="3">
         <v>336</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="C81" s="4">
-        <v>0.26600000000000001</v>
+        <v>0.266</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82" ht="19.95" spans="1:4">
       <c r="A82" s="6">
         <v>44</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C82" s="7">
-        <v>0.20599999999999999</v>
+        <v>0.206</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" ht="19.95" spans="1:4">
       <c r="A83" s="3">
         <v>460</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C83" s="4">
-        <v>0.24399999999999999</v>
+        <v>0.244</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" ht="39.15" spans="1:4">
       <c r="A84" s="6">
         <v>363</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C84" s="7">
-        <v>0.33400000000000002</v>
+        <v>0.334</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="85" ht="19.95" spans="1:4">
       <c r="A85" s="3">
         <v>354</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C85" s="4">
-        <v>0.32300000000000001</v>
+        <v>0.323</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="86" ht="19.95" spans="1:4">
       <c r="A86" s="6">
         <v>272</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C86" s="7">
-        <v>0.39400000000000002</v>
+        <v>0.394</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="87" ht="19.95" spans="1:4">
       <c r="A87" s="6">
         <v>214</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C87" s="7">
         <v>0.247</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" ht="19.95" spans="1:4">
       <c r="A88" s="3">
         <v>282</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="C88" s="4">
-        <v>0.30199999999999999</v>
+        <v>0.302</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="89" ht="19.95" spans="1:4">
       <c r="A89" s="6">
         <v>302</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C89" s="7">
-        <v>0.45900000000000002</v>
+        <v>0.459</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="90" ht="19.95" spans="1:4">
       <c r="A90" s="6">
         <v>321</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C90" s="7">
         <v>0.248</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="91" ht="19.95" spans="1:4">
       <c r="A91" s="6">
         <v>480</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C91" s="7">
         <v>0.311</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="92" ht="19.95" spans="1:4">
       <c r="A92" s="6">
         <v>483</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C92" s="7">
-        <v>0.33400000000000002</v>
+        <v>0.334</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="93" ht="19.95" spans="1:4">
       <c r="A93" s="6">
         <v>312</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="C93" s="7">
         <v>0.432</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="94" ht="19.95" spans="1:4">
       <c r="A94" s="6">
         <v>493</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="C94" s="7">
-        <v>0.20599999999999999</v>
+        <v>0.206</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="95" ht="19.95" spans="1:4">
       <c r="A95" s="3">
         <v>514</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="C95" s="4">
-        <v>0.39100000000000001</v>
+        <v>0.391</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="96" ht="19.95" spans="1:4">
       <c r="A96" s="6">
         <v>527</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C96" s="7">
-        <v>0.41899999999999998</v>
+        <v>0.419</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="97" ht="19.95" spans="1:4">
       <c r="A97" s="3">
         <v>316</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="C97" s="4">
-        <v>0.29899999999999999</v>
+        <v>0.299</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="98" ht="19.95" spans="1:4">
       <c r="A98" s="6">
         <v>330</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C98" s="7">
-        <v>0.32300000000000001</v>
+        <v>0.323</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="99" ht="19.95" spans="1:4">
       <c r="A99" s="6">
         <v>552</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="C99" s="7">
         <v>0.313</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="100" ht="19.95" spans="1:4">
       <c r="A100" s="6">
         <v>569</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="C100" s="7">
-        <v>0.34200000000000003</v>
+        <v>0.342</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="101" ht="19.95" spans="1:4">
       <c r="A101" s="6">
         <v>644</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="C101" s="7">
         <v>0.23</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="102" ht="19.95" spans="1:4">
       <c r="A102" s="6">
         <v>656</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="C102" s="7">
         <v>0.251</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="103" ht="39.15" spans="1:4">
       <c r="A103" s="6">
         <v>668</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="C103" s="7">
         <v>0.377</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="104" ht="19.95" spans="1:4">
       <c r="A104" s="3">
         <v>685</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="C104" s="4">
-        <v>0.28399999999999997</v>
+        <v>0.284</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="34.5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="105" ht="39.15" spans="1:4">
       <c r="A105" s="6">
         <v>689</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="C105" s="7">
-        <v>0.41299999999999998</v>
+        <v>0.413</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="106" ht="19.95" spans="1:4">
       <c r="A106" s="3">
         <v>719</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="C106" s="4">
         <v>0.253</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="107" ht="19.95" spans="1:4">
       <c r="A107" s="6">
         <v>726</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="C107" s="7">
-        <v>0.45700000000000002</v>
+        <v>0.457</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="108" ht="19.95" spans="1:4">
       <c r="A108" s="3">
         <v>727</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="C108" s="4">
-        <v>0.29099999999999998</v>
+        <v>0.291</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="109" ht="19.95" spans="1:4">
       <c r="A109" s="6">
         <v>534</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>207</v>
+        <v>113</v>
       </c>
       <c r="C109" s="7">
         <v>0</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="110" ht="19.95" spans="1:5">
       <c r="A110" s="3">
         <v>388</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>206</v>
+        <v>115</v>
       </c>
       <c r="C110" s="4">
         <v>0.371</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="E110" s="9"/>
     </row>
-    <row r="111" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="111" ht="19.95" spans="1:6">
       <c r="A111" s="3">
         <v>681</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>213</v>
+        <v>116</v>
       </c>
       <c r="C111" s="4">
-        <v>0.42899999999999999</v>
+        <v>0.429</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="E111" s="5"/>
       <c r="F111" s="10" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="112" ht="19.95" spans="1:5">
       <c r="A112" s="3">
         <v>482</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>208</v>
+        <v>118</v>
       </c>
       <c r="C112" s="4">
-        <v>0.41799999999999998</v>
+        <v>0.418</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="E112" s="9"/>
     </row>
-    <row r="113" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="113" ht="39.15" spans="1:4">
       <c r="A113" s="6">
         <v>298</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>225</v>
+        <v>119</v>
       </c>
       <c r="C113" s="7">
-        <v>0.41399999999999998</v>
+        <v>0.414</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="114" ht="19.95" spans="1:4">
       <c r="A114" s="3">
         <v>418</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>223</v>
+        <v>120</v>
       </c>
       <c r="C114" s="4">
-        <v>0.27800000000000002</v>
+        <v>0.278</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="115" ht="19.95" spans="1:5">
       <c r="A115" s="6">
         <v>281</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>226</v>
+        <v>121</v>
       </c>
       <c r="C115" s="7">
-        <v>0.51400000000000001</v>
+        <v>0.514</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="E115" s="5"/>
     </row>
-    <row r="116" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="116" ht="19.95" spans="1:5">
       <c r="A116" s="6">
         <v>361</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>227</v>
+        <v>122</v>
       </c>
       <c r="C116" s="7">
-        <v>0.39400000000000002</v>
+        <v>0.394</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="E116" s="9"/>
     </row>
-    <row r="117" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="117" ht="19.95" spans="1:5">
       <c r="A117" s="3">
         <v>394</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>228</v>
+        <v>123</v>
       </c>
       <c r="C117" s="4">
-        <v>0.41699999999999998</v>
+        <v>0.417</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="E117" s="9"/>
+    </row>
+    <row r="118" ht="19.95" spans="1:5">
       <c r="A118" s="6">
         <v>393</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="C118" s="7">
-        <v>0.34699999999999998</v>
+        <v>0.347</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="E118" s="9"/>
     </row>
-    <row r="119" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="119" ht="19.95" spans="1:6">
       <c r="A119" s="6">
         <v>163</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="C119" s="7">
-        <v>0.23799999999999999</v>
+        <v>0.238</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="E119" s="9"/>
+      <c r="F119" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="120" ht="19.95" spans="1:4">
       <c r="A120" s="3">
         <v>351</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="C120" s="4">
         <v>0.443</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="121" ht="19.95" spans="1:4">
       <c r="A121" s="3">
         <v>271</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="C121" s="4">
-        <v>0.26200000000000001</v>
+        <v>0.262</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="122" ht="19.95" spans="1:4">
       <c r="A122" s="6">
         <v>289</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="C122" s="7">
         <v>0.371</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="123" ht="19.95" spans="1:5">
       <c r="A123" s="3">
         <v>288</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="C123" s="4">
-        <v>0.17299999999999999</v>
+        <v>0.173</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="E123" s="5"/>
+    </row>
+    <row r="124" ht="19.95" spans="1:5">
       <c r="A124" s="3">
         <v>200</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="C124" s="4">
-        <v>0.35599999999999998</v>
+        <v>0.356</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="E124" s="5"/>
     </row>
-    <row r="125" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="125" ht="19.95" spans="1:5">
       <c r="A125" s="6">
         <v>280</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="C125" s="7">
-        <v>0.57899999999999996</v>
+        <v>0.579</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="E125" s="9"/>
+    </row>
+    <row r="126" ht="19.95" spans="1:5">
       <c r="A126" s="3">
         <v>616</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="C126" s="4">
-        <v>0.38700000000000001</v>
+        <v>0.387</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="E126" s="8"/>
+    </row>
+    <row r="127" ht="19.95" spans="1:4">
       <c r="A127" s="6">
         <v>259</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="C127" s="7">
-        <v>0.41699999999999998</v>
+        <v>0.417</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="128" ht="19.95" spans="1:5">
       <c r="A128" s="6">
         <v>399</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="C128" s="7">
-        <v>0.41499999999999998</v>
+        <v>0.415</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="E128" s="9"/>
+    </row>
+    <row r="129" ht="19.95" spans="1:4">
       <c r="A129" s="6">
         <v>417</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="C129" s="7">
-        <v>0.34100000000000003</v>
+        <v>0.341</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="130" ht="19.95" spans="1:4">
       <c r="A130" s="3">
         <v>406</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="C130" s="4">
-        <v>0.56200000000000006</v>
+        <v>0.562</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="131" ht="19.95" spans="1:5">
       <c r="A131" s="6">
         <v>279</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="C131" s="7">
         <v>0.375</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="E131" s="8"/>
+    </row>
+    <row r="132" ht="19.95" spans="1:4">
       <c r="A132" s="6">
         <v>56</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="C132" s="7">
         <v>0.31</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="133" ht="19.95" spans="1:4">
       <c r="A133" s="6">
         <v>284</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="C133" s="7">
-        <v>0.35499999999999998</v>
+        <v>0.355</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="134" ht="19.95" spans="1:4">
       <c r="A134" s="3">
         <v>247</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="C134" s="4">
-        <v>0.40500000000000003</v>
+        <v>0.405</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="135" ht="39.15" spans="1:4">
       <c r="A135" s="6">
         <v>524</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="C135" s="7">
         <v>0.433</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="136" ht="19.95" spans="1:6">
       <c r="A136" s="6">
         <v>228</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="C136" s="7">
         <v>0.308</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="E136" s="9"/>
+      <c r="F136" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="137" ht="19.95" spans="1:4">
       <c r="A137" s="3">
         <v>286</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="C137" s="4">
-        <v>0.44800000000000001</v>
+        <v>0.448</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="138" ht="19.95" spans="1:4">
       <c r="A138" s="6">
         <v>362</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="C138" s="7">
-        <v>0.54400000000000004</v>
+        <v>0.544</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="139" ht="19.95" spans="1:4">
       <c r="A139" s="6">
         <v>294</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="C139" s="7">
-        <v>0.46600000000000003</v>
+        <v>0.466</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="140" ht="19.95" spans="1:4">
       <c r="A140" s="6">
         <v>380</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="C140" s="7">
-        <v>0.39400000000000002</v>
+        <v>0.394</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="141" ht="19.95" spans="1:4">
       <c r="A141" s="6">
         <v>249</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="C141" s="7">
-        <v>0.42699999999999999</v>
+        <v>0.427</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="142" ht="19.95" spans="1:4">
       <c r="A142" s="3">
         <v>320</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="C142" s="4">
-        <v>0.45500000000000002</v>
+        <v>0.455</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="143" ht="19.95" spans="1:4">
       <c r="A143" s="6">
         <v>505</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>209</v>
+        <v>151</v>
       </c>
       <c r="C143" s="7">
-        <v>0.38200000000000001</v>
+        <v>0.382</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="144" ht="19.95" spans="1:4">
       <c r="A144" s="3">
         <v>341</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="C144" s="4">
-        <v>0.42199999999999999</v>
+        <v>0.422</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="145" ht="19.95" spans="1:4">
       <c r="A145" s="6">
         <v>360</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="C145" s="7">
-        <v>0.44500000000000001</v>
+        <v>0.445</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="146" ht="19.95" spans="1:4">
       <c r="A146" s="6">
         <v>274</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>210</v>
+        <v>154</v>
       </c>
       <c r="C146" s="7">
-        <v>0.33500000000000002</v>
+        <v>0.335</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="147" ht="19.95" spans="1:4">
       <c r="A147" s="3">
         <v>253</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="C147" s="4">
-        <v>0.39300000000000002</v>
+        <v>0.393</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="148" ht="19.95" spans="1:4">
       <c r="A148" s="6">
         <v>139</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="C148" s="7">
         <v>0.308</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="149" ht="19.95" spans="1:4">
       <c r="A149" s="3">
         <v>230</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="C149" s="4">
-        <v>0.44500000000000001</v>
+        <v>0.445</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="150" ht="19.95" spans="1:4">
       <c r="A150" s="6">
         <v>162</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="C150" s="7">
-        <v>0.38100000000000001</v>
+        <v>0.381</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="151" ht="19.95" spans="1:4">
       <c r="A151" s="3">
         <v>498</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="C151" s="4">
-        <v>0.46100000000000002</v>
+        <v>0.461</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="152" ht="19.95" spans="1:4">
       <c r="A152" s="3">
         <v>490</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="C152" s="4">
         <v>0.432</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="153" ht="19.95" spans="1:4">
       <c r="A153" s="6">
         <v>318</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="C153" s="7">
-        <v>0.44900000000000001</v>
+        <v>0.449</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="154" ht="19.95" spans="1:4">
       <c r="A154" s="3">
         <v>240</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="C154" s="4">
-        <v>0.38800000000000001</v>
+        <v>0.388</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="155" ht="19.95" spans="1:4">
       <c r="A155" s="6">
         <v>373</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="C155" s="7">
         <v>0.309</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="156" ht="19.95" spans="1:5">
       <c r="A156" s="6">
         <v>369</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="C156" s="7">
-        <v>0.54800000000000004</v>
+        <v>0.548</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="E156" s="9"/>
     </row>
-    <row r="157" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="157" ht="19.95" spans="1:4">
       <c r="A157" s="6">
         <v>251</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="C157" s="7">
-        <v>0.40899999999999997</v>
+        <v>0.409</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="158" ht="19.95" spans="1:4">
       <c r="A158" s="3">
         <v>332</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="C158" s="4">
-        <v>0.29399999999999998</v>
+        <v>0.294</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="159" ht="19.95" spans="1:4">
       <c r="A159" s="6">
         <v>173</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="C159" s="7">
-        <v>0.42399999999999999</v>
+        <v>0.424</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="160" ht="19.95" spans="1:4">
       <c r="A160" s="3">
         <v>54</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="C160" s="4">
-        <v>0.26600000000000001</v>
+        <v>0.266</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="161" ht="19.95" spans="1:4">
       <c r="A161" s="3">
         <v>324</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="C161" s="4">
-        <v>0.26200000000000001</v>
+        <v>0.262</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="162" ht="39.15" spans="1:4">
       <c r="A162" s="6">
         <v>17</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="C162" s="7">
-        <v>0.35399999999999998</v>
+        <v>0.354</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="163" ht="19.95" spans="1:4">
       <c r="A163" s="3">
         <v>484</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="C163" s="4">
-        <v>0.55100000000000005</v>
+        <v>0.551</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="164" ht="19.95" spans="1:4">
       <c r="A164" s="6">
         <v>562</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="C164" s="7">
-        <v>0.40899999999999997</v>
+        <v>0.409</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="165" ht="19.95" spans="1:4">
       <c r="A165" s="3">
         <v>166</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="C165" s="4">
-        <v>0.17799999999999999</v>
+        <v>0.178</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="166" ht="19.95" spans="1:4">
       <c r="A166" s="6">
         <v>22</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="C166" s="7">
-        <v>0.46300000000000002</v>
+        <v>0.463</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="167" ht="19.95" spans="1:4">
       <c r="A167" s="3">
         <v>31</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="C167" s="4">
-        <v>0.28799999999999998</v>
+        <v>0.288</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="168" ht="19.95" spans="1:4">
       <c r="A168" s="6">
         <v>676</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="C168" s="7">
         <v>0.5</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="169" ht="39.15" spans="1:4">
       <c r="A169" s="6">
         <v>421</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="C169" s="7">
-        <v>0.46899999999999997</v>
+        <v>0.469</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="170" ht="19.95" spans="1:4">
       <c r="A170" s="6">
         <v>503</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>150</v>
+        <v>178</v>
       </c>
       <c r="C170" s="7">
-        <v>0.47299999999999998</v>
+        <v>0.473</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="171" ht="19.95" spans="1:4">
       <c r="A171" s="6">
         <v>684</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
       <c r="C171" s="7">
-        <v>0.39200000000000002</v>
+        <v>0.392</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="172" ht="19.95" spans="1:4">
       <c r="A172" s="3">
         <v>133</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>152</v>
+        <v>180</v>
       </c>
       <c r="C172" s="4">
         <v>0.251</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="173" ht="19.95" spans="1:4">
       <c r="A173" s="3">
         <v>50</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="C173" s="4">
         <v>0.26</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="174" ht="19.95" spans="1:4">
       <c r="A174" s="3">
         <v>208</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="C174" s="4">
-        <v>0.29499999999999998</v>
+        <v>0.295</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="175" ht="19.95" spans="1:4">
       <c r="A175" s="6">
         <v>348</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="C175" s="7">
-        <v>0.45800000000000002</v>
+        <v>0.458</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="176" ht="19.95" spans="1:4">
       <c r="A176" s="3">
         <v>652</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="C176" s="4">
-        <v>0.35799999999999998</v>
+        <v>0.358</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="177" ht="19.95" spans="1:4">
       <c r="A177" s="6">
         <v>444</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c r="C177" s="7">
-        <v>0.19600000000000001</v>
+        <v>0.196</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" ht="34.5" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="178" ht="39.15" spans="1:4">
       <c r="A178" s="3">
         <v>309</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="C178" s="4">
-        <v>0.41299999999999998</v>
+        <v>0.413</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="179" ht="19.95" spans="1:4">
       <c r="A179" s="3">
         <v>382</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="C179" s="4">
-        <v>0.47099999999999997</v>
+        <v>0.471</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="180" ht="19.95" spans="1:4">
       <c r="A180" s="6">
         <v>402</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="C180" s="7">
         <v>0.26</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="181" ht="19.95" spans="1:4">
       <c r="A181" s="3">
         <v>370</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="C181" s="4">
-        <v>0.56499999999999995</v>
+        <v>0.565</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="182" ht="19.95" spans="1:4">
       <c r="A182" s="6">
         <v>377</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="C182" s="7">
-        <v>0.42399999999999999</v>
+        <v>0.424</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="183" ht="19.95" spans="1:4">
       <c r="A183" s="3">
         <v>379</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="C183" s="4">
-        <v>0.34100000000000003</v>
+        <v>0.341</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="184" ht="19.95" spans="1:4">
       <c r="A184" s="6">
         <v>353</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="C184" s="7">
-        <v>0.26800000000000002</v>
+        <v>0.268</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="185" ht="19.95" spans="1:4">
       <c r="A185" s="3">
         <v>375</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="C185" s="4">
-        <v>0.35899999999999999</v>
+        <v>0.359</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="186" ht="19.95" spans="1:4">
       <c r="A186" s="3">
         <v>356</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="C186" s="4">
-        <v>0.30099999999999999</v>
+        <v>0.301</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="187" ht="19.95" spans="1:4">
       <c r="A187" s="6">
         <v>261</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="C187" s="7">
-        <v>0.38100000000000001</v>
+        <v>0.381</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="188" ht="19.95" spans="1:4">
       <c r="A188" s="3">
         <v>486</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="C188" s="4">
-        <v>0.45100000000000001</v>
+        <v>0.451</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="189" ht="19.95" spans="1:4">
       <c r="A189" s="6">
         <v>542</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="C189" s="7">
         <v>0.33</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="190" ht="19.95" spans="1:4">
       <c r="A190" s="3">
         <v>397</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="C190" s="4">
-        <v>0.30199999999999999</v>
+        <v>0.302</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="191" ht="19.95" spans="1:4">
       <c r="A191" s="6">
         <v>368</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="C191" s="7">
-        <v>0.33700000000000002</v>
+        <v>0.337</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="192" ht="19.95" spans="1:4">
       <c r="A192" s="3">
         <v>378</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="C192" s="4">
-        <v>0.45200000000000001</v>
+        <v>0.452</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="193" ht="19.95" spans="1:4">
       <c r="A193" s="3">
         <v>313</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="C193" s="4">
         <v>0.38</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="194" ht="39.15" spans="1:4">
       <c r="A194" s="6">
         <v>331</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="C194" s="7">
-        <v>0.36599999999999999</v>
+        <v>0.366</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" ht="34.5" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="195" ht="39.15" spans="1:4">
       <c r="A195" s="3">
         <v>323</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="C195" s="4">
-        <v>0.48299999999999998</v>
+        <v>0.483</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="196" ht="19.95" spans="1:5">
       <c r="A196" s="6">
         <v>451</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="C196" s="7">
-        <v>0.51100000000000001</v>
+        <v>0.511</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="E196" s="5"/>
     </row>
-    <row r="197" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="197" ht="19.95" spans="1:4">
       <c r="A197" s="3">
         <v>310</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="C197" s="4">
-        <v>0.28899999999999998</v>
+        <v>0.289</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="198" ht="19.95" spans="1:4">
       <c r="A198" s="3">
         <v>729</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C198" s="4">
-        <v>0.36099999999999999</v>
+        <v>0.361</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="199" ht="19.95" spans="1:4">
       <c r="A199" s="6">
         <v>469</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>178</v>
+        <v>207</v>
       </c>
       <c r="C199" s="7">
-        <v>0.33400000000000002</v>
+        <v>0.334</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="200" ht="19.95" spans="1:4">
       <c r="A200" s="3">
         <v>474</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>179</v>
+        <v>208</v>
       </c>
       <c r="C200" s="4">
-        <v>0.39100000000000001</v>
+        <v>0.391</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="201" ht="19.95" spans="1:4">
       <c r="A201" s="3">
         <v>481</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>180</v>
+        <v>209</v>
       </c>
       <c r="C201" s="4">
-        <v>0.45600000000000002</v>
+        <v>0.456</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="202" ht="19.95" spans="1:5">
       <c r="A202" s="3">
         <v>314</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C202" s="4">
         <v>0.373</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="E202" s="5"/>
     </row>
-    <row r="203" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="203" ht="19.95" spans="1:4">
       <c r="A203" s="6">
         <v>357</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C203" s="7">
-        <v>0.46100000000000002</v>
+        <v>0.461</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="204" ht="19.95" spans="1:6">
       <c r="A204" s="3">
         <v>487</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C204" s="4">
-        <v>0.45600000000000002</v>
+        <v>0.456</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="E204" s="9"/>
       <c r="F204" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="205" ht="19.95" spans="1:5">
       <c r="A205" s="3">
         <v>494</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C205" s="4">
         <v>0.436</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="E205" s="9"/>
     </row>
-    <row r="206" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="206" ht="19.95" spans="1:5">
       <c r="A206" s="6">
         <v>522</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C206" s="7">
         <v>0.318</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="E206" s="9"/>
     </row>
-    <row r="207" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="207" ht="19.95" spans="1:5">
       <c r="A207" s="3">
         <v>526</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="C207" s="4">
-        <v>0.54200000000000004</v>
+        <v>0.542</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="E207" s="5"/>
     </row>
-    <row r="208" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="208" ht="19.95" spans="1:4">
       <c r="A208" s="6">
         <v>531</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>181</v>
+        <v>217</v>
       </c>
       <c r="C208" s="7">
-        <v>0.55600000000000005</v>
+        <v>0.556</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="209" ht="19.95" spans="1:4">
       <c r="A209" s="3">
         <v>533</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>182</v>
+        <v>218</v>
       </c>
       <c r="C209" s="4">
-        <v>0.44600000000000001</v>
+        <v>0.446</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="210" ht="19.95" spans="1:4">
       <c r="A210" s="6">
         <v>535</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>183</v>
+        <v>219</v>
       </c>
       <c r="C210" s="7">
-        <v>0.74199999999999999</v>
+        <v>0.742</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="211" ht="19.95" spans="1:5">
       <c r="A211" s="3">
         <v>544</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="C211" s="4">
-        <v>0.70899999999999996</v>
+        <v>0.709</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="E211" s="5"/>
     </row>
-    <row r="212" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="212" ht="19.95" spans="1:5">
       <c r="A212" s="6">
         <v>545</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="C212" s="7">
-        <v>0.31900000000000001</v>
+        <v>0.319</v>
       </c>
       <c r="D212" s="6" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="E212" s="9"/>
     </row>
-    <row r="213" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="213" ht="39.15" spans="1:4">
       <c r="A213" s="3">
         <v>549</v>
       </c>
@@ -4223,136 +4755,137 @@
         <v>222</v>
       </c>
       <c r="C213" s="4">
-        <v>0.41899999999999998</v>
+        <v>0.419</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="214" ht="19.95" spans="1:5">
       <c r="A214" s="3">
         <v>560</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>186</v>
+        <v>223</v>
       </c>
       <c r="C214" s="4">
-        <v>0.40400000000000003</v>
+        <v>0.404</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="E214" s="9"/>
     </row>
-    <row r="215" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="215" ht="19.95" spans="1:4">
       <c r="A215" s="6">
         <v>583</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="C215" s="7">
         <v>0.442</v>
       </c>
       <c r="D215" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="216" ht="19.95" spans="1:4">
       <c r="A216" s="6">
         <v>638</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="C216" s="7">
         <v>0.434</v>
       </c>
       <c r="D216" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="217" ht="19.95" spans="1:5">
       <c r="A217" s="3">
         <v>651</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
       <c r="C217" s="4">
-        <v>0.48799999999999999</v>
+        <v>0.488</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="E217" s="9"/>
     </row>
-    <row r="218" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="218" ht="19.95" spans="1:5">
       <c r="A218" s="6">
         <v>658</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>188</v>
+        <v>227</v>
       </c>
       <c r="C218" s="7">
-        <v>0.35299999999999998</v>
+        <v>0.353</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="E218" s="9"/>
     </row>
-    <row r="219" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="219" ht="39.15" spans="1:4">
       <c r="A219" s="3">
         <v>659</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>189</v>
+        <v>228</v>
       </c>
       <c r="C219" s="4">
-        <v>0.35699999999999998</v>
+        <v>0.357</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="220" ht="19.95" spans="1:4">
       <c r="A220" s="3">
         <v>667</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="C220" s="4">
-        <v>0.51500000000000001</v>
+        <v>0.515</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="221" ht="19.95" spans="1:4">
       <c r="A221" s="6">
         <v>731</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="C221" s="7">
         <v>0.316</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A3:D221">
     <sortCondition ref="D10"/>
   </sortState>
-  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F111" r:id="rId1" xr:uid="{5057EDAC-1BC6-48BB-A4CD-FD8649B635B6}"/>
+    <hyperlink ref="F111" r:id="rId1" display="https://www.youtube.com/embed/IAet94C1FCc?feature=oembed"/>
+    <hyperlink ref="F136" r:id="rId2" display="http://www.cnblogs.com/grandyang/p/4603555.html"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/google_ranked.xlsx
+++ b/google_ranked.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\leet\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1405983-B954-4453-87ED-527EF15634C8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9935"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22365" windowHeight="9930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="232">
   <si>
     <t>Google</t>
   </si>
@@ -169,557 +175,559 @@
     <t>Hard</t>
   </si>
   <si>
+    <t>Range Sum Query 2D - Mutable</t>
+  </si>
+  <si>
+    <t>Maximum Vacation Days</t>
+  </si>
+  <si>
+    <t>Number of Islands II</t>
+  </si>
+  <si>
+    <t>The Skyline Problem</t>
+  </si>
+  <si>
+    <t>Longest Substring with At Most Two Distinct Characters</t>
+  </si>
+  <si>
+    <t>Longest Increasing Path in a Matrix</t>
+  </si>
+  <si>
+    <t>Encode String with Shortest Length</t>
+  </si>
+  <si>
+    <t>Perfect Rectangle</t>
+  </si>
+  <si>
+    <t>Trapping Rain Water II</t>
+  </si>
+  <si>
+    <t>Serialize and Deserialize Binary Tree</t>
+  </si>
+  <si>
+    <t>LRU Cache</t>
+  </si>
+  <si>
+    <t>Find Median from Data Stream</t>
+  </si>
+  <si>
+    <t>Trapping Rain Water</t>
+  </si>
+  <si>
+    <t>Count of Smaller Numbers After Self</t>
+  </si>
+  <si>
+    <t>Minimum Unique Word Abbreviation</t>
+  </si>
+  <si>
+    <t>Alien Dictionary</t>
+  </si>
+  <si>
+    <t>Sliding Window Maximum</t>
+  </si>
+  <si>
+    <t>Optimal Account Balancing</t>
+  </si>
+  <si>
+    <t>Longest Consecutive Sequence</t>
+  </si>
+  <si>
+    <t>Read N Characters Given Read4 II - Call multiple times</t>
+  </si>
+  <si>
+    <t>Merge k Sorted Lists</t>
+  </si>
+  <si>
+    <t>Regular Expression Matching</t>
+  </si>
+  <si>
+    <t>Word Search II</t>
+  </si>
+  <si>
+    <t>Median of Two Sorted Arrays</t>
+  </si>
+  <si>
+    <t>Rearrange String k Distance Apart</t>
+  </si>
+  <si>
+    <t>Erect the Fence</t>
+  </si>
+  <si>
+    <t>24 Game</t>
+  </si>
+  <si>
+    <t>Word Break II</t>
+  </si>
+  <si>
+    <t>Basic Calculator</t>
+  </si>
+  <si>
+    <t>Count of Range Sum</t>
+  </si>
+  <si>
+    <t>Insert Interval</t>
+  </si>
+  <si>
+    <t>Palindrome Pairs</t>
+  </si>
+  <si>
+    <t>Wildcard Matching</t>
+  </si>
+  <si>
+    <t>LFU Cache</t>
+  </si>
+  <si>
+    <t>Max Sum of Rectangle No Larger Than K</t>
+  </si>
+  <si>
+    <t>Russian Doll Envelopes</t>
+  </si>
+  <si>
+    <t>Closest Binary Search Tree Value II</t>
+  </si>
+  <si>
+    <t>Shortest Palindrome</t>
+  </si>
+  <si>
+    <t>Expression Add Operators</t>
+  </si>
+  <si>
+    <t>Smallest Rectangle Enclosing Black Pixels</t>
+  </si>
+  <si>
+    <t>Create Maximum Number</t>
+  </si>
+  <si>
+    <t>Sliding Window Median</t>
+  </si>
+  <si>
+    <t>Smallest Good Base</t>
+  </si>
+  <si>
+    <t>Burst Balloons</t>
+  </si>
+  <si>
+    <t>Reverse Pairs</t>
+  </si>
+  <si>
+    <t>Freedom Trail</t>
+  </si>
+  <si>
+    <t>Word Abbreviation</t>
+  </si>
+  <si>
+    <t>Remove Duplicate Letters</t>
+  </si>
+  <si>
+    <t>Patching Array</t>
+  </si>
+  <si>
+    <t>Student Attendance Record II</t>
+  </si>
+  <si>
+    <t>Median Employee Salary</t>
+  </si>
+  <si>
+    <t>Maximum Average Subarray II</t>
+  </si>
+  <si>
+    <t>Coin Path</t>
+  </si>
+  <si>
+    <t>Kth Smallest Number in Multiplication Table</t>
+  </si>
+  <si>
+    <t>Redundant Connection II</t>
+  </si>
+  <si>
+    <t>Maximum Sum of 3 Non-Overlapping Subarrays</t>
+  </si>
+  <si>
+    <t>Find K-th Smallest Pair Distance</t>
+  </si>
+  <si>
+    <t>Number of Atoms</t>
+  </si>
+  <si>
+    <t>Minimum Window Subsequence</t>
+  </si>
+  <si>
+    <t>Design TinyURL</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Longest Absolute File Path</t>
+  </si>
+  <si>
+    <t>Next Closest Time</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/IAet94C1FCc?feature=oembed</t>
+  </si>
+  <si>
+    <t>License Key Formatting</t>
+  </si>
+  <si>
+    <t>Binary Tree Longest Consecutive Sequence</t>
+  </si>
+  <si>
+    <t>Sentence Screen Fitting</t>
+  </si>
+  <si>
+    <t>Zigzag Iterator</t>
+  </si>
+  <si>
+    <t>Bomb Enemy</t>
+  </si>
+  <si>
+    <t>Decode String</t>
+  </si>
+  <si>
+    <t>UTF-8 Validation</t>
+  </si>
+  <si>
+    <t>Missing Ranges</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/grandyang/p/5184890.html</t>
+  </si>
+  <si>
+    <t>Android Unlock Patterns</t>
+  </si>
+  <si>
+    <t>Encode and Decode Strings</t>
+  </si>
+  <si>
+    <t>Game of Life</t>
+  </si>
+  <si>
+    <t>Unique Word Abbreviation</t>
+  </si>
+  <si>
+    <t>Number of Islands</t>
+  </si>
+  <si>
+    <t>Wiggle Sort</t>
+  </si>
+  <si>
+    <t>Add Bold Tag in String</t>
+  </si>
+  <si>
+    <t>3Sum Smaller</t>
+  </si>
+  <si>
+    <t>Evaluate Division</t>
+  </si>
+  <si>
+    <t>Pacific Atlantic Water Flow</t>
+  </si>
+  <si>
+    <t>Queue Reconstruction by Height</t>
+  </si>
+  <si>
+    <t>Perfect Squares</t>
+  </si>
+  <si>
+    <t>Merge Intervals</t>
+  </si>
+  <si>
+    <t>Peeking Iterator</t>
+  </si>
+  <si>
+    <t>Strobogrammatic Number II</t>
+  </si>
+  <si>
+    <t>Longest Word in Dictionary through Deleting</t>
+  </si>
+  <si>
+    <t>Summary Ranges</t>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/grandyang/p/4603555.html</t>
+  </si>
+  <si>
+    <t>Walls and Gates</t>
+  </si>
+  <si>
+    <t>Design Hit Counter</t>
+  </si>
+  <si>
+    <t>Flip Game II</t>
+  </si>
+  <si>
+    <t>Insert Delete GetRandom O(1)</t>
+  </si>
+  <si>
+    <t>Group Shifted Strings</t>
+  </si>
+  <si>
+    <t>Generalized Abbreviation</t>
+  </si>
+  <si>
+    <t>The Maze II</t>
+  </si>
+  <si>
+    <t>Flatten Nested List Iterator</t>
+  </si>
+  <si>
+    <t>Sort Transformed Array</t>
+  </si>
+  <si>
+    <t>Meeting Rooms II</t>
+  </si>
+  <si>
+    <t>Word Break</t>
+  </si>
+  <si>
+    <t>Kth Smallest Element in a BST</t>
+  </si>
+  <si>
+    <t>Find Peak Element</t>
+  </si>
+  <si>
+    <t>Diagonal Traverse</t>
+  </si>
+  <si>
+    <t>The Maze</t>
+  </si>
+  <si>
+    <t>Maximum Product of Word Lengths</t>
+  </si>
+  <si>
+    <t>Search a 2D Matrix II</t>
+  </si>
+  <si>
+    <t>Find K Pairs with Smallest Sums</t>
+  </si>
+  <si>
+    <t>Plus One Linked List</t>
+  </si>
+  <si>
+    <t>Reconstruct Itinerary</t>
+  </si>
+  <si>
+    <t>Binary Search Tree Iterator</t>
+  </si>
+  <si>
+    <t>Spiral Matrix</t>
+  </si>
+  <si>
+    <t>Wiggle Sort II</t>
+  </si>
+  <si>
+    <t>Letter Combinations of a Phone Number</t>
+  </si>
+  <si>
+    <t>Find Permutation</t>
+  </si>
+  <si>
+    <t>Longest Line of Consecutive One in Matrix</t>
+  </si>
+  <si>
+    <t>Fraction to Recurring Decimal</t>
+  </si>
+  <si>
+    <t>Generate Parentheses</t>
+  </si>
+  <si>
+    <t>Next Permutation</t>
+  </si>
+  <si>
+    <t>Implement Magic Dictionary</t>
+  </si>
+  <si>
+    <t>Maximum XOR of Two Numbers in an Array</t>
+  </si>
+  <si>
+    <t>Next Greater Element II</t>
+  </si>
+  <si>
+    <t>Redundant Connection</t>
+  </si>
+  <si>
+    <t>Clone Graph</t>
+  </si>
+  <si>
+    <t>Pow(x, n)</t>
+  </si>
+  <si>
+    <t>Implement Trie (Prefix Tree)</t>
+  </si>
+  <si>
+    <t>Design Tic-Tac-Toe</t>
+  </si>
+  <si>
+    <t>Find Duplicate Subtrees</t>
+  </si>
+  <si>
+    <t>Sequence Reconstruction</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock with Cooldown</t>
+  </si>
+  <si>
+    <t>Linked List Random Node</t>
+  </si>
+  <si>
+    <t>Remove K Digits</t>
+  </si>
+  <si>
+    <t>Range Addition</t>
+  </si>
+  <si>
+    <t>Combination Sum IV</t>
+  </si>
+  <si>
+    <t>Design Phone Directory</t>
+  </si>
+  <si>
+    <t>Design Snake Game</t>
+  </si>
+  <si>
+    <t>Guess Number Higher or Lower II</t>
+  </si>
+  <si>
+    <t>Line Reflection</t>
+  </si>
+  <si>
+    <t>Graph Valid Tree</t>
+  </si>
+  <si>
+    <t>Predict the Winner</t>
+  </si>
+  <si>
+    <t>01 Matrix</t>
+  </si>
+  <si>
+    <t>Integer Replacement</t>
+  </si>
+  <si>
+    <t>Largest Divisible Subset</t>
+  </si>
+  <si>
+    <t>Kth Smallest Element in a Sorted Matrix</t>
+  </si>
+  <si>
+    <t>Super Ugly Number</t>
+  </si>
+  <si>
+    <t>Verify Preorder Serialization of a Binary Tree</t>
+  </si>
+  <si>
+    <t>Number of Connected Components in an Undirected Graph</t>
+  </si>
+  <si>
+    <t>Sort Characters By Frequency</t>
+  </si>
+  <si>
+    <t>Minimum Height Trees</t>
+  </si>
+  <si>
+    <t>My Calendar I</t>
+  </si>
+  <si>
+    <t>Convex Polygon</t>
+  </si>
+  <si>
+    <t>Ones and Zeroes</t>
+  </si>
+  <si>
+    <t>Magical String</t>
+  </si>
+  <si>
+    <t>Binary Tree Vertical Order Traversal</t>
+  </si>
+  <si>
+    <t>Count Numbers with Unique Digits</t>
+  </si>
+  <si>
+    <t>Max Consecutive Ones II</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/grandyang/p/6376115.html</t>
+  </si>
+  <si>
+    <t>Target Sum</t>
+  </si>
+  <si>
+    <t>Longest Uncommon Subsequence II</t>
+  </si>
+  <si>
+    <t>Beautiful Arrangement</t>
+  </si>
+  <si>
+    <t>Lonely Pixel I</t>
+  </si>
+  <si>
+    <t>Lonely Pixel II</t>
+  </si>
+  <si>
+    <t>Encode and Decode TinyURL</t>
+  </si>
+  <si>
+    <t>Output Contest Matches</t>
+  </si>
+  <si>
+    <t>Boundary of Binary Tree</t>
+  </si>
+  <si>
+    <t>Binary Tree Longest Consecutive Sequence II</t>
+  </si>
+  <si>
+    <t>Subarray Sum Equals K</t>
+  </si>
+  <si>
+    <t>Delete Operation for Two Strings</t>
+  </si>
+  <si>
+    <t>Shopping Offers</t>
+  </si>
+  <si>
+    <t>4 Keys Keyboard</t>
+  </si>
+  <si>
+    <t>Find K Closest Elements</t>
+  </si>
+  <si>
+    <t>Split Array into Consecutive Subsequences</t>
+  </si>
+  <si>
+    <t>Beautiful Arrangement II</t>
+  </si>
+  <si>
+    <t>My Calendar II</t>
+  </si>
+  <si>
     <t>Longest Substring with At Most K Distinct Characters</t>
-  </si>
-  <si>
-    <t>Range Sum Query 2D - Mutable</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Word Squares</t>
-  </si>
-  <si>
-    <t>Maximum Vacation Days</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Shortest Distance from All Buildings</t>
-  </si>
-  <si>
-    <t>Number of Islands II</t>
-  </si>
-  <si>
-    <t>The Skyline Problem</t>
-  </si>
-  <si>
-    <t>Longest Substring with At Most Two Distinct Characters</t>
-  </si>
-  <si>
-    <t>Longest Increasing Path in a Matrix</t>
-  </si>
-  <si>
-    <t>Encode String with Shortest Length</t>
-  </si>
-  <si>
-    <t>Perfect Rectangle</t>
-  </si>
-  <si>
-    <t>Trapping Rain Water II</t>
-  </si>
-  <si>
-    <t>Serialize and Deserialize Binary Tree</t>
-  </si>
-  <si>
-    <t>LRU Cache</t>
-  </si>
-  <si>
-    <t>Find Median from Data Stream</t>
-  </si>
-  <si>
-    <t>Trapping Rain Water</t>
-  </si>
-  <si>
-    <t>Count of Smaller Numbers After Self</t>
-  </si>
-  <si>
-    <t>Minimum Unique Word Abbreviation</t>
-  </si>
-  <si>
-    <t>Alien Dictionary</t>
-  </si>
-  <si>
-    <t>Sliding Window Maximum</t>
-  </si>
-  <si>
-    <t>Optimal Account Balancing</t>
-  </si>
-  <si>
-    <t>Longest Consecutive Sequence</t>
-  </si>
-  <si>
-    <t>Read N Characters Given Read4 II - Call multiple times</t>
-  </si>
-  <si>
-    <t>Merge k Sorted Lists</t>
-  </si>
-  <si>
-    <t>Regular Expression Matching</t>
-  </si>
-  <si>
-    <t>Word Search II</t>
-  </si>
-  <si>
-    <t>Median of Two Sorted Arrays</t>
-  </si>
-  <si>
-    <t>Rearrange String k Distance Apart</t>
-  </si>
-  <si>
-    <t>Erect the Fence</t>
-  </si>
-  <si>
-    <t>24 Game</t>
-  </si>
-  <si>
-    <t>Word Break II</t>
-  </si>
-  <si>
-    <t>Basic Calculator</t>
-  </si>
-  <si>
-    <t>Count of Range Sum</t>
-  </si>
-  <si>
-    <t>Insert Interval</t>
-  </si>
-  <si>
-    <t>Palindrome Pairs</t>
-  </si>
-  <si>
-    <t>Wildcard Matching</t>
-  </si>
-  <si>
-    <t>LFU Cache</t>
-  </si>
-  <si>
-    <t>Max Sum of Rectangle No Larger Than K</t>
-  </si>
-  <si>
-    <t>Russian Doll Envelopes</t>
-  </si>
-  <si>
-    <t>Closest Binary Search Tree Value II</t>
-  </si>
-  <si>
-    <t>Shortest Palindrome</t>
-  </si>
-  <si>
-    <t>Expression Add Operators</t>
-  </si>
-  <si>
-    <t>Smallest Rectangle Enclosing Black Pixels</t>
-  </si>
-  <si>
-    <t>Create Maximum Number</t>
-  </si>
-  <si>
-    <t>Sliding Window Median</t>
-  </si>
-  <si>
-    <t>Smallest Good Base</t>
-  </si>
-  <si>
-    <t>Burst Balloons</t>
-  </si>
-  <si>
-    <t>Reverse Pairs</t>
-  </si>
-  <si>
-    <t>Freedom Trail</t>
-  </si>
-  <si>
-    <t>Word Abbreviation</t>
-  </si>
-  <si>
-    <t>Remove Duplicate Letters</t>
-  </si>
-  <si>
-    <t>Patching Array</t>
-  </si>
-  <si>
-    <t>Student Attendance Record II</t>
-  </si>
-  <si>
-    <t>Median Employee Salary</t>
-  </si>
-  <si>
-    <t>Maximum Average Subarray II</t>
-  </si>
-  <si>
-    <t>Coin Path</t>
-  </si>
-  <si>
-    <t>Kth Smallest Number in Multiplication Table</t>
-  </si>
-  <si>
-    <t>Redundant Connection II</t>
-  </si>
-  <si>
-    <t>Maximum Sum of 3 Non-Overlapping Subarrays</t>
-  </si>
-  <si>
-    <t>Find K-th Smallest Pair Distance</t>
-  </si>
-  <si>
-    <t>Number of Atoms</t>
-  </si>
-  <si>
-    <t>Minimum Window Subsequence</t>
-  </si>
-  <si>
-    <t>Design TinyURL</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>Longest Absolute File Path</t>
-  </si>
-  <si>
-    <t>Next Closest Time</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/IAet94C1FCc?feature=oembed</t>
-  </si>
-  <si>
-    <t>License Key Formatting</t>
-  </si>
-  <si>
-    <t>Binary Tree Longest Consecutive Sequence</t>
-  </si>
-  <si>
-    <t>Sentence Screen Fitting</t>
-  </si>
-  <si>
-    <t>Zigzag Iterator</t>
-  </si>
-  <si>
-    <t>Bomb Enemy</t>
-  </si>
-  <si>
-    <t>Decode String</t>
-  </si>
-  <si>
-    <t>UTF-8 Validation</t>
-  </si>
-  <si>
-    <t>Missing Ranges</t>
-  </si>
-  <si>
-    <t>https://www.cnblogs.com/grandyang/p/5184890.html</t>
-  </si>
-  <si>
-    <t>Android Unlock Patterns</t>
-  </si>
-  <si>
-    <t>Encode and Decode Strings</t>
-  </si>
-  <si>
-    <t>Game of Life</t>
-  </si>
-  <si>
-    <t>Unique Word Abbreviation</t>
-  </si>
-  <si>
-    <t>Number of Islands</t>
-  </si>
-  <si>
-    <t>Wiggle Sort</t>
-  </si>
-  <si>
-    <t>Add Bold Tag in String</t>
-  </si>
-  <si>
-    <t>3Sum Smaller</t>
-  </si>
-  <si>
-    <t>Evaluate Division</t>
-  </si>
-  <si>
-    <t>Pacific Atlantic Water Flow</t>
-  </si>
-  <si>
-    <t>Queue Reconstruction by Height</t>
-  </si>
-  <si>
-    <t>Perfect Squares</t>
-  </si>
-  <si>
-    <t>Merge Intervals</t>
-  </si>
-  <si>
-    <t>Peeking Iterator</t>
-  </si>
-  <si>
-    <t>Strobogrammatic Number II</t>
-  </si>
-  <si>
-    <t>Longest Word in Dictionary through Deleting</t>
-  </si>
-  <si>
-    <t>Summary Ranges</t>
-  </si>
-  <si>
-    <t>http://www.cnblogs.com/grandyang/p/4603555.html</t>
-  </si>
-  <si>
-    <t>Walls and Gates</t>
-  </si>
-  <si>
-    <t>Design Hit Counter</t>
-  </si>
-  <si>
-    <t>Flip Game II</t>
-  </si>
-  <si>
-    <t>Insert Delete GetRandom O(1)</t>
-  </si>
-  <si>
-    <t>Group Shifted Strings</t>
-  </si>
-  <si>
-    <t>Generalized Abbreviation</t>
-  </si>
-  <si>
-    <t>The Maze II</t>
-  </si>
-  <si>
-    <t>Flatten Nested List Iterator</t>
-  </si>
-  <si>
-    <t>Sort Transformed Array</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>H-Index</t>
-  </si>
-  <si>
-    <t>Meeting Rooms II</t>
-  </si>
-  <si>
-    <t>Word Break</t>
-  </si>
-  <si>
-    <t>Kth Smallest Element in a BST</t>
-  </si>
-  <si>
-    <t>Find Peak Element</t>
-  </si>
-  <si>
-    <t>Diagonal Traverse</t>
-  </si>
-  <si>
-    <t>The Maze</t>
-  </si>
-  <si>
-    <t>Maximum Product of Word Lengths</t>
-  </si>
-  <si>
-    <t>Search a 2D Matrix II</t>
-  </si>
-  <si>
-    <t>Find K Pairs with Smallest Sums</t>
-  </si>
-  <si>
-    <t>Plus One Linked List</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Flatten 2D Vector</t>
-  </si>
-  <si>
-    <t>Reconstruct Itinerary</t>
-  </si>
-  <si>
-    <t>Binary Search Tree Iterator</t>
-  </si>
-  <si>
-    <t>Spiral Matrix</t>
-  </si>
-  <si>
-    <t>Wiggle Sort II</t>
-  </si>
-  <si>
-    <t>Letter Combinations of a Phone Number</t>
-  </si>
-  <si>
-    <t>Find Permutation</t>
-  </si>
-  <si>
-    <t>Longest Line of Consecutive One in Matrix</t>
-  </si>
-  <si>
-    <t>Fraction to Recurring Decimal</t>
-  </si>
-  <si>
-    <t>Generate Parentheses</t>
-  </si>
-  <si>
-    <t>Next Permutation</t>
-  </si>
-  <si>
-    <t>Implement Magic Dictionary</t>
-  </si>
-  <si>
-    <t>Maximum XOR of Two Numbers in an Array</t>
-  </si>
-  <si>
-    <t>Next Greater Element II</t>
-  </si>
-  <si>
-    <t>Redundant Connection</t>
-  </si>
-  <si>
-    <t>Clone Graph</t>
-  </si>
-  <si>
-    <t>Pow(x, n)</t>
-  </si>
-  <si>
-    <t>Implement Trie (Prefix Tree)</t>
-  </si>
-  <si>
-    <t>Design Tic-Tac-Toe</t>
-  </si>
-  <si>
-    <t>Find Duplicate Subtrees</t>
-  </si>
-  <si>
-    <t>Sequence Reconstruction</t>
-  </si>
-  <si>
-    <t>Best Time to Buy and Sell Stock with Cooldown</t>
-  </si>
-  <si>
-    <t>Linked List Random Node</t>
-  </si>
-  <si>
-    <t>Remove K Digits</t>
-  </si>
-  <si>
-    <t>Range Addition</t>
-  </si>
-  <si>
-    <t>Combination Sum IV</t>
-  </si>
-  <si>
-    <t>Design Phone Directory</t>
-  </si>
-  <si>
-    <t>Design Snake Game</t>
-  </si>
-  <si>
-    <t>Guess Number Higher or Lower II</t>
-  </si>
-  <si>
-    <t>Line Reflection</t>
-  </si>
-  <si>
-    <t>Graph Valid Tree</t>
-  </si>
-  <si>
-    <t>Predict the Winner</t>
-  </si>
-  <si>
-    <t>01 Matrix</t>
-  </si>
-  <si>
-    <t>Integer Replacement</t>
-  </si>
-  <si>
-    <t>Largest Divisible Subset</t>
-  </si>
-  <si>
-    <t>Kth Smallest Element in a Sorted Matrix</t>
-  </si>
-  <si>
-    <t>Super Ugly Number</t>
-  </si>
-  <si>
-    <t>Verify Preorder Serialization of a Binary Tree</t>
-  </si>
-  <si>
-    <t>Number of Connected Components in an Undirected Graph</t>
-  </si>
-  <si>
-    <t>Sort Characters By Frequency</t>
-  </si>
-  <si>
-    <t>Minimum Height Trees</t>
-  </si>
-  <si>
-    <t>My Calendar I</t>
-  </si>
-  <si>
-    <t>Convex Polygon</t>
-  </si>
-  <si>
-    <t>Ones and Zeroes</t>
-  </si>
-  <si>
-    <t>Magical String</t>
-  </si>
-  <si>
-    <t>Binary Tree Vertical Order Traversal</t>
-  </si>
-  <si>
-    <t>Count Numbers with Unique Digits</t>
-  </si>
-  <si>
-    <t>Max Consecutive Ones II</t>
-  </si>
-  <si>
-    <t>https://www.cnblogs.com/grandyang/p/6376115.html</t>
-  </si>
-  <si>
-    <t>Target Sum</t>
-  </si>
-  <si>
-    <t>Longest Uncommon Subsequence II</t>
-  </si>
-  <si>
-    <t>Beautiful Arrangement</t>
-  </si>
-  <si>
-    <t>Lonely Pixel I</t>
-  </si>
-  <si>
-    <t>Lonely Pixel II</t>
-  </si>
-  <si>
-    <t>Encode and Decode TinyURL</t>
-  </si>
-  <si>
-    <t>Output Contest Matches</t>
-  </si>
-  <si>
-    <t>Boundary of Binary Tree</t>
-  </si>
-  <si>
-    <t>Binary Tree Longest Consecutive Sequence II</t>
-  </si>
-  <si>
-    <t>Subarray Sum Equals K</t>
-  </si>
-  <si>
-    <t>Delete Operation for Two Strings</t>
-  </si>
-  <si>
-    <t>Shopping Offers</t>
-  </si>
-  <si>
-    <t>4 Keys Keyboard</t>
-  </si>
-  <si>
-    <t>Find K Closest Elements</t>
-  </si>
-  <si>
-    <t>Split Array into Consecutive Subsequences</t>
-  </si>
-  <si>
-    <t>Beautiful Arrangement II</t>
-  </si>
-  <si>
-    <t>My Calendar II</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/grandyang/p/5209621.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -731,13 +739,13 @@
       <sz val="22"/>
       <color rgb="FF24292E"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF24292E"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -769,122 +777,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -921,176 +820,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1122,247 +853,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1380,72 +881,32 @@
     <xf numFmtId="10" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="31" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="7" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="32" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="5">
+    <cellStyle name="差" xfId="1" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
+    <cellStyle name="好" xfId="3" builtinId="26"/>
+    <cellStyle name="适中" xfId="4" builtinId="28"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1703,33 +1164,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="D102" sqref="D102"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="I151" sqref="I151"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.8796296296296" customWidth="1"/>
+    <col min="1" max="1" width="39.875" customWidth="1"/>
     <col min="2" max="2" width="41.75" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
-    <col min="4" max="4" width="29.6296296296296" customWidth="1"/>
-    <col min="6" max="6" width="17.3796296296296" customWidth="1"/>
+    <col min="4" max="4" width="29.625" customWidth="1"/>
+    <col min="6" max="6" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33.15" spans="1:1">
+    <row r="1" spans="1:5" ht="33" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="19.95" spans="1:4">
+    <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1743,7 +1204,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="19.95" spans="1:5">
+    <row r="3" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>346</v>
       </c>
@@ -1751,14 +1212,14 @@
         <v>5</v>
       </c>
       <c r="C3" s="4">
-        <v>0.595</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" ht="19.95" spans="1:5">
+    <row r="4" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>66</v>
       </c>
@@ -1766,14 +1227,14 @@
         <v>7</v>
       </c>
       <c r="C4" s="4">
-        <v>0.391</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" ht="19.95" spans="1:5">
+    <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>686</v>
       </c>
@@ -1781,14 +1242,14 @@
         <v>8</v>
       </c>
       <c r="C5" s="7">
-        <v>0.329</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" ht="19.95" spans="1:4">
+    <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>246</v>
       </c>
@@ -1802,7 +1263,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" ht="19.95" spans="1:5">
+    <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>345</v>
       </c>
@@ -1810,14 +1271,14 @@
         <v>10</v>
       </c>
       <c r="C7" s="4">
-        <v>0.387</v>
+        <v>0.38700000000000001</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" ht="19.95" spans="1:4">
+    <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>687</v>
       </c>
@@ -1825,13 +1286,13 @@
         <v>11</v>
       </c>
       <c r="C8" s="4">
-        <v>0.333</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" ht="19.95" spans="1:5">
+    <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>276</v>
       </c>
@@ -1839,14 +1300,14 @@
         <v>12</v>
       </c>
       <c r="C9" s="4">
-        <v>0.347</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" ht="19.95" spans="1:5">
+    <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>401</v>
       </c>
@@ -1854,14 +1315,14 @@
         <v>13</v>
       </c>
       <c r="C10" s="7">
-        <v>0.449</v>
+        <v>0.44900000000000001</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" ht="19.95" spans="1:4">
+    <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>463</v>
       </c>
@@ -1869,13 +1330,13 @@
         <v>14</v>
       </c>
       <c r="C11" s="4">
-        <v>0.575</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" ht="19.95" spans="1:5">
+    <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>266</v>
       </c>
@@ -1883,14 +1344,14 @@
         <v>15</v>
       </c>
       <c r="C12" s="7">
-        <v>0.575</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" ht="19.95" spans="1:5">
+    <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>389</v>
       </c>
@@ -1905,7 +1366,7 @@
       </c>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" ht="19.95" spans="1:5">
+    <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>20</v>
       </c>
@@ -1913,14 +1374,14 @@
         <v>17</v>
       </c>
       <c r="C14" s="4">
-        <v>0.337</v>
+        <v>0.33700000000000002</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" ht="19.95" spans="1:5">
+    <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>293</v>
       </c>
@@ -1928,14 +1389,14 @@
         <v>18</v>
       </c>
       <c r="C15" s="4">
-        <v>0.565</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" ht="19.95" spans="1:5">
+    <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>415</v>
       </c>
@@ -1943,14 +1404,14 @@
         <v>19</v>
       </c>
       <c r="C16" s="4">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" ht="19.95" spans="1:5">
+    <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>359</v>
       </c>
@@ -1958,14 +1419,14 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>0.601</v>
+        <v>0.60099999999999998</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" ht="19.95" spans="1:4">
+    <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>270</v>
       </c>
@@ -1973,13 +1434,13 @@
         <v>21</v>
       </c>
       <c r="C18" s="4">
-        <v>0.401</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" ht="19.95" spans="1:5">
+    <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>400</v>
       </c>
@@ -1987,14 +1448,14 @@
         <v>22</v>
       </c>
       <c r="C19" s="7">
-        <v>0.301</v>
+        <v>0.30099999999999999</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" ht="19.95" spans="1:4">
+    <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>422</v>
       </c>
@@ -2002,13 +1463,13 @@
         <v>23</v>
       </c>
       <c r="C20" s="4">
-        <v>0.364</v>
+        <v>0.36399999999999999</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" ht="19.95" spans="1:4">
+    <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>155</v>
       </c>
@@ -2016,13 +1477,13 @@
         <v>24</v>
       </c>
       <c r="C21" s="4">
-        <v>0.297</v>
+        <v>0.29699999999999999</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" ht="19.95" spans="1:5">
+    <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>409</v>
       </c>
@@ -2030,14 +1491,14 @@
         <v>25</v>
       </c>
       <c r="C22" s="4">
-        <v>0.455</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" ht="19.95" spans="1:4">
+    <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>543</v>
       </c>
@@ -2045,13 +1506,13 @@
         <v>26</v>
       </c>
       <c r="C23" s="7">
-        <v>0.447</v>
+        <v>0.44700000000000001</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" ht="19.95" spans="1:4">
+    <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>231</v>
       </c>
@@ -2059,13 +1520,13 @@
         <v>27</v>
       </c>
       <c r="C24" s="7">
-        <v>0.404</v>
+        <v>0.40400000000000003</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" ht="19.95" spans="1:4">
+    <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>501</v>
       </c>
@@ -2079,7 +1540,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" ht="19.95" spans="1:5">
+    <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>475</v>
       </c>
@@ -2087,14 +1548,14 @@
         <v>29</v>
       </c>
       <c r="C26" s="4">
-        <v>0.296</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" ht="19.95" spans="1:5">
+    <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>551</v>
       </c>
@@ -2109,7 +1570,7 @@
       </c>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" ht="19.95" spans="1:5">
+    <row r="28" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>459</v>
       </c>
@@ -2117,14 +1578,14 @@
         <v>31</v>
       </c>
       <c r="C28" s="7">
-        <v>0.382</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E28" s="9"/>
     </row>
-    <row r="29" ht="19.95" spans="1:5">
+    <row r="29" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>408</v>
       </c>
@@ -2132,14 +1593,14 @@
         <v>32</v>
       </c>
       <c r="C29" s="4">
-        <v>0.282</v>
+        <v>0.28199999999999997</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" ht="19.95" spans="1:5">
+    <row r="30" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>530</v>
       </c>
@@ -2147,14 +1608,14 @@
         <v>33</v>
       </c>
       <c r="C30" s="7">
-        <v>0.471</v>
+        <v>0.47099999999999997</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E30" s="5"/>
     </row>
-    <row r="31" ht="19.95" spans="1:4">
+    <row r="31" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>374</v>
       </c>
@@ -2162,13 +1623,13 @@
         <v>34</v>
       </c>
       <c r="C31" s="4">
-        <v>0.359</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="32" ht="39.15" spans="1:4">
+    <row r="32" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>448</v>
       </c>
@@ -2176,13 +1637,13 @@
         <v>35</v>
       </c>
       <c r="C32" s="7">
-        <v>0.512</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="33" ht="19.95" spans="1:4">
+    <row r="33" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>326</v>
       </c>
@@ -2190,13 +1651,13 @@
         <v>36</v>
       </c>
       <c r="C33" s="7">
-        <v>0.404</v>
+        <v>0.40400000000000003</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="34" ht="19.95" spans="1:4">
+    <row r="34" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>257</v>
       </c>
@@ -2204,13 +1665,13 @@
         <v>37</v>
       </c>
       <c r="C34" s="4">
-        <v>0.397</v>
+        <v>0.39700000000000002</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="35" ht="19.95" spans="1:5">
+    <row r="35" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>520</v>
       </c>
@@ -2218,14 +1679,14 @@
         <v>38</v>
       </c>
       <c r="C35" s="7">
-        <v>0.519</v>
+        <v>0.51900000000000002</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E35" s="5"/>
     </row>
-    <row r="36" ht="19.95" spans="1:5">
+    <row r="36" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>485</v>
       </c>
@@ -2240,7 +1701,7 @@
       </c>
       <c r="E36" s="5"/>
     </row>
-    <row r="37" ht="19.95" spans="1:4">
+    <row r="37" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>506</v>
       </c>
@@ -2248,13 +1709,13 @@
         <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>0.466</v>
+        <v>0.46600000000000003</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="38" ht="19.95" spans="1:4">
+    <row r="38" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>447</v>
       </c>
@@ -2262,13 +1723,13 @@
         <v>41</v>
       </c>
       <c r="C38" s="7">
-        <v>0.457</v>
+        <v>0.45700000000000002</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="39" ht="19.95" spans="1:4">
+    <row r="39" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>521</v>
       </c>
@@ -2276,13 +1737,13 @@
         <v>42</v>
       </c>
       <c r="C39" s="4">
-        <v>0.559</v>
+        <v>0.55900000000000005</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="40" ht="19.95" spans="1:4">
+    <row r="40" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>541</v>
       </c>
@@ -2296,7 +1757,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" ht="19.95" spans="1:5">
+    <row r="41" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>581</v>
       </c>
@@ -2304,14 +1765,14 @@
         <v>44</v>
       </c>
       <c r="C41" s="4">
-        <v>0.293</v>
+        <v>0.29299999999999998</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E41" s="5"/>
     </row>
-    <row r="42" ht="19.95" spans="1:4">
+    <row r="42" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>604</v>
       </c>
@@ -2319,13 +1780,13 @@
         <v>45</v>
       </c>
       <c r="C42" s="4">
-        <v>0.325</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="43" ht="19.95" spans="1:5">
+    <row r="43" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>643</v>
       </c>
@@ -2340,7 +1801,7 @@
       </c>
       <c r="E43" s="5"/>
     </row>
-    <row r="44" ht="19.95" spans="1:5">
+    <row r="44" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>657</v>
       </c>
@@ -2348,14 +1809,14 @@
         <v>47</v>
       </c>
       <c r="C44" s="4">
-        <v>0.686</v>
+        <v>0.68600000000000005</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E44" s="5"/>
     </row>
-    <row r="45" ht="19.95" spans="1:5">
+    <row r="45" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
         <v>665</v>
       </c>
@@ -2363,14 +1824,14 @@
         <v>48</v>
       </c>
       <c r="C45" s="7">
-        <v>0.211</v>
+        <v>0.21099999999999999</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E45" s="5"/>
     </row>
-    <row r="46" ht="19.95" spans="1:4">
+    <row r="46" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
         <v>683</v>
       </c>
@@ -2378,47 +1839,47 @@
         <v>49</v>
       </c>
       <c r="C46" s="7">
-        <v>0.366</v>
+        <v>0.36599999999999999</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="47" ht="39.15" spans="1:4">
+    <row r="47" spans="1:5" ht="34.5" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
         <v>340</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>51</v>
+        <v>226</v>
       </c>
       <c r="C47" s="7">
-        <v>0.392</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="48" ht="19.95" spans="1:5">
+    <row r="48" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
         <v>308</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C48" s="7">
-        <v>0.241</v>
+        <v>0.24099999999999999</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E48" s="9"/>
     </row>
-    <row r="49" ht="19.95" spans="1:4">
+    <row r="49" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>425</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>53</v>
+        <v>227</v>
       </c>
       <c r="C49" s="4">
         <v>0.435</v>
@@ -2427,124 +1888,124 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" ht="19.95" spans="1:4">
+    <row r="50" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>568</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C50" s="4">
-        <v>0.391</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" ht="19.95" spans="1:4">
+    <row r="51" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
         <v>317</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>55</v>
+        <v>228</v>
       </c>
       <c r="C51" s="7">
-        <v>0.344</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" ht="19.95" spans="1:4">
+    <row r="52" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
         <v>305</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C52" s="7">
-        <v>0.393</v>
+        <v>0.39300000000000002</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="53" ht="19.95" spans="1:4">
+    <row r="53" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>218</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C53" s="4">
-        <v>0.282</v>
+        <v>0.28199999999999997</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="54" ht="39.15" spans="1:4">
+    <row r="54" spans="1:4" ht="34.5" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>159</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C54" s="4">
-        <v>0.419</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="55" ht="19.95" spans="1:4">
+    <row r="55" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>329</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C55" s="4">
-        <v>0.369</v>
+        <v>0.36899999999999999</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="56" ht="19.95" spans="1:4">
+    <row r="56" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>471</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C56" s="4">
-        <v>0.428</v>
+        <v>0.42799999999999999</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="57" ht="19.95" spans="1:4">
+    <row r="57" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>391</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C57" s="4">
-        <v>0.271</v>
+        <v>0.27100000000000002</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="58" ht="19.95" spans="1:4">
+    <row r="58" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
         <v>407</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C58" s="7">
         <v>0.376</v>
@@ -2553,12 +2014,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" ht="19.95" spans="1:4">
+    <row r="59" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>297</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C59" s="4">
         <v>0.34</v>
@@ -2567,12 +2028,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" ht="19.95" spans="1:4">
+    <row r="60" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>146</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C60" s="4">
         <v>0.187</v>
@@ -2581,26 +2042,26 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" ht="19.95" spans="1:4">
+    <row r="61" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>295</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C61" s="4">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="62" ht="19.95" spans="1:4">
+    <row r="62" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
         <v>42</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C62" s="7">
         <v>0.372</v>
@@ -2609,40 +2070,40 @@
         <v>50</v>
       </c>
     </row>
-    <row r="63" ht="19.95" spans="1:4">
+    <row r="63" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>315</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C63" s="4">
-        <v>0.348</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="64" ht="19.95" spans="1:4">
+    <row r="64" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>411</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C64" s="4">
-        <v>0.333</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="65" ht="19.95" spans="1:4">
+    <row r="65" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A65" s="6">
         <v>269</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C65" s="7">
         <v>0.252</v>
@@ -2651,26 +2112,26 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" ht="19.95" spans="1:4">
+    <row r="66" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>239</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C66" s="4">
-        <v>0.336</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="67" ht="19.95" spans="1:4">
+    <row r="67" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>465</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C67" s="4">
         <v>0.378</v>
@@ -2679,12 +2140,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="68" ht="19.95" spans="1:4">
+    <row r="68" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A68" s="6">
         <v>128</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C68" s="7">
         <v>0.375</v>
@@ -2693,12 +2154,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="69" ht="39.15" spans="1:4">
+    <row r="69" spans="1:5" ht="34.5" x14ac:dyDescent="0.2">
       <c r="A69" s="6">
         <v>158</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C69" s="7">
         <v>0.245</v>
@@ -2707,40 +2168,40 @@
         <v>50</v>
       </c>
     </row>
-    <row r="70" ht="19.95" spans="1:4">
+    <row r="70" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A70" s="6">
         <v>23</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C70" s="7">
-        <v>0.277</v>
+        <v>0.27700000000000002</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="71" ht="19.95" spans="1:4">
+    <row r="71" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>10</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C71" s="4">
-        <v>0.243</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="72" ht="19.95" spans="1:4">
+    <row r="72" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A72" s="6">
         <v>212</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C72" s="7">
         <v>0.24</v>
@@ -2749,12 +2210,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="73" ht="19.95" spans="1:4">
+    <row r="73" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>4</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C73" s="4">
         <v>0.223</v>
@@ -2763,12 +2224,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="74" ht="19.95" spans="1:4">
+    <row r="74" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A74" s="6">
         <v>358</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C74" s="7">
         <v>0.317</v>
@@ -2777,182 +2238,182 @@
         <v>50</v>
       </c>
     </row>
-    <row r="75" ht="19.95" spans="1:4">
+    <row r="75" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A75" s="6">
         <v>587</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C75" s="7">
-        <v>0.326</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="76" ht="19.95" spans="1:4">
+    <row r="76" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>679</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C76" s="4">
-        <v>0.389</v>
+        <v>0.38900000000000001</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="77" ht="19.95" spans="1:4">
+    <row r="77" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A77" s="6">
         <v>140</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C77" s="7">
-        <v>0.239</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="D77" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="78" ht="19.95" spans="1:4">
+    <row r="78" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A78" s="6">
         <v>224</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C78" s="7">
-        <v>0.278</v>
+        <v>0.27800000000000002</v>
       </c>
       <c r="D78" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="79" ht="19.95" spans="1:5">
+    <row r="79" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>327</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C79" s="4">
-        <v>0.301</v>
+        <v>0.30099999999999999</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E79" s="9"/>
     </row>
-    <row r="80" ht="19.95" spans="1:5">
+    <row r="80" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>57</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C80" s="4">
-        <v>0.283</v>
+        <v>0.28299999999999997</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E80" s="9"/>
     </row>
-    <row r="81" ht="19.95" spans="1:4">
+    <row r="81" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>336</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C81" s="4">
-        <v>0.266</v>
+        <v>0.26600000000000001</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="82" ht="19.95" spans="1:4">
+    <row r="82" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A82" s="6">
         <v>44</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C82" s="7">
-        <v>0.206</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="D82" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="83" ht="19.95" spans="1:4">
+    <row r="83" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>460</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C83" s="4">
-        <v>0.244</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="84" ht="39.15" spans="1:4">
+    <row r="84" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A84" s="6">
         <v>363</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C84" s="7">
-        <v>0.334</v>
+        <v>0.33400000000000002</v>
       </c>
       <c r="D84" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="85" ht="19.95" spans="1:4">
+    <row r="85" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>354</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C85" s="4">
-        <v>0.323</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="86" ht="19.95" spans="1:4">
+    <row r="86" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A86" s="6">
         <v>272</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C86" s="7">
-        <v>0.394</v>
+        <v>0.39400000000000002</v>
       </c>
       <c r="D86" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="87" ht="19.95" spans="1:4">
+    <row r="87" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A87" s="6">
         <v>214</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C87" s="7">
         <v>0.247</v>
@@ -2961,40 +2422,40 @@
         <v>50</v>
       </c>
     </row>
-    <row r="88" ht="19.95" spans="1:4">
+    <row r="88" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>282</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C88" s="4">
-        <v>0.302</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="89" ht="19.95" spans="1:4">
+    <row r="89" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A89" s="6">
         <v>302</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C89" s="7">
-        <v>0.459</v>
+        <v>0.45900000000000002</v>
       </c>
       <c r="D89" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="90" ht="19.95" spans="1:4">
+    <row r="90" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A90" s="6">
         <v>321</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C90" s="7">
         <v>0.248</v>
@@ -3003,12 +2464,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="91" ht="19.95" spans="1:4">
+    <row r="91" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A91" s="6">
         <v>480</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C91" s="7">
         <v>0.311</v>
@@ -3017,26 +2478,26 @@
         <v>50</v>
       </c>
     </row>
-    <row r="92" ht="19.95" spans="1:4">
+    <row r="92" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A92" s="6">
         <v>483</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C92" s="7">
-        <v>0.334</v>
+        <v>0.33400000000000002</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="93" ht="19.95" spans="1:4">
+    <row r="93" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A93" s="6">
         <v>312</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C93" s="7">
         <v>0.432</v>
@@ -3045,82 +2506,82 @@
         <v>50</v>
       </c>
     </row>
-    <row r="94" ht="19.95" spans="1:4">
+    <row r="94" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A94" s="6">
         <v>493</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C94" s="7">
-        <v>0.206</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="D94" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="95" ht="19.95" spans="1:4">
+    <row r="95" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>514</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C95" s="4">
-        <v>0.391</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="96" ht="19.95" spans="1:4">
+    <row r="96" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A96" s="6">
         <v>527</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C96" s="7">
-        <v>0.419</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="D96" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="97" ht="19.95" spans="1:4">
+    <row r="97" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>316</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C97" s="4">
-        <v>0.299</v>
+        <v>0.29899999999999999</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="98" ht="19.95" spans="1:4">
+    <row r="98" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A98" s="6">
         <v>330</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C98" s="7">
-        <v>0.323</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="D98" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="99" ht="19.95" spans="1:4">
+    <row r="99" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A99" s="6">
         <v>552</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C99" s="7">
         <v>0.313</v>
@@ -3129,26 +2590,26 @@
         <v>50</v>
       </c>
     </row>
-    <row r="100" ht="19.95" spans="1:4">
+    <row r="100" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A100" s="6">
         <v>569</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C100" s="7">
-        <v>0.342</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="D100" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="101" ht="19.95" spans="1:4">
+    <row r="101" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A101" s="6">
         <v>644</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C101" s="7">
         <v>0.23</v>
@@ -3157,12 +2618,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="102" ht="19.95" spans="1:4">
+    <row r="102" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A102" s="6">
         <v>656</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C102" s="7">
         <v>0.251</v>
@@ -3171,12 +2632,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="103" ht="39.15" spans="1:4">
+    <row r="103" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A103" s="6">
         <v>668</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C103" s="7">
         <v>0.377</v>
@@ -3185,40 +2646,40 @@
         <v>50</v>
       </c>
     </row>
-    <row r="104" ht="19.95" spans="1:4">
+    <row r="104" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
         <v>685</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C104" s="4">
-        <v>0.284</v>
+        <v>0.28399999999999997</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="105" ht="39.15" spans="1:4">
+    <row r="105" spans="1:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="A105" s="6">
         <v>689</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C105" s="7">
-        <v>0.413</v>
+        <v>0.41299999999999998</v>
       </c>
       <c r="D105" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="106" ht="19.95" spans="1:4">
+    <row r="106" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
         <v>719</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C106" s="4">
         <v>0.253</v>
@@ -3227,1665 +2688,1668 @@
         <v>50</v>
       </c>
     </row>
-    <row r="107" ht="19.95" spans="1:4">
+    <row r="107" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A107" s="6">
         <v>726</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C107" s="7">
-        <v>0.457</v>
+        <v>0.45700000000000002</v>
       </c>
       <c r="D107" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="108" ht="19.95" spans="1:4">
+    <row r="108" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
         <v>727</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C108" s="4">
-        <v>0.291</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="109" ht="19.95" spans="1:4">
+    <row r="109" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A109" s="6">
         <v>534</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C109" s="7">
         <v>0</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="110" ht="19.95" spans="1:5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
         <v>388</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C110" s="4">
         <v>0.371</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E110" s="9"/>
     </row>
-    <row r="111" ht="19.95" spans="1:6">
+    <row r="111" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
         <v>681</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C111" s="4">
-        <v>0.429</v>
+        <v>0.42899999999999999</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E111" s="5"/>
       <c r="F111" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="112" ht="19.95" spans="1:5">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
         <v>482</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C112" s="4">
-        <v>0.418</v>
+        <v>0.41799999999999998</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E112" s="9"/>
     </row>
-    <row r="113" ht="39.15" spans="1:4">
+    <row r="113" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A113" s="6">
         <v>298</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C113" s="7">
-        <v>0.414</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="114" ht="19.95" spans="1:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
         <v>418</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C114" s="4">
-        <v>0.278</v>
+        <v>0.27800000000000002</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="115" ht="19.95" spans="1:5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A115" s="6">
         <v>281</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C115" s="7">
-        <v>0.514</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E115" s="5"/>
     </row>
-    <row r="116" ht="19.95" spans="1:5">
+    <row r="116" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A116" s="6">
         <v>361</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C116" s="7">
-        <v>0.394</v>
+        <v>0.39400000000000002</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E116" s="9"/>
     </row>
-    <row r="117" ht="19.95" spans="1:5">
+    <row r="117" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
         <v>394</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C117" s="4">
-        <v>0.417</v>
+        <v>0.41699999999999998</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E117" s="9"/>
     </row>
-    <row r="118" ht="19.95" spans="1:5">
+    <row r="118" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A118" s="6">
         <v>393</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C118" s="7">
-        <v>0.347</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E118" s="9"/>
     </row>
-    <row r="119" ht="19.95" spans="1:6">
+    <row r="119" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A119" s="6">
         <v>163</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C119" s="7">
-        <v>0.238</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E119" s="9"/>
       <c r="F119" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="120" ht="19.95" spans="1:4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
         <v>351</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C120" s="4">
         <v>0.443</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="121" ht="19.95" spans="1:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
         <v>271</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C121" s="4">
-        <v>0.262</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="122" ht="19.95" spans="1:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A122" s="6">
         <v>289</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C122" s="7">
         <v>0.371</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="123" ht="19.95" spans="1:5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
         <v>288</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C123" s="4">
-        <v>0.173</v>
+        <v>0.17299999999999999</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E123" s="5"/>
     </row>
-    <row r="124" ht="19.95" spans="1:5">
+    <row r="124" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
         <v>200</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C124" s="4">
-        <v>0.356</v>
+        <v>0.35599999999999998</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E124" s="5"/>
     </row>
-    <row r="125" ht="19.95" spans="1:5">
+    <row r="125" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A125" s="6">
         <v>280</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C125" s="7">
-        <v>0.579</v>
+        <v>0.57899999999999996</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E125" s="9"/>
     </row>
-    <row r="126" ht="19.95" spans="1:5">
+    <row r="126" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
         <v>616</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C126" s="4">
-        <v>0.387</v>
+        <v>0.38700000000000001</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E126" s="8"/>
     </row>
-    <row r="127" ht="19.95" spans="1:4">
+    <row r="127" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A127" s="6">
         <v>259</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C127" s="7">
-        <v>0.417</v>
+        <v>0.41699999999999998</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="128" ht="19.95" spans="1:5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A128" s="6">
         <v>399</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C128" s="7">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E128" s="9"/>
     </row>
-    <row r="129" ht="19.95" spans="1:4">
+    <row r="129" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A129" s="6">
         <v>417</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C129" s="7">
-        <v>0.341</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="130" ht="19.95" spans="1:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
         <v>406</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C130" s="4">
-        <v>0.562</v>
+        <v>0.56200000000000006</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="131" ht="19.95" spans="1:5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A131" s="6">
         <v>279</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C131" s="7">
         <v>0.375</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E131" s="8"/>
     </row>
-    <row r="132" ht="19.95" spans="1:4">
+    <row r="132" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A132" s="6">
         <v>56</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C132" s="7">
         <v>0.31</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="133" ht="19.95" spans="1:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A133" s="6">
         <v>284</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C133" s="7">
-        <v>0.355</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="134" ht="19.95" spans="1:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
         <v>247</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C134" s="4">
-        <v>0.405</v>
+        <v>0.40500000000000003</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="135" ht="39.15" spans="1:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A135" s="6">
         <v>524</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C135" s="7">
         <v>0.433</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="136" ht="19.95" spans="1:6">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A136" s="6">
         <v>228</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C136" s="7">
         <v>0.308</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E136" s="9"/>
       <c r="F136" s="10" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="137" ht="19.95" spans="1:4">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A137" s="3">
         <v>286</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C137" s="4">
-        <v>0.448</v>
+        <v>0.44800000000000001</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="138" ht="19.95" spans="1:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A138" s="6">
         <v>362</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C138" s="7">
-        <v>0.544</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="139" ht="19.95" spans="1:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A139" s="6">
         <v>294</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C139" s="7">
-        <v>0.466</v>
+        <v>0.46600000000000003</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="140" ht="19.95" spans="1:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A140" s="6">
         <v>380</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C140" s="7">
-        <v>0.394</v>
+        <v>0.39400000000000002</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="141" ht="19.95" spans="1:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A141" s="6">
         <v>249</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C141" s="7">
-        <v>0.427</v>
+        <v>0.42699999999999999</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="142" ht="19.95" spans="1:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A142" s="3">
         <v>320</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C142" s="4">
-        <v>0.455</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="143" ht="19.95" spans="1:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A143" s="6">
         <v>505</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C143" s="7">
-        <v>0.382</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="144" ht="19.95" spans="1:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A144" s="3">
         <v>341</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C144" s="4">
-        <v>0.422</v>
+        <v>0.42199999999999999</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="145" ht="19.95" spans="1:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A145" s="6">
         <v>360</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C145" s="7">
-        <v>0.445</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="146" ht="19.95" spans="1:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A146" s="6">
         <v>274</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>154</v>
+        <v>229</v>
       </c>
       <c r="C146" s="7">
-        <v>0.335</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="147" ht="19.95" spans="1:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A147" s="3">
         <v>253</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C147" s="4">
-        <v>0.393</v>
+        <v>0.39300000000000002</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="148" ht="19.95" spans="1:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A148" s="6">
         <v>139</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C148" s="7">
         <v>0.308</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="149" ht="19.95" spans="1:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A149" s="3">
         <v>230</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C149" s="4">
-        <v>0.445</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="150" ht="19.95" spans="1:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A150" s="6">
         <v>162</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C150" s="7">
-        <v>0.381</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="151" ht="19.95" spans="1:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A151" s="3">
         <v>498</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C151" s="4">
-        <v>0.461</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="152" ht="19.95" spans="1:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A152" s="3">
         <v>490</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C152" s="4">
         <v>0.432</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="153" ht="19.95" spans="1:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A153" s="6">
         <v>318</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C153" s="7">
-        <v>0.449</v>
+        <v>0.44900000000000001</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="154" ht="19.95" spans="1:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A154" s="3">
         <v>240</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C154" s="4">
-        <v>0.388</v>
+        <v>0.38800000000000001</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="155" ht="19.95" spans="1:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A155" s="6">
         <v>373</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C155" s="7">
         <v>0.309</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="156" ht="19.95" spans="1:5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A156" s="6">
         <v>369</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C156" s="7">
-        <v>0.548</v>
+        <v>0.54800000000000004</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E156" s="9"/>
     </row>
-    <row r="157" ht="19.95" spans="1:4">
+    <row r="157" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A157" s="6">
         <v>251</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>165</v>
+        <v>230</v>
       </c>
       <c r="C157" s="7">
-        <v>0.409</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="158" ht="19.95" spans="1:4">
+        <v>111</v>
+      </c>
+      <c r="F157" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A158" s="3">
         <v>332</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C158" s="4">
-        <v>0.294</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="159" ht="19.95" spans="1:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A159" s="6">
         <v>173</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C159" s="7">
-        <v>0.424</v>
+        <v>0.42399999999999999</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="160" ht="19.95" spans="1:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A160" s="3">
         <v>54</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C160" s="4">
-        <v>0.266</v>
+        <v>0.26600000000000001</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="161" ht="19.95" spans="1:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A161" s="3">
         <v>324</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C161" s="4">
-        <v>0.262</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="162" ht="39.15" spans="1:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A162" s="6">
         <v>17</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C162" s="7">
-        <v>0.354</v>
+        <v>0.35399999999999998</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="163" ht="19.95" spans="1:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A163" s="3">
         <v>484</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C163" s="4">
-        <v>0.551</v>
+        <v>0.55100000000000005</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="164" ht="19.95" spans="1:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A164" s="6">
         <v>562</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C164" s="7">
-        <v>0.409</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="165" ht="19.95" spans="1:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A165" s="3">
         <v>166</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C165" s="4">
-        <v>0.178</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="166" ht="19.95" spans="1:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A166" s="6">
         <v>22</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C166" s="7">
-        <v>0.463</v>
+        <v>0.46300000000000002</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="167" ht="19.95" spans="1:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A167" s="3">
         <v>31</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C167" s="4">
-        <v>0.288</v>
+        <v>0.28799999999999998</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="168" ht="19.95" spans="1:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A168" s="6">
         <v>676</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C168" s="7">
         <v>0.5</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="169" ht="39.15" spans="1:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A169" s="6">
         <v>421</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C169" s="7">
-        <v>0.469</v>
+        <v>0.46899999999999997</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="170" ht="19.95" spans="1:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A170" s="6">
         <v>503</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C170" s="7">
-        <v>0.473</v>
+        <v>0.47299999999999998</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="171" ht="19.95" spans="1:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A171" s="6">
         <v>684</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C171" s="7">
-        <v>0.392</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="172" ht="19.95" spans="1:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A172" s="3">
         <v>133</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C172" s="4">
         <v>0.251</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="173" ht="19.95" spans="1:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A173" s="3">
         <v>50</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C173" s="4">
         <v>0.26</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="174" ht="19.95" spans="1:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A174" s="3">
         <v>208</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C174" s="4">
-        <v>0.295</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="175" ht="19.95" spans="1:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A175" s="6">
         <v>348</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C175" s="7">
-        <v>0.458</v>
+        <v>0.45800000000000002</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="176" ht="19.95" spans="1:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A176" s="3">
         <v>652</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C176" s="4">
-        <v>0.358</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="177" ht="19.95" spans="1:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A177" s="6">
         <v>444</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C177" s="7">
-        <v>0.196</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="178" ht="39.15" spans="1:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="34.5" x14ac:dyDescent="0.2">
       <c r="A178" s="3">
         <v>309</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C178" s="4">
-        <v>0.413</v>
+        <v>0.41299999999999998</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="179" ht="19.95" spans="1:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A179" s="3">
         <v>382</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C179" s="4">
-        <v>0.471</v>
+        <v>0.47099999999999997</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="180" ht="19.95" spans="1:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A180" s="6">
         <v>402</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C180" s="7">
         <v>0.26</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="181" ht="19.95" spans="1:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A181" s="3">
         <v>370</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C181" s="4">
-        <v>0.565</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="182" ht="19.95" spans="1:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A182" s="6">
         <v>377</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C182" s="7">
-        <v>0.424</v>
+        <v>0.42399999999999999</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="183" ht="19.95" spans="1:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A183" s="3">
         <v>379</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C183" s="4">
-        <v>0.341</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="184" ht="19.95" spans="1:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A184" s="6">
         <v>353</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C184" s="7">
-        <v>0.268</v>
+        <v>0.26800000000000002</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="185" ht="19.95" spans="1:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A185" s="3">
         <v>375</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C185" s="4">
-        <v>0.359</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="186" ht="19.95" spans="1:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A186" s="3">
         <v>356</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C186" s="4">
-        <v>0.301</v>
+        <v>0.30099999999999999</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="187" ht="19.95" spans="1:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A187" s="6">
         <v>261</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C187" s="7">
-        <v>0.381</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="188" ht="19.95" spans="1:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A188" s="3">
         <v>486</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C188" s="4">
-        <v>0.451</v>
+        <v>0.45100000000000001</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="189" ht="19.95" spans="1:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A189" s="6">
         <v>542</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C189" s="7">
         <v>0.33</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="190" ht="19.95" spans="1:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A190" s="3">
         <v>397</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C190" s="4">
-        <v>0.302</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="191" ht="19.95" spans="1:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A191" s="6">
         <v>368</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C191" s="7">
-        <v>0.337</v>
+        <v>0.33700000000000002</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="192" ht="19.95" spans="1:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A192" s="3">
         <v>378</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C192" s="4">
-        <v>0.452</v>
+        <v>0.45200000000000001</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="193" ht="19.95" spans="1:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A193" s="3">
         <v>313</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C193" s="4">
         <v>0.38</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="194" ht="39.15" spans="1:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A194" s="6">
         <v>331</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C194" s="7">
-        <v>0.366</v>
+        <v>0.36599999999999999</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="195" ht="39.15" spans="1:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="A195" s="3">
         <v>323</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C195" s="4">
-        <v>0.483</v>
+        <v>0.48299999999999998</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="196" ht="19.95" spans="1:5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A196" s="6">
         <v>451</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C196" s="7">
-        <v>0.511</v>
+        <v>0.51100000000000001</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E196" s="5"/>
     </row>
-    <row r="197" ht="19.95" spans="1:4">
+    <row r="197" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A197" s="3">
         <v>310</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C197" s="4">
-        <v>0.289</v>
+        <v>0.28899999999999998</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="198" ht="19.95" spans="1:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A198" s="3">
         <v>729</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C198" s="4">
-        <v>0.361</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="199" ht="19.95" spans="1:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A199" s="6">
         <v>469</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C199" s="7">
-        <v>0.334</v>
+        <v>0.33400000000000002</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="200" ht="19.95" spans="1:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A200" s="3">
         <v>474</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C200" s="4">
-        <v>0.391</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="201" ht="19.95" spans="1:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A201" s="3">
         <v>481</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C201" s="4">
-        <v>0.456</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="202" ht="19.95" spans="1:5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A202" s="3">
         <v>314</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C202" s="4">
         <v>0.373</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E202" s="5"/>
     </row>
-    <row r="203" ht="19.95" spans="1:4">
+    <row r="203" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A203" s="6">
         <v>357</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C203" s="7">
-        <v>0.461</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="204" ht="19.95" spans="1:6">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A204" s="3">
         <v>487</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C204" s="4">
-        <v>0.456</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E204" s="9"/>
       <c r="F204" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="205" ht="19.95" spans="1:5">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A205" s="3">
         <v>494</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C205" s="4">
         <v>0.436</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E205" s="9"/>
     </row>
-    <row r="206" ht="19.95" spans="1:5">
+    <row r="206" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A206" s="6">
         <v>522</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C206" s="7">
         <v>0.318</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E206" s="9"/>
     </row>
-    <row r="207" ht="19.95" spans="1:5">
+    <row r="207" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A207" s="3">
         <v>526</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C207" s="4">
-        <v>0.542</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E207" s="5"/>
     </row>
-    <row r="208" ht="19.95" spans="1:4">
+    <row r="208" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A208" s="6">
         <v>531</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C208" s="7">
-        <v>0.556</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="209" ht="19.95" spans="1:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A209" s="3">
         <v>533</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C209" s="4">
-        <v>0.446</v>
+        <v>0.44600000000000001</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="210" ht="19.95" spans="1:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A210" s="6">
         <v>535</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C210" s="7">
-        <v>0.742</v>
+        <v>0.74199999999999999</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="211" ht="19.95" spans="1:5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A211" s="3">
         <v>544</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C211" s="4">
-        <v>0.709</v>
+        <v>0.70899999999999996</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E211" s="5"/>
     </row>
-    <row r="212" ht="19.95" spans="1:5">
+    <row r="212" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A212" s="6">
         <v>545</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C212" s="7">
-        <v>0.319</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="D212" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E212" s="9"/>
     </row>
-    <row r="213" ht="39.15" spans="1:4">
+    <row r="213" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A213" s="3">
         <v>549</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C213" s="4">
-        <v>0.419</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="214" ht="19.95" spans="1:5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A214" s="3">
         <v>560</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C214" s="4">
-        <v>0.404</v>
+        <v>0.40400000000000003</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E214" s="9"/>
     </row>
-    <row r="215" ht="19.95" spans="1:4">
+    <row r="215" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A215" s="6">
         <v>583</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C215" s="7">
         <v>0.442</v>
       </c>
       <c r="D215" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="216" ht="19.95" spans="1:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A216" s="6">
         <v>638</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C216" s="7">
         <v>0.434</v>
       </c>
       <c r="D216" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="217" ht="19.95" spans="1:5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A217" s="3">
         <v>651</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C217" s="4">
-        <v>0.488</v>
+        <v>0.48799999999999999</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E217" s="9"/>
     </row>
-    <row r="218" ht="19.95" spans="1:5">
+    <row r="218" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A218" s="6">
         <v>658</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C218" s="7">
-        <v>0.353</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E218" s="9"/>
     </row>
-    <row r="219" ht="39.15" spans="1:4">
+    <row r="219" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A219" s="3">
         <v>659</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C219" s="4">
-        <v>0.357</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="220" ht="19.95" spans="1:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A220" s="3">
         <v>667</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C220" s="4">
-        <v>0.515</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="221" ht="19.95" spans="1:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A221" s="6">
         <v>731</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C221" s="7">
         <v>0.316</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A3:D221">
     <sortCondition ref="D10"/>
   </sortState>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F111" r:id="rId1" display="https://www.youtube.com/embed/IAet94C1FCc?feature=oembed"/>
-    <hyperlink ref="F136" r:id="rId2" display="http://www.cnblogs.com/grandyang/p/4603555.html"/>
+    <hyperlink ref="F111" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F136" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/google_ranked.xlsx
+++ b/google_ranked.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\leet\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1405983-B954-4453-87ED-527EF15634C8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22365" windowHeight="9930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22368" windowHeight="9935"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233">
   <si>
     <t>Google</t>
   </si>
@@ -175,12 +169,21 @@
     <t>Hard</t>
   </si>
   <si>
+    <t>Longest Substring with At Most K Distinct Characters</t>
+  </si>
+  <si>
     <t>Range Sum Query 2D - Mutable</t>
   </si>
   <si>
+    <t>Word Squares</t>
+  </si>
+  <si>
     <t>Maximum Vacation Days</t>
   </si>
   <si>
+    <t>Shortest Distance from All Buildings</t>
+  </si>
+  <si>
     <t>Number of Islands II</t>
   </si>
   <si>
@@ -379,6 +382,9 @@
     <t>Zigzag Iterator</t>
   </si>
   <si>
+    <t>http://www.cnblogs.com/grandyang/p/5212785.html</t>
+  </si>
+  <si>
     <t>Bomb Enemy</t>
   </si>
   <si>
@@ -475,6 +481,9 @@
     <t>Sort Transformed Array</t>
   </si>
   <si>
+    <t>H-Index</t>
+  </si>
+  <si>
     <t>Meeting Rooms II</t>
   </si>
   <si>
@@ -505,6 +514,12 @@
     <t>Plus One Linked List</t>
   </si>
   <si>
+    <t>Flatten 2D Vector</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/grandyang/p/5209621.html</t>
+  </si>
+  <si>
     <t>Reconstruct Itinerary</t>
   </si>
   <si>
@@ -698,36 +713,19 @@
   </si>
   <si>
     <t>My Calendar II</t>
-  </si>
-  <si>
-    <t>Longest Substring with At Most K Distinct Characters</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Word Squares</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shortest Distance from All Buildings</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>H-Index</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flatten 2D Vector</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.cnblogs.com/grandyang/p/5209621.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -739,13 +737,13 @@
       <sz val="22"/>
       <color rgb="FF24292E"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF24292E"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -777,13 +775,122 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -820,8 +927,176 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -853,17 +1128,247 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -881,32 +1386,72 @@
     <xf numFmtId="10" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="31" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="4" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="7" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="32" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10"/>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="差" xfId="1" builtinId="27"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
-    <cellStyle name="好" xfId="3" builtinId="26"/>
-    <cellStyle name="适中" xfId="4" builtinId="28"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1164,33 +1709,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="I151" sqref="I151"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="J113" sqref="J113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="39.875" customWidth="1"/>
+    <col min="1" max="1" width="39.8796296296296" customWidth="1"/>
     <col min="2" max="2" width="41.75" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
-    <col min="4" max="4" width="29.625" customWidth="1"/>
-    <col min="6" max="6" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="29.6296296296296" customWidth="1"/>
+    <col min="6" max="6" width="17.3796296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33" x14ac:dyDescent="0.2">
+    <row r="1" ht="33.15" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="2" ht="19.95" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1204,7 +1749,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="3" ht="19.95" spans="1:5">
       <c r="A3" s="3">
         <v>346</v>
       </c>
@@ -1212,14 +1757,14 @@
         <v>5</v>
       </c>
       <c r="C3" s="4">
-        <v>0.59499999999999997</v>
+        <v>0.595</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="4" ht="19.95" spans="1:5">
       <c r="A4" s="3">
         <v>66</v>
       </c>
@@ -1227,14 +1772,14 @@
         <v>7</v>
       </c>
       <c r="C4" s="4">
-        <v>0.39100000000000001</v>
+        <v>0.391</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="5" ht="19.95" spans="1:5">
       <c r="A5" s="6">
         <v>686</v>
       </c>
@@ -1242,14 +1787,14 @@
         <v>8</v>
       </c>
       <c r="C5" s="7">
-        <v>0.32900000000000001</v>
+        <v>0.329</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="6" ht="19.95" spans="1:4">
       <c r="A6" s="6">
         <v>246</v>
       </c>
@@ -1263,7 +1808,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="7" ht="19.95" spans="1:5">
       <c r="A7" s="3">
         <v>345</v>
       </c>
@@ -1271,14 +1816,14 @@
         <v>10</v>
       </c>
       <c r="C7" s="4">
-        <v>0.38700000000000001</v>
+        <v>0.387</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="8" ht="19.95" spans="1:4">
       <c r="A8" s="3">
         <v>687</v>
       </c>
@@ -1286,13 +1831,13 @@
         <v>11</v>
       </c>
       <c r="C8" s="4">
-        <v>0.33300000000000002</v>
+        <v>0.333</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="9" ht="19.95" spans="1:5">
       <c r="A9" s="3">
         <v>276</v>
       </c>
@@ -1300,14 +1845,14 @@
         <v>12</v>
       </c>
       <c r="C9" s="4">
-        <v>0.34699999999999998</v>
+        <v>0.347</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="10" ht="19.95" spans="1:5">
       <c r="A10" s="6">
         <v>401</v>
       </c>
@@ -1315,14 +1860,14 @@
         <v>13</v>
       </c>
       <c r="C10" s="7">
-        <v>0.44900000000000001</v>
+        <v>0.449</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="11" ht="19.95" spans="1:4">
       <c r="A11" s="3">
         <v>463</v>
       </c>
@@ -1330,13 +1875,13 @@
         <v>14</v>
       </c>
       <c r="C11" s="4">
-        <v>0.57499999999999996</v>
+        <v>0.575</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="12" ht="19.95" spans="1:5">
       <c r="A12" s="6">
         <v>266</v>
       </c>
@@ -1344,14 +1889,14 @@
         <v>15</v>
       </c>
       <c r="C12" s="7">
-        <v>0.57499999999999996</v>
+        <v>0.575</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="13" ht="19.95" spans="1:5">
       <c r="A13" s="6">
         <v>389</v>
       </c>
@@ -1366,7 +1911,7 @@
       </c>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="14" ht="19.95" spans="1:5">
       <c r="A14" s="3">
         <v>20</v>
       </c>
@@ -1374,14 +1919,14 @@
         <v>17</v>
       </c>
       <c r="C14" s="4">
-        <v>0.33700000000000002</v>
+        <v>0.337</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="15" ht="19.95" spans="1:5">
       <c r="A15" s="3">
         <v>293</v>
       </c>
@@ -1389,14 +1934,14 @@
         <v>18</v>
       </c>
       <c r="C15" s="4">
-        <v>0.56499999999999995</v>
+        <v>0.565</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="16" ht="19.95" spans="1:5">
       <c r="A16" s="3">
         <v>415</v>
       </c>
@@ -1404,14 +1949,14 @@
         <v>19</v>
       </c>
       <c r="C16" s="4">
-        <v>0.41499999999999998</v>
+        <v>0.415</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="17" ht="19.95" spans="1:5">
       <c r="A17" s="6">
         <v>359</v>
       </c>
@@ -1419,14 +1964,14 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>0.60099999999999998</v>
+        <v>0.601</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="18" ht="19.95" spans="1:4">
       <c r="A18" s="3">
         <v>270</v>
       </c>
@@ -1434,13 +1979,13 @@
         <v>21</v>
       </c>
       <c r="C18" s="4">
-        <v>0.40100000000000002</v>
+        <v>0.401</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="19" ht="19.95" spans="1:5">
       <c r="A19" s="6">
         <v>400</v>
       </c>
@@ -1448,14 +1993,14 @@
         <v>22</v>
       </c>
       <c r="C19" s="7">
-        <v>0.30099999999999999</v>
+        <v>0.301</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="20" ht="19.95" spans="1:4">
       <c r="A20" s="3">
         <v>422</v>
       </c>
@@ -1463,13 +2008,13 @@
         <v>23</v>
       </c>
       <c r="C20" s="4">
-        <v>0.36399999999999999</v>
+        <v>0.364</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="21" ht="19.95" spans="1:4">
       <c r="A21" s="3">
         <v>155</v>
       </c>
@@ -1477,13 +2022,13 @@
         <v>24</v>
       </c>
       <c r="C21" s="4">
-        <v>0.29699999999999999</v>
+        <v>0.297</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="22" ht="19.95" spans="1:5">
       <c r="A22" s="3">
         <v>409</v>
       </c>
@@ -1491,14 +2036,14 @@
         <v>25</v>
       </c>
       <c r="C22" s="4">
-        <v>0.45500000000000002</v>
+        <v>0.455</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="23" ht="19.95" spans="1:4">
       <c r="A23" s="6">
         <v>543</v>
       </c>
@@ -1506,13 +2051,13 @@
         <v>26</v>
       </c>
       <c r="C23" s="7">
-        <v>0.44700000000000001</v>
+        <v>0.447</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="24" ht="19.95" spans="1:4">
       <c r="A24" s="6">
         <v>231</v>
       </c>
@@ -1520,13 +2065,13 @@
         <v>27</v>
       </c>
       <c r="C24" s="7">
-        <v>0.40400000000000003</v>
+        <v>0.404</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="25" ht="19.95" spans="1:4">
       <c r="A25" s="6">
         <v>501</v>
       </c>
@@ -1540,7 +2085,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="26" ht="19.95" spans="1:5">
       <c r="A26" s="3">
         <v>475</v>
       </c>
@@ -1548,14 +2093,14 @@
         <v>29</v>
       </c>
       <c r="C26" s="4">
-        <v>0.29599999999999999</v>
+        <v>0.296</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="27" ht="19.95" spans="1:5">
       <c r="A27" s="3">
         <v>551</v>
       </c>
@@ -1570,7 +2115,7 @@
       </c>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="28" ht="19.95" spans="1:5">
       <c r="A28" s="6">
         <v>459</v>
       </c>
@@ -1578,14 +2123,14 @@
         <v>31</v>
       </c>
       <c r="C28" s="7">
-        <v>0.38200000000000001</v>
+        <v>0.382</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E28" s="9"/>
     </row>
-    <row r="29" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="29" ht="19.95" spans="1:5">
       <c r="A29" s="3">
         <v>408</v>
       </c>
@@ -1593,14 +2138,14 @@
         <v>32</v>
       </c>
       <c r="C29" s="4">
-        <v>0.28199999999999997</v>
+        <v>0.282</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="30" ht="19.95" spans="1:5">
       <c r="A30" s="6">
         <v>530</v>
       </c>
@@ -1608,14 +2153,14 @@
         <v>33</v>
       </c>
       <c r="C30" s="7">
-        <v>0.47099999999999997</v>
+        <v>0.471</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E30" s="5"/>
     </row>
-    <row r="31" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="31" ht="19.95" spans="1:4">
       <c r="A31" s="3">
         <v>374</v>
       </c>
@@ -1623,13 +2168,13 @@
         <v>34</v>
       </c>
       <c r="C31" s="4">
-        <v>0.35899999999999999</v>
+        <v>0.359</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="32" ht="19.95" spans="1:4">
       <c r="A32" s="6">
         <v>448</v>
       </c>
@@ -1637,13 +2182,13 @@
         <v>35</v>
       </c>
       <c r="C32" s="7">
-        <v>0.51200000000000001</v>
+        <v>0.512</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="33" ht="19.95" spans="1:4">
       <c r="A33" s="6">
         <v>326</v>
       </c>
@@ -1651,13 +2196,13 @@
         <v>36</v>
       </c>
       <c r="C33" s="7">
-        <v>0.40400000000000003</v>
+        <v>0.404</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="34" ht="19.95" spans="1:4">
       <c r="A34" s="3">
         <v>257</v>
       </c>
@@ -1665,13 +2210,13 @@
         <v>37</v>
       </c>
       <c r="C34" s="4">
-        <v>0.39700000000000002</v>
+        <v>0.397</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="35" ht="19.95" spans="1:5">
       <c r="A35" s="6">
         <v>520</v>
       </c>
@@ -1679,14 +2224,14 @@
         <v>38</v>
       </c>
       <c r="C35" s="7">
-        <v>0.51900000000000002</v>
+        <v>0.519</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E35" s="5"/>
     </row>
-    <row r="36" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="36" ht="19.95" spans="1:5">
       <c r="A36" s="3">
         <v>485</v>
       </c>
@@ -1701,7 +2246,7 @@
       </c>
       <c r="E36" s="5"/>
     </row>
-    <row r="37" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="37" ht="19.95" spans="1:4">
       <c r="A37" s="6">
         <v>506</v>
       </c>
@@ -1709,13 +2254,13 @@
         <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>0.46600000000000003</v>
+        <v>0.466</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="38" ht="19.95" spans="1:4">
       <c r="A38" s="6">
         <v>447</v>
       </c>
@@ -1723,13 +2268,13 @@
         <v>41</v>
       </c>
       <c r="C38" s="7">
-        <v>0.45700000000000002</v>
+        <v>0.457</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="39" ht="19.95" spans="1:4">
       <c r="A39" s="3">
         <v>521</v>
       </c>
@@ -1737,13 +2282,13 @@
         <v>42</v>
       </c>
       <c r="C39" s="4">
-        <v>0.55900000000000005</v>
+        <v>0.559</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="40" ht="19.95" spans="1:4">
       <c r="A40" s="3">
         <v>541</v>
       </c>
@@ -1757,7 +2302,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="41" ht="19.95" spans="1:5">
       <c r="A41" s="3">
         <v>581</v>
       </c>
@@ -1765,14 +2310,14 @@
         <v>44</v>
       </c>
       <c r="C41" s="4">
-        <v>0.29299999999999998</v>
+        <v>0.293</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E41" s="5"/>
     </row>
-    <row r="42" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="42" ht="19.95" spans="1:4">
       <c r="A42" s="3">
         <v>604</v>
       </c>
@@ -1780,13 +2325,13 @@
         <v>45</v>
       </c>
       <c r="C42" s="4">
-        <v>0.32500000000000001</v>
+        <v>0.325</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="43" ht="19.95" spans="1:5">
       <c r="A43" s="3">
         <v>643</v>
       </c>
@@ -1801,7 +2346,7 @@
       </c>
       <c r="E43" s="5"/>
     </row>
-    <row r="44" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="44" ht="19.95" spans="1:5">
       <c r="A44" s="3">
         <v>657</v>
       </c>
@@ -1809,14 +2354,14 @@
         <v>47</v>
       </c>
       <c r="C44" s="4">
-        <v>0.68600000000000005</v>
+        <v>0.686</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E44" s="5"/>
     </row>
-    <row r="45" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="45" ht="19.95" spans="1:5">
       <c r="A45" s="6">
         <v>665</v>
       </c>
@@ -1824,14 +2369,14 @@
         <v>48</v>
       </c>
       <c r="C45" s="7">
-        <v>0.21099999999999999</v>
+        <v>0.211</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E45" s="5"/>
     </row>
-    <row r="46" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="46" ht="19.95" spans="1:4">
       <c r="A46" s="6">
         <v>683</v>
       </c>
@@ -1839,47 +2384,47 @@
         <v>49</v>
       </c>
       <c r="C46" s="7">
-        <v>0.36599999999999999</v>
+        <v>0.366</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="34.5" x14ac:dyDescent="0.2">
+    <row r="47" ht="39.15" spans="1:4">
       <c r="A47" s="6">
         <v>340</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>226</v>
+        <v>51</v>
       </c>
       <c r="C47" s="7">
-        <v>0.39200000000000002</v>
+        <v>0.392</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="48" ht="19.95" spans="1:5">
       <c r="A48" s="6">
         <v>308</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C48" s="7">
-        <v>0.24099999999999999</v>
+        <v>0.241</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E48" s="9"/>
     </row>
-    <row r="49" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="49" ht="19.95" spans="1:4">
       <c r="A49" s="3">
         <v>425</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="C49" s="4">
         <v>0.435</v>
@@ -1888,124 +2433,124 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="50" ht="19.95" spans="1:4">
       <c r="A50" s="3">
         <v>568</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C50" s="4">
-        <v>0.39100000000000001</v>
+        <v>0.391</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="51" ht="19.95" spans="1:4">
       <c r="A51" s="6">
         <v>317</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>228</v>
+        <v>55</v>
       </c>
       <c r="C51" s="7">
-        <v>0.34399999999999997</v>
+        <v>0.344</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="52" ht="19.95" spans="1:4">
       <c r="A52" s="6">
         <v>305</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C52" s="7">
-        <v>0.39300000000000002</v>
+        <v>0.393</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="53" ht="19.95" spans="1:4">
       <c r="A53" s="3">
         <v>218</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C53" s="4">
-        <v>0.28199999999999997</v>
+        <v>0.282</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="34.5" x14ac:dyDescent="0.2">
+    <row r="54" ht="39.15" spans="1:4">
       <c r="A54" s="3">
         <v>159</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C54" s="4">
-        <v>0.41899999999999998</v>
+        <v>0.419</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="55" ht="19.95" spans="1:4">
       <c r="A55" s="3">
         <v>329</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C55" s="4">
-        <v>0.36899999999999999</v>
+        <v>0.369</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="56" ht="19.95" spans="1:4">
       <c r="A56" s="3">
         <v>471</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C56" s="4">
-        <v>0.42799999999999999</v>
+        <v>0.428</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="57" ht="19.95" spans="1:4">
       <c r="A57" s="3">
         <v>391</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C57" s="4">
-        <v>0.27100000000000002</v>
+        <v>0.271</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="58" ht="19.95" spans="1:4">
       <c r="A58" s="6">
         <v>407</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C58" s="7">
         <v>0.376</v>
@@ -2014,12 +2559,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="59" ht="19.95" spans="1:4">
       <c r="A59" s="3">
         <v>297</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C59" s="4">
         <v>0.34</v>
@@ -2028,12 +2573,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="60" ht="19.95" spans="1:4">
       <c r="A60" s="3">
         <v>146</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C60" s="4">
         <v>0.187</v>
@@ -2042,26 +2587,26 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="61" ht="19.95" spans="1:4">
       <c r="A61" s="3">
         <v>295</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C61" s="4">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="62" ht="19.95" spans="1:4">
       <c r="A62" s="6">
         <v>42</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C62" s="7">
         <v>0.372</v>
@@ -2070,40 +2615,40 @@
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="63" ht="19.95" spans="1:4">
       <c r="A63" s="3">
         <v>315</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C63" s="4">
-        <v>0.34799999999999998</v>
+        <v>0.348</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="64" ht="19.95" spans="1:4">
       <c r="A64" s="3">
         <v>411</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C64" s="4">
-        <v>0.33300000000000002</v>
+        <v>0.333</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="65" ht="19.95" spans="1:4">
       <c r="A65" s="6">
         <v>269</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C65" s="7">
         <v>0.252</v>
@@ -2112,26 +2657,26 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="66" ht="19.95" spans="1:4">
       <c r="A66" s="3">
         <v>239</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C66" s="4">
-        <v>0.33600000000000002</v>
+        <v>0.336</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="67" ht="19.95" spans="1:4">
       <c r="A67" s="3">
         <v>465</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C67" s="4">
         <v>0.378</v>
@@ -2140,12 +2685,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="68" ht="19.95" spans="1:4">
       <c r="A68" s="6">
         <v>128</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C68" s="7">
         <v>0.375</v>
@@ -2154,12 +2699,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="34.5" x14ac:dyDescent="0.2">
+    <row r="69" ht="39.15" spans="1:4">
       <c r="A69" s="6">
         <v>158</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C69" s="7">
         <v>0.245</v>
@@ -2168,40 +2713,40 @@
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="70" ht="19.95" spans="1:4">
       <c r="A70" s="6">
         <v>23</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C70" s="7">
-        <v>0.27700000000000002</v>
+        <v>0.277</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="71" ht="19.95" spans="1:4">
       <c r="A71" s="3">
         <v>10</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C71" s="4">
-        <v>0.24299999999999999</v>
+        <v>0.243</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="72" ht="19.95" spans="1:4">
       <c r="A72" s="6">
         <v>212</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C72" s="7">
         <v>0.24</v>
@@ -2210,12 +2755,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="73" ht="19.95" spans="1:4">
       <c r="A73" s="3">
         <v>4</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C73" s="4">
         <v>0.223</v>
@@ -2224,12 +2769,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="74" ht="19.95" spans="1:4">
       <c r="A74" s="6">
         <v>358</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C74" s="7">
         <v>0.317</v>
@@ -2238,182 +2783,182 @@
         <v>50</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="75" ht="19.95" spans="1:4">
       <c r="A75" s="6">
         <v>587</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C75" s="7">
-        <v>0.32600000000000001</v>
+        <v>0.326</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="76" ht="19.95" spans="1:4">
       <c r="A76" s="3">
         <v>679</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C76" s="4">
-        <v>0.38900000000000001</v>
+        <v>0.389</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="77" ht="19.95" spans="1:4">
       <c r="A77" s="6">
         <v>140</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C77" s="7">
-        <v>0.23899999999999999</v>
+        <v>0.239</v>
       </c>
       <c r="D77" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="78" ht="19.95" spans="1:4">
       <c r="A78" s="6">
         <v>224</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C78" s="7">
-        <v>0.27800000000000002</v>
+        <v>0.278</v>
       </c>
       <c r="D78" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="79" ht="19.95" spans="1:5">
       <c r="A79" s="3">
         <v>327</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C79" s="4">
-        <v>0.30099999999999999</v>
+        <v>0.301</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E79" s="9"/>
     </row>
-    <row r="80" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="80" ht="19.95" spans="1:5">
       <c r="A80" s="3">
         <v>57</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C80" s="4">
-        <v>0.28299999999999997</v>
+        <v>0.283</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E80" s="9"/>
     </row>
-    <row r="81" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="81" ht="19.95" spans="1:4">
       <c r="A81" s="3">
         <v>336</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C81" s="4">
-        <v>0.26600000000000001</v>
+        <v>0.266</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="82" ht="19.95" spans="1:4">
       <c r="A82" s="6">
         <v>44</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C82" s="7">
-        <v>0.20599999999999999</v>
+        <v>0.206</v>
       </c>
       <c r="D82" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="83" ht="19.95" spans="1:4">
       <c r="A83" s="3">
         <v>460</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C83" s="4">
-        <v>0.24399999999999999</v>
+        <v>0.244</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="84" ht="19.95" spans="1:4">
       <c r="A84" s="6">
         <v>363</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C84" s="7">
-        <v>0.33400000000000002</v>
+        <v>0.334</v>
       </c>
       <c r="D84" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="85" ht="19.95" spans="1:4">
       <c r="A85" s="3">
         <v>354</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C85" s="4">
-        <v>0.32300000000000001</v>
+        <v>0.323</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="86" ht="19.95" spans="1:4">
       <c r="A86" s="6">
         <v>272</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C86" s="7">
-        <v>0.39400000000000002</v>
+        <v>0.394</v>
       </c>
       <c r="D86" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="87" ht="19.95" spans="1:4">
       <c r="A87" s="6">
         <v>214</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C87" s="7">
         <v>0.247</v>
@@ -2422,40 +2967,40 @@
         <v>50</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="88" ht="19.95" spans="1:4">
       <c r="A88" s="3">
         <v>282</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C88" s="4">
-        <v>0.30199999999999999</v>
+        <v>0.302</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="89" ht="19.95" spans="1:4">
       <c r="A89" s="6">
         <v>302</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C89" s="7">
-        <v>0.45900000000000002</v>
+        <v>0.459</v>
       </c>
       <c r="D89" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="90" ht="19.95" spans="1:4">
       <c r="A90" s="6">
         <v>321</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C90" s="7">
         <v>0.248</v>
@@ -2464,12 +3009,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="91" ht="19.95" spans="1:4">
       <c r="A91" s="6">
         <v>480</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C91" s="7">
         <v>0.311</v>
@@ -2478,26 +3023,26 @@
         <v>50</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="92" ht="19.95" spans="1:4">
       <c r="A92" s="6">
         <v>483</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C92" s="7">
-        <v>0.33400000000000002</v>
+        <v>0.334</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="93" ht="19.95" spans="1:4">
       <c r="A93" s="6">
         <v>312</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C93" s="7">
         <v>0.432</v>
@@ -2506,82 +3051,82 @@
         <v>50</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="94" ht="19.95" spans="1:4">
       <c r="A94" s="6">
         <v>493</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C94" s="7">
-        <v>0.20599999999999999</v>
+        <v>0.206</v>
       </c>
       <c r="D94" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="95" ht="19.95" spans="1:4">
       <c r="A95" s="3">
         <v>514</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C95" s="4">
-        <v>0.39100000000000001</v>
+        <v>0.391</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="96" ht="19.95" spans="1:4">
       <c r="A96" s="6">
         <v>527</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C96" s="7">
-        <v>0.41899999999999998</v>
+        <v>0.419</v>
       </c>
       <c r="D96" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="97" ht="19.95" spans="1:4">
       <c r="A97" s="3">
         <v>316</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C97" s="4">
-        <v>0.29899999999999999</v>
+        <v>0.299</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="98" ht="19.95" spans="1:4">
       <c r="A98" s="6">
         <v>330</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C98" s="7">
-        <v>0.32300000000000001</v>
+        <v>0.323</v>
       </c>
       <c r="D98" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="99" ht="19.95" spans="1:4">
       <c r="A99" s="6">
         <v>552</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C99" s="7">
         <v>0.313</v>
@@ -2590,26 +3135,26 @@
         <v>50</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="100" ht="19.95" spans="1:4">
       <c r="A100" s="6">
         <v>569</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C100" s="7">
-        <v>0.34200000000000003</v>
+        <v>0.342</v>
       </c>
       <c r="D100" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="101" ht="19.95" spans="1:4">
       <c r="A101" s="6">
         <v>644</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C101" s="7">
         <v>0.23</v>
@@ -2618,12 +3163,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="102" ht="19.95" spans="1:4">
       <c r="A102" s="6">
         <v>656</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C102" s="7">
         <v>0.251</v>
@@ -2632,12 +3177,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="103" ht="39.15" spans="1:4">
       <c r="A103" s="6">
         <v>668</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C103" s="7">
         <v>0.377</v>
@@ -2646,40 +3191,40 @@
         <v>50</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="104" ht="19.95" spans="1:4">
       <c r="A104" s="3">
         <v>685</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C104" s="4">
-        <v>0.28399999999999997</v>
+        <v>0.284</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="34.5" x14ac:dyDescent="0.2">
+    <row r="105" ht="39.15" spans="1:4">
       <c r="A105" s="6">
         <v>689</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C105" s="7">
-        <v>0.41299999999999998</v>
+        <v>0.413</v>
       </c>
       <c r="D105" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="106" ht="19.95" spans="1:4">
       <c r="A106" s="3">
         <v>719</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C106" s="4">
         <v>0.253</v>
@@ -2688,1668 +3233,1672 @@
         <v>50</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="107" ht="19.95" spans="1:4">
       <c r="A107" s="6">
         <v>726</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C107" s="7">
-        <v>0.45700000000000002</v>
+        <v>0.457</v>
       </c>
       <c r="D107" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="108" ht="19.95" spans="1:4">
       <c r="A108" s="3">
         <v>727</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C108" s="4">
-        <v>0.29099999999999998</v>
+        <v>0.291</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="109" ht="19.95" spans="1:4">
       <c r="A109" s="6">
         <v>534</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C109" s="7">
         <v>0</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="110" ht="19.95" spans="1:5">
       <c r="A110" s="3">
         <v>388</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C110" s="4">
         <v>0.371</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E110" s="9"/>
     </row>
-    <row r="111" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="111" ht="19.95" spans="1:6">
       <c r="A111" s="3">
         <v>681</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C111" s="4">
-        <v>0.42899999999999999</v>
+        <v>0.429</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E111" s="5"/>
       <c r="F111" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="112" ht="19.95" spans="1:5">
       <c r="A112" s="3">
         <v>482</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C112" s="4">
-        <v>0.41799999999999998</v>
+        <v>0.418</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E112" s="9"/>
     </row>
-    <row r="113" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="113" ht="39.15" spans="1:4">
       <c r="A113" s="6">
         <v>298</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C113" s="7">
-        <v>0.41399999999999998</v>
+        <v>0.414</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="114" ht="19.95" spans="1:4">
       <c r="A114" s="3">
         <v>418</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C114" s="4">
-        <v>0.27800000000000002</v>
+        <v>0.278</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="115" ht="19.95" spans="1:6">
       <c r="A115" s="6">
         <v>281</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C115" s="7">
-        <v>0.51400000000000001</v>
+        <v>0.514</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E115" s="5"/>
-    </row>
-    <row r="116" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="F115" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="116" ht="19.95" spans="1:5">
       <c r="A116" s="6">
         <v>361</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C116" s="7">
-        <v>0.39400000000000002</v>
+        <v>0.394</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E116" s="9"/>
     </row>
-    <row r="117" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="117" ht="19.95" spans="1:5">
       <c r="A117" s="3">
         <v>394</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C117" s="4">
-        <v>0.41699999999999998</v>
+        <v>0.417</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E117" s="9"/>
     </row>
-    <row r="118" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="118" ht="19.95" spans="1:5">
       <c r="A118" s="6">
         <v>393</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C118" s="7">
-        <v>0.34699999999999998</v>
+        <v>0.347</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E118" s="9"/>
     </row>
-    <row r="119" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="119" ht="19.95" spans="1:6">
       <c r="A119" s="6">
         <v>163</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C119" s="7">
-        <v>0.23799999999999999</v>
+        <v>0.238</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E119" s="9"/>
       <c r="F119" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="120" ht="19.95" spans="1:4">
       <c r="A120" s="3">
         <v>351</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C120" s="4">
         <v>0.443</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="121" ht="19.95" spans="1:4">
       <c r="A121" s="3">
         <v>271</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C121" s="4">
-        <v>0.26200000000000001</v>
+        <v>0.262</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="122" ht="19.95" spans="1:4">
       <c r="A122" s="6">
         <v>289</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C122" s="7">
         <v>0.371</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="123" ht="19.95" spans="1:5">
       <c r="A123" s="3">
         <v>288</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C123" s="4">
-        <v>0.17299999999999999</v>
+        <v>0.173</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E123" s="5"/>
     </row>
-    <row r="124" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="124" ht="19.95" spans="1:5">
       <c r="A124" s="3">
         <v>200</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C124" s="4">
-        <v>0.35599999999999998</v>
+        <v>0.356</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E124" s="5"/>
     </row>
-    <row r="125" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="125" ht="19.95" spans="1:5">
       <c r="A125" s="6">
         <v>280</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C125" s="7">
-        <v>0.57899999999999996</v>
+        <v>0.579</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E125" s="9"/>
     </row>
-    <row r="126" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="126" ht="19.95" spans="1:5">
       <c r="A126" s="3">
         <v>616</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C126" s="4">
-        <v>0.38700000000000001</v>
+        <v>0.387</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E126" s="8"/>
     </row>
-    <row r="127" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="127" ht="19.95" spans="1:4">
       <c r="A127" s="6">
         <v>259</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C127" s="7">
-        <v>0.41699999999999998</v>
+        <v>0.417</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="128" ht="19.95" spans="1:5">
       <c r="A128" s="6">
         <v>399</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C128" s="7">
-        <v>0.41499999999999998</v>
+        <v>0.415</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E128" s="9"/>
     </row>
-    <row r="129" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="129" ht="19.95" spans="1:4">
       <c r="A129" s="6">
         <v>417</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C129" s="7">
-        <v>0.34100000000000003</v>
+        <v>0.341</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="130" ht="19.95" spans="1:4">
       <c r="A130" s="3">
         <v>406</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C130" s="4">
-        <v>0.56200000000000006</v>
+        <v>0.562</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="131" ht="19.95" spans="1:5">
       <c r="A131" s="6">
         <v>279</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C131" s="7">
         <v>0.375</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E131" s="8"/>
     </row>
-    <row r="132" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="132" ht="19.95" spans="1:4">
       <c r="A132" s="6">
         <v>56</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C132" s="7">
         <v>0.31</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="133" ht="19.95" spans="1:4">
       <c r="A133" s="6">
         <v>284</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C133" s="7">
-        <v>0.35499999999999998</v>
+        <v>0.355</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="134" ht="19.95" spans="1:4">
       <c r="A134" s="3">
         <v>247</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C134" s="4">
-        <v>0.40500000000000003</v>
+        <v>0.405</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="135" ht="39.15" spans="1:4">
       <c r="A135" s="6">
         <v>524</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C135" s="7">
         <v>0.433</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="136" ht="19.95" spans="1:6">
       <c r="A136" s="6">
         <v>228</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C136" s="7">
         <v>0.308</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E136" s="9"/>
       <c r="F136" s="10" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="137" ht="19.95" spans="1:4">
       <c r="A137" s="3">
         <v>286</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C137" s="4">
-        <v>0.44800000000000001</v>
+        <v>0.448</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="138" ht="19.95" spans="1:4">
       <c r="A138" s="6">
         <v>362</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C138" s="7">
-        <v>0.54400000000000004</v>
+        <v>0.544</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="139" ht="19.95" spans="1:4">
       <c r="A139" s="6">
         <v>294</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C139" s="7">
-        <v>0.46600000000000003</v>
+        <v>0.466</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="140" ht="19.95" spans="1:4">
       <c r="A140" s="6">
         <v>380</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C140" s="7">
-        <v>0.39400000000000002</v>
+        <v>0.394</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="141" ht="19.95" spans="1:4">
       <c r="A141" s="6">
         <v>249</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C141" s="7">
-        <v>0.42699999999999999</v>
+        <v>0.427</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="142" ht="19.95" spans="1:4">
       <c r="A142" s="3">
         <v>320</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C142" s="4">
-        <v>0.45500000000000002</v>
+        <v>0.455</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="143" ht="19.95" spans="1:4">
       <c r="A143" s="6">
         <v>505</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C143" s="7">
-        <v>0.38200000000000001</v>
+        <v>0.382</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="144" ht="19.95" spans="1:4">
       <c r="A144" s="3">
         <v>341</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C144" s="4">
-        <v>0.42199999999999999</v>
+        <v>0.422</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="145" ht="19.95" spans="1:4">
       <c r="A145" s="6">
         <v>360</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C145" s="7">
-        <v>0.44500000000000001</v>
+        <v>0.445</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="146" ht="19.95" spans="1:4">
       <c r="A146" s="6">
         <v>274</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>229</v>
+        <v>155</v>
       </c>
       <c r="C146" s="7">
-        <v>0.33500000000000002</v>
+        <v>0.335</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="147" ht="19.95" spans="1:4">
       <c r="A147" s="3">
         <v>253</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C147" s="4">
-        <v>0.39300000000000002</v>
+        <v>0.393</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="148" ht="19.95" spans="1:4">
       <c r="A148" s="6">
         <v>139</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C148" s="7">
         <v>0.308</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="149" ht="19.95" spans="1:4">
       <c r="A149" s="3">
         <v>230</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C149" s="4">
-        <v>0.44500000000000001</v>
+        <v>0.445</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="150" ht="19.95" spans="1:4">
       <c r="A150" s="6">
         <v>162</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C150" s="7">
-        <v>0.38100000000000001</v>
+        <v>0.381</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="151" ht="19.95" spans="1:4">
       <c r="A151" s="3">
         <v>498</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C151" s="4">
-        <v>0.46100000000000002</v>
+        <v>0.461</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="152" ht="19.95" spans="1:4">
       <c r="A152" s="3">
         <v>490</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C152" s="4">
         <v>0.432</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="153" ht="19.95" spans="1:4">
       <c r="A153" s="6">
         <v>318</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C153" s="7">
-        <v>0.44900000000000001</v>
+        <v>0.449</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="154" ht="19.95" spans="1:4">
       <c r="A154" s="3">
         <v>240</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C154" s="4">
-        <v>0.38800000000000001</v>
+        <v>0.388</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="155" ht="19.95" spans="1:4">
       <c r="A155" s="6">
         <v>373</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C155" s="7">
         <v>0.309</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="156" ht="19.95" spans="1:5">
       <c r="A156" s="6">
         <v>369</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C156" s="7">
-        <v>0.54800000000000004</v>
+        <v>0.548</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E156" s="9"/>
     </row>
-    <row r="157" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="157" ht="19.95" spans="1:6">
       <c r="A157" s="6">
         <v>251</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>230</v>
+        <v>166</v>
       </c>
       <c r="C157" s="7">
-        <v>0.40899999999999997</v>
+        <v>0.409</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F157" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="158" ht="19.95" spans="1:4">
       <c r="A158" s="3">
         <v>332</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="C158" s="4">
-        <v>0.29399999999999998</v>
+        <v>0.294</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="159" ht="19.95" spans="1:4">
       <c r="A159" s="6">
         <v>173</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="C159" s="7">
-        <v>0.42399999999999999</v>
+        <v>0.424</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="160" ht="19.95" spans="1:4">
       <c r="A160" s="3">
         <v>54</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C160" s="4">
-        <v>0.26600000000000001</v>
+        <v>0.266</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="161" ht="19.95" spans="1:4">
       <c r="A161" s="3">
         <v>324</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C161" s="4">
-        <v>0.26200000000000001</v>
+        <v>0.262</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="162" ht="19.95" spans="1:4">
       <c r="A162" s="6">
         <v>17</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C162" s="7">
-        <v>0.35399999999999998</v>
+        <v>0.354</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="163" ht="19.95" spans="1:4">
       <c r="A163" s="3">
         <v>484</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="C163" s="4">
-        <v>0.55100000000000005</v>
+        <v>0.551</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="164" ht="19.95" spans="1:4">
       <c r="A164" s="6">
         <v>562</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C164" s="7">
-        <v>0.40899999999999997</v>
+        <v>0.409</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="165" ht="19.95" spans="1:4">
       <c r="A165" s="3">
         <v>166</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C165" s="4">
-        <v>0.17799999999999999</v>
+        <v>0.178</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="166" ht="19.95" spans="1:4">
       <c r="A166" s="6">
         <v>22</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C166" s="7">
-        <v>0.46300000000000002</v>
+        <v>0.463</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="167" ht="19.95" spans="1:4">
       <c r="A167" s="3">
         <v>31</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C167" s="4">
-        <v>0.28799999999999998</v>
+        <v>0.288</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="168" ht="19.95" spans="1:4">
       <c r="A168" s="6">
         <v>676</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C168" s="7">
         <v>0.5</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="169" ht="39.15" spans="1:4">
       <c r="A169" s="6">
         <v>421</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="C169" s="7">
-        <v>0.46899999999999997</v>
+        <v>0.469</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="170" ht="19.95" spans="1:4">
       <c r="A170" s="6">
         <v>503</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="C170" s="7">
-        <v>0.47299999999999998</v>
+        <v>0.473</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="171" ht="19.95" spans="1:4">
       <c r="A171" s="6">
         <v>684</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C171" s="7">
-        <v>0.39200000000000002</v>
+        <v>0.392</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="172" ht="19.95" spans="1:4">
       <c r="A172" s="3">
         <v>133</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="C172" s="4">
         <v>0.251</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="173" ht="19.95" spans="1:4">
       <c r="A173" s="3">
         <v>50</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="C173" s="4">
         <v>0.26</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="174" ht="19.95" spans="1:4">
       <c r="A174" s="3">
         <v>208</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C174" s="4">
-        <v>0.29499999999999998</v>
+        <v>0.295</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="175" ht="19.95" spans="1:4">
       <c r="A175" s="6">
         <v>348</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="C175" s="7">
-        <v>0.45800000000000002</v>
+        <v>0.458</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="176" ht="19.95" spans="1:4">
       <c r="A176" s="3">
         <v>652</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C176" s="4">
-        <v>0.35799999999999998</v>
+        <v>0.358</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="177" ht="19.95" spans="1:4">
       <c r="A177" s="6">
         <v>444</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C177" s="7">
-        <v>0.19600000000000001</v>
+        <v>0.196</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" ht="34.5" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="178" ht="39.15" spans="1:4">
       <c r="A178" s="3">
         <v>309</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="C178" s="4">
-        <v>0.41299999999999998</v>
+        <v>0.413</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="179" ht="19.95" spans="1:4">
       <c r="A179" s="3">
         <v>382</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C179" s="4">
-        <v>0.47099999999999997</v>
+        <v>0.471</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="180" ht="19.95" spans="1:4">
       <c r="A180" s="6">
         <v>402</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C180" s="7">
         <v>0.26</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="181" ht="19.95" spans="1:4">
       <c r="A181" s="3">
         <v>370</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C181" s="4">
-        <v>0.56499999999999995</v>
+        <v>0.565</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="182" ht="19.95" spans="1:4">
       <c r="A182" s="6">
         <v>377</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C182" s="7">
-        <v>0.42399999999999999</v>
+        <v>0.424</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="183" ht="19.95" spans="1:4">
       <c r="A183" s="3">
         <v>379</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="C183" s="4">
-        <v>0.34100000000000003</v>
+        <v>0.341</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="184" ht="19.95" spans="1:4">
       <c r="A184" s="6">
         <v>353</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C184" s="7">
-        <v>0.26800000000000002</v>
+        <v>0.268</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="185" ht="19.95" spans="1:4">
       <c r="A185" s="3">
         <v>375</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C185" s="4">
-        <v>0.35899999999999999</v>
+        <v>0.359</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="186" ht="19.95" spans="1:4">
       <c r="A186" s="3">
         <v>356</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="C186" s="4">
-        <v>0.30099999999999999</v>
+        <v>0.301</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="187" ht="19.95" spans="1:4">
       <c r="A187" s="6">
         <v>261</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="C187" s="7">
-        <v>0.38100000000000001</v>
+        <v>0.381</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="188" ht="19.95" spans="1:4">
       <c r="A188" s="3">
         <v>486</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="C188" s="4">
-        <v>0.45100000000000001</v>
+        <v>0.451</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="189" ht="19.95" spans="1:4">
       <c r="A189" s="6">
         <v>542</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C189" s="7">
         <v>0.33</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="190" ht="19.95" spans="1:4">
       <c r="A190" s="3">
         <v>397</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="C190" s="4">
-        <v>0.30199999999999999</v>
+        <v>0.302</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="191" ht="19.95" spans="1:4">
       <c r="A191" s="6">
         <v>368</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C191" s="7">
-        <v>0.33700000000000002</v>
+        <v>0.337</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="192" ht="19.95" spans="1:4">
       <c r="A192" s="3">
         <v>378</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="C192" s="4">
-        <v>0.45200000000000001</v>
+        <v>0.452</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="193" ht="19.95" spans="1:4">
       <c r="A193" s="3">
         <v>313</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C193" s="4">
         <v>0.38</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="194" ht="39.15" spans="1:4">
       <c r="A194" s="6">
         <v>331</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C194" s="7">
-        <v>0.36599999999999999</v>
+        <v>0.366</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" ht="34.5" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="195" ht="39.15" spans="1:4">
       <c r="A195" s="3">
         <v>323</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C195" s="4">
-        <v>0.48299999999999998</v>
+        <v>0.483</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="196" ht="19.95" spans="1:5">
       <c r="A196" s="6">
         <v>451</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C196" s="7">
-        <v>0.51100000000000001</v>
+        <v>0.511</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E196" s="5"/>
     </row>
-    <row r="197" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="197" ht="19.95" spans="1:4">
       <c r="A197" s="3">
         <v>310</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C197" s="4">
-        <v>0.28899999999999998</v>
+        <v>0.289</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="198" ht="19.95" spans="1:4">
       <c r="A198" s="3">
         <v>729</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="C198" s="4">
-        <v>0.36099999999999999</v>
+        <v>0.361</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="199" ht="19.95" spans="1:4">
       <c r="A199" s="6">
         <v>469</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="C199" s="7">
-        <v>0.33400000000000002</v>
+        <v>0.334</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="200" ht="19.95" spans="1:4">
       <c r="A200" s="3">
         <v>474</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C200" s="4">
-        <v>0.39100000000000001</v>
+        <v>0.391</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="201" ht="19.95" spans="1:4">
       <c r="A201" s="3">
         <v>481</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="C201" s="4">
-        <v>0.45600000000000002</v>
+        <v>0.456</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="202" ht="19.95" spans="1:5">
       <c r="A202" s="3">
         <v>314</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="C202" s="4">
         <v>0.373</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E202" s="5"/>
     </row>
-    <row r="203" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="203" ht="19.95" spans="1:4">
       <c r="A203" s="6">
         <v>357</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="C203" s="7">
-        <v>0.46100000000000002</v>
+        <v>0.461</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="204" ht="19.95" spans="1:6">
       <c r="A204" s="3">
         <v>487</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="C204" s="4">
-        <v>0.45600000000000002</v>
+        <v>0.456</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E204" s="9"/>
       <c r="F204" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="205" ht="19.95" spans="1:5">
       <c r="A205" s="3">
         <v>494</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="C205" s="4">
         <v>0.436</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E205" s="9"/>
     </row>
-    <row r="206" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="206" ht="19.95" spans="1:5">
       <c r="A206" s="6">
         <v>522</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="C206" s="7">
         <v>0.318</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E206" s="9"/>
     </row>
-    <row r="207" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="207" ht="19.95" spans="1:5">
       <c r="A207" s="3">
         <v>526</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="C207" s="4">
-        <v>0.54200000000000004</v>
+        <v>0.542</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E207" s="5"/>
     </row>
-    <row r="208" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="208" ht="19.95" spans="1:4">
       <c r="A208" s="6">
         <v>531</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="C208" s="7">
-        <v>0.55600000000000005</v>
+        <v>0.556</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="209" ht="19.95" spans="1:4">
       <c r="A209" s="3">
         <v>533</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="C209" s="4">
-        <v>0.44600000000000001</v>
+        <v>0.446</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="210" ht="19.95" spans="1:4">
       <c r="A210" s="6">
         <v>535</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="C210" s="7">
-        <v>0.74199999999999999</v>
+        <v>0.742</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="211" ht="19.95" spans="1:5">
       <c r="A211" s="3">
         <v>544</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C211" s="4">
-        <v>0.70899999999999996</v>
+        <v>0.709</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E211" s="5"/>
     </row>
-    <row r="212" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="212" ht="19.95" spans="1:5">
       <c r="A212" s="6">
         <v>545</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="C212" s="7">
-        <v>0.31900000000000001</v>
+        <v>0.319</v>
       </c>
       <c r="D212" s="6" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E212" s="9"/>
     </row>
-    <row r="213" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="213" ht="39.15" spans="1:4">
       <c r="A213" s="3">
         <v>549</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="C213" s="4">
-        <v>0.41899999999999998</v>
+        <v>0.419</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="214" ht="19.95" spans="1:5">
       <c r="A214" s="3">
         <v>560</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="C214" s="4">
-        <v>0.40400000000000003</v>
+        <v>0.404</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E214" s="9"/>
     </row>
-    <row r="215" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="215" ht="19.95" spans="1:4">
       <c r="A215" s="6">
         <v>583</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="C215" s="7">
         <v>0.442</v>
       </c>
       <c r="D215" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="216" ht="19.95" spans="1:4">
       <c r="A216" s="6">
         <v>638</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="C216" s="7">
         <v>0.434</v>
       </c>
       <c r="D216" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="217" ht="19.95" spans="1:5">
       <c r="A217" s="3">
         <v>651</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="C217" s="4">
-        <v>0.48799999999999999</v>
+        <v>0.488</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E217" s="9"/>
     </row>
-    <row r="218" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="218" ht="19.95" spans="1:5">
       <c r="A218" s="6">
         <v>658</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="C218" s="7">
-        <v>0.35299999999999998</v>
+        <v>0.353</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E218" s="9"/>
     </row>
-    <row r="219" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="219" ht="39.15" spans="1:4">
       <c r="A219" s="3">
         <v>659</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="C219" s="4">
-        <v>0.35699999999999998</v>
+        <v>0.357</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="220" ht="19.95" spans="1:4">
       <c r="A220" s="3">
         <v>667</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="C220" s="4">
-        <v>0.51500000000000001</v>
+        <v>0.515</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="221" ht="19.95" spans="1:4">
       <c r="A221" s="6">
         <v>731</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="C221" s="7">
         <v>0.316</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A3:D221">
     <sortCondition ref="D10"/>
   </sortState>
-  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F111" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F136" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F111" r:id="rId1" display="https://www.youtube.com/embed/IAet94C1FCc?feature=oembed"/>
+    <hyperlink ref="F136" r:id="rId2" display="http://www.cnblogs.com/grandyang/p/4603555.html"/>
+    <hyperlink ref="F115" r:id="rId3" display="http://www.cnblogs.com/grandyang/p/5212785.html"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/google_ranked.xlsx
+++ b/google_ranked.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234">
   <si>
     <t>Google</t>
   </si>
@@ -458,6 +458,9 @@
   </si>
   <si>
     <t>Design Hit Counter</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/grandyang/p/5605552.html</t>
   </si>
   <si>
     <t>Flip Game II</t>
@@ -720,10 +723,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -776,14 +779,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -814,64 +870,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -883,8 +885,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -929,55 +932,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -995,19 +974,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1019,7 +1070,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1031,67 +1094,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1129,11 +1132,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1153,52 +1195,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1220,9 +1221,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1232,10 +1235,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1244,7 +1247,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1253,122 +1256,122 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1717,8 +1720,8 @@
   <sheetPr/>
   <dimension ref="A1:F221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="J113" sqref="J113"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="E139" sqref="E139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
@@ -3694,7 +3697,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="138" ht="19.95" spans="1:4">
+    <row r="138" ht="19.95" spans="1:6">
       <c r="A138" s="6">
         <v>362</v>
       </c>
@@ -3707,13 +3710,17 @@
       <c r="D138" s="6" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="139" ht="19.95" spans="1:4">
+      <c r="E138" s="9"/>
+      <c r="F138" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="139" ht="19.95" spans="1:5">
       <c r="A139" s="6">
         <v>294</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C139" s="7">
         <v>0.466</v>
@@ -3721,13 +3728,14 @@
       <c r="D139" s="6" t="s">
         <v>114</v>
       </c>
+      <c r="E139" s="8"/>
     </row>
     <row r="140" ht="19.95" spans="1:4">
       <c r="A140" s="6">
         <v>380</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C140" s="7">
         <v>0.394</v>
@@ -3741,7 +3749,7 @@
         <v>249</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C141" s="7">
         <v>0.427</v>
@@ -3755,7 +3763,7 @@
         <v>320</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C142" s="4">
         <v>0.455</v>
@@ -3769,7 +3777,7 @@
         <v>505</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C143" s="7">
         <v>0.382</v>
@@ -3783,7 +3791,7 @@
         <v>341</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C144" s="4">
         <v>0.422</v>
@@ -3797,7 +3805,7 @@
         <v>360</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C145" s="7">
         <v>0.445</v>
@@ -3811,7 +3819,7 @@
         <v>274</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C146" s="7">
         <v>0.335</v>
@@ -3825,7 +3833,7 @@
         <v>253</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C147" s="4">
         <v>0.393</v>
@@ -3839,7 +3847,7 @@
         <v>139</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C148" s="7">
         <v>0.308</v>
@@ -3853,7 +3861,7 @@
         <v>230</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C149" s="4">
         <v>0.445</v>
@@ -3867,7 +3875,7 @@
         <v>162</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C150" s="7">
         <v>0.381</v>
@@ -3881,7 +3889,7 @@
         <v>498</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C151" s="4">
         <v>0.461</v>
@@ -3895,7 +3903,7 @@
         <v>490</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C152" s="4">
         <v>0.432</v>
@@ -3909,7 +3917,7 @@
         <v>318</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C153" s="7">
         <v>0.449</v>
@@ -3923,7 +3931,7 @@
         <v>240</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C154" s="4">
         <v>0.388</v>
@@ -3937,7 +3945,7 @@
         <v>373</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C155" s="7">
         <v>0.309</v>
@@ -3951,7 +3959,7 @@
         <v>369</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C156" s="7">
         <v>0.548</v>
@@ -3966,7 +3974,7 @@
         <v>251</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C157" s="7">
         <v>0.409</v>
@@ -3975,7 +3983,7 @@
         <v>114</v>
       </c>
       <c r="F157" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="158" ht="19.95" spans="1:4">
@@ -3983,7 +3991,7 @@
         <v>332</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C158" s="4">
         <v>0.294</v>
@@ -3997,7 +4005,7 @@
         <v>173</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C159" s="7">
         <v>0.424</v>
@@ -4011,7 +4019,7 @@
         <v>54</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C160" s="4">
         <v>0.266</v>
@@ -4025,7 +4033,7 @@
         <v>324</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C161" s="4">
         <v>0.262</v>
@@ -4039,7 +4047,7 @@
         <v>17</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C162" s="7">
         <v>0.354</v>
@@ -4053,7 +4061,7 @@
         <v>484</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C163" s="4">
         <v>0.551</v>
@@ -4067,7 +4075,7 @@
         <v>562</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C164" s="7">
         <v>0.409</v>
@@ -4081,7 +4089,7 @@
         <v>166</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C165" s="4">
         <v>0.178</v>
@@ -4095,7 +4103,7 @@
         <v>22</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C166" s="7">
         <v>0.463</v>
@@ -4109,7 +4117,7 @@
         <v>31</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C167" s="4">
         <v>0.288</v>
@@ -4123,7 +4131,7 @@
         <v>676</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C168" s="7">
         <v>0.5</v>
@@ -4137,7 +4145,7 @@
         <v>421</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C169" s="7">
         <v>0.469</v>
@@ -4151,7 +4159,7 @@
         <v>503</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C170" s="7">
         <v>0.473</v>
@@ -4165,7 +4173,7 @@
         <v>684</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C171" s="7">
         <v>0.392</v>
@@ -4179,7 +4187,7 @@
         <v>133</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C172" s="4">
         <v>0.251</v>
@@ -4193,7 +4201,7 @@
         <v>50</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C173" s="4">
         <v>0.26</v>
@@ -4207,7 +4215,7 @@
         <v>208</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C174" s="4">
         <v>0.295</v>
@@ -4221,7 +4229,7 @@
         <v>348</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C175" s="7">
         <v>0.458</v>
@@ -4235,7 +4243,7 @@
         <v>652</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C176" s="4">
         <v>0.358</v>
@@ -4249,7 +4257,7 @@
         <v>444</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C177" s="7">
         <v>0.196</v>
@@ -4263,7 +4271,7 @@
         <v>309</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C178" s="4">
         <v>0.413</v>
@@ -4277,7 +4285,7 @@
         <v>382</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C179" s="4">
         <v>0.471</v>
@@ -4291,7 +4299,7 @@
         <v>402</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C180" s="7">
         <v>0.26</v>
@@ -4305,7 +4313,7 @@
         <v>370</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C181" s="4">
         <v>0.565</v>
@@ -4319,7 +4327,7 @@
         <v>377</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C182" s="7">
         <v>0.424</v>
@@ -4333,7 +4341,7 @@
         <v>379</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C183" s="4">
         <v>0.341</v>
@@ -4347,7 +4355,7 @@
         <v>353</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C184" s="7">
         <v>0.268</v>
@@ -4361,7 +4369,7 @@
         <v>375</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C185" s="4">
         <v>0.359</v>
@@ -4375,7 +4383,7 @@
         <v>356</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C186" s="4">
         <v>0.301</v>
@@ -4389,7 +4397,7 @@
         <v>261</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C187" s="7">
         <v>0.381</v>
@@ -4403,7 +4411,7 @@
         <v>486</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C188" s="4">
         <v>0.451</v>
@@ -4417,7 +4425,7 @@
         <v>542</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C189" s="7">
         <v>0.33</v>
@@ -4431,7 +4439,7 @@
         <v>397</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C190" s="4">
         <v>0.302</v>
@@ -4445,7 +4453,7 @@
         <v>368</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C191" s="7">
         <v>0.337</v>
@@ -4459,7 +4467,7 @@
         <v>378</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C192" s="4">
         <v>0.452</v>
@@ -4473,7 +4481,7 @@
         <v>313</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C193" s="4">
         <v>0.38</v>
@@ -4487,7 +4495,7 @@
         <v>331</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C194" s="7">
         <v>0.366</v>
@@ -4501,7 +4509,7 @@
         <v>323</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C195" s="4">
         <v>0.483</v>
@@ -4515,7 +4523,7 @@
         <v>451</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C196" s="7">
         <v>0.511</v>
@@ -4530,7 +4538,7 @@
         <v>310</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C197" s="4">
         <v>0.289</v>
@@ -4544,7 +4552,7 @@
         <v>729</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C198" s="4">
         <v>0.361</v>
@@ -4558,7 +4566,7 @@
         <v>469</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C199" s="7">
         <v>0.334</v>
@@ -4572,7 +4580,7 @@
         <v>474</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C200" s="4">
         <v>0.391</v>
@@ -4586,7 +4594,7 @@
         <v>481</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C201" s="4">
         <v>0.456</v>
@@ -4600,7 +4608,7 @@
         <v>314</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C202" s="4">
         <v>0.373</v>
@@ -4615,7 +4623,7 @@
         <v>357</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C203" s="7">
         <v>0.461</v>
@@ -4629,7 +4637,7 @@
         <v>487</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C204" s="4">
         <v>0.456</v>
@@ -4639,7 +4647,7 @@
       </c>
       <c r="E204" s="9"/>
       <c r="F204" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="205" ht="19.95" spans="1:5">
@@ -4647,7 +4655,7 @@
         <v>494</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C205" s="4">
         <v>0.436</v>
@@ -4662,7 +4670,7 @@
         <v>522</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C206" s="7">
         <v>0.318</v>
@@ -4677,7 +4685,7 @@
         <v>526</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C207" s="4">
         <v>0.542</v>
@@ -4692,7 +4700,7 @@
         <v>531</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C208" s="7">
         <v>0.556</v>
@@ -4706,7 +4714,7 @@
         <v>533</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C209" s="4">
         <v>0.446</v>
@@ -4720,7 +4728,7 @@
         <v>535</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C210" s="7">
         <v>0.742</v>
@@ -4734,7 +4742,7 @@
         <v>544</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C211" s="4">
         <v>0.709</v>
@@ -4749,7 +4757,7 @@
         <v>545</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C212" s="7">
         <v>0.319</v>
@@ -4764,7 +4772,7 @@
         <v>549</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C213" s="4">
         <v>0.419</v>
@@ -4778,7 +4786,7 @@
         <v>560</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C214" s="4">
         <v>0.404</v>
@@ -4793,7 +4801,7 @@
         <v>583</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C215" s="7">
         <v>0.442</v>
@@ -4807,7 +4815,7 @@
         <v>638</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C216" s="7">
         <v>0.434</v>
@@ -4821,7 +4829,7 @@
         <v>651</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C217" s="4">
         <v>0.488</v>
@@ -4836,7 +4844,7 @@
         <v>658</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C218" s="7">
         <v>0.353</v>
@@ -4851,7 +4859,7 @@
         <v>659</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C219" s="4">
         <v>0.357</v>
@@ -4865,7 +4873,7 @@
         <v>667</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C220" s="4">
         <v>0.515</v>
@@ -4879,7 +4887,7 @@
         <v>731</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C221" s="7">
         <v>0.316</v>

--- a/google_ranked.xlsx
+++ b/google_ranked.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\leet\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDACA26-5B15-4C38-87CC-DBAA657B909C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9935"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22365" windowHeight="9930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="235">
   <si>
     <t>Google</t>
   </si>
@@ -43,692 +49,731 @@
     <t>Repeated String Match</t>
   </si>
   <si>
+    <t>Reverse Vowels of a String</t>
+  </si>
+  <si>
+    <t>Paint Fence</t>
+  </si>
+  <si>
+    <t>Binary Watch</t>
+  </si>
+  <si>
+    <t>Palindrome Permutation</t>
+  </si>
+  <si>
+    <t>Find the Difference</t>
+  </si>
+  <si>
+    <t>Valid Parentheses</t>
+  </si>
+  <si>
+    <t>Flip Game</t>
+  </si>
+  <si>
+    <t>Add Strings</t>
+  </si>
+  <si>
+    <t>Logger Rate Limiter</t>
+  </si>
+  <si>
+    <t>Closest Binary Search Tree Value</t>
+  </si>
+  <si>
+    <t>Nth Digit</t>
+  </si>
+  <si>
+    <t>Valid Word Square</t>
+  </si>
+  <si>
+    <t>Min Stack</t>
+  </si>
+  <si>
+    <t>Longest Palindrome</t>
+  </si>
+  <si>
+    <t>Diameter of Binary Tree</t>
+  </si>
+  <si>
+    <t>Power of Two</t>
+  </si>
+  <si>
+    <t>Find Mode in Binary Search Tree</t>
+  </si>
+  <si>
+    <t>Heaters</t>
+  </si>
+  <si>
+    <t>Student Attendance Record I</t>
+  </si>
+  <si>
+    <t>Repeated Substring Pattern</t>
+  </si>
+  <si>
+    <t>Valid Word Abbreviation</t>
+  </si>
+  <si>
+    <t>Minimum Absolute Difference in BST</t>
+  </si>
+  <si>
+    <t>Guess Number Higher or Lower</t>
+  </si>
+  <si>
+    <t>Find All Numbers Disappeared in an Array</t>
+  </si>
+  <si>
+    <t>Power of Three</t>
+  </si>
+  <si>
+    <t>Binary Tree Paths</t>
+  </si>
+  <si>
+    <t>Detect Capital</t>
+  </si>
+  <si>
+    <t>Max Consecutive Ones</t>
+  </si>
+  <si>
+    <t>Relative Ranks</t>
+  </si>
+  <si>
+    <t>Number of Boomerangs</t>
+  </si>
+  <si>
+    <t>Longest Uncommon Subsequence I</t>
+  </si>
+  <si>
+    <t>Reverse String II</t>
+  </si>
+  <si>
+    <t>Shortest Unsorted Continuous Subarray</t>
+  </si>
+  <si>
+    <t>Design Compressed String Iterator</t>
+  </si>
+  <si>
+    <t>Maximum Average Subarray I</t>
+  </si>
+  <si>
+    <t>Judge Route Circle</t>
+  </si>
+  <si>
+    <t>Non-decreasing Array</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>Number of Islands II</t>
+  </si>
+  <si>
+    <t>The Skyline Problem</t>
+  </si>
+  <si>
+    <t>Longest Substring with At Most Two Distinct Characters</t>
+  </si>
+  <si>
+    <t>Longest Increasing Path in a Matrix</t>
+  </si>
+  <si>
+    <t>Encode String with Shortest Length</t>
+  </si>
+  <si>
+    <t>Perfect Rectangle</t>
+  </si>
+  <si>
+    <t>Trapping Rain Water II</t>
+  </si>
+  <si>
+    <t>Serialize and Deserialize Binary Tree</t>
+  </si>
+  <si>
+    <t>LRU Cache</t>
+  </si>
+  <si>
+    <t>Find Median from Data Stream</t>
+  </si>
+  <si>
+    <t>Trapping Rain Water</t>
+  </si>
+  <si>
+    <t>Count of Smaller Numbers After Self</t>
+  </si>
+  <si>
+    <t>Minimum Unique Word Abbreviation</t>
+  </si>
+  <si>
+    <t>Alien Dictionary</t>
+  </si>
+  <si>
+    <t>Sliding Window Maximum</t>
+  </si>
+  <si>
+    <t>Optimal Account Balancing</t>
+  </si>
+  <si>
+    <t>Longest Consecutive Sequence</t>
+  </si>
+  <si>
+    <t>Read N Characters Given Read4 II - Call multiple times</t>
+  </si>
+  <si>
+    <t>Merge k Sorted Lists</t>
+  </si>
+  <si>
+    <t>Regular Expression Matching</t>
+  </si>
+  <si>
+    <t>Word Search II</t>
+  </si>
+  <si>
+    <t>Median of Two Sorted Arrays</t>
+  </si>
+  <si>
+    <t>Rearrange String k Distance Apart</t>
+  </si>
+  <si>
+    <t>Erect the Fence</t>
+  </si>
+  <si>
+    <t>24 Game</t>
+  </si>
+  <si>
+    <t>Word Break II</t>
+  </si>
+  <si>
+    <t>Basic Calculator</t>
+  </si>
+  <si>
+    <t>Count of Range Sum</t>
+  </si>
+  <si>
+    <t>Insert Interval</t>
+  </si>
+  <si>
+    <t>Palindrome Pairs</t>
+  </si>
+  <si>
+    <t>Wildcard Matching</t>
+  </si>
+  <si>
+    <t>LFU Cache</t>
+  </si>
+  <si>
+    <t>Max Sum of Rectangle No Larger Than K</t>
+  </si>
+  <si>
+    <t>Russian Doll Envelopes</t>
+  </si>
+  <si>
+    <t>Closest Binary Search Tree Value II</t>
+  </si>
+  <si>
+    <t>Shortest Palindrome</t>
+  </si>
+  <si>
+    <t>Expression Add Operators</t>
+  </si>
+  <si>
+    <t>Sliding Window Median</t>
+  </si>
+  <si>
+    <t>Smallest Good Base</t>
+  </si>
+  <si>
+    <t>Burst Balloons</t>
+  </si>
+  <si>
+    <t>Reverse Pairs</t>
+  </si>
+  <si>
+    <t>Freedom Trail</t>
+  </si>
+  <si>
+    <t>Word Abbreviation</t>
+  </si>
+  <si>
+    <t>Remove Duplicate Letters</t>
+  </si>
+  <si>
+    <t>Patching Array</t>
+  </si>
+  <si>
+    <t>Student Attendance Record II</t>
+  </si>
+  <si>
+    <t>Median Employee Salary</t>
+  </si>
+  <si>
+    <t>Maximum Average Subarray II</t>
+  </si>
+  <si>
+    <t>Coin Path</t>
+  </si>
+  <si>
+    <t>Kth Smallest Number in Multiplication Table</t>
+  </si>
+  <si>
+    <t>Redundant Connection II</t>
+  </si>
+  <si>
+    <t>Maximum Sum of 3 Non-Overlapping Subarrays</t>
+  </si>
+  <si>
+    <t>Find K-th Smallest Pair Distance</t>
+  </si>
+  <si>
+    <t>Number of Atoms</t>
+  </si>
+  <si>
+    <t>Minimum Window Subsequence</t>
+  </si>
+  <si>
+    <t>Design TinyURL</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Longest Absolute File Path</t>
+  </si>
+  <si>
+    <t>Next Closest Time</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/IAet94C1FCc?feature=oembed</t>
+  </si>
+  <si>
+    <t>License Key Formatting</t>
+  </si>
+  <si>
+    <t>Zigzag Iterator</t>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/grandyang/p/5212785.html</t>
+  </si>
+  <si>
+    <t>Bomb Enemy</t>
+  </si>
+  <si>
+    <t>Decode String</t>
+  </si>
+  <si>
+    <t>UTF-8 Validation</t>
+  </si>
+  <si>
+    <t>Missing Ranges</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/grandyang/p/5184890.html</t>
+  </si>
+  <si>
+    <t>Android Unlock Patterns</t>
+  </si>
+  <si>
+    <t>Encode and Decode Strings</t>
+  </si>
+  <si>
+    <t>Game of Life</t>
+  </si>
+  <si>
+    <t>Unique Word Abbreviation</t>
+  </si>
+  <si>
+    <t>Number of Islands</t>
+  </si>
+  <si>
+    <t>Wiggle Sort</t>
+  </si>
+  <si>
+    <t>Add Bold Tag in String</t>
+  </si>
+  <si>
+    <t>3Sum Smaller</t>
+  </si>
+  <si>
+    <t>Evaluate Division</t>
+  </si>
+  <si>
+    <t>Pacific Atlantic Water Flow</t>
+  </si>
+  <si>
+    <t>Queue Reconstruction by Height</t>
+  </si>
+  <si>
+    <t>Perfect Squares</t>
+  </si>
+  <si>
+    <t>Merge Intervals</t>
+  </si>
+  <si>
+    <t>Longest Word in Dictionary through Deleting</t>
+  </si>
+  <si>
+    <t>Summary Ranges</t>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/grandyang/p/4603555.html</t>
+  </si>
+  <si>
+    <t>Walls and Gates</t>
+  </si>
+  <si>
+    <t>Design Hit Counter</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/grandyang/p/5605552.html</t>
+  </si>
+  <si>
+    <t>Flip Game II</t>
+  </si>
+  <si>
+    <t>The Maze II</t>
+  </si>
+  <si>
+    <t>The Maze</t>
+  </si>
+  <si>
+    <t>Maximum Product of Word Lengths</t>
+  </si>
+  <si>
+    <t>Plus One Linked List</t>
+  </si>
+  <si>
+    <t>Flatten 2D Vector</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/grandyang/p/5209621.html</t>
+  </si>
+  <si>
+    <t>Reconstruct Itinerary</t>
+  </si>
+  <si>
+    <t>Binary Search Tree Iterator</t>
+  </si>
+  <si>
+    <t>Spiral Matrix</t>
+  </si>
+  <si>
+    <t>Wiggle Sort II</t>
+  </si>
+  <si>
+    <t>Letter Combinations of a Phone Number</t>
+  </si>
+  <si>
+    <t>Longest Line of Consecutive One in Matrix</t>
+  </si>
+  <si>
+    <t>Fraction to Recurring Decimal</t>
+  </si>
+  <si>
+    <t>Generate Parentheses</t>
+  </si>
+  <si>
+    <t>Next Permutation</t>
+  </si>
+  <si>
+    <t>Implement Magic Dictionary</t>
+  </si>
+  <si>
+    <t>Maximum XOR of Two Numbers in an Array</t>
+  </si>
+  <si>
+    <t>Next Greater Element II</t>
+  </si>
+  <si>
+    <t>Redundant Connection</t>
+  </si>
+  <si>
+    <t>Clone Graph</t>
+  </si>
+  <si>
+    <t>Pow(x, n)</t>
+  </si>
+  <si>
+    <t>Implement Trie (Prefix Tree)</t>
+  </si>
+  <si>
+    <t>Design Tic-Tac-Toe</t>
+  </si>
+  <si>
+    <t>Find Duplicate Subtrees</t>
+  </si>
+  <si>
+    <t>Sequence Reconstruction</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock with Cooldown</t>
+  </si>
+  <si>
+    <t>Linked List Random Node</t>
+  </si>
+  <si>
+    <t>Remove K Digits</t>
+  </si>
+  <si>
+    <t>Combination Sum IV</t>
+  </si>
+  <si>
+    <t>Design Phone Directory</t>
+  </si>
+  <si>
+    <t>Design Snake Game</t>
+  </si>
+  <si>
+    <t>Guess Number Higher or Lower II</t>
+  </si>
+  <si>
+    <t>Line Reflection</t>
+  </si>
+  <si>
+    <t>Graph Valid Tree</t>
+  </si>
+  <si>
+    <t>Predict the Winner</t>
+  </si>
+  <si>
+    <t>Super Ugly Number</t>
+  </si>
+  <si>
+    <t>Sort Characters By Frequency</t>
+  </si>
+  <si>
+    <t>Minimum Height Trees</t>
+  </si>
+  <si>
+    <t>My Calendar I</t>
+  </si>
+  <si>
+    <t>Magical String</t>
+  </si>
+  <si>
+    <t>Binary Tree Vertical Order Traversal</t>
+  </si>
+  <si>
+    <t>Count Numbers with Unique Digits</t>
+  </si>
+  <si>
+    <t>Max Consecutive Ones II</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/grandyang/p/6376115.html</t>
+  </si>
+  <si>
+    <t>Target Sum</t>
+  </si>
+  <si>
+    <t>Longest Uncommon Subsequence II</t>
+  </si>
+  <si>
+    <t>Beautiful Arrangement</t>
+  </si>
+  <si>
+    <t>Lonely Pixel II</t>
+  </si>
+  <si>
+    <t>Encode and Decode TinyURL</t>
+  </si>
+  <si>
+    <t>Output Contest Matches</t>
+  </si>
+  <si>
+    <t>Boundary of Binary Tree</t>
+  </si>
+  <si>
+    <t>Subarray Sum Equals K</t>
+  </si>
+  <si>
+    <t>Shopping Offers</t>
+  </si>
+  <si>
+    <t>4 Keys Keyboard</t>
+  </si>
+  <si>
+    <t>Find K Closest Elements</t>
+  </si>
+  <si>
+    <t>Beautiful Arrangement II</t>
+  </si>
+  <si>
+    <t>My Calendar II</t>
+  </si>
+  <si>
+    <t>Lonely Pixel I</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delete Operation for Two Strings</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary Tree Longest Consecutive Sequence II</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Split Array into Consecutive Subsequences</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Convex Polygon</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smallest Rectangle Enclosing Black Pixels</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create Maximum Number</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>01 Matrix</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer Replacement</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kth Smallest Element in a Sorted Matrix</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>Strobogrammatic Number</t>
-  </si>
-  <si>
-    <t>Reverse Vowels of a String</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strobogrammatic Number II</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/grandyang/p/5200919.html</t>
+  </si>
+  <si>
+    <t>Peeking Iterator</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group Shifted Strings</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find Permutation</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Largest Divisible Subset</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Verify Preorder Serialization of a Binary Tree</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of Connected Components in an Undirected Graph</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ones and Zeroes</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Insert Delete GetRandom O(1)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Generalized Abbreviation</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flatten Nested List Iterator</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sort Transformed Array</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>H-Index</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meeting Rooms II</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Word Break</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kth Smallest Element in a BST</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find Peak Element</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diagonal Traverse</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find K Pairs with Smallest Sums</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sentence Screen Fitting</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary Tree Longest Consecutive Sequence</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Longest Univalue Path</t>
-  </si>
-  <si>
-    <t>Paint Fence</t>
-  </si>
-  <si>
-    <t>Binary Watch</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Island Perimeter</t>
-  </si>
-  <si>
-    <t>Palindrome Permutation</t>
-  </si>
-  <si>
-    <t>Find the Difference</t>
-  </si>
-  <si>
-    <t>Valid Parentheses</t>
-  </si>
-  <si>
-    <t>Flip Game</t>
-  </si>
-  <si>
-    <t>Add Strings</t>
-  </si>
-  <si>
-    <t>Logger Rate Limiter</t>
-  </si>
-  <si>
-    <t>Closest Binary Search Tree Value</t>
-  </si>
-  <si>
-    <t>Nth Digit</t>
-  </si>
-  <si>
-    <t>Valid Word Square</t>
-  </si>
-  <si>
-    <t>Min Stack</t>
-  </si>
-  <si>
-    <t>Longest Palindrome</t>
-  </si>
-  <si>
-    <t>Diameter of Binary Tree</t>
-  </si>
-  <si>
-    <t>Power of Two</t>
-  </si>
-  <si>
-    <t>Find Mode in Binary Search Tree</t>
-  </si>
-  <si>
-    <t>Heaters</t>
-  </si>
-  <si>
-    <t>Student Attendance Record I</t>
-  </si>
-  <si>
-    <t>Repeated Substring Pattern</t>
-  </si>
-  <si>
-    <t>Valid Word Abbreviation</t>
-  </si>
-  <si>
-    <t>Minimum Absolute Difference in BST</t>
-  </si>
-  <si>
-    <t>Guess Number Higher or Lower</t>
-  </si>
-  <si>
-    <t>Find All Numbers Disappeared in an Array</t>
-  </si>
-  <si>
-    <t>Power of Three</t>
-  </si>
-  <si>
-    <t>Binary Tree Paths</t>
-  </si>
-  <si>
-    <t>Detect Capital</t>
-  </si>
-  <si>
-    <t>Max Consecutive Ones</t>
-  </si>
-  <si>
-    <t>Relative Ranks</t>
-  </si>
-  <si>
-    <t>Number of Boomerangs</t>
-  </si>
-  <si>
-    <t>Longest Uncommon Subsequence I</t>
-  </si>
-  <si>
-    <t>Reverse String II</t>
-  </si>
-  <si>
-    <t>Shortest Unsorted Continuous Subarray</t>
-  </si>
-  <si>
-    <t>Design Compressed String Iterator</t>
-  </si>
-  <si>
-    <t>Maximum Average Subarray I</t>
-  </si>
-  <si>
-    <t>Judge Route Circle</t>
-  </si>
-  <si>
-    <t>Non-decreasing Array</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>K Empty Slots</t>
-  </si>
-  <si>
-    <t>Hard</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Longest Substring with At Most K Distinct Characters</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Range Sum Query 2D - Mutable</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Word Squares</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Maximum Vacation Days</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Shortest Distance from All Buildings</t>
-  </si>
-  <si>
-    <t>Number of Islands II</t>
-  </si>
-  <si>
-    <t>The Skyline Problem</t>
-  </si>
-  <si>
-    <t>Longest Substring with At Most Two Distinct Characters</t>
-  </si>
-  <si>
-    <t>Longest Increasing Path in a Matrix</t>
-  </si>
-  <si>
-    <t>Encode String with Shortest Length</t>
-  </si>
-  <si>
-    <t>Perfect Rectangle</t>
-  </si>
-  <si>
-    <t>Trapping Rain Water II</t>
-  </si>
-  <si>
-    <t>Serialize and Deserialize Binary Tree</t>
-  </si>
-  <si>
-    <t>LRU Cache</t>
-  </si>
-  <si>
-    <t>Find Median from Data Stream</t>
-  </si>
-  <si>
-    <t>Trapping Rain Water</t>
-  </si>
-  <si>
-    <t>Count of Smaller Numbers After Self</t>
-  </si>
-  <si>
-    <t>Minimum Unique Word Abbreviation</t>
-  </si>
-  <si>
-    <t>Alien Dictionary</t>
-  </si>
-  <si>
-    <t>Sliding Window Maximum</t>
-  </si>
-  <si>
-    <t>Optimal Account Balancing</t>
-  </si>
-  <si>
-    <t>Longest Consecutive Sequence</t>
-  </si>
-  <si>
-    <t>Read N Characters Given Read4 II - Call multiple times</t>
-  </si>
-  <si>
-    <t>Merge k Sorted Lists</t>
-  </si>
-  <si>
-    <t>Regular Expression Matching</t>
-  </si>
-  <si>
-    <t>Word Search II</t>
-  </si>
-  <si>
-    <t>Median of Two Sorted Arrays</t>
-  </si>
-  <si>
-    <t>Rearrange String k Distance Apart</t>
-  </si>
-  <si>
-    <t>Erect the Fence</t>
-  </si>
-  <si>
-    <t>24 Game</t>
-  </si>
-  <si>
-    <t>Word Break II</t>
-  </si>
-  <si>
-    <t>Basic Calculator</t>
-  </si>
-  <si>
-    <t>Count of Range Sum</t>
-  </si>
-  <si>
-    <t>Insert Interval</t>
-  </si>
-  <si>
-    <t>Palindrome Pairs</t>
-  </si>
-  <si>
-    <t>Wildcard Matching</t>
-  </si>
-  <si>
-    <t>LFU Cache</t>
-  </si>
-  <si>
-    <t>Max Sum of Rectangle No Larger Than K</t>
-  </si>
-  <si>
-    <t>Russian Doll Envelopes</t>
-  </si>
-  <si>
-    <t>Closest Binary Search Tree Value II</t>
-  </si>
-  <si>
-    <t>Shortest Palindrome</t>
-  </si>
-  <si>
-    <t>Expression Add Operators</t>
-  </si>
-  <si>
-    <t>Smallest Rectangle Enclosing Black Pixels</t>
-  </si>
-  <si>
-    <t>Create Maximum Number</t>
-  </si>
-  <si>
-    <t>Sliding Window Median</t>
-  </si>
-  <si>
-    <t>Smallest Good Base</t>
-  </si>
-  <si>
-    <t>Burst Balloons</t>
-  </si>
-  <si>
-    <t>Reverse Pairs</t>
-  </si>
-  <si>
-    <t>Freedom Trail</t>
-  </si>
-  <si>
-    <t>Word Abbreviation</t>
-  </si>
-  <si>
-    <t>Remove Duplicate Letters</t>
-  </si>
-  <si>
-    <t>Patching Array</t>
-  </si>
-  <si>
-    <t>Student Attendance Record II</t>
-  </si>
-  <si>
-    <t>Median Employee Salary</t>
-  </si>
-  <si>
-    <t>Maximum Average Subarray II</t>
-  </si>
-  <si>
-    <t>Coin Path</t>
-  </si>
-  <si>
-    <t>Kth Smallest Number in Multiplication Table</t>
-  </si>
-  <si>
-    <t>Redundant Connection II</t>
-  </si>
-  <si>
-    <t>Maximum Sum of 3 Non-Overlapping Subarrays</t>
-  </si>
-  <si>
-    <t>Find K-th Smallest Pair Distance</t>
-  </si>
-  <si>
-    <t>Number of Atoms</t>
-  </si>
-  <si>
-    <t>Minimum Window Subsequence</t>
-  </si>
-  <si>
-    <t>Design TinyURL</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>Longest Absolute File Path</t>
-  </si>
-  <si>
-    <t>Next Closest Time</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/IAet94C1FCc?feature=oembed</t>
-  </si>
-  <si>
-    <t>License Key Formatting</t>
-  </si>
-  <si>
-    <t>Binary Tree Longest Consecutive Sequence</t>
-  </si>
-  <si>
-    <t>Sentence Screen Fitting</t>
-  </si>
-  <si>
-    <t>Zigzag Iterator</t>
-  </si>
-  <si>
-    <t>http://www.cnblogs.com/grandyang/p/5212785.html</t>
-  </si>
-  <si>
-    <t>Bomb Enemy</t>
-  </si>
-  <si>
-    <t>Decode String</t>
-  </si>
-  <si>
-    <t>UTF-8 Validation</t>
-  </si>
-  <si>
-    <t>Missing Ranges</t>
-  </si>
-  <si>
-    <t>https://www.cnblogs.com/grandyang/p/5184890.html</t>
-  </si>
-  <si>
-    <t>Android Unlock Patterns</t>
-  </si>
-  <si>
-    <t>Encode and Decode Strings</t>
-  </si>
-  <si>
-    <t>Game of Life</t>
-  </si>
-  <si>
-    <t>Unique Word Abbreviation</t>
-  </si>
-  <si>
-    <t>Number of Islands</t>
-  </si>
-  <si>
-    <t>Wiggle Sort</t>
-  </si>
-  <si>
-    <t>Add Bold Tag in String</t>
-  </si>
-  <si>
-    <t>3Sum Smaller</t>
-  </si>
-  <si>
-    <t>Evaluate Division</t>
-  </si>
-  <si>
-    <t>Pacific Atlantic Water Flow</t>
-  </si>
-  <si>
-    <t>Queue Reconstruction by Height</t>
-  </si>
-  <si>
-    <t>Perfect Squares</t>
-  </si>
-  <si>
-    <t>Merge Intervals</t>
-  </si>
-  <si>
-    <t>Peeking Iterator</t>
-  </si>
-  <si>
-    <t>Strobogrammatic Number II</t>
-  </si>
-  <si>
-    <t>Longest Word in Dictionary through Deleting</t>
-  </si>
-  <si>
-    <t>Summary Ranges</t>
-  </si>
-  <si>
-    <t>http://www.cnblogs.com/grandyang/p/4603555.html</t>
-  </si>
-  <si>
-    <t>Walls and Gates</t>
-  </si>
-  <si>
-    <t>Design Hit Counter</t>
-  </si>
-  <si>
-    <t>https://www.cnblogs.com/grandyang/p/5605552.html</t>
-  </si>
-  <si>
-    <t>Flip Game II</t>
-  </si>
-  <si>
-    <t>Insert Delete GetRandom O(1)</t>
-  </si>
-  <si>
-    <t>Group Shifted Strings</t>
-  </si>
-  <si>
-    <t>Generalized Abbreviation</t>
-  </si>
-  <si>
-    <t>The Maze II</t>
-  </si>
-  <si>
-    <t>Flatten Nested List Iterator</t>
-  </si>
-  <si>
-    <t>Sort Transformed Array</t>
-  </si>
-  <si>
-    <t>H-Index</t>
-  </si>
-  <si>
-    <t>Meeting Rooms II</t>
-  </si>
-  <si>
-    <t>Word Break</t>
-  </si>
-  <si>
-    <t>Kth Smallest Element in a BST</t>
-  </si>
-  <si>
-    <t>Find Peak Element</t>
-  </si>
-  <si>
-    <t>Diagonal Traverse</t>
-  </si>
-  <si>
-    <t>The Maze</t>
-  </si>
-  <si>
-    <t>Maximum Product of Word Lengths</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Range Addition</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Search a 2D Matrix II</t>
-  </si>
-  <si>
-    <t>Find K Pairs with Smallest Sums</t>
-  </si>
-  <si>
-    <t>Plus One Linked List</t>
-  </si>
-  <si>
-    <t>Flatten 2D Vector</t>
-  </si>
-  <si>
-    <t>https://www.cnblogs.com/grandyang/p/5209621.html</t>
-  </si>
-  <si>
-    <t>Reconstruct Itinerary</t>
-  </si>
-  <si>
-    <t>Binary Search Tree Iterator</t>
-  </si>
-  <si>
-    <t>Spiral Matrix</t>
-  </si>
-  <si>
-    <t>Wiggle Sort II</t>
-  </si>
-  <si>
-    <t>Letter Combinations of a Phone Number</t>
-  </si>
-  <si>
-    <t>Find Permutation</t>
-  </si>
-  <si>
-    <t>Longest Line of Consecutive One in Matrix</t>
-  </si>
-  <si>
-    <t>Fraction to Recurring Decimal</t>
-  </si>
-  <si>
-    <t>Generate Parentheses</t>
-  </si>
-  <si>
-    <t>Next Permutation</t>
-  </si>
-  <si>
-    <t>Implement Magic Dictionary</t>
-  </si>
-  <si>
-    <t>Maximum XOR of Two Numbers in an Array</t>
-  </si>
-  <si>
-    <t>Next Greater Element II</t>
-  </si>
-  <si>
-    <t>Redundant Connection</t>
-  </si>
-  <si>
-    <t>Clone Graph</t>
-  </si>
-  <si>
-    <t>Pow(x, n)</t>
-  </si>
-  <si>
-    <t>Implement Trie (Prefix Tree)</t>
-  </si>
-  <si>
-    <t>Design Tic-Tac-Toe</t>
-  </si>
-  <si>
-    <t>Find Duplicate Subtrees</t>
-  </si>
-  <si>
-    <t>Sequence Reconstruction</t>
-  </si>
-  <si>
-    <t>Best Time to Buy and Sell Stock with Cooldown</t>
-  </si>
-  <si>
-    <t>Linked List Random Node</t>
-  </si>
-  <si>
-    <t>Remove K Digits</t>
-  </si>
-  <si>
-    <t>Range Addition</t>
-  </si>
-  <si>
-    <t>Combination Sum IV</t>
-  </si>
-  <si>
-    <t>Design Phone Directory</t>
-  </si>
-  <si>
-    <t>Design Snake Game</t>
-  </si>
-  <si>
-    <t>Guess Number Higher or Lower II</t>
-  </si>
-  <si>
-    <t>Line Reflection</t>
-  </si>
-  <si>
-    <t>Graph Valid Tree</t>
-  </si>
-  <si>
-    <t>Predict the Winner</t>
-  </si>
-  <si>
-    <t>01 Matrix</t>
-  </si>
-  <si>
-    <t>Integer Replacement</t>
-  </si>
-  <si>
-    <t>Largest Divisible Subset</t>
-  </si>
-  <si>
-    <t>Kth Smallest Element in a Sorted Matrix</t>
-  </si>
-  <si>
-    <t>Super Ugly Number</t>
-  </si>
-  <si>
-    <t>Verify Preorder Serialization of a Binary Tree</t>
-  </si>
-  <si>
-    <t>Number of Connected Components in an Undirected Graph</t>
-  </si>
-  <si>
-    <t>Sort Characters By Frequency</t>
-  </si>
-  <si>
-    <t>Minimum Height Trees</t>
-  </si>
-  <si>
-    <t>My Calendar I</t>
-  </si>
-  <si>
-    <t>Convex Polygon</t>
-  </si>
-  <si>
-    <t>Ones and Zeroes</t>
-  </si>
-  <si>
-    <t>Magical String</t>
-  </si>
-  <si>
-    <t>Binary Tree Vertical Order Traversal</t>
-  </si>
-  <si>
-    <t>Count Numbers with Unique Digits</t>
-  </si>
-  <si>
-    <t>Max Consecutive Ones II</t>
-  </si>
-  <si>
-    <t>https://www.cnblogs.com/grandyang/p/6376115.html</t>
-  </si>
-  <si>
-    <t>Target Sum</t>
-  </si>
-  <si>
-    <t>Longest Uncommon Subsequence II</t>
-  </si>
-  <si>
-    <t>Beautiful Arrangement</t>
-  </si>
-  <si>
-    <t>Lonely Pixel I</t>
-  </si>
-  <si>
-    <t>Lonely Pixel II</t>
-  </si>
-  <si>
-    <t>Encode and Decode TinyURL</t>
-  </si>
-  <si>
-    <t>Output Contest Matches</t>
-  </si>
-  <si>
-    <t>Boundary of Binary Tree</t>
-  </si>
-  <si>
-    <t>Binary Tree Longest Consecutive Sequence II</t>
-  </si>
-  <si>
-    <t>Subarray Sum Equals K</t>
-  </si>
-  <si>
-    <t>Delete Operation for Two Strings</t>
-  </si>
-  <si>
-    <t>Shopping Offers</t>
-  </si>
-  <si>
-    <t>4 Keys Keyboard</t>
-  </si>
-  <si>
-    <t>Find K Closest Elements</t>
-  </si>
-  <si>
-    <t>Split Array into Consecutive Subsequences</t>
-  </si>
-  <si>
-    <t>Beautiful Arrangement II</t>
-  </si>
-  <si>
-    <t>My Calendar II</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -740,13 +785,13 @@
       <sz val="22"/>
       <color rgb="FF24292E"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF24292E"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -778,122 +823,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -930,176 +866,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1131,247 +899,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1389,72 +927,32 @@
     <xf numFmtId="10" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="31" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="7" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="32" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="5">
+    <cellStyle name="差" xfId="1" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
+    <cellStyle name="好" xfId="3" builtinId="26"/>
+    <cellStyle name="适中" xfId="4" builtinId="28"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1712,33 +1210,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="E139" sqref="E139"/>
+    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="B154" sqref="B154"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.8796296296296" customWidth="1"/>
+    <col min="1" max="1" width="39.875" customWidth="1"/>
     <col min="2" max="2" width="41.75" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
-    <col min="4" max="4" width="29.6296296296296" customWidth="1"/>
-    <col min="6" max="6" width="17.3796296296296" customWidth="1"/>
+    <col min="4" max="4" width="29.625" customWidth="1"/>
+    <col min="6" max="6" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33.15" spans="1:1">
+    <row r="1" spans="1:5" ht="33" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="19.95" spans="1:4">
+    <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1752,7 +1250,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="19.95" spans="1:5">
+    <row r="3" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>346</v>
       </c>
@@ -1760,14 +1258,14 @@
         <v>5</v>
       </c>
       <c r="C3" s="4">
-        <v>0.595</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" ht="19.95" spans="1:5">
+    <row r="4" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>66</v>
       </c>
@@ -1775,14 +1273,14 @@
         <v>7</v>
       </c>
       <c r="C4" s="4">
-        <v>0.391</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" ht="19.95" spans="1:5">
+    <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>686</v>
       </c>
@@ -1790,19 +1288,19 @@
         <v>8</v>
       </c>
       <c r="C5" s="7">
-        <v>0.329</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" ht="19.95" spans="1:4">
+    <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>246</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>9</v>
+        <v>202</v>
       </c>
       <c r="C6" s="7">
         <v>0.4</v>
@@ -1810,101 +1308,102 @@
       <c r="D6" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" ht="19.95" spans="1:5">
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>345</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="4">
-        <v>0.387</v>
+        <v>0.38700000000000001</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" ht="19.95" spans="1:4">
+    <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>687</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>11</v>
+        <v>225</v>
       </c>
       <c r="C8" s="4">
-        <v>0.333</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" ht="19.95" spans="1:5">
+    <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>276</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" s="4">
-        <v>0.347</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" ht="19.95" spans="1:5">
+    <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>401</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10" s="7">
-        <v>0.449</v>
+        <v>0.44900000000000001</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" ht="19.95" spans="1:4">
+    <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>463</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>14</v>
+        <v>226</v>
       </c>
       <c r="C11" s="4">
-        <v>0.575</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" ht="19.95" spans="1:5">
+    <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>266</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C12" s="7">
-        <v>0.575</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" ht="19.95" spans="1:5">
+    <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>389</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C13" s="7">
         <v>0.51</v>
@@ -1914,172 +1413,172 @@
       </c>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" ht="19.95" spans="1:5">
+    <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>20</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C14" s="4">
-        <v>0.337</v>
+        <v>0.33700000000000002</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" ht="19.95" spans="1:5">
+    <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>293</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C15" s="4">
-        <v>0.565</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" ht="19.95" spans="1:5">
+    <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>415</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C16" s="4">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" ht="19.95" spans="1:5">
+    <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>359</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C17" s="7">
-        <v>0.601</v>
+        <v>0.60099999999999998</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" ht="19.95" spans="1:4">
+    <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>270</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C18" s="4">
-        <v>0.401</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" ht="19.95" spans="1:5">
+    <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>400</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C19" s="7">
-        <v>0.301</v>
+        <v>0.30099999999999999</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" ht="19.95" spans="1:4">
+    <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>422</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C20" s="4">
-        <v>0.364</v>
+        <v>0.36399999999999999</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" ht="19.95" spans="1:4">
+    <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>155</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C21" s="4">
-        <v>0.297</v>
+        <v>0.29699999999999999</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" ht="19.95" spans="1:5">
+    <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>409</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C22" s="4">
-        <v>0.455</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" ht="19.95" spans="1:4">
+    <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>543</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C23" s="7">
-        <v>0.447</v>
+        <v>0.44700000000000001</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" ht="19.95" spans="1:4">
+    <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>231</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C24" s="7">
-        <v>0.404</v>
+        <v>0.40400000000000003</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" ht="19.95" spans="1:4">
+    <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>501</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C25" s="7">
         <v>0.377</v>
@@ -2088,27 +1587,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" ht="19.95" spans="1:5">
+    <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>475</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C26" s="4">
-        <v>0.296</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" ht="19.95" spans="1:5">
+    <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>551</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C27" s="4">
         <v>0.441</v>
@@ -2118,128 +1617,128 @@
       </c>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" ht="19.95" spans="1:5">
+    <row r="28" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>459</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C28" s="7">
-        <v>0.382</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E28" s="9"/>
     </row>
-    <row r="29" ht="19.95" spans="1:5">
+    <row r="29" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>408</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C29" s="4">
-        <v>0.282</v>
+        <v>0.28199999999999997</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" ht="19.95" spans="1:5">
+    <row r="30" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>530</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>0.471</v>
+        <v>0.47099999999999997</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E30" s="5"/>
     </row>
-    <row r="31" ht="19.95" spans="1:4">
+    <row r="31" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>374</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C31" s="4">
-        <v>0.359</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="32" ht="19.95" spans="1:4">
+    <row r="32" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>448</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C32" s="7">
-        <v>0.512</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="33" ht="19.95" spans="1:4">
+    <row r="33" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>326</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C33" s="7">
-        <v>0.404</v>
+        <v>0.40400000000000003</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="34" ht="19.95" spans="1:4">
+    <row r="34" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>257</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C34" s="4">
-        <v>0.397</v>
+        <v>0.39700000000000002</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="35" ht="19.95" spans="1:5">
+    <row r="35" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>520</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C35" s="7">
-        <v>0.519</v>
+        <v>0.51900000000000002</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E35" s="5"/>
     </row>
-    <row r="36" ht="19.95" spans="1:5">
+    <row r="36" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>485</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C36" s="4">
         <v>0.54</v>
@@ -2249,54 +1748,54 @@
       </c>
       <c r="E36" s="5"/>
     </row>
-    <row r="37" ht="19.95" spans="1:4">
+    <row r="37" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>506</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C37" s="7">
-        <v>0.466</v>
+        <v>0.46600000000000003</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="38" ht="19.95" spans="1:4">
+    <row r="38" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>447</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C38" s="7">
-        <v>0.457</v>
+        <v>0.45700000000000002</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="39" ht="19.95" spans="1:4">
+    <row r="39" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>521</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C39" s="4">
-        <v>0.559</v>
+        <v>0.55900000000000005</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="40" ht="19.95" spans="1:4">
+    <row r="40" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>541</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C40" s="4">
         <v>0.437</v>
@@ -2305,41 +1804,41 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" ht="19.95" spans="1:5">
+    <row r="41" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>581</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C41" s="4">
-        <v>0.293</v>
+        <v>0.29299999999999998</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E41" s="5"/>
     </row>
-    <row r="42" ht="19.95" spans="1:4">
+    <row r="42" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>604</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C42" s="4">
-        <v>0.325</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="43" ht="19.95" spans="1:5">
+    <row r="43" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>643</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C43" s="4">
         <v>0.378</v>
@@ -2349,2233 +1848,2247 @@
       </c>
       <c r="E43" s="5"/>
     </row>
-    <row r="44" ht="19.95" spans="1:5">
+    <row r="44" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>657</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C44" s="4">
-        <v>0.686</v>
+        <v>0.68600000000000005</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E44" s="5"/>
     </row>
-    <row r="45" ht="19.95" spans="1:5">
+    <row r="45" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
         <v>665</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C45" s="7">
-        <v>0.211</v>
+        <v>0.21099999999999999</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E45" s="5"/>
     </row>
-    <row r="46" ht="19.95" spans="1:4">
+    <row r="46" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
         <v>683</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>49</v>
+        <v>227</v>
       </c>
       <c r="C46" s="7">
-        <v>0.366</v>
+        <v>0.36599999999999999</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="47" ht="39.15" spans="1:4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="34.5" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
         <v>340</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>51</v>
+        <v>228</v>
       </c>
       <c r="C47" s="7">
-        <v>0.392</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" ht="19.95" spans="1:5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
         <v>308</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>52</v>
+        <v>229</v>
       </c>
       <c r="C48" s="7">
-        <v>0.241</v>
+        <v>0.24099999999999999</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E48" s="9"/>
     </row>
-    <row r="49" ht="19.95" spans="1:4">
+    <row r="49" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>425</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>53</v>
+        <v>230</v>
       </c>
       <c r="C49" s="4">
         <v>0.435</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="50" ht="19.95" spans="1:4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>568</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>54</v>
+        <v>231</v>
       </c>
       <c r="C50" s="4">
-        <v>0.391</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" ht="19.95" spans="1:4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
         <v>317</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>55</v>
+        <v>232</v>
       </c>
       <c r="C51" s="7">
-        <v>0.344</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" ht="19.95" spans="1:4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
         <v>305</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C52" s="7">
-        <v>0.393</v>
+        <v>0.39300000000000002</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" ht="19.95" spans="1:4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>218</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C53" s="4">
-        <v>0.282</v>
+        <v>0.28199999999999997</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="54" ht="39.15" spans="1:4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="34.5" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>159</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C54" s="4">
-        <v>0.419</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="55" ht="19.95" spans="1:4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>329</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C55" s="4">
-        <v>0.369</v>
+        <v>0.36899999999999999</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="56" ht="19.95" spans="1:4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>471</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C56" s="4">
-        <v>0.428</v>
+        <v>0.42799999999999999</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="57" ht="19.95" spans="1:4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>391</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C57" s="4">
-        <v>0.271</v>
+        <v>0.27100000000000002</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="58" ht="19.95" spans="1:4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
         <v>407</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C58" s="7">
         <v>0.376</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="59" ht="19.95" spans="1:4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>297</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C59" s="4">
         <v>0.34</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="60" ht="19.95" spans="1:4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>146</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C60" s="4">
         <v>0.187</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="61" ht="19.95" spans="1:4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>295</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C61" s="4">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="62" ht="19.95" spans="1:4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
         <v>42</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C62" s="7">
         <v>0.372</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="63" ht="19.95" spans="1:4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>315</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C63" s="4">
-        <v>0.348</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="64" ht="19.95" spans="1:4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>411</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C64" s="4">
-        <v>0.333</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="65" ht="19.95" spans="1:4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A65" s="6">
         <v>269</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C65" s="7">
         <v>0.252</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="66" ht="19.95" spans="1:4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>239</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C66" s="4">
-        <v>0.336</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="67" ht="19.95" spans="1:4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>465</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C67" s="4">
         <v>0.378</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="68" ht="19.95" spans="1:4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A68" s="6">
         <v>128</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C68" s="7">
         <v>0.375</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="69" ht="39.15" spans="1:4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="34.5" x14ac:dyDescent="0.2">
       <c r="A69" s="6">
         <v>158</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C69" s="7">
         <v>0.245</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="70" ht="19.95" spans="1:4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A70" s="6">
         <v>23</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C70" s="7">
-        <v>0.277</v>
+        <v>0.27700000000000002</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="71" ht="19.95" spans="1:4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>10</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C71" s="4">
-        <v>0.243</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="72" ht="19.95" spans="1:4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A72" s="6">
         <v>212</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C72" s="7">
         <v>0.24</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="73" ht="19.95" spans="1:4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>4</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C73" s="4">
         <v>0.223</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="74" ht="19.95" spans="1:4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A74" s="6">
         <v>358</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C74" s="7">
         <v>0.317</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="75" ht="19.95" spans="1:4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A75" s="6">
         <v>587</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C75" s="7">
-        <v>0.326</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="76" ht="19.95" spans="1:4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>679</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C76" s="4">
-        <v>0.389</v>
+        <v>0.38900000000000001</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="77" ht="19.95" spans="1:4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A77" s="6">
         <v>140</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C77" s="7">
-        <v>0.239</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="78" ht="19.95" spans="1:4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A78" s="6">
         <v>224</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C78" s="7">
-        <v>0.278</v>
+        <v>0.27800000000000002</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="79" ht="19.95" spans="1:5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>327</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C79" s="4">
-        <v>0.301</v>
+        <v>0.30099999999999999</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E79" s="9"/>
     </row>
-    <row r="80" ht="19.95" spans="1:5">
+    <row r="80" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>57</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C80" s="4">
-        <v>0.283</v>
+        <v>0.28299999999999997</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E80" s="9"/>
     </row>
-    <row r="81" ht="19.95" spans="1:4">
+    <row r="81" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>336</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C81" s="4">
-        <v>0.266</v>
+        <v>0.26600000000000001</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="82" ht="19.95" spans="1:4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A82" s="6">
         <v>44</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C82" s="7">
-        <v>0.206</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="83" ht="19.95" spans="1:4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>460</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C83" s="4">
-        <v>0.244</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="84" ht="19.95" spans="1:4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A84" s="6">
         <v>363</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C84" s="7">
-        <v>0.334</v>
+        <v>0.33400000000000002</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="85" ht="19.95" spans="1:4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>354</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C85" s="4">
-        <v>0.323</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="86" ht="19.95" spans="1:4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A86" s="6">
         <v>272</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C86" s="7">
-        <v>0.394</v>
+        <v>0.39400000000000002</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="87" ht="19.95" spans="1:4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A87" s="6">
         <v>214</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C87" s="7">
         <v>0.247</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="88" ht="19.95" spans="1:4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>282</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C88" s="4">
-        <v>0.302</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="89" ht="19.95" spans="1:4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A89" s="6">
         <v>302</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>93</v>
+        <v>197</v>
       </c>
       <c r="C89" s="7">
-        <v>0.459</v>
+        <v>0.45900000000000002</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="90" ht="19.95" spans="1:4">
+        <v>46</v>
+      </c>
+      <c r="E89" s="5"/>
+    </row>
+    <row r="90" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A90" s="6">
         <v>321</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>94</v>
+        <v>198</v>
       </c>
       <c r="C90" s="7">
         <v>0.248</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="91" ht="19.95" spans="1:4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A91" s="6">
         <v>480</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C91" s="7">
         <v>0.311</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="92" ht="19.95" spans="1:4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A92" s="6">
         <v>483</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C92" s="7">
-        <v>0.334</v>
+        <v>0.33400000000000002</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="93" ht="19.95" spans="1:4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A93" s="6">
         <v>312</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C93" s="7">
         <v>0.432</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="94" ht="19.95" spans="1:4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A94" s="6">
         <v>493</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C94" s="7">
-        <v>0.206</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="95" ht="19.95" spans="1:4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>514</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C95" s="4">
-        <v>0.391</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="96" ht="19.95" spans="1:4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A96" s="6">
         <v>527</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C96" s="7">
-        <v>0.419</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="97" ht="19.95" spans="1:4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>316</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C97" s="4">
-        <v>0.299</v>
+        <v>0.29899999999999999</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="98" ht="19.95" spans="1:4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A98" s="6">
         <v>330</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C98" s="7">
-        <v>0.323</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="99" ht="19.95" spans="1:4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A99" s="6">
         <v>552</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C99" s="7">
         <v>0.313</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="100" ht="19.95" spans="1:4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A100" s="6">
         <v>569</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C100" s="7">
-        <v>0.342</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="101" ht="19.95" spans="1:4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A101" s="6">
         <v>644</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C101" s="7">
         <v>0.23</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="102" ht="19.95" spans="1:4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A102" s="6">
         <v>656</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C102" s="7">
         <v>0.251</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="103" ht="39.15" spans="1:4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A103" s="6">
         <v>668</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C103" s="7">
         <v>0.377</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="104" ht="19.95" spans="1:4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
         <v>685</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C104" s="4">
-        <v>0.284</v>
+        <v>0.28399999999999997</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="105" ht="39.15" spans="1:4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="A105" s="6">
         <v>689</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C105" s="7">
-        <v>0.413</v>
+        <v>0.41299999999999998</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="106" ht="19.95" spans="1:4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
         <v>719</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C106" s="4">
         <v>0.253</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="107" ht="19.95" spans="1:4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A107" s="6">
         <v>726</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C107" s="7">
-        <v>0.457</v>
+        <v>0.45700000000000002</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="108" ht="19.95" spans="1:4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
         <v>727</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C108" s="4">
-        <v>0.291</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="109" ht="19.95" spans="1:4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A109" s="6">
         <v>534</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C109" s="7">
         <v>0</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="110" ht="19.95" spans="1:5">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
         <v>388</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C110" s="4">
         <v>0.371</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E110" s="9"/>
     </row>
-    <row r="111" ht="19.95" spans="1:6">
+    <row r="111" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
         <v>681</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C111" s="4">
-        <v>0.429</v>
+        <v>0.42899999999999999</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E111" s="5"/>
       <c r="F111" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="112" ht="19.95" spans="1:5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
         <v>482</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C112" s="4">
-        <v>0.418</v>
+        <v>0.41799999999999998</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E112" s="9"/>
     </row>
-    <row r="113" ht="39.15" spans="1:4">
+    <row r="113" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A113" s="6">
         <v>298</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>119</v>
+        <v>224</v>
       </c>
       <c r="C113" s="7">
-        <v>0.414</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="114" ht="19.95" spans="1:4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
         <v>418</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>120</v>
+        <v>223</v>
       </c>
       <c r="C114" s="4">
-        <v>0.278</v>
+        <v>0.27800000000000002</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="115" ht="19.95" spans="1:6">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A115" s="6">
         <v>281</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="C115" s="7">
-        <v>0.514</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E115" s="5"/>
       <c r="F115" s="10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="116" ht="19.95" spans="1:5">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A116" s="6">
         <v>361</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="C116" s="7">
-        <v>0.394</v>
+        <v>0.39400000000000002</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E116" s="9"/>
     </row>
-    <row r="117" ht="19.95" spans="1:5">
+    <row r="117" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
         <v>394</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="C117" s="4">
-        <v>0.417</v>
+        <v>0.41699999999999998</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E117" s="9"/>
     </row>
-    <row r="118" ht="19.95" spans="1:5">
+    <row r="118" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A118" s="6">
         <v>393</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="C118" s="7">
-        <v>0.347</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E118" s="9"/>
     </row>
-    <row r="119" ht="19.95" spans="1:6">
+    <row r="119" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A119" s="6">
         <v>163</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="C119" s="7">
-        <v>0.238</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E119" s="9"/>
       <c r="F119" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="120" ht="19.95" spans="1:4">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
         <v>351</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="C120" s="4">
         <v>0.443</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="121" ht="19.95" spans="1:4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
         <v>271</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="C121" s="4">
-        <v>0.262</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="122" ht="19.95" spans="1:4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A122" s="6">
         <v>289</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="C122" s="7">
         <v>0.371</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="123" ht="19.95" spans="1:5">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
         <v>288</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C123" s="4">
-        <v>0.173</v>
+        <v>0.17299999999999999</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E123" s="5"/>
     </row>
-    <row r="124" ht="19.95" spans="1:5">
+    <row r="124" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
         <v>200</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="C124" s="4">
-        <v>0.356</v>
+        <v>0.35599999999999998</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E124" s="5"/>
     </row>
-    <row r="125" ht="19.95" spans="1:5">
+    <row r="125" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A125" s="6">
         <v>280</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C125" s="7">
-        <v>0.579</v>
+        <v>0.57899999999999996</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E125" s="9"/>
     </row>
-    <row r="126" ht="19.95" spans="1:5">
+    <row r="126" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
         <v>616</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="C126" s="4">
-        <v>0.387</v>
+        <v>0.38700000000000001</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E126" s="8"/>
     </row>
-    <row r="127" ht="19.95" spans="1:4">
+    <row r="127" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A127" s="6">
         <v>259</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="C127" s="7">
-        <v>0.417</v>
+        <v>0.41699999999999998</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="128" ht="19.95" spans="1:5">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A128" s="6">
         <v>399</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C128" s="7">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E128" s="9"/>
     </row>
-    <row r="129" ht="19.95" spans="1:4">
+    <row r="129" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A129" s="6">
         <v>417</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="C129" s="7">
-        <v>0.341</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="130" ht="19.95" spans="1:4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
         <v>406</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="C130" s="4">
-        <v>0.562</v>
+        <v>0.56200000000000006</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="131" ht="19.95" spans="1:5">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A131" s="6">
         <v>279</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="C131" s="7">
         <v>0.375</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E131" s="8"/>
     </row>
-    <row r="132" ht="19.95" spans="1:4">
+    <row r="132" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A132" s="6">
         <v>56</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="C132" s="7">
         <v>0.31</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="133" ht="19.95" spans="1:4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A133" s="6">
         <v>284</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>141</v>
+        <v>205</v>
       </c>
       <c r="C133" s="7">
-        <v>0.355</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="134" ht="19.95" spans="1:4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
         <v>247</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>142</v>
+        <v>203</v>
       </c>
       <c r="C134" s="4">
-        <v>0.405</v>
+        <v>0.40500000000000003</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="135" ht="39.15" spans="1:4">
+        <v>103</v>
+      </c>
+      <c r="E134" s="5"/>
+      <c r="F134" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A135" s="6">
         <v>524</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="C135" s="7">
         <v>0.433</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="136" ht="19.95" spans="1:6">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A136" s="6">
         <v>228</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="C136" s="7">
         <v>0.308</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E136" s="9"/>
       <c r="F136" s="10" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="137" ht="19.95" spans="1:4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A137" s="3">
         <v>286</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="C137" s="4">
-        <v>0.448</v>
+        <v>0.44800000000000001</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="138" ht="19.95" spans="1:6">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A138" s="6">
         <v>362</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="C138" s="7">
-        <v>0.544</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E138" s="9"/>
       <c r="F138" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="139" ht="19.95" spans="1:5">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A139" s="6">
         <v>294</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="C139" s="7">
-        <v>0.466</v>
+        <v>0.46600000000000003</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E139" s="8"/>
     </row>
-    <row r="140" ht="19.95" spans="1:4">
+    <row r="140" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A140" s="6">
         <v>380</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>150</v>
+        <v>212</v>
       </c>
       <c r="C140" s="7">
-        <v>0.394</v>
+        <v>0.39400000000000002</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="141" ht="19.95" spans="1:4">
+        <v>103</v>
+      </c>
+      <c r="E140" s="9"/>
+    </row>
+    <row r="141" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A141" s="6">
         <v>249</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>151</v>
+        <v>206</v>
       </c>
       <c r="C141" s="7">
-        <v>0.427</v>
+        <v>0.42699999999999999</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="142" ht="19.95" spans="1:4">
+        <v>103</v>
+      </c>
+      <c r="E141" s="9"/>
+    </row>
+    <row r="142" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A142" s="3">
         <v>320</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>152</v>
+        <v>213</v>
       </c>
       <c r="C142" s="4">
-        <v>0.455</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="143" ht="19.95" spans="1:4">
+        <v>103</v>
+      </c>
+      <c r="E142" s="9"/>
+    </row>
+    <row r="143" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A143" s="6">
         <v>505</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="C143" s="7">
-        <v>0.382</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="144" ht="19.95" spans="1:4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A144" s="3">
         <v>341</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>154</v>
+        <v>214</v>
       </c>
       <c r="C144" s="4">
-        <v>0.422</v>
+        <v>0.42199999999999999</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="145" ht="19.95" spans="1:4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A145" s="6">
         <v>360</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>155</v>
+        <v>215</v>
       </c>
       <c r="C145" s="7">
-        <v>0.445</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="146" ht="19.95" spans="1:4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A146" s="6">
         <v>274</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>156</v>
+        <v>216</v>
       </c>
       <c r="C146" s="7">
-        <v>0.335</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="147" ht="19.95" spans="1:4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A147" s="3">
         <v>253</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>157</v>
+        <v>217</v>
       </c>
       <c r="C147" s="4">
-        <v>0.393</v>
+        <v>0.39300000000000002</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="148" ht="19.95" spans="1:4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A148" s="6">
         <v>139</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>158</v>
+        <v>218</v>
       </c>
       <c r="C148" s="7">
         <v>0.308</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="149" ht="19.95" spans="1:4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A149" s="3">
         <v>230</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>159</v>
+        <v>219</v>
       </c>
       <c r="C149" s="4">
-        <v>0.445</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="150" ht="19.95" spans="1:4">
+        <v>103</v>
+      </c>
+      <c r="E149" s="5"/>
+    </row>
+    <row r="150" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A150" s="6">
         <v>162</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="C150" s="7">
-        <v>0.381</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="151" ht="19.95" spans="1:4">
+        <v>103</v>
+      </c>
+      <c r="E150" s="8"/>
+    </row>
+    <row r="151" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A151" s="3">
         <v>498</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>161</v>
+        <v>221</v>
       </c>
       <c r="C151" s="4">
-        <v>0.461</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="152" ht="19.95" spans="1:4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A152" s="3">
         <v>490</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="C152" s="4">
         <v>0.432</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="153" ht="19.95" spans="1:4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A153" s="6">
         <v>318</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="C153" s="7">
-        <v>0.449</v>
+        <v>0.44900000000000001</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="154" ht="19.95" spans="1:4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A154" s="3">
         <v>240</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>164</v>
+        <v>234</v>
       </c>
       <c r="C154" s="4">
-        <v>0.388</v>
+        <v>0.38800000000000001</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="155" ht="19.95" spans="1:4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A155" s="6">
         <v>373</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>165</v>
+        <v>222</v>
       </c>
       <c r="C155" s="7">
         <v>0.309</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="156" ht="19.95" spans="1:5">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A156" s="6">
         <v>369</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="C156" s="7">
-        <v>0.548</v>
+        <v>0.54800000000000004</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E156" s="9"/>
     </row>
-    <row r="157" ht="19.95" spans="1:6">
+    <row r="157" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A157" s="6">
         <v>251</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="C157" s="7">
-        <v>0.409</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="F157" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="158" ht="19.95" spans="1:4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A158" s="3">
         <v>332</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="C158" s="4">
-        <v>0.294</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="159" ht="19.95" spans="1:4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A159" s="6">
         <v>173</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="C159" s="7">
-        <v>0.424</v>
+        <v>0.42399999999999999</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="160" ht="19.95" spans="1:4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A160" s="3">
         <v>54</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="C160" s="4">
-        <v>0.266</v>
+        <v>0.26600000000000001</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="161" ht="19.95" spans="1:4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A161" s="3">
         <v>324</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="C161" s="4">
-        <v>0.262</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="162" ht="19.95" spans="1:4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A162" s="6">
         <v>17</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="C162" s="7">
-        <v>0.354</v>
+        <v>0.35399999999999998</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="163" ht="19.95" spans="1:4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A163" s="3">
         <v>484</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>174</v>
+        <v>207</v>
       </c>
       <c r="C163" s="4">
-        <v>0.551</v>
+        <v>0.55100000000000005</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="164" ht="19.95" spans="1:4">
+        <v>103</v>
+      </c>
+      <c r="E163" s="9"/>
+    </row>
+    <row r="164" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A164" s="6">
         <v>562</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="C164" s="7">
-        <v>0.409</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="165" ht="19.95" spans="1:4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A165" s="3">
         <v>166</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="C165" s="4">
-        <v>0.178</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="166" ht="19.95" spans="1:4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A166" s="6">
         <v>22</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="C166" s="7">
-        <v>0.463</v>
+        <v>0.46300000000000002</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="167" ht="19.95" spans="1:4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A167" s="3">
         <v>31</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="C167" s="4">
-        <v>0.288</v>
+        <v>0.28799999999999998</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="168" ht="19.95" spans="1:4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A168" s="6">
         <v>676</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
       <c r="C168" s="7">
         <v>0.5</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="169" ht="39.15" spans="1:4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A169" s="6">
         <v>421</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="C169" s="7">
-        <v>0.469</v>
+        <v>0.46899999999999997</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="170" ht="19.95" spans="1:4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A170" s="6">
         <v>503</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="C170" s="7">
-        <v>0.473</v>
+        <v>0.47299999999999998</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="171" ht="19.95" spans="1:4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A171" s="6">
         <v>684</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="C171" s="7">
-        <v>0.392</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="172" ht="19.95" spans="1:4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A172" s="3">
         <v>133</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="C172" s="4">
         <v>0.251</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="173" ht="19.95" spans="1:4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A173" s="3">
         <v>50</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="C173" s="4">
         <v>0.26</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="174" ht="19.95" spans="1:4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A174" s="3">
         <v>208</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="C174" s="4">
-        <v>0.295</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="175" ht="19.95" spans="1:4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A175" s="6">
         <v>348</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>186</v>
+        <v>157</v>
       </c>
       <c r="C175" s="7">
-        <v>0.458</v>
+        <v>0.45800000000000002</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="176" ht="19.95" spans="1:4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A176" s="3">
         <v>652</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="C176" s="4">
-        <v>0.358</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="177" ht="19.95" spans="1:4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A177" s="6">
         <v>444</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="C177" s="7">
-        <v>0.196</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="178" ht="39.15" spans="1:4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="34.5" x14ac:dyDescent="0.2">
       <c r="A178" s="3">
         <v>309</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="C178" s="4">
-        <v>0.413</v>
+        <v>0.41299999999999998</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="179" ht="19.95" spans="1:4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A179" s="3">
         <v>382</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="C179" s="4">
-        <v>0.471</v>
+        <v>0.47099999999999997</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="180" ht="19.95" spans="1:4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A180" s="6">
         <v>402</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="C180" s="7">
         <v>0.26</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="181" ht="19.95" spans="1:4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A181" s="3">
         <v>370</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>192</v>
+        <v>233</v>
       </c>
       <c r="C181" s="4">
-        <v>0.565</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="182" ht="19.95" spans="1:4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A182" s="6">
         <v>377</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="C182" s="7">
-        <v>0.424</v>
+        <v>0.42399999999999999</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="183" ht="19.95" spans="1:4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A183" s="3">
         <v>379</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="C183" s="4">
-        <v>0.341</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="184" ht="19.95" spans="1:4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A184" s="6">
         <v>353</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="C184" s="7">
-        <v>0.268</v>
+        <v>0.26800000000000002</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="185" ht="19.95" spans="1:4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A185" s="3">
         <v>375</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="C185" s="4">
-        <v>0.359</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="186" ht="19.95" spans="1:4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A186" s="3">
         <v>356</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="C186" s="4">
-        <v>0.301</v>
+        <v>0.30099999999999999</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="187" ht="19.95" spans="1:4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A187" s="6">
         <v>261</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="C187" s="7">
-        <v>0.381</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="188" ht="19.95" spans="1:4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A188" s="3">
         <v>486</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="C188" s="4">
-        <v>0.451</v>
+        <v>0.45100000000000001</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="189" ht="19.95" spans="1:4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A189" s="6">
         <v>542</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C189" s="7">
         <v>0.33</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="190" ht="19.95" spans="1:4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A190" s="3">
         <v>397</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C190" s="4">
-        <v>0.302</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="191" ht="19.95" spans="1:4">
+        <v>103</v>
+      </c>
+      <c r="E190" s="8"/>
+    </row>
+    <row r="191" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A191" s="6">
         <v>368</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C191" s="7">
-        <v>0.337</v>
+        <v>0.33700000000000002</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="192" ht="19.95" spans="1:4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A192" s="3">
         <v>378</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C192" s="4">
-        <v>0.452</v>
+        <v>0.45200000000000001</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="193" ht="19.95" spans="1:4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A193" s="3">
         <v>313</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>204</v>
+        <v>170</v>
       </c>
       <c r="C193" s="4">
         <v>0.38</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="194" ht="39.15" spans="1:4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A194" s="6">
         <v>331</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C194" s="7">
-        <v>0.366</v>
+        <v>0.36599999999999999</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="195" ht="39.15" spans="1:4">
+        <v>103</v>
+      </c>
+      <c r="E194" s="8"/>
+    </row>
+    <row r="195" spans="1:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="A195" s="3">
         <v>323</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C195" s="4">
-        <v>0.483</v>
+        <v>0.48299999999999998</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="196" ht="19.95" spans="1:5">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A196" s="6">
         <v>451</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>207</v>
+        <v>171</v>
       </c>
       <c r="C196" s="7">
-        <v>0.511</v>
+        <v>0.51100000000000001</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E196" s="5"/>
     </row>
-    <row r="197" ht="19.95" spans="1:4">
+    <row r="197" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A197" s="3">
         <v>310</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>208</v>
+        <v>172</v>
       </c>
       <c r="C197" s="4">
-        <v>0.289</v>
+        <v>0.28899999999999998</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="198" ht="19.95" spans="1:4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A198" s="3">
         <v>729</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>209</v>
+        <v>173</v>
       </c>
       <c r="C198" s="4">
-        <v>0.361</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="199" ht="19.95" spans="1:4">
+        <v>103</v>
+      </c>
+      <c r="E198" s="5"/>
+    </row>
+    <row r="199" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A199" s="6">
         <v>469</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="C199" s="7">
-        <v>0.334</v>
+        <v>0.33400000000000002</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="200" ht="19.95" spans="1:4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A200" s="3">
         <v>474</v>
       </c>
@@ -4583,330 +4096,331 @@
         <v>211</v>
       </c>
       <c r="C200" s="4">
-        <v>0.391</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="201" ht="19.95" spans="1:4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A201" s="3">
         <v>481</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>212</v>
+        <v>174</v>
       </c>
       <c r="C201" s="4">
-        <v>0.456</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="202" ht="19.95" spans="1:5">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A202" s="3">
         <v>314</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>213</v>
+        <v>175</v>
       </c>
       <c r="C202" s="4">
         <v>0.373</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E202" s="5"/>
     </row>
-    <row r="203" ht="19.95" spans="1:4">
+    <row r="203" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A203" s="6">
         <v>357</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>214</v>
+        <v>176</v>
       </c>
       <c r="C203" s="7">
-        <v>0.461</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="204" ht="19.95" spans="1:6">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A204" s="3">
         <v>487</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="C204" s="4">
-        <v>0.456</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E204" s="9"/>
       <c r="F204" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="205" ht="19.95" spans="1:5">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A205" s="3">
         <v>494</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="C205" s="4">
         <v>0.436</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E205" s="9"/>
     </row>
-    <row r="206" ht="19.95" spans="1:5">
+    <row r="206" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A206" s="6">
         <v>522</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>218</v>
+        <v>180</v>
       </c>
       <c r="C206" s="7">
         <v>0.318</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E206" s="9"/>
     </row>
-    <row r="207" ht="19.95" spans="1:5">
+    <row r="207" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A207" s="3">
         <v>526</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>219</v>
+        <v>181</v>
       </c>
       <c r="C207" s="4">
-        <v>0.542</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E207" s="5"/>
     </row>
-    <row r="208" ht="19.95" spans="1:4">
+    <row r="208" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A208" s="6">
         <v>531</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="C208" s="7">
-        <v>0.556</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="209" ht="19.95" spans="1:4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A209" s="3">
         <v>533</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>221</v>
+        <v>182</v>
       </c>
       <c r="C209" s="4">
-        <v>0.446</v>
+        <v>0.44600000000000001</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="210" ht="19.95" spans="1:4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A210" s="6">
         <v>535</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>222</v>
+        <v>183</v>
       </c>
       <c r="C210" s="7">
-        <v>0.742</v>
+        <v>0.74199999999999999</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="211" ht="19.95" spans="1:5">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A211" s="3">
         <v>544</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="C211" s="4">
-        <v>0.709</v>
+        <v>0.70899999999999996</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E211" s="5"/>
     </row>
-    <row r="212" ht="19.95" spans="1:5">
+    <row r="212" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A212" s="6">
         <v>545</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="C212" s="7">
-        <v>0.319</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="D212" s="6" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E212" s="9"/>
     </row>
-    <row r="213" ht="39.15" spans="1:4">
+    <row r="213" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A213" s="3">
         <v>549</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
       <c r="C213" s="4">
-        <v>0.419</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="214" ht="19.95" spans="1:5">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A214" s="3">
         <v>560</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>226</v>
+        <v>186</v>
       </c>
       <c r="C214" s="4">
-        <v>0.404</v>
+        <v>0.40400000000000003</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E214" s="9"/>
     </row>
-    <row r="215" ht="19.95" spans="1:4">
+    <row r="215" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A215" s="6">
         <v>583</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="C215" s="7">
         <v>0.442</v>
       </c>
       <c r="D215" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="216" ht="19.95" spans="1:4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A216" s="6">
         <v>638</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>228</v>
+        <v>187</v>
       </c>
       <c r="C216" s="7">
         <v>0.434</v>
       </c>
       <c r="D216" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="217" ht="19.95" spans="1:5">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A217" s="3">
         <v>651</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>229</v>
+        <v>188</v>
       </c>
       <c r="C217" s="4">
-        <v>0.488</v>
+        <v>0.48799999999999999</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E217" s="9"/>
     </row>
-    <row r="218" ht="19.95" spans="1:5">
+    <row r="218" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A218" s="6">
         <v>658</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>230</v>
+        <v>189</v>
       </c>
       <c r="C218" s="7">
-        <v>0.353</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E218" s="9"/>
     </row>
-    <row r="219" ht="39.15" spans="1:4">
+    <row r="219" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A219" s="3">
         <v>659</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>231</v>
+        <v>195</v>
       </c>
       <c r="C219" s="4">
-        <v>0.357</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="220" ht="19.95" spans="1:4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A220" s="3">
         <v>667</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>232</v>
+        <v>190</v>
       </c>
       <c r="C220" s="4">
-        <v>0.515</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="221" ht="19.95" spans="1:4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A221" s="6">
         <v>731</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>233</v>
+        <v>191</v>
       </c>
       <c r="C221" s="7">
         <v>0.316</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>114</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="E221" s="5"/>
     </row>
   </sheetData>
   <sortState ref="A3:D221">
     <sortCondition ref="D10"/>
   </sortState>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F111" r:id="rId1" display="https://www.youtube.com/embed/IAet94C1FCc?feature=oembed"/>
-    <hyperlink ref="F136" r:id="rId2" display="http://www.cnblogs.com/grandyang/p/4603555.html"/>
-    <hyperlink ref="F115" r:id="rId3" display="http://www.cnblogs.com/grandyang/p/5212785.html"/>
+    <hyperlink ref="F111" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F136" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F115" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/google_ranked.xlsx
+++ b/google_ranked.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\leet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDACA26-5B15-4C38-87CC-DBAA657B909C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599ECD5D-DA68-4C90-B3B5-4058D7C1B9BA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22365" windowHeight="9930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1218,8 +1218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="B154" sqref="B154"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="I170" sqref="I170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/google_ranked.xlsx
+++ b/google_ranked.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\leet\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDACA26-5B15-4C38-87CC-DBAA657B909C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22365" windowHeight="9930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22368" windowHeight="9935"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235">
   <si>
     <t>Google</t>
   </si>
@@ -49,15 +43,24 @@
     <t>Repeated String Match</t>
   </si>
   <si>
+    <t>Strobogrammatic Number</t>
+  </si>
+  <si>
     <t>Reverse Vowels of a String</t>
   </si>
   <si>
+    <t>Longest Univalue Path</t>
+  </si>
+  <si>
     <t>Paint Fence</t>
   </si>
   <si>
     <t>Binary Watch</t>
   </si>
   <si>
+    <t>Island Perimeter</t>
+  </si>
+  <si>
     <t>Palindrome Permutation</t>
   </si>
   <si>
@@ -160,9 +163,27 @@
     <t>Non-decreasing Array</t>
   </si>
   <si>
+    <t>K Empty Slots</t>
+  </si>
+  <si>
     <t>Hard</t>
   </si>
   <si>
+    <t>Longest Substring with At Most K Distinct Characters</t>
+  </si>
+  <si>
+    <t>Range Sum Query 2D - Mutable</t>
+  </si>
+  <si>
+    <t>Word Squares</t>
+  </si>
+  <si>
+    <t>Maximum Vacation Days</t>
+  </si>
+  <si>
+    <t>Shortest Distance from All Buildings</t>
+  </si>
+  <si>
     <t>Number of Islands II</t>
   </si>
   <si>
@@ -274,6 +295,12 @@
     <t>Expression Add Operators</t>
   </si>
   <si>
+    <t>Smallest Rectangle Enclosing Black Pixels</t>
+  </si>
+  <si>
+    <t>Create Maximum Number</t>
+  </si>
+  <si>
     <t>Sliding Window Median</t>
   </si>
   <si>
@@ -346,6 +373,12 @@
     <t>License Key Formatting</t>
   </si>
   <si>
+    <t>Binary Tree Longest Consecutive Sequence</t>
+  </si>
+  <si>
+    <t>Sentence Screen Fitting</t>
+  </si>
+  <si>
     <t>Zigzag Iterator</t>
   </si>
   <si>
@@ -406,6 +439,15 @@
     <t>Merge Intervals</t>
   </si>
   <si>
+    <t>Peeking Iterator</t>
+  </si>
+  <si>
+    <t>Strobogrammatic Number II</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/grandyang/p/5200919.html</t>
+  </si>
+  <si>
     <t>Longest Word in Dictionary through Deleting</t>
   </si>
   <si>
@@ -427,15 +469,54 @@
     <t>Flip Game II</t>
   </si>
   <si>
+    <t>Insert Delete GetRandom O(1)</t>
+  </si>
+  <si>
+    <t>Group Shifted Strings</t>
+  </si>
+  <si>
+    <t>Generalized Abbreviation</t>
+  </si>
+  <si>
     <t>The Maze II</t>
   </si>
   <si>
+    <t>Flatten Nested List Iterator</t>
+  </si>
+  <si>
+    <t>Sort Transformed Array</t>
+  </si>
+  <si>
+    <t>H-Index</t>
+  </si>
+  <si>
+    <t>Meeting Rooms II</t>
+  </si>
+  <si>
+    <t>Word Break</t>
+  </si>
+  <si>
+    <t>Kth Smallest Element in a BST</t>
+  </si>
+  <si>
+    <t>Find Peak Element</t>
+  </si>
+  <si>
+    <t>Diagonal Traverse</t>
+  </si>
+  <si>
     <t>The Maze</t>
   </si>
   <si>
     <t>Maximum Product of Word Lengths</t>
   </si>
   <si>
+    <t>Search a 2D Matrix II</t>
+  </si>
+  <si>
+    <t>Find K Pairs with Smallest Sums</t>
+  </si>
+  <si>
     <t>Plus One Linked List</t>
   </si>
   <si>
@@ -460,6 +541,9 @@
     <t>Letter Combinations of a Phone Number</t>
   </si>
   <si>
+    <t>Find Permutation</t>
+  </si>
+  <si>
     <t>Longest Line of Consecutive One in Matrix</t>
   </si>
   <si>
@@ -511,6 +595,9 @@
     <t>Remove K Digits</t>
   </si>
   <si>
+    <t>Range Addition</t>
+  </si>
+  <si>
     <t>Combination Sum IV</t>
   </si>
   <si>
@@ -532,9 +619,27 @@
     <t>Predict the Winner</t>
   </si>
   <si>
+    <t>01 Matrix</t>
+  </si>
+  <si>
+    <t>Integer Replacement</t>
+  </si>
+  <si>
+    <t>Largest Divisible Subset</t>
+  </si>
+  <si>
+    <t>Kth Smallest Element in a Sorted Matrix</t>
+  </si>
+  <si>
     <t>Super Ugly Number</t>
   </si>
   <si>
+    <t>Verify Preorder Serialization of a Binary Tree</t>
+  </si>
+  <si>
+    <t>Number of Connected Components in an Undirected Graph</t>
+  </si>
+  <si>
     <t>Sort Characters By Frequency</t>
   </si>
   <si>
@@ -544,6 +649,12 @@
     <t>My Calendar I</t>
   </si>
   <si>
+    <t>Convex Polygon</t>
+  </si>
+  <si>
+    <t>Ones and Zeroes</t>
+  </si>
+  <si>
     <t>Magical String</t>
   </si>
   <si>
@@ -568,6 +679,9 @@
     <t>Beautiful Arrangement</t>
   </si>
   <si>
+    <t>Lonely Pixel I</t>
+  </si>
+  <si>
     <t>Lonely Pixel II</t>
   </si>
   <si>
@@ -580,9 +694,15 @@
     <t>Boundary of Binary Tree</t>
   </si>
   <si>
+    <t>Binary Tree Longest Consecutive Sequence II</t>
+  </si>
+  <si>
     <t>Subarray Sum Equals K</t>
   </si>
   <si>
+    <t>Delete Operation for Two Strings</t>
+  </si>
+  <si>
     <t>Shopping Offers</t>
   </si>
   <si>
@@ -592,188 +712,26 @@
     <t>Find K Closest Elements</t>
   </si>
   <si>
+    <t>Split Array into Consecutive Subsequences</t>
+  </si>
+  <si>
     <t>Beautiful Arrangement II</t>
   </si>
   <si>
     <t>My Calendar II</t>
-  </si>
-  <si>
-    <t>Lonely Pixel I</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Delete Operation for Two Strings</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Binary Tree Longest Consecutive Sequence II</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Split Array into Consecutive Subsequences</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Convex Polygon</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Smallest Rectangle Enclosing Black Pixels</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Create Maximum Number</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>01 Matrix</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Integer Replacement</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kth Smallest Element in a Sorted Matrix</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Strobogrammatic Number</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Strobogrammatic Number II</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.cnblogs.com/grandyang/p/5200919.html</t>
-  </si>
-  <si>
-    <t>Peeking Iterator</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Group Shifted Strings</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Find Permutation</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Largest Divisible Subset</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Verify Preorder Serialization of a Binary Tree</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number of Connected Components in an Undirected Graph</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ones and Zeroes</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Insert Delete GetRandom O(1)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Generalized Abbreviation</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flatten Nested List Iterator</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sort Transformed Array</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>H-Index</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Meeting Rooms II</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Word Break</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kth Smallest Element in a BST</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Find Peak Element</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Diagonal Traverse</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Find K Pairs with Smallest Sums</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sentence Screen Fitting</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Binary Tree Longest Consecutive Sequence</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Longest Univalue Path</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Island Perimeter</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>K Empty Slots</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Longest Substring with At Most K Distinct Characters</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Range Sum Query 2D - Mutable</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Word Squares</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Maximum Vacation Days</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shortest Distance from All Buildings</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Range Addition</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Search a 2D Matrix II</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -785,13 +743,13 @@
       <sz val="22"/>
       <color rgb="FF24292E"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF24292E"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -823,13 +781,122 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -866,8 +933,176 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -899,17 +1134,247 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -927,32 +1392,72 @@
     <xf numFmtId="10" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="31" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="4" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="7" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="32" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10"/>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="差" xfId="1" builtinId="27"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
-    <cellStyle name="好" xfId="3" builtinId="26"/>
-    <cellStyle name="适中" xfId="4" builtinId="28"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1210,33 +1715,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="B154" sqref="B154"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="39.875" customWidth="1"/>
+    <col min="1" max="1" width="39.8796296296296" customWidth="1"/>
     <col min="2" max="2" width="41.75" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
-    <col min="4" max="4" width="29.625" customWidth="1"/>
-    <col min="6" max="6" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="29.6296296296296" customWidth="1"/>
+    <col min="6" max="6" width="17.3796296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33" x14ac:dyDescent="0.2">
+    <row r="1" ht="33.15" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="2" ht="19.95" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1250,7 +1755,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="3" ht="19.95" spans="1:5">
       <c r="A3" s="3">
         <v>346</v>
       </c>
@@ -1258,14 +1763,14 @@
         <v>5</v>
       </c>
       <c r="C3" s="4">
-        <v>0.59499999999999997</v>
+        <v>0.595</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="4" ht="19.95" spans="1:5">
       <c r="A4" s="3">
         <v>66</v>
       </c>
@@ -1273,14 +1778,14 @@
         <v>7</v>
       </c>
       <c r="C4" s="4">
-        <v>0.39100000000000001</v>
+        <v>0.391</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="5" ht="19.95" spans="1:5">
       <c r="A5" s="6">
         <v>686</v>
       </c>
@@ -1288,19 +1793,19 @@
         <v>8</v>
       </c>
       <c r="C5" s="7">
-        <v>0.32900000000000001</v>
+        <v>0.329</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="6" ht="19.95" spans="1:5">
       <c r="A6" s="6">
         <v>246</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>202</v>
+        <v>9</v>
       </c>
       <c r="C6" s="7">
         <v>0.4</v>
@@ -1310,100 +1815,100 @@
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="7" ht="19.95" spans="1:5">
       <c r="A7" s="3">
         <v>345</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" s="4">
-        <v>0.38700000000000001</v>
+        <v>0.387</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="8" ht="19.95" spans="1:4">
       <c r="A8" s="3">
         <v>687</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>225</v>
+        <v>11</v>
       </c>
       <c r="C8" s="4">
-        <v>0.33300000000000002</v>
+        <v>0.333</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="9" ht="19.95" spans="1:5">
       <c r="A9" s="3">
         <v>276</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C9" s="4">
-        <v>0.34699999999999998</v>
+        <v>0.347</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="10" ht="19.95" spans="1:5">
       <c r="A10" s="6">
         <v>401</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C10" s="7">
-        <v>0.44900000000000001</v>
+        <v>0.449</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="11" ht="19.95" spans="1:4">
       <c r="A11" s="3">
         <v>463</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>226</v>
+        <v>14</v>
       </c>
       <c r="C11" s="4">
-        <v>0.57499999999999996</v>
+        <v>0.575</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="12" ht="19.95" spans="1:5">
       <c r="A12" s="6">
         <v>266</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C12" s="7">
-        <v>0.57499999999999996</v>
+        <v>0.575</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="13" ht="19.95" spans="1:5">
       <c r="A13" s="6">
         <v>389</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
         <v>0.51</v>
@@ -1413,172 +1918,173 @@
       </c>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="14" ht="19.95" spans="1:5">
       <c r="A14" s="3">
         <v>20</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C14" s="4">
-        <v>0.33700000000000002</v>
+        <v>0.337</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="15" ht="19.95" spans="1:5">
       <c r="A15" s="3">
         <v>293</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C15" s="4">
-        <v>0.56499999999999995</v>
+        <v>0.565</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="16" ht="19.95" spans="1:5">
       <c r="A16" s="3">
         <v>415</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C16" s="4">
-        <v>0.41499999999999998</v>
+        <v>0.415</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="17" ht="19.95" spans="1:5">
       <c r="A17" s="6">
         <v>359</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>0.60099999999999998</v>
+        <v>0.601</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="18" ht="19.95" spans="1:5">
       <c r="A18" s="3">
         <v>270</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C18" s="4">
-        <v>0.40100000000000002</v>
+        <v>0.401</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" ht="19.95" spans="1:5">
       <c r="A19" s="6">
         <v>400</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C19" s="7">
-        <v>0.30099999999999999</v>
+        <v>0.301</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="20" ht="19.95" spans="1:4">
       <c r="A20" s="3">
         <v>422</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C20" s="4">
-        <v>0.36399999999999999</v>
+        <v>0.364</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="21" ht="19.95" spans="1:4">
       <c r="A21" s="3">
         <v>155</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C21" s="4">
-        <v>0.29699999999999999</v>
+        <v>0.297</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="22" ht="19.95" spans="1:5">
       <c r="A22" s="3">
         <v>409</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C22" s="4">
-        <v>0.45500000000000002</v>
+        <v>0.455</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="23" ht="19.95" spans="1:4">
       <c r="A23" s="6">
         <v>543</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C23" s="7">
-        <v>0.44700000000000001</v>
+        <v>0.447</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="24" ht="19.95" spans="1:4">
       <c r="A24" s="6">
         <v>231</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C24" s="7">
-        <v>0.40400000000000003</v>
+        <v>0.404</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="25" ht="19.95" spans="1:4">
       <c r="A25" s="6">
         <v>501</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C25" s="7">
         <v>0.377</v>
@@ -1587,27 +2093,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="26" ht="19.95" spans="1:5">
       <c r="A26" s="3">
         <v>475</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C26" s="4">
-        <v>0.29599999999999999</v>
+        <v>0.296</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="27" ht="19.95" spans="1:5">
       <c r="A27" s="3">
         <v>551</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C27" s="4">
         <v>0.441</v>
@@ -1617,128 +2123,128 @@
       </c>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="28" ht="19.95" spans="1:5">
       <c r="A28" s="6">
         <v>459</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C28" s="7">
-        <v>0.38200000000000001</v>
+        <v>0.382</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E28" s="9"/>
     </row>
-    <row r="29" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="29" ht="19.95" spans="1:5">
       <c r="A29" s="3">
         <v>408</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C29" s="4">
-        <v>0.28199999999999997</v>
+        <v>0.282</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="30" ht="19.95" spans="1:5">
       <c r="A30" s="6">
         <v>530</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C30" s="7">
-        <v>0.47099999999999997</v>
+        <v>0.471</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E30" s="5"/>
     </row>
-    <row r="31" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="31" ht="19.95" spans="1:4">
       <c r="A31" s="3">
         <v>374</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C31" s="4">
-        <v>0.35899999999999999</v>
+        <v>0.359</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="32" ht="19.95" spans="1:4">
       <c r="A32" s="6">
         <v>448</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C32" s="7">
-        <v>0.51200000000000001</v>
+        <v>0.512</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="33" ht="19.95" spans="1:4">
       <c r="A33" s="6">
         <v>326</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C33" s="7">
-        <v>0.40400000000000003</v>
+        <v>0.404</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="34" ht="19.95" spans="1:4">
       <c r="A34" s="3">
         <v>257</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C34" s="4">
-        <v>0.39700000000000002</v>
+        <v>0.397</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="35" ht="19.95" spans="1:5">
       <c r="A35" s="6">
         <v>520</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C35" s="7">
-        <v>0.51900000000000002</v>
+        <v>0.519</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E35" s="5"/>
     </row>
-    <row r="36" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="36" ht="19.95" spans="1:5">
       <c r="A36" s="3">
         <v>485</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C36" s="4">
         <v>0.54</v>
@@ -1748,54 +2254,54 @@
       </c>
       <c r="E36" s="5"/>
     </row>
-    <row r="37" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="37" ht="19.95" spans="1:4">
       <c r="A37" s="6">
         <v>506</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>0.46600000000000003</v>
+        <v>0.466</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="38" ht="19.95" spans="1:4">
       <c r="A38" s="6">
         <v>447</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C38" s="7">
-        <v>0.45700000000000002</v>
+        <v>0.457</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="39" ht="19.95" spans="1:4">
       <c r="A39" s="3">
         <v>521</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C39" s="4">
-        <v>0.55900000000000005</v>
+        <v>0.559</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="40" ht="19.95" spans="1:4">
       <c r="A40" s="3">
         <v>541</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C40" s="4">
         <v>0.437</v>
@@ -1804,41 +2310,41 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="41" ht="19.95" spans="1:5">
       <c r="A41" s="3">
         <v>581</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C41" s="4">
-        <v>0.29299999999999998</v>
+        <v>0.293</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E41" s="5"/>
     </row>
-    <row r="42" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="42" ht="19.95" spans="1:4">
       <c r="A42" s="3">
         <v>604</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C42" s="4">
-        <v>0.32500000000000001</v>
+        <v>0.325</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="43" ht="19.95" spans="1:5">
       <c r="A43" s="3">
         <v>643</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C43" s="4">
         <v>0.378</v>
@@ -1848,2565 +2354,2565 @@
       </c>
       <c r="E43" s="5"/>
     </row>
-    <row r="44" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="44" ht="19.95" spans="1:5">
       <c r="A44" s="3">
         <v>657</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C44" s="4">
-        <v>0.68600000000000005</v>
+        <v>0.686</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E44" s="5"/>
     </row>
-    <row r="45" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="45" ht="19.95" spans="1:5">
       <c r="A45" s="6">
         <v>665</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C45" s="7">
-        <v>0.21099999999999999</v>
+        <v>0.211</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E45" s="5"/>
     </row>
-    <row r="46" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="46" ht="19.95" spans="1:4">
       <c r="A46" s="6">
         <v>683</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>227</v>
+        <v>49</v>
       </c>
       <c r="C46" s="7">
-        <v>0.36599999999999999</v>
+        <v>0.366</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="34.5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" ht="39.15" spans="1:4">
       <c r="A47" s="6">
         <v>340</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>228</v>
+        <v>51</v>
       </c>
       <c r="C47" s="7">
-        <v>0.39200000000000002</v>
+        <v>0.392</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" ht="19.95" spans="1:5">
       <c r="A48" s="6">
         <v>308</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>229</v>
+        <v>52</v>
       </c>
       <c r="C48" s="7">
-        <v>0.24099999999999999</v>
+        <v>0.241</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E48" s="9"/>
     </row>
-    <row r="49" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="49" ht="19.95" spans="1:4">
       <c r="A49" s="3">
         <v>425</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>230</v>
+        <v>53</v>
       </c>
       <c r="C49" s="4">
         <v>0.435</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" ht="19.95" spans="1:4">
       <c r="A50" s="3">
         <v>568</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>231</v>
+        <v>54</v>
       </c>
       <c r="C50" s="4">
-        <v>0.39100000000000001</v>
+        <v>0.391</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" ht="19.95" spans="1:4">
       <c r="A51" s="6">
         <v>317</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>232</v>
+        <v>55</v>
       </c>
       <c r="C51" s="7">
-        <v>0.34399999999999997</v>
+        <v>0.344</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" ht="19.95" spans="1:4">
       <c r="A52" s="6">
         <v>305</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C52" s="7">
-        <v>0.39300000000000002</v>
+        <v>0.393</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" ht="19.95" spans="1:4">
       <c r="A53" s="3">
         <v>218</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C53" s="4">
-        <v>0.28199999999999997</v>
+        <v>0.282</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="34.5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" ht="39.15" spans="1:4">
       <c r="A54" s="3">
         <v>159</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C54" s="4">
-        <v>0.41899999999999998</v>
+        <v>0.419</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" ht="19.95" spans="1:4">
       <c r="A55" s="3">
         <v>329</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C55" s="4">
-        <v>0.36899999999999999</v>
+        <v>0.369</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" ht="19.95" spans="1:4">
       <c r="A56" s="3">
         <v>471</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C56" s="4">
-        <v>0.42799999999999999</v>
+        <v>0.428</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" ht="19.95" spans="1:4">
       <c r="A57" s="3">
         <v>391</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C57" s="4">
-        <v>0.27100000000000002</v>
+        <v>0.271</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" ht="19.95" spans="1:4">
       <c r="A58" s="6">
         <v>407</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C58" s="7">
         <v>0.376</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" ht="19.95" spans="1:4">
       <c r="A59" s="3">
         <v>297</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C59" s="4">
         <v>0.34</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" ht="19.95" spans="1:4">
       <c r="A60" s="3">
         <v>146</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C60" s="4">
         <v>0.187</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" ht="19.95" spans="1:4">
       <c r="A61" s="3">
         <v>295</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C61" s="4">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" ht="19.95" spans="1:4">
       <c r="A62" s="6">
         <v>42</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C62" s="7">
         <v>0.372</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" ht="19.95" spans="1:4">
       <c r="A63" s="3">
         <v>315</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C63" s="4">
-        <v>0.34799999999999998</v>
+        <v>0.348</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" ht="19.95" spans="1:4">
       <c r="A64" s="3">
         <v>411</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C64" s="4">
-        <v>0.33300000000000002</v>
+        <v>0.333</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" ht="19.95" spans="1:4">
       <c r="A65" s="6">
         <v>269</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C65" s="7">
         <v>0.252</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" ht="19.95" spans="1:4">
       <c r="A66" s="3">
         <v>239</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C66" s="4">
-        <v>0.33600000000000002</v>
+        <v>0.336</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" ht="19.95" spans="1:4">
       <c r="A67" s="3">
         <v>465</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C67" s="4">
         <v>0.378</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" ht="19.95" spans="1:4">
       <c r="A68" s="6">
         <v>128</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C68" s="7">
         <v>0.375</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="34.5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" ht="39.15" spans="1:4">
       <c r="A69" s="6">
         <v>158</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C69" s="7">
         <v>0.245</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" ht="19.95" spans="1:4">
       <c r="A70" s="6">
         <v>23</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C70" s="7">
-        <v>0.27700000000000002</v>
+        <v>0.277</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" ht="19.95" spans="1:4">
       <c r="A71" s="3">
         <v>10</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C71" s="4">
-        <v>0.24299999999999999</v>
+        <v>0.243</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" ht="19.95" spans="1:4">
       <c r="A72" s="6">
         <v>212</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C72" s="7">
         <v>0.24</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" ht="19.95" spans="1:4">
       <c r="A73" s="3">
         <v>4</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C73" s="4">
         <v>0.223</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" ht="19.95" spans="1:4">
       <c r="A74" s="6">
         <v>358</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C74" s="7">
         <v>0.317</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" ht="19.95" spans="1:4">
       <c r="A75" s="6">
         <v>587</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C75" s="7">
-        <v>0.32600000000000001</v>
+        <v>0.326</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" ht="19.95" spans="1:4">
       <c r="A76" s="3">
         <v>679</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C76" s="4">
-        <v>0.38900000000000001</v>
+        <v>0.389</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77" ht="19.95" spans="1:4">
       <c r="A77" s="6">
         <v>140</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C77" s="7">
-        <v>0.23899999999999999</v>
+        <v>0.239</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78" ht="19.95" spans="1:4">
       <c r="A78" s="6">
         <v>224</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C78" s="7">
-        <v>0.27800000000000002</v>
+        <v>0.278</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" ht="19.95" spans="1:5">
       <c r="A79" s="3">
         <v>327</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C79" s="4">
-        <v>0.30099999999999999</v>
+        <v>0.301</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E79" s="9"/>
     </row>
-    <row r="80" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="80" ht="19.95" spans="1:5">
       <c r="A80" s="3">
         <v>57</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C80" s="4">
-        <v>0.28299999999999997</v>
+        <v>0.283</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E80" s="9"/>
     </row>
-    <row r="81" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="81" ht="19.95" spans="1:4">
       <c r="A81" s="3">
         <v>336</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C81" s="4">
-        <v>0.26600000000000001</v>
+        <v>0.266</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82" ht="19.95" spans="1:4">
       <c r="A82" s="6">
         <v>44</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C82" s="7">
-        <v>0.20599999999999999</v>
+        <v>0.206</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" ht="19.95" spans="1:4">
       <c r="A83" s="3">
         <v>460</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C83" s="4">
-        <v>0.24399999999999999</v>
+        <v>0.244</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" ht="19.95" spans="1:4">
       <c r="A84" s="6">
         <v>363</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C84" s="7">
-        <v>0.33400000000000002</v>
+        <v>0.334</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="85" ht="19.95" spans="1:4">
       <c r="A85" s="3">
         <v>354</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C85" s="4">
-        <v>0.32300000000000001</v>
+        <v>0.323</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="86" ht="19.95" spans="1:4">
       <c r="A86" s="6">
         <v>272</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C86" s="7">
-        <v>0.39400000000000002</v>
+        <v>0.394</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="87" ht="19.95" spans="1:4">
       <c r="A87" s="6">
         <v>214</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C87" s="7">
         <v>0.247</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" ht="19.95" spans="1:4">
       <c r="A88" s="3">
         <v>282</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C88" s="4">
-        <v>0.30199999999999999</v>
+        <v>0.302</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="89" ht="19.95" spans="1:5">
       <c r="A89" s="6">
         <v>302</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>197</v>
+        <v>93</v>
       </c>
       <c r="C89" s="7">
-        <v>0.45900000000000002</v>
+        <v>0.459</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E89" s="5"/>
     </row>
-    <row r="90" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="90" ht="19.95" spans="1:4">
       <c r="A90" s="6">
         <v>321</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>198</v>
+        <v>94</v>
       </c>
       <c r="C90" s="7">
         <v>0.248</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="91" ht="19.95" spans="1:4">
       <c r="A91" s="6">
         <v>480</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C91" s="7">
         <v>0.311</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="92" ht="19.95" spans="1:4">
       <c r="A92" s="6">
         <v>483</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="C92" s="7">
-        <v>0.33400000000000002</v>
+        <v>0.334</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="93" ht="19.95" spans="1:4">
       <c r="A93" s="6">
         <v>312</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C93" s="7">
         <v>0.432</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="94" ht="19.95" spans="1:4">
       <c r="A94" s="6">
         <v>493</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C94" s="7">
-        <v>0.20599999999999999</v>
+        <v>0.206</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="95" ht="19.95" spans="1:4">
       <c r="A95" s="3">
         <v>514</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C95" s="4">
-        <v>0.39100000000000001</v>
+        <v>0.391</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="96" ht="19.95" spans="1:4">
       <c r="A96" s="6">
         <v>527</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="C96" s="7">
-        <v>0.41899999999999998</v>
+        <v>0.419</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="97" ht="19.95" spans="1:4">
       <c r="A97" s="3">
         <v>316</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C97" s="4">
-        <v>0.29899999999999999</v>
+        <v>0.299</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="98" ht="19.95" spans="1:4">
       <c r="A98" s="6">
         <v>330</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C98" s="7">
-        <v>0.32300000000000001</v>
+        <v>0.323</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="99" ht="19.95" spans="1:4">
       <c r="A99" s="6">
         <v>552</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="C99" s="7">
         <v>0.313</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="100" ht="19.95" spans="1:4">
       <c r="A100" s="6">
         <v>569</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="C100" s="7">
-        <v>0.34200000000000003</v>
+        <v>0.342</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="101" ht="19.95" spans="1:4">
       <c r="A101" s="6">
         <v>644</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="C101" s="7">
         <v>0.23</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="102" ht="19.95" spans="1:4">
       <c r="A102" s="6">
         <v>656</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="C102" s="7">
         <v>0.251</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="103" ht="39.15" spans="1:4">
       <c r="A103" s="6">
         <v>668</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="C103" s="7">
         <v>0.377</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="104" ht="19.95" spans="1:4">
       <c r="A104" s="3">
         <v>685</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="C104" s="4">
-        <v>0.28399999999999997</v>
+        <v>0.284</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="34.5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="105" ht="39.15" spans="1:4">
       <c r="A105" s="6">
         <v>689</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C105" s="7">
-        <v>0.41299999999999998</v>
+        <v>0.413</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="106" ht="19.95" spans="1:4">
       <c r="A106" s="3">
         <v>719</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="C106" s="4">
         <v>0.253</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="107" ht="19.95" spans="1:4">
       <c r="A107" s="6">
         <v>726</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="C107" s="7">
-        <v>0.45700000000000002</v>
+        <v>0.457</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="108" ht="19.95" spans="1:4">
       <c r="A108" s="3">
         <v>727</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C108" s="4">
-        <v>0.29099999999999998</v>
+        <v>0.291</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="109" ht="19.95" spans="1:4">
       <c r="A109" s="6">
         <v>534</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="C109" s="7">
         <v>0</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="110" ht="19.95" spans="1:5">
       <c r="A110" s="3">
         <v>388</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="C110" s="4">
         <v>0.371</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E110" s="9"/>
     </row>
-    <row r="111" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="111" ht="19.95" spans="1:6">
       <c r="A111" s="3">
         <v>681</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="C111" s="4">
-        <v>0.42899999999999999</v>
+        <v>0.429</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E111" s="5"/>
       <c r="F111" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="112" ht="19.95" spans="1:5">
       <c r="A112" s="3">
         <v>482</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="C112" s="4">
-        <v>0.41799999999999998</v>
+        <v>0.418</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E112" s="9"/>
     </row>
-    <row r="113" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="113" ht="39.15" spans="1:4">
       <c r="A113" s="6">
         <v>298</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>224</v>
+        <v>119</v>
       </c>
       <c r="C113" s="7">
-        <v>0.41399999999999998</v>
+        <v>0.414</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="114" ht="19.95" spans="1:4">
       <c r="A114" s="3">
         <v>418</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>223</v>
+        <v>120</v>
       </c>
       <c r="C114" s="4">
-        <v>0.27800000000000002</v>
+        <v>0.278</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="115" ht="19.95" spans="1:6">
       <c r="A115" s="6">
         <v>281</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="C115" s="7">
-        <v>0.51400000000000001</v>
+        <v>0.514</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E115" s="5"/>
       <c r="F115" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="116" ht="19.95" spans="1:5">
       <c r="A116" s="6">
         <v>361</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="C116" s="7">
-        <v>0.39400000000000002</v>
+        <v>0.394</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E116" s="9"/>
     </row>
-    <row r="117" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="117" ht="19.95" spans="1:5">
       <c r="A117" s="3">
         <v>394</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="C117" s="4">
-        <v>0.41699999999999998</v>
+        <v>0.417</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E117" s="9"/>
     </row>
-    <row r="118" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="118" ht="19.95" spans="1:5">
       <c r="A118" s="6">
         <v>393</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="C118" s="7">
-        <v>0.34699999999999998</v>
+        <v>0.347</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E118" s="9"/>
     </row>
-    <row r="119" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="119" ht="19.95" spans="1:6">
       <c r="A119" s="6">
         <v>163</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="C119" s="7">
-        <v>0.23799999999999999</v>
+        <v>0.238</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E119" s="9"/>
       <c r="F119" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="120" ht="19.95" spans="1:4">
       <c r="A120" s="3">
         <v>351</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="C120" s="4">
         <v>0.443</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="121" ht="19.95" spans="1:4">
       <c r="A121" s="3">
         <v>271</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="C121" s="4">
-        <v>0.26200000000000001</v>
+        <v>0.262</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="122" ht="19.95" spans="1:4">
       <c r="A122" s="6">
         <v>289</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="C122" s="7">
         <v>0.371</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="123" ht="19.95" spans="1:5">
       <c r="A123" s="3">
         <v>288</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="C123" s="4">
-        <v>0.17299999999999999</v>
+        <v>0.173</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E123" s="5"/>
     </row>
-    <row r="124" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="124" ht="19.95" spans="1:5">
       <c r="A124" s="3">
         <v>200</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="C124" s="4">
-        <v>0.35599999999999998</v>
+        <v>0.356</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E124" s="5"/>
     </row>
-    <row r="125" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="125" ht="19.95" spans="1:5">
       <c r="A125" s="6">
         <v>280</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="C125" s="7">
-        <v>0.57899999999999996</v>
+        <v>0.579</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E125" s="9"/>
     </row>
-    <row r="126" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="126" ht="19.95" spans="1:5">
       <c r="A126" s="3">
         <v>616</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="C126" s="4">
-        <v>0.38700000000000001</v>
+        <v>0.387</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E126" s="8"/>
     </row>
-    <row r="127" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="127" ht="19.95" spans="1:4">
       <c r="A127" s="6">
         <v>259</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="C127" s="7">
-        <v>0.41699999999999998</v>
+        <v>0.417</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="128" ht="19.95" spans="1:5">
       <c r="A128" s="6">
         <v>399</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="C128" s="7">
-        <v>0.41499999999999998</v>
+        <v>0.415</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E128" s="9"/>
     </row>
-    <row r="129" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="129" ht="19.95" spans="1:4">
       <c r="A129" s="6">
         <v>417</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="C129" s="7">
-        <v>0.34100000000000003</v>
+        <v>0.341</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="130" ht="19.95" spans="1:4">
       <c r="A130" s="3">
         <v>406</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="C130" s="4">
-        <v>0.56200000000000006</v>
+        <v>0.562</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="131" ht="19.95" spans="1:5">
       <c r="A131" s="6">
         <v>279</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="C131" s="7">
         <v>0.375</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E131" s="8"/>
     </row>
-    <row r="132" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="132" ht="19.95" spans="1:4">
       <c r="A132" s="6">
         <v>56</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="C132" s="7">
         <v>0.31</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="133" ht="19.95" spans="1:4">
       <c r="A133" s="6">
         <v>284</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>205</v>
+        <v>141</v>
       </c>
       <c r="C133" s="7">
-        <v>0.35499999999999998</v>
+        <v>0.355</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="134" ht="19.95" spans="1:6">
       <c r="A134" s="3">
         <v>247</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>203</v>
+        <v>142</v>
       </c>
       <c r="C134" s="4">
-        <v>0.40500000000000003</v>
+        <v>0.405</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E134" s="5"/>
       <c r="F134" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="135" ht="39.15" spans="1:4">
       <c r="A135" s="6">
         <v>524</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="C135" s="7">
         <v>0.433</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="136" ht="19.95" spans="1:6">
       <c r="A136" s="6">
         <v>228</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="C136" s="7">
         <v>0.308</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E136" s="9"/>
       <c r="F136" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="137" ht="19.95" spans="1:4">
       <c r="A137" s="3">
         <v>286</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="C137" s="4">
-        <v>0.44800000000000001</v>
+        <v>0.448</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="138" ht="19.95" spans="1:6">
       <c r="A138" s="6">
         <v>362</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="C138" s="7">
-        <v>0.54400000000000004</v>
+        <v>0.544</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E138" s="9"/>
       <c r="F138" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="139" ht="19.95" spans="1:5">
       <c r="A139" s="6">
         <v>294</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="C139" s="7">
-        <v>0.46600000000000003</v>
+        <v>0.466</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E139" s="8"/>
     </row>
-    <row r="140" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="140" ht="19.95" spans="1:5">
       <c r="A140" s="6">
         <v>380</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>212</v>
+        <v>151</v>
       </c>
       <c r="C140" s="7">
-        <v>0.39400000000000002</v>
+        <v>0.394</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E140" s="9"/>
     </row>
-    <row r="141" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="141" ht="19.95" spans="1:5">
       <c r="A141" s="6">
         <v>249</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>206</v>
+        <v>152</v>
       </c>
       <c r="C141" s="7">
-        <v>0.42699999999999999</v>
+        <v>0.427</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E141" s="9"/>
     </row>
-    <row r="142" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="142" ht="19.95" spans="1:5">
       <c r="A142" s="3">
         <v>320</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>213</v>
+        <v>153</v>
       </c>
       <c r="C142" s="4">
-        <v>0.45500000000000002</v>
+        <v>0.455</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E142" s="9"/>
     </row>
-    <row r="143" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="143" ht="19.95" spans="1:4">
       <c r="A143" s="6">
         <v>505</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="C143" s="7">
-        <v>0.38200000000000001</v>
+        <v>0.382</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="144" ht="19.95" spans="1:4">
       <c r="A144" s="3">
         <v>341</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>214</v>
+        <v>155</v>
       </c>
       <c r="C144" s="4">
-        <v>0.42199999999999999</v>
+        <v>0.422</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="145" ht="19.95" spans="1:4">
       <c r="A145" s="6">
         <v>360</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>215</v>
+        <v>156</v>
       </c>
       <c r="C145" s="7">
-        <v>0.44500000000000001</v>
+        <v>0.445</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="146" ht="19.95" spans="1:4">
       <c r="A146" s="6">
         <v>274</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>216</v>
+        <v>157</v>
       </c>
       <c r="C146" s="7">
-        <v>0.33500000000000002</v>
+        <v>0.335</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="147" ht="19.95" spans="1:4">
       <c r="A147" s="3">
         <v>253</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>217</v>
+        <v>158</v>
       </c>
       <c r="C147" s="4">
-        <v>0.39300000000000002</v>
+        <v>0.393</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="148" ht="19.95" spans="1:4">
       <c r="A148" s="6">
         <v>139</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>218</v>
+        <v>159</v>
       </c>
       <c r="C148" s="7">
         <v>0.308</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="149" ht="19.95" spans="1:5">
       <c r="A149" s="3">
         <v>230</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>219</v>
+        <v>160</v>
       </c>
       <c r="C149" s="4">
-        <v>0.44500000000000001</v>
+        <v>0.445</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E149" s="5"/>
     </row>
-    <row r="150" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="150" ht="19.95" spans="1:5">
       <c r="A150" s="6">
         <v>162</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>220</v>
+        <v>161</v>
       </c>
       <c r="C150" s="7">
-        <v>0.38100000000000001</v>
+        <v>0.381</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E150" s="8"/>
     </row>
-    <row r="151" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="151" ht="19.95" spans="1:4">
       <c r="A151" s="3">
         <v>498</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>221</v>
+        <v>162</v>
       </c>
       <c r="C151" s="4">
-        <v>0.46100000000000002</v>
+        <v>0.461</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="152" ht="19.95" spans="1:4">
       <c r="A152" s="3">
         <v>490</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="C152" s="4">
         <v>0.432</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="153" ht="19.95" spans="1:4">
       <c r="A153" s="6">
         <v>318</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="C153" s="7">
-        <v>0.44900000000000001</v>
+        <v>0.449</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="154" ht="19.95" spans="1:4">
       <c r="A154" s="3">
         <v>240</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>234</v>
+        <v>165</v>
       </c>
       <c r="C154" s="4">
-        <v>0.38800000000000001</v>
+        <v>0.388</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="155" ht="19.95" spans="1:4">
       <c r="A155" s="6">
         <v>373</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>222</v>
+        <v>166</v>
       </c>
       <c r="C155" s="7">
         <v>0.309</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="156" ht="19.95" spans="1:5">
       <c r="A156" s="6">
         <v>369</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="C156" s="7">
-        <v>0.54800000000000004</v>
+        <v>0.548</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E156" s="9"/>
     </row>
-    <row r="157" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="157" ht="19.95" spans="1:6">
       <c r="A157" s="6">
         <v>251</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="C157" s="7">
-        <v>0.40899999999999997</v>
+        <v>0.409</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="F157" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="158" ht="19.95" spans="1:4">
       <c r="A158" s="3">
         <v>332</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="C158" s="4">
-        <v>0.29399999999999998</v>
+        <v>0.294</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="159" ht="19.95" spans="1:4">
       <c r="A159" s="6">
         <v>173</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="C159" s="7">
-        <v>0.42399999999999999</v>
+        <v>0.424</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="160" ht="19.95" spans="1:4">
       <c r="A160" s="3">
         <v>54</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="C160" s="4">
-        <v>0.26600000000000001</v>
+        <v>0.266</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="161" ht="19.95" spans="1:4">
       <c r="A161" s="3">
         <v>324</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="C161" s="4">
-        <v>0.26200000000000001</v>
+        <v>0.262</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="162" ht="19.95" spans="1:4">
       <c r="A162" s="6">
         <v>17</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="C162" s="7">
-        <v>0.35399999999999998</v>
+        <v>0.354</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="163" ht="19.95" spans="1:5">
       <c r="A163" s="3">
         <v>484</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="C163" s="4">
-        <v>0.55100000000000005</v>
+        <v>0.551</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E163" s="9"/>
     </row>
-    <row r="164" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="164" ht="19.95" spans="1:4">
       <c r="A164" s="6">
         <v>562</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="C164" s="7">
-        <v>0.40899999999999997</v>
+        <v>0.409</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="165" ht="19.95" spans="1:4">
       <c r="A165" s="3">
         <v>166</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>147</v>
+        <v>177</v>
       </c>
       <c r="C165" s="4">
-        <v>0.17799999999999999</v>
+        <v>0.178</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="166" ht="19.95" spans="1:4">
       <c r="A166" s="6">
         <v>22</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>148</v>
+        <v>178</v>
       </c>
       <c r="C166" s="7">
-        <v>0.46300000000000002</v>
+        <v>0.463</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="167" ht="19.95" spans="1:4">
       <c r="A167" s="3">
         <v>31</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="C167" s="4">
-        <v>0.28799999999999998</v>
+        <v>0.288</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="168" ht="19.95" spans="1:4">
       <c r="A168" s="6">
         <v>676</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="C168" s="7">
         <v>0.5</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="169" ht="39.15" spans="1:4">
       <c r="A169" s="6">
         <v>421</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>151</v>
+        <v>181</v>
       </c>
       <c r="C169" s="7">
-        <v>0.46899999999999997</v>
+        <v>0.469</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="170" ht="19.95" spans="1:4">
       <c r="A170" s="6">
         <v>503</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="C170" s="7">
-        <v>0.47299999999999998</v>
+        <v>0.473</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="171" ht="19.95" spans="1:4">
       <c r="A171" s="6">
         <v>684</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>153</v>
+        <v>183</v>
       </c>
       <c r="C171" s="7">
-        <v>0.39200000000000002</v>
+        <v>0.392</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="172" ht="19.95" spans="1:4">
       <c r="A172" s="3">
         <v>133</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="C172" s="4">
         <v>0.251</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="173" ht="19.95" spans="1:4">
       <c r="A173" s="3">
         <v>50</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="C173" s="4">
         <v>0.26</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="174" ht="19.95" spans="1:4">
       <c r="A174" s="3">
         <v>208</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="C174" s="4">
-        <v>0.29499999999999998</v>
+        <v>0.295</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="175" ht="19.95" spans="1:4">
       <c r="A175" s="6">
         <v>348</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
       <c r="C175" s="7">
-        <v>0.45800000000000002</v>
+        <v>0.458</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="176" ht="19.95" spans="1:4">
       <c r="A176" s="3">
         <v>652</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
       <c r="C176" s="4">
-        <v>0.35799999999999998</v>
+        <v>0.358</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="177" ht="19.95" spans="1:4">
       <c r="A177" s="6">
         <v>444</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="C177" s="7">
-        <v>0.19600000000000001</v>
+        <v>0.196</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" ht="34.5" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="178" ht="39.15" spans="1:4">
       <c r="A178" s="3">
         <v>309</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="C178" s="4">
-        <v>0.41299999999999998</v>
+        <v>0.413</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="179" ht="19.95" spans="1:4">
       <c r="A179" s="3">
         <v>382</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="C179" s="4">
-        <v>0.47099999999999997</v>
+        <v>0.471</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="180" ht="19.95" spans="1:4">
       <c r="A180" s="6">
         <v>402</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="C180" s="7">
         <v>0.26</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="181" ht="19.95" spans="1:4">
       <c r="A181" s="3">
         <v>370</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>233</v>
+        <v>193</v>
       </c>
       <c r="C181" s="4">
-        <v>0.56499999999999995</v>
+        <v>0.565</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="182" ht="19.95" spans="1:4">
       <c r="A182" s="6">
         <v>377</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>163</v>
+        <v>194</v>
       </c>
       <c r="C182" s="7">
-        <v>0.42399999999999999</v>
+        <v>0.424</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="183" ht="19.95" spans="1:4">
       <c r="A183" s="3">
         <v>379</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>164</v>
+        <v>195</v>
       </c>
       <c r="C183" s="4">
-        <v>0.34100000000000003</v>
+        <v>0.341</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="184" ht="19.95" spans="1:4">
       <c r="A184" s="6">
         <v>353</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>165</v>
+        <v>196</v>
       </c>
       <c r="C184" s="7">
-        <v>0.26800000000000002</v>
+        <v>0.268</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="185" ht="19.95" spans="1:4">
       <c r="A185" s="3">
         <v>375</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>166</v>
+        <v>197</v>
       </c>
       <c r="C185" s="4">
-        <v>0.35899999999999999</v>
+        <v>0.359</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="186" ht="19.95" spans="1:4">
       <c r="A186" s="3">
         <v>356</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>167</v>
+        <v>198</v>
       </c>
       <c r="C186" s="4">
-        <v>0.30099999999999999</v>
+        <v>0.301</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="187" ht="19.95" spans="1:4">
       <c r="A187" s="6">
         <v>261</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c r="C187" s="7">
-        <v>0.38100000000000001</v>
+        <v>0.381</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="188" ht="19.95" spans="1:4">
       <c r="A188" s="3">
         <v>486</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="C188" s="4">
-        <v>0.45100000000000001</v>
+        <v>0.451</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="189" ht="19.95" spans="1:4">
       <c r="A189" s="6">
         <v>542</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C189" s="7">
         <v>0.33</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="190" ht="19.95" spans="1:5">
       <c r="A190" s="3">
         <v>397</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C190" s="4">
-        <v>0.30199999999999999</v>
+        <v>0.302</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E190" s="8"/>
     </row>
-    <row r="191" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="191" ht="19.95" spans="1:4">
       <c r="A191" s="6">
         <v>368</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C191" s="7">
-        <v>0.33700000000000002</v>
+        <v>0.337</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="192" ht="19.95" spans="1:4">
       <c r="A192" s="3">
         <v>378</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C192" s="4">
-        <v>0.45200000000000001</v>
+        <v>0.452</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="193" ht="19.95" spans="1:4">
       <c r="A193" s="3">
         <v>313</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="C193" s="4">
         <v>0.38</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="194" ht="39.15" spans="1:5">
       <c r="A194" s="6">
         <v>331</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C194" s="7">
-        <v>0.36599999999999999</v>
+        <v>0.366</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E194" s="8"/>
     </row>
-    <row r="195" spans="1:6" ht="34.5" x14ac:dyDescent="0.2">
+    <row r="195" ht="39.15" spans="1:4">
       <c r="A195" s="3">
         <v>323</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C195" s="4">
-        <v>0.48299999999999998</v>
+        <v>0.483</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="196" ht="19.95" spans="1:5">
       <c r="A196" s="6">
         <v>451</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="C196" s="7">
-        <v>0.51100000000000001</v>
+        <v>0.511</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E196" s="5"/>
     </row>
-    <row r="197" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="197" ht="19.95" spans="1:4">
       <c r="A197" s="3">
         <v>310</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="C197" s="4">
-        <v>0.28899999999999998</v>
+        <v>0.289</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="198" ht="19.95" spans="1:5">
       <c r="A198" s="3">
         <v>729</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="C198" s="4">
-        <v>0.36099999999999999</v>
+        <v>0.361</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E198" s="5"/>
     </row>
-    <row r="199" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="199" ht="19.95" spans="1:4">
       <c r="A199" s="6">
         <v>469</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="C199" s="7">
-        <v>0.33400000000000002</v>
+        <v>0.334</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="200" ht="19.95" spans="1:4">
       <c r="A200" s="3">
         <v>474</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C200" s="4">
-        <v>0.39100000000000001</v>
+        <v>0.391</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="201" ht="19.95" spans="1:4">
       <c r="A201" s="3">
         <v>481</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>174</v>
+        <v>213</v>
       </c>
       <c r="C201" s="4">
-        <v>0.45600000000000002</v>
+        <v>0.456</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="202" ht="19.95" spans="1:5">
       <c r="A202" s="3">
         <v>314</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>175</v>
+        <v>214</v>
       </c>
       <c r="C202" s="4">
         <v>0.373</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E202" s="5"/>
     </row>
-    <row r="203" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="203" ht="19.95" spans="1:4">
       <c r="A203" s="6">
         <v>357</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>176</v>
+        <v>215</v>
       </c>
       <c r="C203" s="7">
-        <v>0.46100000000000002</v>
+        <v>0.461</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="204" ht="19.95" spans="1:6">
       <c r="A204" s="3">
         <v>487</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>177</v>
+        <v>216</v>
       </c>
       <c r="C204" s="4">
-        <v>0.45600000000000002</v>
+        <v>0.456</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E204" s="9"/>
       <c r="F204" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="205" ht="19.95" spans="1:5">
       <c r="A205" s="3">
         <v>494</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>179</v>
+        <v>218</v>
       </c>
       <c r="C205" s="4">
         <v>0.436</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E205" s="9"/>
     </row>
-    <row r="206" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="206" ht="19.95" spans="1:5">
       <c r="A206" s="6">
         <v>522</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>180</v>
+        <v>219</v>
       </c>
       <c r="C206" s="7">
         <v>0.318</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E206" s="9"/>
     </row>
-    <row r="207" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="207" ht="19.95" spans="1:5">
       <c r="A207" s="3">
         <v>526</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>181</v>
+        <v>220</v>
       </c>
       <c r="C207" s="4">
-        <v>0.54200000000000004</v>
+        <v>0.542</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E207" s="5"/>
     </row>
-    <row r="208" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="208" ht="19.95" spans="1:4">
       <c r="A208" s="6">
         <v>531</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>192</v>
+        <v>221</v>
       </c>
       <c r="C208" s="7">
-        <v>0.55600000000000005</v>
+        <v>0.556</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="209" ht="19.95" spans="1:4">
       <c r="A209" s="3">
         <v>533</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>182</v>
+        <v>222</v>
       </c>
       <c r="C209" s="4">
-        <v>0.44600000000000001</v>
+        <v>0.446</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="210" ht="19.95" spans="1:4">
       <c r="A210" s="6">
         <v>535</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>183</v>
+        <v>223</v>
       </c>
       <c r="C210" s="7">
-        <v>0.74199999999999999</v>
+        <v>0.742</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="211" ht="19.95" spans="1:5">
       <c r="A211" s="3">
         <v>544</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>184</v>
+        <v>224</v>
       </c>
       <c r="C211" s="4">
-        <v>0.70899999999999996</v>
+        <v>0.709</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E211" s="5"/>
     </row>
-    <row r="212" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="212" ht="19.95" spans="1:5">
       <c r="A212" s="6">
         <v>545</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>185</v>
+        <v>225</v>
       </c>
       <c r="C212" s="7">
-        <v>0.31900000000000001</v>
+        <v>0.319</v>
       </c>
       <c r="D212" s="6" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E212" s="9"/>
     </row>
-    <row r="213" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="213" ht="39.15" spans="1:4">
       <c r="A213" s="3">
         <v>549</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="C213" s="4">
-        <v>0.41899999999999998</v>
+        <v>0.419</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="214" ht="19.95" spans="1:5">
       <c r="A214" s="3">
         <v>560</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>186</v>
+        <v>227</v>
       </c>
       <c r="C214" s="4">
-        <v>0.40400000000000003</v>
+        <v>0.404</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E214" s="9"/>
     </row>
-    <row r="215" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="215" ht="19.95" spans="1:4">
       <c r="A215" s="6">
         <v>583</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="C215" s="7">
         <v>0.442</v>
       </c>
       <c r="D215" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="216" ht="19.95" spans="1:4">
       <c r="A216" s="6">
         <v>638</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>187</v>
+        <v>229</v>
       </c>
       <c r="C216" s="7">
         <v>0.434</v>
       </c>
       <c r="D216" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="217" ht="19.95" spans="1:5">
       <c r="A217" s="3">
         <v>651</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>188</v>
+        <v>230</v>
       </c>
       <c r="C217" s="4">
-        <v>0.48799999999999999</v>
+        <v>0.488</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E217" s="9"/>
     </row>
-    <row r="218" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="218" ht="19.95" spans="1:5">
       <c r="A218" s="6">
         <v>658</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>189</v>
+        <v>231</v>
       </c>
       <c r="C218" s="7">
-        <v>0.35299999999999998</v>
+        <v>0.353</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E218" s="9"/>
     </row>
-    <row r="219" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="219" ht="39.15" spans="1:4">
       <c r="A219" s="3">
         <v>659</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>195</v>
+        <v>232</v>
       </c>
       <c r="C219" s="4">
-        <v>0.35699999999999998</v>
+        <v>0.357</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="220" ht="19.95" spans="1:4">
       <c r="A220" s="3">
         <v>667</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>190</v>
+        <v>233</v>
       </c>
       <c r="C220" s="4">
-        <v>0.51500000000000001</v>
+        <v>0.515</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="221" ht="19.95" spans="1:5">
       <c r="A221" s="6">
         <v>731</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>191</v>
+        <v>234</v>
       </c>
       <c r="C221" s="7">
         <v>0.316</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E221" s="5"/>
     </row>
@@ -4414,13 +4920,13 @@
   <sortState ref="A3:D221">
     <sortCondition ref="D10"/>
   </sortState>
-  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F111" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F136" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F115" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F111" r:id="rId1" display="https://www.youtube.com/embed/IAet94C1FCc?feature=oembed"/>
+    <hyperlink ref="F136" r:id="rId2" display="http://www.cnblogs.com/grandyang/p/4603555.html"/>
+    <hyperlink ref="F115" r:id="rId3" display="http://www.cnblogs.com/grandyang/p/5212785.html"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/google_ranked.xlsx
+++ b/google_ranked.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\leet\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F875B343-36BF-4E23-ABDF-F5260DB3E7BD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9935"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22365" windowHeight="9930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="235">
   <si>
     <t>Google</t>
   </si>
@@ -58,680 +64,683 @@
     <t>Binary Watch</t>
   </si>
   <si>
+    <t>Palindrome Permutation</t>
+  </si>
+  <si>
+    <t>Find the Difference</t>
+  </si>
+  <si>
+    <t>Valid Parentheses</t>
+  </si>
+  <si>
+    <t>Flip Game</t>
+  </si>
+  <si>
+    <t>Add Strings</t>
+  </si>
+  <si>
+    <t>Logger Rate Limiter</t>
+  </si>
+  <si>
+    <t>Closest Binary Search Tree Value</t>
+  </si>
+  <si>
+    <t>Min Stack</t>
+  </si>
+  <si>
+    <t>Longest Palindrome</t>
+  </si>
+  <si>
+    <t>Power of Two</t>
+  </si>
+  <si>
+    <t>Heaters</t>
+  </si>
+  <si>
+    <t>Student Attendance Record I</t>
+  </si>
+  <si>
+    <t>Repeated Substring Pattern</t>
+  </si>
+  <si>
+    <t>Valid Word Abbreviation</t>
+  </si>
+  <si>
+    <t>Minimum Absolute Difference in BST</t>
+  </si>
+  <si>
+    <t>Power of Three</t>
+  </si>
+  <si>
+    <t>Detect Capital</t>
+  </si>
+  <si>
+    <t>Max Consecutive Ones</t>
+  </si>
+  <si>
+    <t>Relative Ranks</t>
+  </si>
+  <si>
+    <t>Number of Boomerangs</t>
+  </si>
+  <si>
+    <t>Longest Uncommon Subsequence I</t>
+  </si>
+  <si>
+    <t>Reverse String II</t>
+  </si>
+  <si>
+    <t>Shortest Unsorted Continuous Subarray</t>
+  </si>
+  <si>
+    <t>Design Compressed String Iterator</t>
+  </si>
+  <si>
+    <t>Maximum Average Subarray I</t>
+  </si>
+  <si>
+    <t>Judge Route Circle</t>
+  </si>
+  <si>
+    <t>Non-decreasing Array</t>
+  </si>
+  <si>
+    <t>K Empty Slots</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>Longest Substring with At Most K Distinct Characters</t>
+  </si>
+  <si>
+    <t>Range Sum Query 2D - Mutable</t>
+  </si>
+  <si>
+    <t>Word Squares</t>
+  </si>
+  <si>
+    <t>Maximum Vacation Days</t>
+  </si>
+  <si>
+    <t>Shortest Distance from All Buildings</t>
+  </si>
+  <si>
+    <t>Number of Islands II</t>
+  </si>
+  <si>
+    <t>The Skyline Problem</t>
+  </si>
+  <si>
+    <t>Longest Substring with At Most Two Distinct Characters</t>
+  </si>
+  <si>
+    <t>Longest Increasing Path in a Matrix</t>
+  </si>
+  <si>
+    <t>Encode String with Shortest Length</t>
+  </si>
+  <si>
+    <t>Perfect Rectangle</t>
+  </si>
+  <si>
+    <t>Trapping Rain Water II</t>
+  </si>
+  <si>
+    <t>Serialize and Deserialize Binary Tree</t>
+  </si>
+  <si>
+    <t>LRU Cache</t>
+  </si>
+  <si>
+    <t>Find Median from Data Stream</t>
+  </si>
+  <si>
+    <t>Trapping Rain Water</t>
+  </si>
+  <si>
+    <t>Count of Smaller Numbers After Self</t>
+  </si>
+  <si>
+    <t>Minimum Unique Word Abbreviation</t>
+  </si>
+  <si>
+    <t>Alien Dictionary</t>
+  </si>
+  <si>
+    <t>Sliding Window Maximum</t>
+  </si>
+  <si>
+    <t>Optimal Account Balancing</t>
+  </si>
+  <si>
+    <t>Longest Consecutive Sequence</t>
+  </si>
+  <si>
+    <t>Read N Characters Given Read4 II - Call multiple times</t>
+  </si>
+  <si>
+    <t>Merge k Sorted Lists</t>
+  </si>
+  <si>
+    <t>Regular Expression Matching</t>
+  </si>
+  <si>
+    <t>Word Search II</t>
+  </si>
+  <si>
+    <t>Median of Two Sorted Arrays</t>
+  </si>
+  <si>
+    <t>Rearrange String k Distance Apart</t>
+  </si>
+  <si>
+    <t>Erect the Fence</t>
+  </si>
+  <si>
+    <t>24 Game</t>
+  </si>
+  <si>
+    <t>Word Break II</t>
+  </si>
+  <si>
+    <t>Basic Calculator</t>
+  </si>
+  <si>
+    <t>Count of Range Sum</t>
+  </si>
+  <si>
+    <t>Insert Interval</t>
+  </si>
+  <si>
+    <t>Palindrome Pairs</t>
+  </si>
+  <si>
+    <t>Wildcard Matching</t>
+  </si>
+  <si>
+    <t>LFU Cache</t>
+  </si>
+  <si>
+    <t>Max Sum of Rectangle No Larger Than K</t>
+  </si>
+  <si>
+    <t>Russian Doll Envelopes</t>
+  </si>
+  <si>
+    <t>Closest Binary Search Tree Value II</t>
+  </si>
+  <si>
+    <t>Shortest Palindrome</t>
+  </si>
+  <si>
+    <t>Expression Add Operators</t>
+  </si>
+  <si>
+    <t>Smallest Rectangle Enclosing Black Pixels</t>
+  </si>
+  <si>
+    <t>Create Maximum Number</t>
+  </si>
+  <si>
+    <t>Sliding Window Median</t>
+  </si>
+  <si>
+    <t>Smallest Good Base</t>
+  </si>
+  <si>
+    <t>Burst Balloons</t>
+  </si>
+  <si>
+    <t>Reverse Pairs</t>
+  </si>
+  <si>
+    <t>Freedom Trail</t>
+  </si>
+  <si>
+    <t>Word Abbreviation</t>
+  </si>
+  <si>
+    <t>Remove Duplicate Letters</t>
+  </si>
+  <si>
+    <t>Patching Array</t>
+  </si>
+  <si>
+    <t>Student Attendance Record II</t>
+  </si>
+  <si>
+    <t>Median Employee Salary</t>
+  </si>
+  <si>
+    <t>Maximum Average Subarray II</t>
+  </si>
+  <si>
+    <t>Coin Path</t>
+  </si>
+  <si>
+    <t>Kth Smallest Number in Multiplication Table</t>
+  </si>
+  <si>
+    <t>Redundant Connection II</t>
+  </si>
+  <si>
+    <t>Maximum Sum of 3 Non-Overlapping Subarrays</t>
+  </si>
+  <si>
+    <t>Find K-th Smallest Pair Distance</t>
+  </si>
+  <si>
+    <t>Number of Atoms</t>
+  </si>
+  <si>
+    <t>Minimum Window Subsequence</t>
+  </si>
+  <si>
+    <t>Design TinyURL</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Longest Absolute File Path</t>
+  </si>
+  <si>
+    <t>Next Closest Time</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/IAet94C1FCc?feature=oembed</t>
+  </si>
+  <si>
+    <t>License Key Formatting</t>
+  </si>
+  <si>
+    <t>Binary Tree Longest Consecutive Sequence</t>
+  </si>
+  <si>
+    <t>Sentence Screen Fitting</t>
+  </si>
+  <si>
+    <t>Zigzag Iterator</t>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/grandyang/p/5212785.html</t>
+  </si>
+  <si>
+    <t>Bomb Enemy</t>
+  </si>
+  <si>
+    <t>Decode String</t>
+  </si>
+  <si>
+    <t>UTF-8 Validation</t>
+  </si>
+  <si>
+    <t>Missing Ranges</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/grandyang/p/5184890.html</t>
+  </si>
+  <si>
+    <t>Android Unlock Patterns</t>
+  </si>
+  <si>
+    <t>Encode and Decode Strings</t>
+  </si>
+  <si>
+    <t>Game of Life</t>
+  </si>
+  <si>
+    <t>Unique Word Abbreviation</t>
+  </si>
+  <si>
+    <t>Number of Islands</t>
+  </si>
+  <si>
+    <t>Wiggle Sort</t>
+  </si>
+  <si>
+    <t>Add Bold Tag in String</t>
+  </si>
+  <si>
+    <t>3Sum Smaller</t>
+  </si>
+  <si>
+    <t>Evaluate Division</t>
+  </si>
+  <si>
+    <t>Pacific Atlantic Water Flow</t>
+  </si>
+  <si>
+    <t>Queue Reconstruction by Height</t>
+  </si>
+  <si>
+    <t>Perfect Squares</t>
+  </si>
+  <si>
+    <t>Merge Intervals</t>
+  </si>
+  <si>
+    <t>Peeking Iterator</t>
+  </si>
+  <si>
+    <t>Strobogrammatic Number II</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/grandyang/p/5200919.html</t>
+  </si>
+  <si>
+    <t>Longest Word in Dictionary through Deleting</t>
+  </si>
+  <si>
+    <t>Summary Ranges</t>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/grandyang/p/4603555.html</t>
+  </si>
+  <si>
+    <t>Walls and Gates</t>
+  </si>
+  <si>
+    <t>Design Hit Counter</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/grandyang/p/5605552.html</t>
+  </si>
+  <si>
+    <t>Flip Game II</t>
+  </si>
+  <si>
+    <t>Insert Delete GetRandom O(1)</t>
+  </si>
+  <si>
+    <t>Group Shifted Strings</t>
+  </si>
+  <si>
+    <t>Generalized Abbreviation</t>
+  </si>
+  <si>
+    <t>The Maze II</t>
+  </si>
+  <si>
+    <t>Flatten Nested List Iterator</t>
+  </si>
+  <si>
+    <t>Sort Transformed Array</t>
+  </si>
+  <si>
+    <t>Meeting Rooms II</t>
+  </si>
+  <si>
+    <t>Word Break</t>
+  </si>
+  <si>
+    <t>Kth Smallest Element in a BST</t>
+  </si>
+  <si>
+    <t>Find Peak Element</t>
+  </si>
+  <si>
+    <t>Diagonal Traverse</t>
+  </si>
+  <si>
+    <t>The Maze</t>
+  </si>
+  <si>
+    <t>Maximum Product of Word Lengths</t>
+  </si>
+  <si>
+    <t>Search a 2D Matrix II</t>
+  </si>
+  <si>
+    <t>Find K Pairs with Smallest Sums</t>
+  </si>
+  <si>
+    <t>Plus One Linked List</t>
+  </si>
+  <si>
+    <t>Flatten 2D Vector</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/grandyang/p/5209621.html</t>
+  </si>
+  <si>
+    <t>Reconstruct Itinerary</t>
+  </si>
+  <si>
+    <t>Binary Search Tree Iterator</t>
+  </si>
+  <si>
+    <t>Spiral Matrix</t>
+  </si>
+  <si>
+    <t>Wiggle Sort II</t>
+  </si>
+  <si>
+    <t>Letter Combinations of a Phone Number</t>
+  </si>
+  <si>
+    <t>Find Permutation</t>
+  </si>
+  <si>
+    <t>Longest Line of Consecutive One in Matrix</t>
+  </si>
+  <si>
+    <t>Fraction to Recurring Decimal</t>
+  </si>
+  <si>
+    <t>Generate Parentheses</t>
+  </si>
+  <si>
+    <t>Next Permutation</t>
+  </si>
+  <si>
+    <t>Implement Magic Dictionary</t>
+  </si>
+  <si>
+    <t>Maximum XOR of Two Numbers in an Array</t>
+  </si>
+  <si>
+    <t>Next Greater Element II</t>
+  </si>
+  <si>
+    <t>Redundant Connection</t>
+  </si>
+  <si>
+    <t>Clone Graph</t>
+  </si>
+  <si>
+    <t>Pow(x, n)</t>
+  </si>
+  <si>
+    <t>Implement Trie (Prefix Tree)</t>
+  </si>
+  <si>
+    <t>Design Tic-Tac-Toe</t>
+  </si>
+  <si>
+    <t>Find Duplicate Subtrees</t>
+  </si>
+  <si>
+    <t>Sequence Reconstruction</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock with Cooldown</t>
+  </si>
+  <si>
+    <t>Linked List Random Node</t>
+  </si>
+  <si>
+    <t>Remove K Digits</t>
+  </si>
+  <si>
+    <t>Range Addition</t>
+  </si>
+  <si>
+    <t>Combination Sum IV</t>
+  </si>
+  <si>
+    <t>Design Phone Directory</t>
+  </si>
+  <si>
+    <t>Design Snake Game</t>
+  </si>
+  <si>
+    <t>Guess Number Higher or Lower II</t>
+  </si>
+  <si>
+    <t>Line Reflection</t>
+  </si>
+  <si>
+    <t>Graph Valid Tree</t>
+  </si>
+  <si>
+    <t>Predict the Winner</t>
+  </si>
+  <si>
+    <t>01 Matrix</t>
+  </si>
+  <si>
+    <t>Integer Replacement</t>
+  </si>
+  <si>
+    <t>Largest Divisible Subset</t>
+  </si>
+  <si>
+    <t>Kth Smallest Element in a Sorted Matrix</t>
+  </si>
+  <si>
+    <t>Super Ugly Number</t>
+  </si>
+  <si>
+    <t>Verify Preorder Serialization of a Binary Tree</t>
+  </si>
+  <si>
+    <t>Number of Connected Components in an Undirected Graph</t>
+  </si>
+  <si>
+    <t>Sort Characters By Frequency</t>
+  </si>
+  <si>
+    <t>Minimum Height Trees</t>
+  </si>
+  <si>
+    <t>My Calendar I</t>
+  </si>
+  <si>
+    <t>Convex Polygon</t>
+  </si>
+  <si>
+    <t>Ones and Zeroes</t>
+  </si>
+  <si>
+    <t>Magical String</t>
+  </si>
+  <si>
+    <t>Binary Tree Vertical Order Traversal</t>
+  </si>
+  <si>
+    <t>Count Numbers with Unique Digits</t>
+  </si>
+  <si>
+    <t>Max Consecutive Ones II</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/grandyang/p/6376115.html</t>
+  </si>
+  <si>
+    <t>Target Sum</t>
+  </si>
+  <si>
+    <t>Longest Uncommon Subsequence II</t>
+  </si>
+  <si>
+    <t>Beautiful Arrangement</t>
+  </si>
+  <si>
+    <t>Lonely Pixel I</t>
+  </si>
+  <si>
+    <t>Lonely Pixel II</t>
+  </si>
+  <si>
+    <t>Encode and Decode TinyURL</t>
+  </si>
+  <si>
+    <t>Output Contest Matches</t>
+  </si>
+  <si>
+    <t>Boundary of Binary Tree</t>
+  </si>
+  <si>
+    <t>Binary Tree Longest Consecutive Sequence II</t>
+  </si>
+  <si>
+    <t>Subarray Sum Equals K</t>
+  </si>
+  <si>
+    <t>Delete Operation for Two Strings</t>
+  </si>
+  <si>
+    <t>Shopping Offers</t>
+  </si>
+  <si>
+    <t>4 Keys Keyboard</t>
+  </si>
+  <si>
+    <t>Find K Closest Elements</t>
+  </si>
+  <si>
+    <t>Split Array into Consecutive Subsequences</t>
+  </si>
+  <si>
+    <t>Beautiful Arrangement II</t>
+  </si>
+  <si>
+    <t>My Calendar II</t>
+  </si>
+  <si>
     <t>Island Perimeter</t>
-  </si>
-  <si>
-    <t>Palindrome Permutation</t>
-  </si>
-  <si>
-    <t>Find the Difference</t>
-  </si>
-  <si>
-    <t>Valid Parentheses</t>
-  </si>
-  <si>
-    <t>Flip Game</t>
-  </si>
-  <si>
-    <t>Add Strings</t>
-  </si>
-  <si>
-    <t>Logger Rate Limiter</t>
-  </si>
-  <si>
-    <t>Closest Binary Search Tree Value</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Nth Digit</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Valid Word Square</t>
-  </si>
-  <si>
-    <t>Min Stack</t>
-  </si>
-  <si>
-    <t>Longest Palindrome</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Diameter of Binary Tree</t>
-  </si>
-  <si>
-    <t>Power of Two</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Find Mode in Binary Search Tree</t>
-  </si>
-  <si>
-    <t>Heaters</t>
-  </si>
-  <si>
-    <t>Student Attendance Record I</t>
-  </si>
-  <si>
-    <t>Repeated Substring Pattern</t>
-  </si>
-  <si>
-    <t>Valid Word Abbreviation</t>
-  </si>
-  <si>
-    <t>Minimum Absolute Difference in BST</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Guess Number Higher or Lower</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Find All Numbers Disappeared in an Array</t>
-  </si>
-  <si>
-    <t>Power of Three</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Binary Tree Paths</t>
-  </si>
-  <si>
-    <t>Detect Capital</t>
-  </si>
-  <si>
-    <t>Max Consecutive Ones</t>
-  </si>
-  <si>
-    <t>Relative Ranks</t>
-  </si>
-  <si>
-    <t>Number of Boomerangs</t>
-  </si>
-  <si>
-    <t>Longest Uncommon Subsequence I</t>
-  </si>
-  <si>
-    <t>Reverse String II</t>
-  </si>
-  <si>
-    <t>Shortest Unsorted Continuous Subarray</t>
-  </si>
-  <si>
-    <t>Design Compressed String Iterator</t>
-  </si>
-  <si>
-    <t>Maximum Average Subarray I</t>
-  </si>
-  <si>
-    <t>Judge Route Circle</t>
-  </si>
-  <si>
-    <t>Non-decreasing Array</t>
-  </si>
-  <si>
-    <t>K Empty Slots</t>
-  </si>
-  <si>
-    <t>Hard</t>
-  </si>
-  <si>
-    <t>Longest Substring with At Most K Distinct Characters</t>
-  </si>
-  <si>
-    <t>Range Sum Query 2D - Mutable</t>
-  </si>
-  <si>
-    <t>Word Squares</t>
-  </si>
-  <si>
-    <t>Maximum Vacation Days</t>
-  </si>
-  <si>
-    <t>Shortest Distance from All Buildings</t>
-  </si>
-  <si>
-    <t>Number of Islands II</t>
-  </si>
-  <si>
-    <t>The Skyline Problem</t>
-  </si>
-  <si>
-    <t>Longest Substring with At Most Two Distinct Characters</t>
-  </si>
-  <si>
-    <t>Longest Increasing Path in a Matrix</t>
-  </si>
-  <si>
-    <t>Encode String with Shortest Length</t>
-  </si>
-  <si>
-    <t>Perfect Rectangle</t>
-  </si>
-  <si>
-    <t>Trapping Rain Water II</t>
-  </si>
-  <si>
-    <t>Serialize and Deserialize Binary Tree</t>
-  </si>
-  <si>
-    <t>LRU Cache</t>
-  </si>
-  <si>
-    <t>Find Median from Data Stream</t>
-  </si>
-  <si>
-    <t>Trapping Rain Water</t>
-  </si>
-  <si>
-    <t>Count of Smaller Numbers After Self</t>
-  </si>
-  <si>
-    <t>Minimum Unique Word Abbreviation</t>
-  </si>
-  <si>
-    <t>Alien Dictionary</t>
-  </si>
-  <si>
-    <t>Sliding Window Maximum</t>
-  </si>
-  <si>
-    <t>Optimal Account Balancing</t>
-  </si>
-  <si>
-    <t>Longest Consecutive Sequence</t>
-  </si>
-  <si>
-    <t>Read N Characters Given Read4 II - Call multiple times</t>
-  </si>
-  <si>
-    <t>Merge k Sorted Lists</t>
-  </si>
-  <si>
-    <t>Regular Expression Matching</t>
-  </si>
-  <si>
-    <t>Word Search II</t>
-  </si>
-  <si>
-    <t>Median of Two Sorted Arrays</t>
-  </si>
-  <si>
-    <t>Rearrange String k Distance Apart</t>
-  </si>
-  <si>
-    <t>Erect the Fence</t>
-  </si>
-  <si>
-    <t>24 Game</t>
-  </si>
-  <si>
-    <t>Word Break II</t>
-  </si>
-  <si>
-    <t>Basic Calculator</t>
-  </si>
-  <si>
-    <t>Count of Range Sum</t>
-  </si>
-  <si>
-    <t>Insert Interval</t>
-  </si>
-  <si>
-    <t>Palindrome Pairs</t>
-  </si>
-  <si>
-    <t>Wildcard Matching</t>
-  </si>
-  <si>
-    <t>LFU Cache</t>
-  </si>
-  <si>
-    <t>Max Sum of Rectangle No Larger Than K</t>
-  </si>
-  <si>
-    <t>Russian Doll Envelopes</t>
-  </si>
-  <si>
-    <t>Closest Binary Search Tree Value II</t>
-  </si>
-  <si>
-    <t>Shortest Palindrome</t>
-  </si>
-  <si>
-    <t>Expression Add Operators</t>
-  </si>
-  <si>
-    <t>Smallest Rectangle Enclosing Black Pixels</t>
-  </si>
-  <si>
-    <t>Create Maximum Number</t>
-  </si>
-  <si>
-    <t>Sliding Window Median</t>
-  </si>
-  <si>
-    <t>Smallest Good Base</t>
-  </si>
-  <si>
-    <t>Burst Balloons</t>
-  </si>
-  <si>
-    <t>Reverse Pairs</t>
-  </si>
-  <si>
-    <t>Freedom Trail</t>
-  </si>
-  <si>
-    <t>Word Abbreviation</t>
-  </si>
-  <si>
-    <t>Remove Duplicate Letters</t>
-  </si>
-  <si>
-    <t>Patching Array</t>
-  </si>
-  <si>
-    <t>Student Attendance Record II</t>
-  </si>
-  <si>
-    <t>Median Employee Salary</t>
-  </si>
-  <si>
-    <t>Maximum Average Subarray II</t>
-  </si>
-  <si>
-    <t>Coin Path</t>
-  </si>
-  <si>
-    <t>Kth Smallest Number in Multiplication Table</t>
-  </si>
-  <si>
-    <t>Redundant Connection II</t>
-  </si>
-  <si>
-    <t>Maximum Sum of 3 Non-Overlapping Subarrays</t>
-  </si>
-  <si>
-    <t>Find K-th Smallest Pair Distance</t>
-  </si>
-  <si>
-    <t>Number of Atoms</t>
-  </si>
-  <si>
-    <t>Minimum Window Subsequence</t>
-  </si>
-  <si>
-    <t>Design TinyURL</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>Longest Absolute File Path</t>
-  </si>
-  <si>
-    <t>Next Closest Time</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/IAet94C1FCc?feature=oembed</t>
-  </si>
-  <si>
-    <t>License Key Formatting</t>
-  </si>
-  <si>
-    <t>Binary Tree Longest Consecutive Sequence</t>
-  </si>
-  <si>
-    <t>Sentence Screen Fitting</t>
-  </si>
-  <si>
-    <t>Zigzag Iterator</t>
-  </si>
-  <si>
-    <t>http://www.cnblogs.com/grandyang/p/5212785.html</t>
-  </si>
-  <si>
-    <t>Bomb Enemy</t>
-  </si>
-  <si>
-    <t>Decode String</t>
-  </si>
-  <si>
-    <t>UTF-8 Validation</t>
-  </si>
-  <si>
-    <t>Missing Ranges</t>
-  </si>
-  <si>
-    <t>https://www.cnblogs.com/grandyang/p/5184890.html</t>
-  </si>
-  <si>
-    <t>Android Unlock Patterns</t>
-  </si>
-  <si>
-    <t>Encode and Decode Strings</t>
-  </si>
-  <si>
-    <t>Game of Life</t>
-  </si>
-  <si>
-    <t>Unique Word Abbreviation</t>
-  </si>
-  <si>
-    <t>Number of Islands</t>
-  </si>
-  <si>
-    <t>Wiggle Sort</t>
-  </si>
-  <si>
-    <t>Add Bold Tag in String</t>
-  </si>
-  <si>
-    <t>3Sum Smaller</t>
-  </si>
-  <si>
-    <t>Evaluate Division</t>
-  </si>
-  <si>
-    <t>Pacific Atlantic Water Flow</t>
-  </si>
-  <si>
-    <t>Queue Reconstruction by Height</t>
-  </si>
-  <si>
-    <t>Perfect Squares</t>
-  </si>
-  <si>
-    <t>Merge Intervals</t>
-  </si>
-  <si>
-    <t>Peeking Iterator</t>
-  </si>
-  <si>
-    <t>Strobogrammatic Number II</t>
-  </si>
-  <si>
-    <t>https://www.cnblogs.com/grandyang/p/5200919.html</t>
-  </si>
-  <si>
-    <t>Longest Word in Dictionary through Deleting</t>
-  </si>
-  <si>
-    <t>Summary Ranges</t>
-  </si>
-  <si>
-    <t>http://www.cnblogs.com/grandyang/p/4603555.html</t>
-  </si>
-  <si>
-    <t>Walls and Gates</t>
-  </si>
-  <si>
-    <t>Design Hit Counter</t>
-  </si>
-  <si>
-    <t>https://www.cnblogs.com/grandyang/p/5605552.html</t>
-  </si>
-  <si>
-    <t>Flip Game II</t>
-  </si>
-  <si>
-    <t>Insert Delete GetRandom O(1)</t>
-  </si>
-  <si>
-    <t>Group Shifted Strings</t>
-  </si>
-  <si>
-    <t>Generalized Abbreviation</t>
-  </si>
-  <si>
-    <t>The Maze II</t>
-  </si>
-  <si>
-    <t>Flatten Nested List Iterator</t>
-  </si>
-  <si>
-    <t>Sort Transformed Array</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>H-Index</t>
-  </si>
-  <si>
-    <t>Meeting Rooms II</t>
-  </si>
-  <si>
-    <t>Word Break</t>
-  </si>
-  <si>
-    <t>Kth Smallest Element in a BST</t>
-  </si>
-  <si>
-    <t>Find Peak Element</t>
-  </si>
-  <si>
-    <t>Diagonal Traverse</t>
-  </si>
-  <si>
-    <t>The Maze</t>
-  </si>
-  <si>
-    <t>Maximum Product of Word Lengths</t>
-  </si>
-  <si>
-    <t>Search a 2D Matrix II</t>
-  </si>
-  <si>
-    <t>Find K Pairs with Smallest Sums</t>
-  </si>
-  <si>
-    <t>Plus One Linked List</t>
-  </si>
-  <si>
-    <t>Flatten 2D Vector</t>
-  </si>
-  <si>
-    <t>https://www.cnblogs.com/grandyang/p/5209621.html</t>
-  </si>
-  <si>
-    <t>Reconstruct Itinerary</t>
-  </si>
-  <si>
-    <t>Binary Search Tree Iterator</t>
-  </si>
-  <si>
-    <t>Spiral Matrix</t>
-  </si>
-  <si>
-    <t>Wiggle Sort II</t>
-  </si>
-  <si>
-    <t>Letter Combinations of a Phone Number</t>
-  </si>
-  <si>
-    <t>Find Permutation</t>
-  </si>
-  <si>
-    <t>Longest Line of Consecutive One in Matrix</t>
-  </si>
-  <si>
-    <t>Fraction to Recurring Decimal</t>
-  </si>
-  <si>
-    <t>Generate Parentheses</t>
-  </si>
-  <si>
-    <t>Next Permutation</t>
-  </si>
-  <si>
-    <t>Implement Magic Dictionary</t>
-  </si>
-  <si>
-    <t>Maximum XOR of Two Numbers in an Array</t>
-  </si>
-  <si>
-    <t>Next Greater Element II</t>
-  </si>
-  <si>
-    <t>Redundant Connection</t>
-  </si>
-  <si>
-    <t>Clone Graph</t>
-  </si>
-  <si>
-    <t>Pow(x, n)</t>
-  </si>
-  <si>
-    <t>Implement Trie (Prefix Tree)</t>
-  </si>
-  <si>
-    <t>Design Tic-Tac-Toe</t>
-  </si>
-  <si>
-    <t>Find Duplicate Subtrees</t>
-  </si>
-  <si>
-    <t>Sequence Reconstruction</t>
-  </si>
-  <si>
-    <t>Best Time to Buy and Sell Stock with Cooldown</t>
-  </si>
-  <si>
-    <t>Linked List Random Node</t>
-  </si>
-  <si>
-    <t>Remove K Digits</t>
-  </si>
-  <si>
-    <t>Range Addition</t>
-  </si>
-  <si>
-    <t>Combination Sum IV</t>
-  </si>
-  <si>
-    <t>Design Phone Directory</t>
-  </si>
-  <si>
-    <t>Design Snake Game</t>
-  </si>
-  <si>
-    <t>Guess Number Higher or Lower II</t>
-  </si>
-  <si>
-    <t>Line Reflection</t>
-  </si>
-  <si>
-    <t>Graph Valid Tree</t>
-  </si>
-  <si>
-    <t>Predict the Winner</t>
-  </si>
-  <si>
-    <t>01 Matrix</t>
-  </si>
-  <si>
-    <t>Integer Replacement</t>
-  </si>
-  <si>
-    <t>Largest Divisible Subset</t>
-  </si>
-  <si>
-    <t>Kth Smallest Element in a Sorted Matrix</t>
-  </si>
-  <si>
-    <t>Super Ugly Number</t>
-  </si>
-  <si>
-    <t>Verify Preorder Serialization of a Binary Tree</t>
-  </si>
-  <si>
-    <t>Number of Connected Components in an Undirected Graph</t>
-  </si>
-  <si>
-    <t>Sort Characters By Frequency</t>
-  </si>
-  <si>
-    <t>Minimum Height Trees</t>
-  </si>
-  <si>
-    <t>My Calendar I</t>
-  </si>
-  <si>
-    <t>Convex Polygon</t>
-  </si>
-  <si>
-    <t>Ones and Zeroes</t>
-  </si>
-  <si>
-    <t>Magical String</t>
-  </si>
-  <si>
-    <t>Binary Tree Vertical Order Traversal</t>
-  </si>
-  <si>
-    <t>Count Numbers with Unique Digits</t>
-  </si>
-  <si>
-    <t>Max Consecutive Ones II</t>
-  </si>
-  <si>
-    <t>https://www.cnblogs.com/grandyang/p/6376115.html</t>
-  </si>
-  <si>
-    <t>Target Sum</t>
-  </si>
-  <si>
-    <t>Longest Uncommon Subsequence II</t>
-  </si>
-  <si>
-    <t>Beautiful Arrangement</t>
-  </si>
-  <si>
-    <t>Lonely Pixel I</t>
-  </si>
-  <si>
-    <t>Lonely Pixel II</t>
-  </si>
-  <si>
-    <t>Encode and Decode TinyURL</t>
-  </si>
-  <si>
-    <t>Output Contest Matches</t>
-  </si>
-  <si>
-    <t>Boundary of Binary Tree</t>
-  </si>
-  <si>
-    <t>Binary Tree Longest Consecutive Sequence II</t>
-  </si>
-  <si>
-    <t>Subarray Sum Equals K</t>
-  </si>
-  <si>
-    <t>Delete Operation for Two Strings</t>
-  </si>
-  <si>
-    <t>Shopping Offers</t>
-  </si>
-  <si>
-    <t>4 Keys Keyboard</t>
-  </si>
-  <si>
-    <t>Find K Closest Elements</t>
-  </si>
-  <si>
-    <t>Split Array into Consecutive Subsequences</t>
-  </si>
-  <si>
-    <t>Beautiful Arrangement II</t>
-  </si>
-  <si>
-    <t>My Calendar II</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -743,13 +752,13 @@
       <sz val="22"/>
       <color rgb="FF24292E"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF24292E"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -781,122 +790,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -933,176 +833,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1134,247 +866,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1392,72 +894,32 @@
     <xf numFmtId="10" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="31" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="7" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="32" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="5">
+    <cellStyle name="差" xfId="1" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
+    <cellStyle name="好" xfId="3" builtinId="26"/>
+    <cellStyle name="适中" xfId="4" builtinId="28"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1715,33 +1177,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B146" sqref="B146"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.8796296296296" customWidth="1"/>
+    <col min="1" max="1" width="39.875" customWidth="1"/>
     <col min="2" max="2" width="41.75" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
-    <col min="4" max="4" width="29.6296296296296" customWidth="1"/>
-    <col min="6" max="6" width="17.3796296296296" customWidth="1"/>
+    <col min="4" max="4" width="29.625" customWidth="1"/>
+    <col min="6" max="6" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33.15" spans="1:1">
+    <row r="1" spans="1:5" ht="33" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="19.95" spans="1:4">
+    <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1755,7 +1217,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="19.95" spans="1:5">
+    <row r="3" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>346</v>
       </c>
@@ -1763,14 +1225,14 @@
         <v>5</v>
       </c>
       <c r="C3" s="4">
-        <v>0.595</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" ht="19.95" spans="1:5">
+    <row r="4" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>66</v>
       </c>
@@ -1778,14 +1240,14 @@
         <v>7</v>
       </c>
       <c r="C4" s="4">
-        <v>0.391</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" ht="19.95" spans="1:5">
+    <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>686</v>
       </c>
@@ -1793,14 +1255,14 @@
         <v>8</v>
       </c>
       <c r="C5" s="7">
-        <v>0.329</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" ht="19.95" spans="1:5">
+    <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>246</v>
       </c>
@@ -1815,7 +1277,7 @@
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" ht="19.95" spans="1:5">
+    <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>345</v>
       </c>
@@ -1823,14 +1285,14 @@
         <v>10</v>
       </c>
       <c r="C7" s="4">
-        <v>0.387</v>
+        <v>0.38700000000000001</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" ht="19.95" spans="1:4">
+    <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>687</v>
       </c>
@@ -1838,13 +1300,13 @@
         <v>11</v>
       </c>
       <c r="C8" s="4">
-        <v>0.333</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" ht="19.95" spans="1:5">
+    <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>276</v>
       </c>
@@ -1852,14 +1314,14 @@
         <v>12</v>
       </c>
       <c r="C9" s="4">
-        <v>0.347</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" ht="19.95" spans="1:5">
+    <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>401</v>
       </c>
@@ -1867,48 +1329,48 @@
         <v>13</v>
       </c>
       <c r="C10" s="7">
-        <v>0.449</v>
+        <v>0.44900000000000001</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" ht="19.95" spans="1:4">
+    <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>463</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>14</v>
+        <v>226</v>
       </c>
       <c r="C11" s="4">
-        <v>0.575</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" ht="19.95" spans="1:5">
+    <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>266</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="7">
-        <v>0.575</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" ht="19.95" spans="1:5">
+    <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>389</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="7">
         <v>0.51</v>
@@ -1918,173 +1380,173 @@
       </c>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" ht="19.95" spans="1:5">
+    <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>20</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="4">
-        <v>0.337</v>
+        <v>0.33700000000000002</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" ht="19.95" spans="1:5">
+    <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>293</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="4">
-        <v>0.565</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" ht="19.95" spans="1:5">
+    <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>415</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="4">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" ht="19.95" spans="1:5">
+    <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>359</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
-        <v>0.601</v>
+        <v>0.60099999999999998</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" ht="19.95" spans="1:5">
+    <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>270</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="4">
-        <v>0.401</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" ht="19.95" spans="1:5">
+    <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>400</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>22</v>
+        <v>227</v>
       </c>
       <c r="C19" s="7">
-        <v>0.301</v>
+        <v>0.30099999999999999</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" ht="19.95" spans="1:4">
+    <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>422</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>23</v>
+        <v>228</v>
       </c>
       <c r="C20" s="4">
-        <v>0.364</v>
+        <v>0.36399999999999999</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" ht="19.95" spans="1:4">
+    <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>155</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C21" s="4">
-        <v>0.297</v>
+        <v>0.29699999999999999</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" ht="19.95" spans="1:5">
+    <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>409</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C22" s="4">
-        <v>0.455</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" ht="19.95" spans="1:4">
+    <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>543</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="C23" s="7">
-        <v>0.447</v>
+        <v>0.44700000000000001</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" ht="19.95" spans="1:4">
+    <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>231</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C24" s="7">
-        <v>0.404</v>
+        <v>0.40400000000000003</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" ht="19.95" spans="1:4">
+    <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>501</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>28</v>
+        <v>230</v>
       </c>
       <c r="C25" s="7">
         <v>0.377</v>
@@ -2093,27 +1555,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" ht="19.95" spans="1:5">
+    <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>475</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C26" s="4">
-        <v>0.296</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" ht="19.95" spans="1:5">
+    <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>551</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C27" s="4">
         <v>0.441</v>
@@ -2123,128 +1585,130 @@
       </c>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" ht="19.95" spans="1:5">
+    <row r="28" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>459</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C28" s="7">
-        <v>0.382</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E28" s="9"/>
     </row>
-    <row r="29" ht="19.95" spans="1:5">
+    <row r="29" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>408</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C29" s="4">
-        <v>0.282</v>
+        <v>0.28199999999999997</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" ht="19.95" spans="1:5">
+    <row r="30" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>530</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C30" s="7">
-        <v>0.471</v>
+        <v>0.47099999999999997</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E30" s="5"/>
     </row>
-    <row r="31" ht="19.95" spans="1:4">
+    <row r="31" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>374</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>34</v>
+        <v>231</v>
       </c>
       <c r="C31" s="4">
-        <v>0.359</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="32" ht="19.95" spans="1:4">
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>448</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>35</v>
+        <v>232</v>
       </c>
       <c r="C32" s="7">
-        <v>0.512</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" ht="19.95" spans="1:4">
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>326</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C33" s="7">
-        <v>0.404</v>
+        <v>0.40400000000000003</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="34" ht="19.95" spans="1:4">
+    <row r="34" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>257</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>37</v>
+        <v>233</v>
       </c>
       <c r="C34" s="4">
-        <v>0.397</v>
+        <v>0.39700000000000002</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="35" ht="19.95" spans="1:5">
+    <row r="35" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>520</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C35" s="7">
-        <v>0.519</v>
+        <v>0.51900000000000002</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E35" s="5"/>
     </row>
-    <row r="36" ht="19.95" spans="1:5">
+    <row r="36" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>485</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C36" s="4">
         <v>0.54</v>
@@ -2254,54 +1718,54 @@
       </c>
       <c r="E36" s="5"/>
     </row>
-    <row r="37" ht="19.95" spans="1:4">
+    <row r="37" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>506</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C37" s="7">
-        <v>0.466</v>
+        <v>0.46600000000000003</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="38" ht="19.95" spans="1:4">
+    <row r="38" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>447</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C38" s="7">
-        <v>0.457</v>
+        <v>0.45700000000000002</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="39" ht="19.95" spans="1:4">
+    <row r="39" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>521</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C39" s="4">
-        <v>0.559</v>
+        <v>0.55900000000000005</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="40" ht="19.95" spans="1:4">
+    <row r="40" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>541</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C40" s="4">
         <v>0.437</v>
@@ -2310,41 +1774,41 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" ht="19.95" spans="1:5">
+    <row r="41" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>581</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C41" s="4">
-        <v>0.293</v>
+        <v>0.29299999999999998</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E41" s="5"/>
     </row>
-    <row r="42" ht="19.95" spans="1:4">
+    <row r="42" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>604</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C42" s="4">
-        <v>0.325</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="43" ht="19.95" spans="1:5">
+    <row r="43" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>643</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C43" s="4">
         <v>0.378</v>
@@ -2354,2565 +1818,2565 @@
       </c>
       <c r="E43" s="5"/>
     </row>
-    <row r="44" ht="19.95" spans="1:5">
+    <row r="44" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>657</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C44" s="4">
-        <v>0.686</v>
+        <v>0.68600000000000005</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E44" s="5"/>
     </row>
-    <row r="45" ht="19.95" spans="1:5">
+    <row r="45" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
         <v>665</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C45" s="7">
-        <v>0.211</v>
+        <v>0.21099999999999999</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E45" s="5"/>
     </row>
-    <row r="46" ht="19.95" spans="1:4">
+    <row r="46" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
         <v>683</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C46" s="7">
-        <v>0.366</v>
+        <v>0.36599999999999999</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="47" ht="39.15" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="34.5" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
         <v>340</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C47" s="7">
-        <v>0.392</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" ht="19.95" spans="1:5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
         <v>308</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C48" s="7">
-        <v>0.241</v>
+        <v>0.24099999999999999</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E48" s="9"/>
     </row>
-    <row r="49" ht="19.95" spans="1:4">
+    <row r="49" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>425</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C49" s="4">
         <v>0.435</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="50" ht="19.95" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>568</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C50" s="4">
-        <v>0.391</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" ht="19.95" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
         <v>317</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C51" s="7">
-        <v>0.344</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" ht="19.95" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
         <v>305</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C52" s="7">
-        <v>0.393</v>
+        <v>0.39300000000000002</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" ht="19.95" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>218</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C53" s="4">
-        <v>0.282</v>
+        <v>0.28199999999999997</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="54" ht="39.15" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="34.5" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>159</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C54" s="4">
-        <v>0.419</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="55" ht="19.95" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>329</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C55" s="4">
-        <v>0.369</v>
+        <v>0.36899999999999999</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="56" ht="19.95" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>471</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C56" s="4">
-        <v>0.428</v>
+        <v>0.42799999999999999</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="57" ht="19.95" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>391</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C57" s="4">
-        <v>0.271</v>
+        <v>0.27100000000000002</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="58" ht="19.95" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
         <v>407</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C58" s="7">
         <v>0.376</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="59" ht="19.95" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>297</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C59" s="4">
         <v>0.34</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="60" ht="19.95" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>146</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C60" s="4">
         <v>0.187</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="61" ht="19.95" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>295</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C61" s="4">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="62" ht="19.95" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
         <v>42</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C62" s="7">
         <v>0.372</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="63" ht="19.95" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>315</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C63" s="4">
-        <v>0.348</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="64" ht="19.95" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>411</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C64" s="4">
-        <v>0.333</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="65" ht="19.95" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A65" s="6">
         <v>269</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C65" s="7">
         <v>0.252</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="66" ht="19.95" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>239</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C66" s="4">
-        <v>0.336</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="67" ht="19.95" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>465</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C67" s="4">
         <v>0.378</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="68" ht="19.95" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A68" s="6">
         <v>128</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C68" s="7">
         <v>0.375</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="69" ht="39.15" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="34.5" x14ac:dyDescent="0.2">
       <c r="A69" s="6">
         <v>158</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C69" s="7">
         <v>0.245</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="70" ht="19.95" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A70" s="6">
         <v>23</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C70" s="7">
-        <v>0.277</v>
+        <v>0.27700000000000002</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="71" ht="19.95" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>10</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C71" s="4">
-        <v>0.243</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="72" ht="19.95" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A72" s="6">
         <v>212</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C72" s="7">
         <v>0.24</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="73" ht="19.95" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>4</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C73" s="4">
         <v>0.223</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="74" ht="19.95" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A74" s="6">
         <v>358</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C74" s="7">
         <v>0.317</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="75" ht="19.95" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A75" s="6">
         <v>587</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C75" s="7">
-        <v>0.326</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="76" ht="19.95" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>679</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C76" s="4">
-        <v>0.389</v>
+        <v>0.38900000000000001</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="77" ht="19.95" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A77" s="6">
         <v>140</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C77" s="7">
-        <v>0.239</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="78" ht="19.95" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A78" s="6">
         <v>224</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C78" s="7">
-        <v>0.278</v>
+        <v>0.27800000000000002</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="79" ht="19.95" spans="1:5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>327</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C79" s="4">
-        <v>0.301</v>
+        <v>0.30099999999999999</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E79" s="9"/>
     </row>
-    <row r="80" ht="19.95" spans="1:5">
+    <row r="80" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>57</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C80" s="4">
-        <v>0.283</v>
+        <v>0.28299999999999997</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E80" s="9"/>
     </row>
-    <row r="81" ht="19.95" spans="1:4">
+    <row r="81" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>336</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C81" s="4">
-        <v>0.266</v>
+        <v>0.26600000000000001</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="82" ht="19.95" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A82" s="6">
         <v>44</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C82" s="7">
-        <v>0.206</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="83" ht="19.95" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>460</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C83" s="4">
-        <v>0.244</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="84" ht="19.95" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A84" s="6">
         <v>363</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C84" s="7">
-        <v>0.334</v>
+        <v>0.33400000000000002</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="85" ht="19.95" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>354</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C85" s="4">
-        <v>0.323</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="86" ht="19.95" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A86" s="6">
         <v>272</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C86" s="7">
-        <v>0.394</v>
+        <v>0.39400000000000002</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="87" ht="19.95" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A87" s="6">
         <v>214</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C87" s="7">
         <v>0.247</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="88" ht="19.95" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>282</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C88" s="4">
-        <v>0.302</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="89" ht="19.95" spans="1:5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A89" s="6">
         <v>302</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C89" s="7">
-        <v>0.459</v>
+        <v>0.45900000000000002</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E89" s="5"/>
     </row>
-    <row r="90" ht="19.95" spans="1:4">
+    <row r="90" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A90" s="6">
         <v>321</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C90" s="7">
         <v>0.248</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="91" ht="19.95" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A91" s="6">
         <v>480</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C91" s="7">
         <v>0.311</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="92" ht="19.95" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A92" s="6">
         <v>483</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C92" s="7">
-        <v>0.334</v>
+        <v>0.33400000000000002</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="93" ht="19.95" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A93" s="6">
         <v>312</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C93" s="7">
         <v>0.432</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="94" ht="19.95" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A94" s="6">
         <v>493</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C94" s="7">
-        <v>0.206</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="95" ht="19.95" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>514</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C95" s="4">
-        <v>0.391</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="96" ht="19.95" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A96" s="6">
         <v>527</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C96" s="7">
-        <v>0.419</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="97" ht="19.95" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>316</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C97" s="4">
-        <v>0.299</v>
+        <v>0.29899999999999999</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="98" ht="19.95" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A98" s="6">
         <v>330</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C98" s="7">
-        <v>0.323</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="99" ht="19.95" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A99" s="6">
         <v>552</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C99" s="7">
         <v>0.313</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="100" ht="19.95" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A100" s="6">
         <v>569</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C100" s="7">
-        <v>0.342</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="101" ht="19.95" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A101" s="6">
         <v>644</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C101" s="7">
         <v>0.23</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="102" ht="19.95" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A102" s="6">
         <v>656</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C102" s="7">
         <v>0.251</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="103" ht="39.15" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A103" s="6">
         <v>668</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C103" s="7">
         <v>0.377</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="104" ht="19.95" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
         <v>685</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C104" s="4">
-        <v>0.284</v>
+        <v>0.28399999999999997</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="105" ht="39.15" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="A105" s="6">
         <v>689</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C105" s="7">
-        <v>0.413</v>
+        <v>0.41299999999999998</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="106" ht="19.95" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
         <v>719</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C106" s="4">
         <v>0.253</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="107" ht="19.95" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A107" s="6">
         <v>726</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C107" s="7">
-        <v>0.457</v>
+        <v>0.45700000000000002</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="108" ht="19.95" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
         <v>727</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C108" s="4">
-        <v>0.291</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="109" ht="19.95" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A109" s="6">
         <v>534</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C109" s="7">
         <v>0</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="110" ht="19.95" spans="1:5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
         <v>388</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C110" s="4">
         <v>0.371</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E110" s="9"/>
     </row>
-    <row r="111" ht="19.95" spans="1:6">
+    <row r="111" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
         <v>681</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C111" s="4">
-        <v>0.429</v>
+        <v>0.42899999999999999</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E111" s="5"/>
       <c r="F111" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="112" ht="19.95" spans="1:5">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
         <v>482</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C112" s="4">
-        <v>0.418</v>
+        <v>0.41799999999999998</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E112" s="9"/>
     </row>
-    <row r="113" ht="39.15" spans="1:4">
+    <row r="113" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A113" s="6">
         <v>298</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C113" s="7">
-        <v>0.414</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="114" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
         <v>418</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C114" s="4">
-        <v>0.278</v>
+        <v>0.27800000000000002</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="115" ht="19.95" spans="1:6">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A115" s="6">
         <v>281</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C115" s="7">
-        <v>0.514</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E115" s="5"/>
       <c r="F115" s="10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="116" ht="19.95" spans="1:5">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A116" s="6">
         <v>361</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C116" s="7">
-        <v>0.394</v>
+        <v>0.39400000000000002</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E116" s="9"/>
     </row>
-    <row r="117" ht="19.95" spans="1:5">
+    <row r="117" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
         <v>394</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C117" s="4">
-        <v>0.417</v>
+        <v>0.41699999999999998</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E117" s="9"/>
     </row>
-    <row r="118" ht="19.95" spans="1:5">
+    <row r="118" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A118" s="6">
         <v>393</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C118" s="7">
-        <v>0.347</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E118" s="9"/>
     </row>
-    <row r="119" ht="19.95" spans="1:6">
+    <row r="119" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A119" s="6">
         <v>163</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C119" s="7">
-        <v>0.238</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E119" s="9"/>
       <c r="F119" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="120" ht="19.95" spans="1:4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
         <v>351</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C120" s="4">
         <v>0.443</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="121" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
         <v>271</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C121" s="4">
-        <v>0.262</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="122" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A122" s="6">
         <v>289</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C122" s="7">
         <v>0.371</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="123" ht="19.95" spans="1:5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
         <v>288</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C123" s="4">
-        <v>0.173</v>
+        <v>0.17299999999999999</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E123" s="5"/>
     </row>
-    <row r="124" ht="19.95" spans="1:5">
+    <row r="124" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
         <v>200</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C124" s="4">
-        <v>0.356</v>
+        <v>0.35599999999999998</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E124" s="5"/>
     </row>
-    <row r="125" ht="19.95" spans="1:5">
+    <row r="125" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A125" s="6">
         <v>280</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C125" s="7">
-        <v>0.579</v>
+        <v>0.57899999999999996</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E125" s="9"/>
     </row>
-    <row r="126" ht="19.95" spans="1:5">
+    <row r="126" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
         <v>616</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C126" s="4">
-        <v>0.387</v>
+        <v>0.38700000000000001</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E126" s="8"/>
     </row>
-    <row r="127" ht="19.95" spans="1:4">
+    <row r="127" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A127" s="6">
         <v>259</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C127" s="7">
-        <v>0.417</v>
+        <v>0.41699999999999998</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="128" ht="19.95" spans="1:5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A128" s="6">
         <v>399</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C128" s="7">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E128" s="9"/>
     </row>
-    <row r="129" ht="19.95" spans="1:4">
+    <row r="129" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A129" s="6">
         <v>417</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C129" s="7">
-        <v>0.341</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="130" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
         <v>406</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C130" s="4">
-        <v>0.562</v>
+        <v>0.56200000000000006</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="131" ht="19.95" spans="1:5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A131" s="6">
         <v>279</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C131" s="7">
         <v>0.375</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E131" s="8"/>
     </row>
-    <row r="132" ht="19.95" spans="1:4">
+    <row r="132" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A132" s="6">
         <v>56</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C132" s="7">
         <v>0.31</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="133" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A133" s="6">
         <v>284</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C133" s="7">
-        <v>0.355</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="134" ht="19.95" spans="1:6">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
         <v>247</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C134" s="4">
-        <v>0.405</v>
+        <v>0.40500000000000003</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E134" s="5"/>
       <c r="F134" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="135" ht="39.15" spans="1:4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A135" s="6">
         <v>524</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C135" s="7">
         <v>0.433</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="136" ht="19.95" spans="1:6">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A136" s="6">
         <v>228</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C136" s="7">
         <v>0.308</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E136" s="9"/>
       <c r="F136" s="10" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="137" ht="19.95" spans="1:4">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A137" s="3">
         <v>286</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C137" s="4">
-        <v>0.448</v>
+        <v>0.44800000000000001</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="138" ht="19.95" spans="1:6">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A138" s="6">
         <v>362</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C138" s="7">
-        <v>0.544</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E138" s="9"/>
       <c r="F138" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="139" ht="19.95" spans="1:5">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A139" s="6">
         <v>294</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C139" s="7">
-        <v>0.466</v>
+        <v>0.46600000000000003</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E139" s="8"/>
     </row>
-    <row r="140" ht="19.95" spans="1:5">
+    <row r="140" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A140" s="6">
         <v>380</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C140" s="7">
-        <v>0.394</v>
+        <v>0.39400000000000002</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E140" s="9"/>
     </row>
-    <row r="141" ht="19.95" spans="1:5">
+    <row r="141" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A141" s="6">
         <v>249</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C141" s="7">
-        <v>0.427</v>
+        <v>0.42699999999999999</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E141" s="9"/>
     </row>
-    <row r="142" ht="19.95" spans="1:5">
+    <row r="142" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A142" s="3">
         <v>320</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C142" s="4">
-        <v>0.455</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E142" s="9"/>
     </row>
-    <row r="143" ht="19.95" spans="1:4">
+    <row r="143" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A143" s="6">
         <v>505</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C143" s="7">
-        <v>0.382</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="144" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A144" s="3">
         <v>341</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C144" s="4">
-        <v>0.422</v>
+        <v>0.42199999999999999</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="145" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A145" s="6">
         <v>360</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C145" s="7">
-        <v>0.445</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="146" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A146" s="6">
         <v>274</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>157</v>
+        <v>234</v>
       </c>
       <c r="C146" s="7">
-        <v>0.335</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="147" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A147" s="3">
         <v>253</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="C147" s="4">
-        <v>0.393</v>
+        <v>0.39300000000000002</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="148" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A148" s="6">
         <v>139</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C148" s="7">
         <v>0.308</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="149" ht="19.95" spans="1:5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A149" s="3">
         <v>230</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C149" s="4">
-        <v>0.445</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E149" s="5"/>
     </row>
-    <row r="150" ht="19.95" spans="1:5">
+    <row r="150" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A150" s="6">
         <v>162</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C150" s="7">
-        <v>0.381</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E150" s="8"/>
     </row>
-    <row r="151" ht="19.95" spans="1:4">
+    <row r="151" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A151" s="3">
         <v>498</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C151" s="4">
-        <v>0.461</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="152" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A152" s="3">
         <v>490</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C152" s="4">
         <v>0.432</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="153" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A153" s="6">
         <v>318</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C153" s="7">
-        <v>0.449</v>
+        <v>0.44900000000000001</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="154" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A154" s="3">
         <v>240</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C154" s="4">
-        <v>0.388</v>
+        <v>0.38800000000000001</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="155" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A155" s="6">
         <v>373</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C155" s="7">
         <v>0.309</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="156" ht="19.95" spans="1:5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A156" s="6">
         <v>369</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C156" s="7">
-        <v>0.548</v>
+        <v>0.54800000000000004</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E156" s="9"/>
     </row>
-    <row r="157" ht="19.95" spans="1:6">
+    <row r="157" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A157" s="6">
         <v>251</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C157" s="7">
-        <v>0.409</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F157" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="158" ht="19.95" spans="1:4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A158" s="3">
         <v>332</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C158" s="4">
-        <v>0.294</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="159" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A159" s="6">
         <v>173</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C159" s="7">
-        <v>0.424</v>
+        <v>0.42399999999999999</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="160" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A160" s="3">
         <v>54</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C160" s="4">
-        <v>0.266</v>
+        <v>0.26600000000000001</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="161" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A161" s="3">
         <v>324</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C161" s="4">
-        <v>0.262</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="162" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A162" s="6">
         <v>17</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C162" s="7">
-        <v>0.354</v>
+        <v>0.35399999999999998</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="163" ht="19.95" spans="1:5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A163" s="3">
         <v>484</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C163" s="4">
-        <v>0.551</v>
+        <v>0.55100000000000005</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E163" s="9"/>
     </row>
-    <row r="164" ht="19.95" spans="1:4">
+    <row r="164" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A164" s="6">
         <v>562</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C164" s="7">
-        <v>0.409</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="165" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A165" s="3">
         <v>166</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C165" s="4">
-        <v>0.178</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="166" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A166" s="6">
         <v>22</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C166" s="7">
-        <v>0.463</v>
+        <v>0.46300000000000002</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="167" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A167" s="3">
         <v>31</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C167" s="4">
-        <v>0.288</v>
+        <v>0.28799999999999998</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="168" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A168" s="6">
         <v>676</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C168" s="7">
         <v>0.5</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="169" ht="39.15" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A169" s="6">
         <v>421</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C169" s="7">
-        <v>0.469</v>
+        <v>0.46899999999999997</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="170" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A170" s="6">
         <v>503</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C170" s="7">
-        <v>0.473</v>
+        <v>0.47299999999999998</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="171" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A171" s="6">
         <v>684</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C171" s="7">
-        <v>0.392</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="172" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A172" s="3">
         <v>133</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C172" s="4">
         <v>0.251</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="173" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A173" s="3">
         <v>50</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="C173" s="4">
         <v>0.26</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="174" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A174" s="3">
         <v>208</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C174" s="4">
-        <v>0.295</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="175" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A175" s="6">
         <v>348</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C175" s="7">
-        <v>0.458</v>
+        <v>0.45800000000000002</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="176" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A176" s="3">
         <v>652</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C176" s="4">
-        <v>0.358</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="177" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A177" s="6">
         <v>444</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C177" s="7">
-        <v>0.196</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="178" ht="39.15" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="34.5" x14ac:dyDescent="0.2">
       <c r="A178" s="3">
         <v>309</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C178" s="4">
-        <v>0.413</v>
+        <v>0.41299999999999998</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="179" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A179" s="3">
         <v>382</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="C179" s="4">
-        <v>0.471</v>
+        <v>0.47099999999999997</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="180" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A180" s="6">
         <v>402</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C180" s="7">
         <v>0.26</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="181" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A181" s="3">
         <v>370</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C181" s="4">
-        <v>0.565</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="182" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A182" s="6">
         <v>377</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C182" s="7">
-        <v>0.424</v>
+        <v>0.42399999999999999</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="183" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A183" s="3">
         <v>379</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C183" s="4">
-        <v>0.341</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="184" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A184" s="6">
         <v>353</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C184" s="7">
-        <v>0.268</v>
+        <v>0.26800000000000002</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="185" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A185" s="3">
         <v>375</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="C185" s="4">
-        <v>0.359</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="186" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A186" s="3">
         <v>356</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C186" s="4">
-        <v>0.301</v>
+        <v>0.30099999999999999</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="187" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A187" s="6">
         <v>261</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="C187" s="7">
-        <v>0.381</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="188" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A188" s="3">
         <v>486</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C188" s="4">
-        <v>0.451</v>
+        <v>0.45100000000000001</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="189" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A189" s="6">
         <v>542</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C189" s="7">
         <v>0.33</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="190" ht="19.95" spans="1:5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A190" s="3">
         <v>397</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="C190" s="4">
-        <v>0.302</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E190" s="8"/>
     </row>
-    <row r="191" ht="19.95" spans="1:4">
+    <row r="191" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A191" s="6">
         <v>368</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C191" s="7">
-        <v>0.337</v>
+        <v>0.33700000000000002</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="192" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A192" s="3">
         <v>378</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C192" s="4">
-        <v>0.452</v>
+        <v>0.45200000000000001</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="193" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A193" s="3">
         <v>313</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="C193" s="4">
         <v>0.38</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="194" ht="39.15" spans="1:5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A194" s="6">
         <v>331</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="C194" s="7">
-        <v>0.366</v>
+        <v>0.36599999999999999</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E194" s="8"/>
     </row>
-    <row r="195" ht="39.15" spans="1:4">
+    <row r="195" spans="1:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="A195" s="3">
         <v>323</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="C195" s="4">
-        <v>0.483</v>
+        <v>0.48299999999999998</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="196" ht="19.95" spans="1:5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A196" s="6">
         <v>451</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="C196" s="7">
-        <v>0.511</v>
+        <v>0.51100000000000001</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E196" s="5"/>
     </row>
-    <row r="197" ht="19.95" spans="1:4">
+    <row r="197" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A197" s="3">
         <v>310</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="C197" s="4">
-        <v>0.289</v>
+        <v>0.28899999999999998</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="198" ht="19.95" spans="1:5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A198" s="3">
         <v>729</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="C198" s="4">
-        <v>0.361</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E198" s="5"/>
     </row>
-    <row r="199" ht="19.95" spans="1:4">
+    <row r="199" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A199" s="6">
         <v>469</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="C199" s="7">
-        <v>0.334</v>
+        <v>0.33400000000000002</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="200" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A200" s="3">
         <v>474</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C200" s="4">
-        <v>0.391</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="201" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A201" s="3">
         <v>481</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C201" s="4">
-        <v>0.456</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="202" ht="19.95" spans="1:5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A202" s="3">
         <v>314</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C202" s="4">
         <v>0.373</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E202" s="5"/>
     </row>
-    <row r="203" ht="19.95" spans="1:4">
+    <row r="203" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A203" s="6">
         <v>357</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="C203" s="7">
-        <v>0.461</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="204" ht="19.95" spans="1:6">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A204" s="3">
         <v>487</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C204" s="4">
-        <v>0.456</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E204" s="9"/>
       <c r="F204" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="205" ht="19.95" spans="1:5">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A205" s="3">
         <v>494</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C205" s="4">
         <v>0.436</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E205" s="9"/>
     </row>
-    <row r="206" ht="19.95" spans="1:5">
+    <row r="206" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A206" s="6">
         <v>522</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C206" s="7">
         <v>0.318</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E206" s="9"/>
     </row>
-    <row r="207" ht="19.95" spans="1:5">
+    <row r="207" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A207" s="3">
         <v>526</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C207" s="4">
-        <v>0.542</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E207" s="5"/>
     </row>
-    <row r="208" ht="19.95" spans="1:4">
+    <row r="208" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A208" s="6">
         <v>531</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="C208" s="7">
-        <v>0.556</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="209" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A209" s="3">
         <v>533</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C209" s="4">
-        <v>0.446</v>
+        <v>0.44600000000000001</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="210" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A210" s="6">
         <v>535</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="C210" s="7">
-        <v>0.742</v>
+        <v>0.74199999999999999</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="211" ht="19.95" spans="1:5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A211" s="3">
         <v>544</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="C211" s="4">
-        <v>0.709</v>
+        <v>0.70899999999999996</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E211" s="5"/>
     </row>
-    <row r="212" ht="19.95" spans="1:5">
+    <row r="212" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A212" s="6">
         <v>545</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="C212" s="7">
-        <v>0.319</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="D212" s="6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E212" s="9"/>
     </row>
-    <row r="213" ht="39.15" spans="1:4">
+    <row r="213" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A213" s="3">
         <v>549</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="C213" s="4">
-        <v>0.419</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="214" ht="19.95" spans="1:5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A214" s="3">
         <v>560</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="C214" s="4">
-        <v>0.404</v>
+        <v>0.40400000000000003</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E214" s="9"/>
     </row>
-    <row r="215" ht="19.95" spans="1:4">
+    <row r="215" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A215" s="6">
         <v>583</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="C215" s="7">
         <v>0.442</v>
       </c>
       <c r="D215" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="216" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A216" s="6">
         <v>638</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="C216" s="7">
         <v>0.434</v>
       </c>
       <c r="D216" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="217" ht="19.95" spans="1:5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A217" s="3">
         <v>651</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C217" s="4">
-        <v>0.488</v>
+        <v>0.48799999999999999</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E217" s="9"/>
     </row>
-    <row r="218" ht="19.95" spans="1:5">
+    <row r="218" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A218" s="6">
         <v>658</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="C218" s="7">
-        <v>0.353</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E218" s="9"/>
     </row>
-    <row r="219" ht="39.15" spans="1:4">
+    <row r="219" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A219" s="3">
         <v>659</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="C219" s="4">
-        <v>0.357</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="220" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A220" s="3">
         <v>667</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="C220" s="4">
-        <v>0.515</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="221" ht="19.95" spans="1:5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A221" s="6">
         <v>731</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C221" s="7">
         <v>0.316</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E221" s="5"/>
     </row>
@@ -4920,13 +4384,13 @@
   <sortState ref="A3:D221">
     <sortCondition ref="D10"/>
   </sortState>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F111" r:id="rId1" display="https://www.youtube.com/embed/IAet94C1FCc?feature=oembed"/>
-    <hyperlink ref="F136" r:id="rId2" display="http://www.cnblogs.com/grandyang/p/4603555.html"/>
-    <hyperlink ref="F115" r:id="rId3" display="http://www.cnblogs.com/grandyang/p/5212785.html"/>
+    <hyperlink ref="F111" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F136" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F115" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/google_ranked.xlsx
+++ b/google_ranked.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\leet\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F875B343-36BF-4E23-ABDF-F5260DB3E7BD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22365" windowHeight="9930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22368" windowHeight="9935"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235">
   <si>
     <t>Google</t>
   </si>
@@ -64,6 +58,9 @@
     <t>Binary Watch</t>
   </si>
   <si>
+    <t>Island Perimeter</t>
+  </si>
+  <si>
     <t>Palindrome Permutation</t>
   </si>
   <si>
@@ -85,15 +82,27 @@
     <t>Closest Binary Search Tree Value</t>
   </si>
   <si>
+    <t>Nth Digit</t>
+  </si>
+  <si>
+    <t>Valid Word Square</t>
+  </si>
+  <si>
     <t>Min Stack</t>
   </si>
   <si>
     <t>Longest Palindrome</t>
   </si>
   <si>
+    <t>Diameter of Binary Tree</t>
+  </si>
+  <si>
     <t>Power of Two</t>
   </si>
   <si>
+    <t>Find Mode in Binary Search Tree</t>
+  </si>
+  <si>
     <t>Heaters</t>
   </si>
   <si>
@@ -109,9 +118,18 @@
     <t>Minimum Absolute Difference in BST</t>
   </si>
   <si>
+    <t>Guess Number Higher or Lower</t>
+  </si>
+  <si>
+    <t>Find All Numbers Disappeared in an Array</t>
+  </si>
+  <si>
     <t>Power of Three</t>
   </si>
   <si>
+    <t>Binary Tree Paths</t>
+  </si>
+  <si>
     <t>Detect Capital</t>
   </si>
   <si>
@@ -469,6 +487,9 @@
     <t>Sort Transformed Array</t>
   </si>
   <si>
+    <t>H-Index</t>
+  </si>
+  <si>
     <t>Meeting Rooms II</t>
   </si>
   <si>
@@ -698,49 +719,19 @@
   </si>
   <si>
     <t>My Calendar II</t>
-  </si>
-  <si>
-    <t>Island Perimeter</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nth Digit</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Valid Word Square</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Diameter of Binary Tree</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Find Mode in Binary Search Tree</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Guess Number Higher or Lower</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Find All Numbers Disappeared in an Array</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Binary Tree Paths</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>H-Index</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -752,13 +743,13 @@
       <sz val="22"/>
       <color rgb="FF24292E"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF24292E"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -790,13 +781,122 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -833,8 +933,176 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -866,17 +1134,247 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -894,32 +1392,72 @@
     <xf numFmtId="10" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="31" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="4" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="7" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="32" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10"/>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="差" xfId="1" builtinId="27"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
-    <cellStyle name="好" xfId="3" builtinId="26"/>
-    <cellStyle name="适中" xfId="4" builtinId="28"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1177,33 +1715,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F221"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B146" sqref="B146"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="39.875" customWidth="1"/>
+    <col min="1" max="1" width="39.8796296296296" customWidth="1"/>
     <col min="2" max="2" width="41.75" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
-    <col min="4" max="4" width="29.625" customWidth="1"/>
-    <col min="6" max="6" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="29.6296296296296" customWidth="1"/>
+    <col min="6" max="6" width="17.3796296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33" x14ac:dyDescent="0.2">
+    <row r="1" ht="33.15" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="2" ht="19.95" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1217,7 +1755,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="3" ht="19.95" spans="1:5">
       <c r="A3" s="3">
         <v>346</v>
       </c>
@@ -1225,14 +1763,14 @@
         <v>5</v>
       </c>
       <c r="C3" s="4">
-        <v>0.59499999999999997</v>
+        <v>0.595</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="4" ht="19.95" spans="1:5">
       <c r="A4" s="3">
         <v>66</v>
       </c>
@@ -1240,14 +1778,14 @@
         <v>7</v>
       </c>
       <c r="C4" s="4">
-        <v>0.39100000000000001</v>
+        <v>0.391</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="5" ht="19.95" spans="1:5">
       <c r="A5" s="6">
         <v>686</v>
       </c>
@@ -1255,14 +1793,14 @@
         <v>8</v>
       </c>
       <c r="C5" s="7">
-        <v>0.32900000000000001</v>
+        <v>0.329</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="6" ht="19.95" spans="1:5">
       <c r="A6" s="6">
         <v>246</v>
       </c>
@@ -1277,7 +1815,7 @@
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="7" ht="19.95" spans="1:5">
       <c r="A7" s="3">
         <v>345</v>
       </c>
@@ -1285,14 +1823,14 @@
         <v>10</v>
       </c>
       <c r="C7" s="4">
-        <v>0.38700000000000001</v>
+        <v>0.387</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="8" ht="19.95" spans="1:4">
       <c r="A8" s="3">
         <v>687</v>
       </c>
@@ -1300,13 +1838,13 @@
         <v>11</v>
       </c>
       <c r="C8" s="4">
-        <v>0.33300000000000002</v>
+        <v>0.333</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="9" ht="19.95" spans="1:5">
       <c r="A9" s="3">
         <v>276</v>
       </c>
@@ -1314,14 +1852,14 @@
         <v>12</v>
       </c>
       <c r="C9" s="4">
-        <v>0.34699999999999998</v>
+        <v>0.347</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="10" ht="19.95" spans="1:5">
       <c r="A10" s="6">
         <v>401</v>
       </c>
@@ -1329,48 +1867,48 @@
         <v>13</v>
       </c>
       <c r="C10" s="7">
-        <v>0.44900000000000001</v>
+        <v>0.449</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="11" ht="19.95" spans="1:4">
       <c r="A11" s="3">
         <v>463</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>226</v>
+        <v>14</v>
       </c>
       <c r="C11" s="4">
-        <v>0.57499999999999996</v>
+        <v>0.575</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="12" ht="19.95" spans="1:5">
       <c r="A12" s="6">
         <v>266</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" s="7">
-        <v>0.57499999999999996</v>
+        <v>0.575</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="13" ht="19.95" spans="1:5">
       <c r="A13" s="6">
         <v>389</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
         <v>0.51</v>
@@ -1380,173 +1918,174 @@
       </c>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="14" ht="19.95" spans="1:5">
       <c r="A14" s="3">
         <v>20</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14" s="4">
-        <v>0.33700000000000002</v>
+        <v>0.337</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="15" ht="19.95" spans="1:5">
       <c r="A15" s="3">
         <v>293</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" s="4">
-        <v>0.56499999999999995</v>
+        <v>0.565</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="16" ht="19.95" spans="1:5">
       <c r="A16" s="3">
         <v>415</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" s="4">
-        <v>0.41499999999999998</v>
+        <v>0.415</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="17" ht="19.95" spans="1:5">
       <c r="A17" s="6">
         <v>359</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>0.60099999999999998</v>
+        <v>0.601</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="18" ht="19.95" spans="1:5">
       <c r="A18" s="3">
         <v>270</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18" s="4">
-        <v>0.40100000000000002</v>
+        <v>0.401</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="19" ht="19.95" spans="1:5">
       <c r="A19" s="6">
         <v>400</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>227</v>
+        <v>22</v>
       </c>
       <c r="C19" s="7">
-        <v>0.30099999999999999</v>
+        <v>0.301</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="20" ht="19.95" spans="1:4">
       <c r="A20" s="3">
         <v>422</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>228</v>
+        <v>23</v>
       </c>
       <c r="C20" s="4">
-        <v>0.36399999999999999</v>
+        <v>0.364</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="21" ht="19.95" spans="1:4">
       <c r="A21" s="3">
         <v>155</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C21" s="4">
-        <v>0.29699999999999999</v>
+        <v>0.297</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="22" ht="19.95" spans="1:5">
       <c r="A22" s="3">
         <v>409</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C22" s="4">
-        <v>0.45500000000000002</v>
+        <v>0.455</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="23" ht="19.95" spans="1:5">
       <c r="A23" s="6">
         <v>543</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>229</v>
+        <v>26</v>
       </c>
       <c r="C23" s="7">
-        <v>0.44700000000000001</v>
+        <v>0.447</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" ht="19.95" spans="1:4">
       <c r="A24" s="6">
         <v>231</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C24" s="7">
-        <v>0.40400000000000003</v>
+        <v>0.404</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="25" ht="19.95" spans="1:4">
       <c r="A25" s="6">
         <v>501</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>230</v>
+        <v>28</v>
       </c>
       <c r="C25" s="7">
         <v>0.377</v>
@@ -1555,27 +2094,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="26" ht="19.95" spans="1:5">
       <c r="A26" s="3">
         <v>475</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C26" s="4">
-        <v>0.29599999999999999</v>
+        <v>0.296</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="27" ht="19.95" spans="1:5">
       <c r="A27" s="3">
         <v>551</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C27" s="4">
         <v>0.441</v>
@@ -1585,130 +2124,130 @@
       </c>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="28" ht="19.95" spans="1:5">
       <c r="A28" s="6">
         <v>459</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C28" s="7">
-        <v>0.38200000000000001</v>
+        <v>0.382</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E28" s="9"/>
     </row>
-    <row r="29" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="29" ht="19.95" spans="1:5">
       <c r="A29" s="3">
         <v>408</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C29" s="4">
-        <v>0.28199999999999997</v>
+        <v>0.282</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="30" ht="19.95" spans="1:5">
       <c r="A30" s="6">
         <v>530</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C30" s="7">
-        <v>0.47099999999999997</v>
+        <v>0.471</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E30" s="5"/>
     </row>
-    <row r="31" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="31" ht="19.95" spans="1:5">
       <c r="A31" s="3">
         <v>374</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>231</v>
+        <v>34</v>
       </c>
       <c r="C31" s="4">
-        <v>0.35899999999999999</v>
+        <v>0.359</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E31" s="5"/>
     </row>
-    <row r="32" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="32" ht="39.15" spans="1:5">
       <c r="A32" s="6">
         <v>448</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>232</v>
+        <v>35</v>
       </c>
       <c r="C32" s="7">
-        <v>0.51200000000000001</v>
+        <v>0.512</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E32" s="5"/>
     </row>
-    <row r="33" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="33" ht="19.95" spans="1:4">
       <c r="A33" s="6">
         <v>326</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C33" s="7">
-        <v>0.40400000000000003</v>
+        <v>0.404</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="34" ht="19.95" spans="1:4">
       <c r="A34" s="3">
         <v>257</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>233</v>
+        <v>37</v>
       </c>
       <c r="C34" s="4">
-        <v>0.39700000000000002</v>
+        <v>0.397</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="35" ht="19.95" spans="1:5">
       <c r="A35" s="6">
         <v>520</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C35" s="7">
-        <v>0.51900000000000002</v>
+        <v>0.519</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E35" s="5"/>
     </row>
-    <row r="36" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="36" ht="19.95" spans="1:5">
       <c r="A36" s="3">
         <v>485</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C36" s="4">
         <v>0.54</v>
@@ -1718,54 +2257,54 @@
       </c>
       <c r="E36" s="5"/>
     </row>
-    <row r="37" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="37" ht="19.95" spans="1:4">
       <c r="A37" s="6">
         <v>506</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>0.46600000000000003</v>
+        <v>0.466</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="38" ht="19.95" spans="1:4">
       <c r="A38" s="6">
         <v>447</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C38" s="7">
-        <v>0.45700000000000002</v>
+        <v>0.457</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="39" ht="19.95" spans="1:4">
       <c r="A39" s="3">
         <v>521</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C39" s="4">
-        <v>0.55900000000000005</v>
+        <v>0.559</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="40" ht="19.95" spans="1:4">
       <c r="A40" s="3">
         <v>541</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C40" s="4">
         <v>0.437</v>
@@ -1774,41 +2313,41 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="41" ht="19.95" spans="1:5">
       <c r="A41" s="3">
         <v>581</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C41" s="4">
-        <v>0.29299999999999998</v>
+        <v>0.293</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E41" s="5"/>
     </row>
-    <row r="42" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="42" ht="19.95" spans="1:4">
       <c r="A42" s="3">
         <v>604</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C42" s="4">
-        <v>0.32500000000000001</v>
+        <v>0.325</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="43" ht="19.95" spans="1:5">
       <c r="A43" s="3">
         <v>643</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C43" s="4">
         <v>0.378</v>
@@ -1818,2565 +2357,2565 @@
       </c>
       <c r="E43" s="5"/>
     </row>
-    <row r="44" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="44" ht="19.95" spans="1:5">
       <c r="A44" s="3">
         <v>657</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C44" s="4">
-        <v>0.68600000000000005</v>
+        <v>0.686</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E44" s="5"/>
     </row>
-    <row r="45" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="45" ht="19.95" spans="1:5">
       <c r="A45" s="6">
         <v>665</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C45" s="7">
-        <v>0.21099999999999999</v>
+        <v>0.211</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E45" s="5"/>
     </row>
-    <row r="46" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="46" ht="19.95" spans="1:4">
       <c r="A46" s="6">
         <v>683</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C46" s="7">
-        <v>0.36599999999999999</v>
+        <v>0.366</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="34.5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" ht="39.15" spans="1:4">
       <c r="A47" s="6">
         <v>340</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C47" s="7">
-        <v>0.39200000000000002</v>
+        <v>0.392</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" ht="19.95" spans="1:5">
       <c r="A48" s="6">
         <v>308</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C48" s="7">
-        <v>0.24099999999999999</v>
+        <v>0.241</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E48" s="9"/>
     </row>
-    <row r="49" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="49" ht="19.95" spans="1:4">
       <c r="A49" s="3">
         <v>425</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C49" s="4">
         <v>0.435</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" ht="19.95" spans="1:4">
       <c r="A50" s="3">
         <v>568</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C50" s="4">
-        <v>0.39100000000000001</v>
+        <v>0.391</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" ht="19.95" spans="1:4">
       <c r="A51" s="6">
         <v>317</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C51" s="7">
-        <v>0.34399999999999997</v>
+        <v>0.344</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" ht="19.95" spans="1:4">
       <c r="A52" s="6">
         <v>305</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C52" s="7">
-        <v>0.39300000000000002</v>
+        <v>0.393</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" ht="19.95" spans="1:4">
       <c r="A53" s="3">
         <v>218</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C53" s="4">
-        <v>0.28199999999999997</v>
+        <v>0.282</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="34.5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" ht="39.15" spans="1:4">
       <c r="A54" s="3">
         <v>159</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C54" s="4">
-        <v>0.41899999999999998</v>
+        <v>0.419</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" ht="19.95" spans="1:4">
       <c r="A55" s="3">
         <v>329</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C55" s="4">
-        <v>0.36899999999999999</v>
+        <v>0.369</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" ht="19.95" spans="1:4">
       <c r="A56" s="3">
         <v>471</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C56" s="4">
-        <v>0.42799999999999999</v>
+        <v>0.428</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" ht="19.95" spans="1:4">
       <c r="A57" s="3">
         <v>391</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C57" s="4">
-        <v>0.27100000000000002</v>
+        <v>0.271</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" ht="19.95" spans="1:4">
       <c r="A58" s="6">
         <v>407</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C58" s="7">
         <v>0.376</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" ht="19.95" spans="1:4">
       <c r="A59" s="3">
         <v>297</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C59" s="4">
         <v>0.34</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" ht="19.95" spans="1:4">
       <c r="A60" s="3">
         <v>146</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C60" s="4">
         <v>0.187</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" ht="19.95" spans="1:4">
       <c r="A61" s="3">
         <v>295</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C61" s="4">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" ht="19.95" spans="1:4">
       <c r="A62" s="6">
         <v>42</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C62" s="7">
         <v>0.372</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" ht="19.95" spans="1:4">
       <c r="A63" s="3">
         <v>315</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C63" s="4">
-        <v>0.34799999999999998</v>
+        <v>0.348</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" ht="19.95" spans="1:4">
       <c r="A64" s="3">
         <v>411</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C64" s="4">
-        <v>0.33300000000000002</v>
+        <v>0.333</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" ht="19.95" spans="1:4">
       <c r="A65" s="6">
         <v>269</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C65" s="7">
         <v>0.252</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" ht="19.95" spans="1:4">
       <c r="A66" s="3">
         <v>239</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C66" s="4">
-        <v>0.33600000000000002</v>
+        <v>0.336</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" ht="19.95" spans="1:4">
       <c r="A67" s="3">
         <v>465</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C67" s="4">
         <v>0.378</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" ht="19.95" spans="1:4">
       <c r="A68" s="6">
         <v>128</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C68" s="7">
         <v>0.375</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="34.5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" ht="39.15" spans="1:4">
       <c r="A69" s="6">
         <v>158</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C69" s="7">
         <v>0.245</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" ht="19.95" spans="1:4">
       <c r="A70" s="6">
         <v>23</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C70" s="7">
-        <v>0.27700000000000002</v>
+        <v>0.277</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" ht="19.95" spans="1:4">
       <c r="A71" s="3">
         <v>10</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C71" s="4">
-        <v>0.24299999999999999</v>
+        <v>0.243</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" ht="19.95" spans="1:4">
       <c r="A72" s="6">
         <v>212</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C72" s="7">
         <v>0.24</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" ht="19.95" spans="1:4">
       <c r="A73" s="3">
         <v>4</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C73" s="4">
         <v>0.223</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" ht="19.95" spans="1:4">
       <c r="A74" s="6">
         <v>358</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C74" s="7">
         <v>0.317</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" ht="19.95" spans="1:4">
       <c r="A75" s="6">
         <v>587</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C75" s="7">
-        <v>0.32600000000000001</v>
+        <v>0.326</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" ht="19.95" spans="1:4">
       <c r="A76" s="3">
         <v>679</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C76" s="4">
-        <v>0.38900000000000001</v>
+        <v>0.389</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77" ht="19.95" spans="1:4">
       <c r="A77" s="6">
         <v>140</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C77" s="7">
-        <v>0.23899999999999999</v>
+        <v>0.239</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78" ht="19.95" spans="1:4">
       <c r="A78" s="6">
         <v>224</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C78" s="7">
-        <v>0.27800000000000002</v>
+        <v>0.278</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" ht="19.95" spans="1:5">
       <c r="A79" s="3">
         <v>327</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C79" s="4">
-        <v>0.30099999999999999</v>
+        <v>0.301</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E79" s="9"/>
     </row>
-    <row r="80" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="80" ht="19.95" spans="1:5">
       <c r="A80" s="3">
         <v>57</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C80" s="4">
-        <v>0.28299999999999997</v>
+        <v>0.283</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E80" s="9"/>
     </row>
-    <row r="81" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="81" ht="19.95" spans="1:4">
       <c r="A81" s="3">
         <v>336</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C81" s="4">
-        <v>0.26600000000000001</v>
+        <v>0.266</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82" ht="19.95" spans="1:4">
       <c r="A82" s="6">
         <v>44</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C82" s="7">
-        <v>0.20599999999999999</v>
+        <v>0.206</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" ht="19.95" spans="1:4">
       <c r="A83" s="3">
         <v>460</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C83" s="4">
-        <v>0.24399999999999999</v>
+        <v>0.244</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" ht="39.15" spans="1:4">
       <c r="A84" s="6">
         <v>363</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C84" s="7">
-        <v>0.33400000000000002</v>
+        <v>0.334</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="85" ht="19.95" spans="1:4">
       <c r="A85" s="3">
         <v>354</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C85" s="4">
-        <v>0.32300000000000001</v>
+        <v>0.323</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="86" ht="19.95" spans="1:4">
       <c r="A86" s="6">
         <v>272</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C86" s="7">
-        <v>0.39400000000000002</v>
+        <v>0.394</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="87" ht="19.95" spans="1:4">
       <c r="A87" s="6">
         <v>214</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C87" s="7">
         <v>0.247</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" ht="19.95" spans="1:4">
       <c r="A88" s="3">
         <v>282</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C88" s="4">
-        <v>0.30199999999999999</v>
+        <v>0.302</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="89" ht="39.15" spans="1:5">
       <c r="A89" s="6">
         <v>302</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C89" s="7">
-        <v>0.45900000000000002</v>
+        <v>0.459</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E89" s="5"/>
     </row>
-    <row r="90" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="90" ht="19.95" spans="1:4">
       <c r="A90" s="6">
         <v>321</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C90" s="7">
         <v>0.248</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="91" ht="19.95" spans="1:4">
       <c r="A91" s="6">
         <v>480</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C91" s="7">
         <v>0.311</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="92" ht="19.95" spans="1:4">
       <c r="A92" s="6">
         <v>483</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C92" s="7">
-        <v>0.33400000000000002</v>
+        <v>0.334</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="93" ht="19.95" spans="1:4">
       <c r="A93" s="6">
         <v>312</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C93" s="7">
         <v>0.432</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="94" ht="19.95" spans="1:4">
       <c r="A94" s="6">
         <v>493</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C94" s="7">
-        <v>0.20599999999999999</v>
+        <v>0.206</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="95" ht="19.95" spans="1:4">
       <c r="A95" s="3">
         <v>514</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C95" s="4">
-        <v>0.39100000000000001</v>
+        <v>0.391</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="96" ht="19.95" spans="1:4">
       <c r="A96" s="6">
         <v>527</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C96" s="7">
-        <v>0.41899999999999998</v>
+        <v>0.419</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="97" ht="19.95" spans="1:4">
       <c r="A97" s="3">
         <v>316</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C97" s="4">
-        <v>0.29899999999999999</v>
+        <v>0.299</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="98" ht="19.95" spans="1:4">
       <c r="A98" s="6">
         <v>330</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C98" s="7">
-        <v>0.32300000000000001</v>
+        <v>0.323</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="99" ht="19.95" spans="1:4">
       <c r="A99" s="6">
         <v>552</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C99" s="7">
         <v>0.313</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="100" ht="19.95" spans="1:4">
       <c r="A100" s="6">
         <v>569</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C100" s="7">
-        <v>0.34200000000000003</v>
+        <v>0.342</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="101" ht="19.95" spans="1:4">
       <c r="A101" s="6">
         <v>644</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C101" s="7">
         <v>0.23</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="102" ht="19.95" spans="1:4">
       <c r="A102" s="6">
         <v>656</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C102" s="7">
         <v>0.251</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="103" ht="39.15" spans="1:4">
       <c r="A103" s="6">
         <v>668</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C103" s="7">
         <v>0.377</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="104" ht="19.95" spans="1:4">
       <c r="A104" s="3">
         <v>685</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C104" s="4">
-        <v>0.28399999999999997</v>
+        <v>0.284</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="34.5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="105" ht="39.15" spans="1:4">
       <c r="A105" s="6">
         <v>689</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C105" s="7">
-        <v>0.41299999999999998</v>
+        <v>0.413</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="106" ht="19.95" spans="1:4">
       <c r="A106" s="3">
         <v>719</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C106" s="4">
         <v>0.253</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="107" ht="19.95" spans="1:4">
       <c r="A107" s="6">
         <v>726</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C107" s="7">
-        <v>0.45700000000000002</v>
+        <v>0.457</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="108" ht="19.95" spans="1:4">
       <c r="A108" s="3">
         <v>727</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C108" s="4">
-        <v>0.29099999999999998</v>
+        <v>0.291</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="109" ht="19.95" spans="1:4">
       <c r="A109" s="6">
         <v>534</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C109" s="7">
         <v>0</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="110" ht="19.95" spans="1:5">
       <c r="A110" s="3">
         <v>388</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="C110" s="4">
         <v>0.371</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E110" s="9"/>
     </row>
-    <row r="111" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="111" ht="19.95" spans="1:6">
       <c r="A111" s="3">
         <v>681</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C111" s="4">
-        <v>0.42899999999999999</v>
+        <v>0.429</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E111" s="5"/>
       <c r="F111" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="112" ht="19.95" spans="1:5">
       <c r="A112" s="3">
         <v>482</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C112" s="4">
-        <v>0.41799999999999998</v>
+        <v>0.418</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E112" s="9"/>
     </row>
-    <row r="113" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="113" ht="39.15" spans="1:4">
       <c r="A113" s="6">
         <v>298</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C113" s="7">
-        <v>0.41399999999999998</v>
+        <v>0.414</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="114" ht="19.95" spans="1:4">
       <c r="A114" s="3">
         <v>418</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C114" s="4">
-        <v>0.27800000000000002</v>
+        <v>0.278</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="115" ht="19.95" spans="1:6">
       <c r="A115" s="6">
         <v>281</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="C115" s="7">
-        <v>0.51400000000000001</v>
+        <v>0.514</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E115" s="5"/>
       <c r="F115" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="116" ht="19.95" spans="1:5">
       <c r="A116" s="6">
         <v>361</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C116" s="7">
-        <v>0.39400000000000002</v>
+        <v>0.394</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E116" s="9"/>
     </row>
-    <row r="117" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="117" ht="19.95" spans="1:5">
       <c r="A117" s="3">
         <v>394</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C117" s="4">
-        <v>0.41699999999999998</v>
+        <v>0.417</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E117" s="9"/>
     </row>
-    <row r="118" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="118" ht="19.95" spans="1:5">
       <c r="A118" s="6">
         <v>393</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C118" s="7">
-        <v>0.34699999999999998</v>
+        <v>0.347</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E118" s="9"/>
     </row>
-    <row r="119" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="119" ht="19.95" spans="1:6">
       <c r="A119" s="6">
         <v>163</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C119" s="7">
-        <v>0.23799999999999999</v>
+        <v>0.238</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E119" s="9"/>
       <c r="F119" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="120" ht="19.95" spans="1:4">
       <c r="A120" s="3">
         <v>351</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C120" s="4">
         <v>0.443</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="121" ht="19.95" spans="1:4">
       <c r="A121" s="3">
         <v>271</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="C121" s="4">
-        <v>0.26200000000000001</v>
+        <v>0.262</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="122" ht="19.95" spans="1:4">
       <c r="A122" s="6">
         <v>289</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="C122" s="7">
         <v>0.371</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="123" ht="19.95" spans="1:5">
       <c r="A123" s="3">
         <v>288</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="C123" s="4">
-        <v>0.17299999999999999</v>
+        <v>0.173</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E123" s="5"/>
     </row>
-    <row r="124" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="124" ht="19.95" spans="1:5">
       <c r="A124" s="3">
         <v>200</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C124" s="4">
-        <v>0.35599999999999998</v>
+        <v>0.356</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E124" s="5"/>
     </row>
-    <row r="125" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="125" ht="19.95" spans="1:5">
       <c r="A125" s="6">
         <v>280</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C125" s="7">
-        <v>0.57899999999999996</v>
+        <v>0.579</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E125" s="9"/>
     </row>
-    <row r="126" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="126" ht="19.95" spans="1:5">
       <c r="A126" s="3">
         <v>616</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C126" s="4">
-        <v>0.38700000000000001</v>
+        <v>0.387</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E126" s="8"/>
     </row>
-    <row r="127" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="127" ht="19.95" spans="1:4">
       <c r="A127" s="6">
         <v>259</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="C127" s="7">
-        <v>0.41699999999999998</v>
+        <v>0.417</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="128" ht="19.95" spans="1:5">
       <c r="A128" s="6">
         <v>399</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C128" s="7">
-        <v>0.41499999999999998</v>
+        <v>0.415</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E128" s="9"/>
     </row>
-    <row r="129" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="129" ht="19.95" spans="1:4">
       <c r="A129" s="6">
         <v>417</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C129" s="7">
-        <v>0.34100000000000003</v>
+        <v>0.341</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="130" ht="19.95" spans="1:4">
       <c r="A130" s="3">
         <v>406</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="C130" s="4">
-        <v>0.56200000000000006</v>
+        <v>0.562</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="131" ht="19.95" spans="1:5">
       <c r="A131" s="6">
         <v>279</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C131" s="7">
         <v>0.375</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E131" s="8"/>
     </row>
-    <row r="132" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="132" ht="19.95" spans="1:4">
       <c r="A132" s="6">
         <v>56</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C132" s="7">
         <v>0.31</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="133" ht="19.95" spans="1:4">
       <c r="A133" s="6">
         <v>284</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C133" s="7">
-        <v>0.35499999999999998</v>
+        <v>0.355</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="134" ht="19.95" spans="1:6">
       <c r="A134" s="3">
         <v>247</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C134" s="4">
-        <v>0.40500000000000003</v>
+        <v>0.405</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E134" s="5"/>
       <c r="F134" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="135" ht="39.15" spans="1:4">
       <c r="A135" s="6">
         <v>524</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C135" s="7">
         <v>0.433</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="136" ht="19.95" spans="1:6">
       <c r="A136" s="6">
         <v>228</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C136" s="7">
         <v>0.308</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E136" s="9"/>
       <c r="F136" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="137" ht="19.95" spans="1:4">
       <c r="A137" s="3">
         <v>286</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C137" s="4">
-        <v>0.44800000000000001</v>
+        <v>0.448</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="138" ht="19.95" spans="1:6">
       <c r="A138" s="6">
         <v>362</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C138" s="7">
-        <v>0.54400000000000004</v>
+        <v>0.544</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E138" s="9"/>
       <c r="F138" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="139" ht="19.95" spans="1:5">
       <c r="A139" s="6">
         <v>294</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="C139" s="7">
-        <v>0.46600000000000003</v>
+        <v>0.466</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E139" s="8"/>
     </row>
-    <row r="140" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="140" ht="19.95" spans="1:5">
       <c r="A140" s="6">
         <v>380</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C140" s="7">
-        <v>0.39400000000000002</v>
+        <v>0.394</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E140" s="9"/>
     </row>
-    <row r="141" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="141" ht="19.95" spans="1:5">
       <c r="A141" s="6">
         <v>249</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="C141" s="7">
-        <v>0.42699999999999999</v>
+        <v>0.427</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E141" s="9"/>
     </row>
-    <row r="142" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="142" ht="19.95" spans="1:5">
       <c r="A142" s="3">
         <v>320</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="C142" s="4">
-        <v>0.45500000000000002</v>
+        <v>0.455</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E142" s="9"/>
     </row>
-    <row r="143" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="143" ht="19.95" spans="1:4">
       <c r="A143" s="6">
         <v>505</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="C143" s="7">
-        <v>0.38200000000000001</v>
+        <v>0.382</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="144" ht="19.95" spans="1:4">
       <c r="A144" s="3">
         <v>341</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C144" s="4">
-        <v>0.42199999999999999</v>
+        <v>0.422</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="145" ht="19.95" spans="1:4">
       <c r="A145" s="6">
         <v>360</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="C145" s="7">
-        <v>0.44500000000000001</v>
+        <v>0.445</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="146" ht="19.95" spans="1:4">
       <c r="A146" s="6">
         <v>274</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>234</v>
+        <v>157</v>
       </c>
       <c r="C146" s="7">
-        <v>0.33500000000000002</v>
+        <v>0.335</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="147" ht="19.95" spans="1:4">
       <c r="A147" s="3">
         <v>253</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="C147" s="4">
-        <v>0.39300000000000002</v>
+        <v>0.393</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="148" ht="19.95" spans="1:4">
       <c r="A148" s="6">
         <v>139</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="C148" s="7">
         <v>0.308</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="149" ht="19.95" spans="1:5">
       <c r="A149" s="3">
         <v>230</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C149" s="4">
-        <v>0.44500000000000001</v>
+        <v>0.445</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E149" s="5"/>
     </row>
-    <row r="150" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="150" ht="19.95" spans="1:5">
       <c r="A150" s="6">
         <v>162</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="C150" s="7">
-        <v>0.38100000000000001</v>
+        <v>0.381</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E150" s="8"/>
     </row>
-    <row r="151" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="151" ht="19.95" spans="1:4">
       <c r="A151" s="3">
         <v>498</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="C151" s="4">
-        <v>0.46100000000000002</v>
+        <v>0.461</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="152" ht="19.95" spans="1:4">
       <c r="A152" s="3">
         <v>490</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="C152" s="4">
         <v>0.432</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="153" ht="19.95" spans="1:4">
       <c r="A153" s="6">
         <v>318</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="C153" s="7">
-        <v>0.44900000000000001</v>
+        <v>0.449</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="154" ht="19.95" spans="1:4">
       <c r="A154" s="3">
         <v>240</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="C154" s="4">
-        <v>0.38800000000000001</v>
+        <v>0.388</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="155" ht="19.95" spans="1:4">
       <c r="A155" s="6">
         <v>373</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C155" s="7">
         <v>0.309</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="156" ht="19.95" spans="1:5">
       <c r="A156" s="6">
         <v>369</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="C156" s="7">
-        <v>0.54800000000000004</v>
+        <v>0.548</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E156" s="9"/>
     </row>
-    <row r="157" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="157" ht="19.95" spans="1:6">
       <c r="A157" s="6">
         <v>251</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="C157" s="7">
-        <v>0.40899999999999997</v>
+        <v>0.409</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="F157" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="158" ht="19.95" spans="1:4">
       <c r="A158" s="3">
         <v>332</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C158" s="4">
-        <v>0.29399999999999998</v>
+        <v>0.294</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="159" ht="19.95" spans="1:4">
       <c r="A159" s="6">
         <v>173</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="C159" s="7">
-        <v>0.42399999999999999</v>
+        <v>0.424</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="160" ht="19.95" spans="1:4">
       <c r="A160" s="3">
         <v>54</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="C160" s="4">
-        <v>0.26600000000000001</v>
+        <v>0.266</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="161" ht="19.95" spans="1:4">
       <c r="A161" s="3">
         <v>324</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="C161" s="4">
-        <v>0.26200000000000001</v>
+        <v>0.262</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="162" ht="39.15" spans="1:4">
       <c r="A162" s="6">
         <v>17</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C162" s="7">
-        <v>0.35399999999999998</v>
+        <v>0.354</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="163" ht="19.95" spans="1:5">
       <c r="A163" s="3">
         <v>484</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="C163" s="4">
-        <v>0.55100000000000005</v>
+        <v>0.551</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E163" s="9"/>
     </row>
-    <row r="164" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="164" ht="39.15" spans="1:4">
       <c r="A164" s="6">
         <v>562</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="C164" s="7">
-        <v>0.40899999999999997</v>
+        <v>0.409</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="165" ht="19.95" spans="1:4">
       <c r="A165" s="3">
         <v>166</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="C165" s="4">
-        <v>0.17799999999999999</v>
+        <v>0.178</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="166" ht="19.95" spans="1:4">
       <c r="A166" s="6">
         <v>22</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="C166" s="7">
-        <v>0.46300000000000002</v>
+        <v>0.463</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="167" ht="19.95" spans="1:4">
       <c r="A167" s="3">
         <v>31</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="C167" s="4">
-        <v>0.28799999999999998</v>
+        <v>0.288</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="168" ht="19.95" spans="1:4">
       <c r="A168" s="6">
         <v>676</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="C168" s="7">
         <v>0.5</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="169" ht="39.15" spans="1:4">
       <c r="A169" s="6">
         <v>421</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="C169" s="7">
-        <v>0.46899999999999997</v>
+        <v>0.469</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="170" ht="19.95" spans="1:4">
       <c r="A170" s="6">
         <v>503</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="C170" s="7">
-        <v>0.47299999999999998</v>
+        <v>0.473</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="171" ht="19.95" spans="1:4">
       <c r="A171" s="6">
         <v>684</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="C171" s="7">
-        <v>0.39200000000000002</v>
+        <v>0.392</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="172" ht="19.95" spans="1:4">
       <c r="A172" s="3">
         <v>133</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="C172" s="4">
         <v>0.251</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="173" ht="19.95" spans="1:4">
       <c r="A173" s="3">
         <v>50</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="C173" s="4">
         <v>0.26</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="174" ht="19.95" spans="1:4">
       <c r="A174" s="3">
         <v>208</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="C174" s="4">
-        <v>0.29499999999999998</v>
+        <v>0.295</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="175" ht="19.95" spans="1:4">
       <c r="A175" s="6">
         <v>348</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C175" s="7">
-        <v>0.45800000000000002</v>
+        <v>0.458</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="176" ht="19.95" spans="1:4">
       <c r="A176" s="3">
         <v>652</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="C176" s="4">
-        <v>0.35799999999999998</v>
+        <v>0.358</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="177" ht="19.95" spans="1:4">
       <c r="A177" s="6">
         <v>444</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="C177" s="7">
-        <v>0.19600000000000001</v>
+        <v>0.196</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" ht="34.5" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="178" ht="39.15" spans="1:4">
       <c r="A178" s="3">
         <v>309</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="C178" s="4">
-        <v>0.41299999999999998</v>
+        <v>0.413</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="179" ht="19.95" spans="1:4">
       <c r="A179" s="3">
         <v>382</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="C179" s="4">
-        <v>0.47099999999999997</v>
+        <v>0.471</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="180" ht="19.95" spans="1:4">
       <c r="A180" s="6">
         <v>402</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="C180" s="7">
         <v>0.26</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="181" ht="19.95" spans="1:4">
       <c r="A181" s="3">
         <v>370</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="C181" s="4">
-        <v>0.56499999999999995</v>
+        <v>0.565</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="182" ht="19.95" spans="1:4">
       <c r="A182" s="6">
         <v>377</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="C182" s="7">
-        <v>0.42399999999999999</v>
+        <v>0.424</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="183" ht="19.95" spans="1:4">
       <c r="A183" s="3">
         <v>379</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="C183" s="4">
-        <v>0.34100000000000003</v>
+        <v>0.341</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="184" ht="19.95" spans="1:4">
       <c r="A184" s="6">
         <v>353</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="C184" s="7">
-        <v>0.26800000000000002</v>
+        <v>0.268</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="185" ht="19.95" spans="1:4">
       <c r="A185" s="3">
         <v>375</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="C185" s="4">
-        <v>0.35899999999999999</v>
+        <v>0.359</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="186" ht="19.95" spans="1:4">
       <c r="A186" s="3">
         <v>356</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="C186" s="4">
-        <v>0.30099999999999999</v>
+        <v>0.301</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="187" ht="19.95" spans="1:4">
       <c r="A187" s="6">
         <v>261</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="C187" s="7">
-        <v>0.38100000000000001</v>
+        <v>0.381</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="188" ht="19.95" spans="1:4">
       <c r="A188" s="3">
         <v>486</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="C188" s="4">
-        <v>0.45100000000000001</v>
+        <v>0.451</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="189" ht="19.95" spans="1:4">
       <c r="A189" s="6">
         <v>542</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="C189" s="7">
         <v>0.33</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="190" ht="19.95" spans="1:5">
       <c r="A190" s="3">
         <v>397</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="C190" s="4">
-        <v>0.30199999999999999</v>
+        <v>0.302</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E190" s="8"/>
     </row>
-    <row r="191" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="191" ht="19.95" spans="1:4">
       <c r="A191" s="6">
         <v>368</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="C191" s="7">
-        <v>0.33700000000000002</v>
+        <v>0.337</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="192" ht="19.95" spans="1:4">
       <c r="A192" s="3">
         <v>378</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="C192" s="4">
-        <v>0.45200000000000001</v>
+        <v>0.452</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="193" ht="19.95" spans="1:4">
       <c r="A193" s="3">
         <v>313</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="C193" s="4">
         <v>0.38</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="194" ht="39.15" spans="1:5">
       <c r="A194" s="6">
         <v>331</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C194" s="7">
-        <v>0.36599999999999999</v>
+        <v>0.366</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E194" s="8"/>
     </row>
-    <row r="195" spans="1:6" ht="34.5" x14ac:dyDescent="0.2">
+    <row r="195" ht="39.15" spans="1:4">
       <c r="A195" s="3">
         <v>323</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="C195" s="4">
-        <v>0.48299999999999998</v>
+        <v>0.483</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="196" ht="19.95" spans="1:5">
       <c r="A196" s="6">
         <v>451</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C196" s="7">
-        <v>0.51100000000000001</v>
+        <v>0.511</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E196" s="5"/>
     </row>
-    <row r="197" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="197" ht="19.95" spans="1:4">
       <c r="A197" s="3">
         <v>310</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="C197" s="4">
-        <v>0.28899999999999998</v>
+        <v>0.289</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="198" ht="19.95" spans="1:5">
       <c r="A198" s="3">
         <v>729</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C198" s="4">
-        <v>0.36099999999999999</v>
+        <v>0.361</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E198" s="5"/>
     </row>
-    <row r="199" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="199" ht="19.95" spans="1:4">
       <c r="A199" s="6">
         <v>469</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="C199" s="7">
-        <v>0.33400000000000002</v>
+        <v>0.334</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="200" ht="19.95" spans="1:4">
       <c r="A200" s="3">
         <v>474</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C200" s="4">
-        <v>0.39100000000000001</v>
+        <v>0.391</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="201" ht="19.95" spans="1:4">
       <c r="A201" s="3">
         <v>481</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="C201" s="4">
-        <v>0.45600000000000002</v>
+        <v>0.456</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="202" ht="19.95" spans="1:5">
       <c r="A202" s="3">
         <v>314</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="C202" s="4">
         <v>0.373</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E202" s="5"/>
     </row>
-    <row r="203" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="203" ht="19.95" spans="1:4">
       <c r="A203" s="6">
         <v>357</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="C203" s="7">
-        <v>0.46100000000000002</v>
+        <v>0.461</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="204" ht="19.95" spans="1:6">
       <c r="A204" s="3">
         <v>487</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="C204" s="4">
-        <v>0.45600000000000002</v>
+        <v>0.456</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E204" s="9"/>
       <c r="F204" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="205" ht="19.95" spans="1:5">
       <c r="A205" s="3">
         <v>494</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="C205" s="4">
         <v>0.436</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E205" s="9"/>
     </row>
-    <row r="206" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="206" ht="19.95" spans="1:5">
       <c r="A206" s="6">
         <v>522</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="C206" s="7">
         <v>0.318</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E206" s="9"/>
     </row>
-    <row r="207" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="207" ht="19.95" spans="1:5">
       <c r="A207" s="3">
         <v>526</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="C207" s="4">
-        <v>0.54200000000000004</v>
+        <v>0.542</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E207" s="5"/>
     </row>
-    <row r="208" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="208" ht="19.95" spans="1:4">
       <c r="A208" s="6">
         <v>531</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C208" s="7">
-        <v>0.55600000000000005</v>
+        <v>0.556</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="209" ht="19.95" spans="1:4">
       <c r="A209" s="3">
         <v>533</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="C209" s="4">
-        <v>0.44600000000000001</v>
+        <v>0.446</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="210" ht="19.95" spans="1:4">
       <c r="A210" s="6">
         <v>535</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C210" s="7">
-        <v>0.74199999999999999</v>
+        <v>0.742</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="211" ht="19.95" spans="1:5">
       <c r="A211" s="3">
         <v>544</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="C211" s="4">
-        <v>0.70899999999999996</v>
+        <v>0.709</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E211" s="5"/>
     </row>
-    <row r="212" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="212" ht="19.95" spans="1:5">
       <c r="A212" s="6">
         <v>545</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="C212" s="7">
-        <v>0.31900000000000001</v>
+        <v>0.319</v>
       </c>
       <c r="D212" s="6" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E212" s="9"/>
     </row>
-    <row r="213" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="213" ht="39.15" spans="1:4">
       <c r="A213" s="3">
         <v>549</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="C213" s="4">
-        <v>0.41899999999999998</v>
+        <v>0.419</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="214" ht="19.95" spans="1:5">
       <c r="A214" s="3">
         <v>560</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="C214" s="4">
-        <v>0.40400000000000003</v>
+        <v>0.404</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E214" s="9"/>
     </row>
-    <row r="215" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="215" ht="19.95" spans="1:4">
       <c r="A215" s="6">
         <v>583</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="C215" s="7">
         <v>0.442</v>
       </c>
       <c r="D215" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="216" ht="19.95" spans="1:4">
       <c r="A216" s="6">
         <v>638</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="C216" s="7">
         <v>0.434</v>
       </c>
       <c r="D216" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="217" ht="19.95" spans="1:5">
       <c r="A217" s="3">
         <v>651</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="C217" s="4">
-        <v>0.48799999999999999</v>
+        <v>0.488</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E217" s="9"/>
     </row>
-    <row r="218" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="218" ht="19.95" spans="1:5">
       <c r="A218" s="6">
         <v>658</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="C218" s="7">
-        <v>0.35299999999999998</v>
+        <v>0.353</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E218" s="9"/>
     </row>
-    <row r="219" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="219" ht="39.15" spans="1:4">
       <c r="A219" s="3">
         <v>659</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="C219" s="4">
-        <v>0.35699999999999998</v>
+        <v>0.357</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="220" ht="19.95" spans="1:4">
       <c r="A220" s="3">
         <v>667</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="C220" s="4">
-        <v>0.51500000000000001</v>
+        <v>0.515</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="221" ht="19.95" spans="1:5">
       <c r="A221" s="6">
         <v>731</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="C221" s="7">
         <v>0.316</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E221" s="5"/>
     </row>
@@ -4384,13 +4923,13 @@
   <sortState ref="A3:D221">
     <sortCondition ref="D10"/>
   </sortState>
-  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F111" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F136" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F115" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F111" r:id="rId1" display="https://www.youtube.com/embed/IAet94C1FCc?feature=oembed"/>
+    <hyperlink ref="F136" r:id="rId2" display="http://www.cnblogs.com/grandyang/p/4603555.html"/>
+    <hyperlink ref="F115" r:id="rId3" display="http://www.cnblogs.com/grandyang/p/5212785.html"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/google_ranked.xlsx
+++ b/google_ranked.xlsx
@@ -727,9 +727,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -781,7 +781,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -789,16 +788,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -819,21 +810,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -841,24 +818,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -873,8 +834,16 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -889,10 +858,41 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -935,7 +935,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -947,19 +983,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -971,91 +1031,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1073,13 +1049,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1091,13 +1067,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1135,6 +1135,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1155,26 +1194,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1208,40 +1232,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1250,7 +1250,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1259,122 +1259,122 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1723,8 +1723,8 @@
   <sheetPr/>
   <dimension ref="A1:F221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
@@ -2184,7 +2184,7 @@
       </c>
       <c r="E31" s="5"/>
     </row>
-    <row r="32" ht="39.15" spans="1:5">
+    <row r="32" ht="19.95" spans="1:5">
       <c r="A32" s="6">
         <v>448</v>
       </c>
@@ -2922,7 +2922,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="84" ht="39.15" spans="1:4">
+    <row r="84" ht="19.95" spans="1:4">
       <c r="A84" s="6">
         <v>363</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="89" ht="39.15" spans="1:5">
+    <row r="89" ht="19.95" spans="1:5">
       <c r="A89" s="6">
         <v>302</v>
       </c>
@@ -4060,7 +4060,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="162" ht="39.15" spans="1:4">
+    <row r="162" ht="19.95" spans="1:4">
       <c r="A162" s="6">
         <v>17</v>
       </c>
@@ -4089,7 +4089,7 @@
       </c>
       <c r="E163" s="9"/>
     </row>
-    <row r="164" ht="39.15" spans="1:4">
+    <row r="164" ht="19.95" spans="1:4">
       <c r="A164" s="6">
         <v>562</v>
       </c>

--- a/google_ranked.xlsx
+++ b/google_ranked.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\leet\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D970EAE-95C3-4581-A298-1AC3238CD2AF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9935"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22365" windowHeight="9930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="235">
   <si>
     <t>Google</t>
   </si>
@@ -178,560 +184,560 @@
     <t>Word Squares</t>
   </si>
   <si>
+    <t>Number of Islands II</t>
+  </si>
+  <si>
+    <t>The Skyline Problem</t>
+  </si>
+  <si>
+    <t>Longest Substring with At Most Two Distinct Characters</t>
+  </si>
+  <si>
+    <t>Longest Increasing Path in a Matrix</t>
+  </si>
+  <si>
+    <t>Encode String with Shortest Length</t>
+  </si>
+  <si>
+    <t>Perfect Rectangle</t>
+  </si>
+  <si>
+    <t>Trapping Rain Water II</t>
+  </si>
+  <si>
+    <t>Serialize and Deserialize Binary Tree</t>
+  </si>
+  <si>
+    <t>LRU Cache</t>
+  </si>
+  <si>
+    <t>Find Median from Data Stream</t>
+  </si>
+  <si>
+    <t>Trapping Rain Water</t>
+  </si>
+  <si>
+    <t>Count of Smaller Numbers After Self</t>
+  </si>
+  <si>
+    <t>Minimum Unique Word Abbreviation</t>
+  </si>
+  <si>
+    <t>Alien Dictionary</t>
+  </si>
+  <si>
+    <t>Sliding Window Maximum</t>
+  </si>
+  <si>
+    <t>Optimal Account Balancing</t>
+  </si>
+  <si>
+    <t>Longest Consecutive Sequence</t>
+  </si>
+  <si>
+    <t>Read N Characters Given Read4 II - Call multiple times</t>
+  </si>
+  <si>
+    <t>Merge k Sorted Lists</t>
+  </si>
+  <si>
+    <t>Regular Expression Matching</t>
+  </si>
+  <si>
+    <t>Word Search II</t>
+  </si>
+  <si>
+    <t>Median of Two Sorted Arrays</t>
+  </si>
+  <si>
+    <t>Rearrange String k Distance Apart</t>
+  </si>
+  <si>
+    <t>Erect the Fence</t>
+  </si>
+  <si>
+    <t>24 Game</t>
+  </si>
+  <si>
+    <t>Word Break II</t>
+  </si>
+  <si>
+    <t>Basic Calculator</t>
+  </si>
+  <si>
+    <t>Count of Range Sum</t>
+  </si>
+  <si>
+    <t>Insert Interval</t>
+  </si>
+  <si>
+    <t>Palindrome Pairs</t>
+  </si>
+  <si>
+    <t>Wildcard Matching</t>
+  </si>
+  <si>
+    <t>LFU Cache</t>
+  </si>
+  <si>
+    <t>Max Sum of Rectangle No Larger Than K</t>
+  </si>
+  <si>
+    <t>Russian Doll Envelopes</t>
+  </si>
+  <si>
+    <t>Closest Binary Search Tree Value II</t>
+  </si>
+  <si>
+    <t>Shortest Palindrome</t>
+  </si>
+  <si>
+    <t>Expression Add Operators</t>
+  </si>
+  <si>
+    <t>Smallest Rectangle Enclosing Black Pixels</t>
+  </si>
+  <si>
+    <t>Create Maximum Number</t>
+  </si>
+  <si>
+    <t>Sliding Window Median</t>
+  </si>
+  <si>
+    <t>Smallest Good Base</t>
+  </si>
+  <si>
+    <t>Burst Balloons</t>
+  </si>
+  <si>
+    <t>Reverse Pairs</t>
+  </si>
+  <si>
+    <t>Freedom Trail</t>
+  </si>
+  <si>
+    <t>Remove Duplicate Letters</t>
+  </si>
+  <si>
+    <t>Patching Array</t>
+  </si>
+  <si>
+    <t>Student Attendance Record II</t>
+  </si>
+  <si>
+    <t>Median Employee Salary</t>
+  </si>
+  <si>
+    <t>Maximum Average Subarray II</t>
+  </si>
+  <si>
+    <t>Kth Smallest Number in Multiplication Table</t>
+  </si>
+  <si>
+    <t>Redundant Connection II</t>
+  </si>
+  <si>
+    <t>Number of Atoms</t>
+  </si>
+  <si>
+    <t>Minimum Window Subsequence</t>
+  </si>
+  <si>
+    <t>Design TinyURL</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Longest Absolute File Path</t>
+  </si>
+  <si>
+    <t>Next Closest Time</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/IAet94C1FCc?feature=oembed</t>
+  </si>
+  <si>
+    <t>License Key Formatting</t>
+  </si>
+  <si>
+    <t>Binary Tree Longest Consecutive Sequence</t>
+  </si>
+  <si>
+    <t>Sentence Screen Fitting</t>
+  </si>
+  <si>
+    <t>Zigzag Iterator</t>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/grandyang/p/5212785.html</t>
+  </si>
+  <si>
+    <t>Bomb Enemy</t>
+  </si>
+  <si>
+    <t>Decode String</t>
+  </si>
+  <si>
+    <t>UTF-8 Validation</t>
+  </si>
+  <si>
+    <t>Missing Ranges</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/grandyang/p/5184890.html</t>
+  </si>
+  <si>
+    <t>Android Unlock Patterns</t>
+  </si>
+  <si>
+    <t>Encode and Decode Strings</t>
+  </si>
+  <si>
+    <t>Game of Life</t>
+  </si>
+  <si>
+    <t>Unique Word Abbreviation</t>
+  </si>
+  <si>
+    <t>Number of Islands</t>
+  </si>
+  <si>
+    <t>Wiggle Sort</t>
+  </si>
+  <si>
+    <t>Add Bold Tag in String</t>
+  </si>
+  <si>
+    <t>3Sum Smaller</t>
+  </si>
+  <si>
+    <t>Evaluate Division</t>
+  </si>
+  <si>
+    <t>Pacific Atlantic Water Flow</t>
+  </si>
+  <si>
+    <t>Queue Reconstruction by Height</t>
+  </si>
+  <si>
+    <t>Perfect Squares</t>
+  </si>
+  <si>
+    <t>Merge Intervals</t>
+  </si>
+  <si>
+    <t>Peeking Iterator</t>
+  </si>
+  <si>
+    <t>Strobogrammatic Number II</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/grandyang/p/5200919.html</t>
+  </si>
+  <si>
+    <t>Longest Word in Dictionary through Deleting</t>
+  </si>
+  <si>
+    <t>Summary Ranges</t>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/grandyang/p/4603555.html</t>
+  </si>
+  <si>
+    <t>Walls and Gates</t>
+  </si>
+  <si>
+    <t>Design Hit Counter</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/grandyang/p/5605552.html</t>
+  </si>
+  <si>
+    <t>Flip Game II</t>
+  </si>
+  <si>
+    <t>Insert Delete GetRandom O(1)</t>
+  </si>
+  <si>
+    <t>Group Shifted Strings</t>
+  </si>
+  <si>
+    <t>Generalized Abbreviation</t>
+  </si>
+  <si>
+    <t>The Maze II</t>
+  </si>
+  <si>
+    <t>Flatten Nested List Iterator</t>
+  </si>
+  <si>
+    <t>Sort Transformed Array</t>
+  </si>
+  <si>
+    <t>H-Index</t>
+  </si>
+  <si>
+    <t>Meeting Rooms II</t>
+  </si>
+  <si>
+    <t>Word Break</t>
+  </si>
+  <si>
+    <t>Kth Smallest Element in a BST</t>
+  </si>
+  <si>
+    <t>Find Peak Element</t>
+  </si>
+  <si>
+    <t>Diagonal Traverse</t>
+  </si>
+  <si>
+    <t>The Maze</t>
+  </si>
+  <si>
+    <t>Maximum Product of Word Lengths</t>
+  </si>
+  <si>
+    <t>Search a 2D Matrix II</t>
+  </si>
+  <si>
+    <t>Find K Pairs with Smallest Sums</t>
+  </si>
+  <si>
+    <t>Plus One Linked List</t>
+  </si>
+  <si>
+    <t>Flatten 2D Vector</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/grandyang/p/5209621.html</t>
+  </si>
+  <si>
+    <t>Reconstruct Itinerary</t>
+  </si>
+  <si>
+    <t>Binary Search Tree Iterator</t>
+  </si>
+  <si>
+    <t>Spiral Matrix</t>
+  </si>
+  <si>
+    <t>Wiggle Sort II</t>
+  </si>
+  <si>
+    <t>Letter Combinations of a Phone Number</t>
+  </si>
+  <si>
+    <t>Find Permutation</t>
+  </si>
+  <si>
+    <t>Longest Line of Consecutive One in Matrix</t>
+  </si>
+  <si>
+    <t>Fraction to Recurring Decimal</t>
+  </si>
+  <si>
+    <t>Generate Parentheses</t>
+  </si>
+  <si>
+    <t>Next Permutation</t>
+  </si>
+  <si>
+    <t>Implement Magic Dictionary</t>
+  </si>
+  <si>
+    <t>Maximum XOR of Two Numbers in an Array</t>
+  </si>
+  <si>
+    <t>Next Greater Element II</t>
+  </si>
+  <si>
+    <t>Redundant Connection</t>
+  </si>
+  <si>
+    <t>Clone Graph</t>
+  </si>
+  <si>
+    <t>Pow(x, n)</t>
+  </si>
+  <si>
+    <t>Implement Trie (Prefix Tree)</t>
+  </si>
+  <si>
+    <t>Design Tic-Tac-Toe</t>
+  </si>
+  <si>
+    <t>Find Duplicate Subtrees</t>
+  </si>
+  <si>
+    <t>Sequence Reconstruction</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock with Cooldown</t>
+  </si>
+  <si>
+    <t>Linked List Random Node</t>
+  </si>
+  <si>
+    <t>Remove K Digits</t>
+  </si>
+  <si>
+    <t>Range Addition</t>
+  </si>
+  <si>
+    <t>Combination Sum IV</t>
+  </si>
+  <si>
+    <t>Design Phone Directory</t>
+  </si>
+  <si>
+    <t>Design Snake Game</t>
+  </si>
+  <si>
+    <t>Guess Number Higher or Lower II</t>
+  </si>
+  <si>
+    <t>Line Reflection</t>
+  </si>
+  <si>
+    <t>Graph Valid Tree</t>
+  </si>
+  <si>
+    <t>Predict the Winner</t>
+  </si>
+  <si>
+    <t>01 Matrix</t>
+  </si>
+  <si>
+    <t>Integer Replacement</t>
+  </si>
+  <si>
+    <t>Largest Divisible Subset</t>
+  </si>
+  <si>
+    <t>Kth Smallest Element in a Sorted Matrix</t>
+  </si>
+  <si>
+    <t>Super Ugly Number</t>
+  </si>
+  <si>
+    <t>Verify Preorder Serialization of a Binary Tree</t>
+  </si>
+  <si>
+    <t>Number of Connected Components in an Undirected Graph</t>
+  </si>
+  <si>
+    <t>Sort Characters By Frequency</t>
+  </si>
+  <si>
+    <t>Minimum Height Trees</t>
+  </si>
+  <si>
+    <t>My Calendar I</t>
+  </si>
+  <si>
+    <t>Convex Polygon</t>
+  </si>
+  <si>
+    <t>Ones and Zeroes</t>
+  </si>
+  <si>
+    <t>Magical String</t>
+  </si>
+  <si>
+    <t>Binary Tree Vertical Order Traversal</t>
+  </si>
+  <si>
+    <t>Count Numbers with Unique Digits</t>
+  </si>
+  <si>
+    <t>Max Consecutive Ones II</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/grandyang/p/6376115.html</t>
+  </si>
+  <si>
+    <t>Target Sum</t>
+  </si>
+  <si>
+    <t>Longest Uncommon Subsequence II</t>
+  </si>
+  <si>
+    <t>Beautiful Arrangement</t>
+  </si>
+  <si>
+    <t>Lonely Pixel I</t>
+  </si>
+  <si>
+    <t>Lonely Pixel II</t>
+  </si>
+  <si>
+    <t>Encode and Decode TinyURL</t>
+  </si>
+  <si>
+    <t>Output Contest Matches</t>
+  </si>
+  <si>
+    <t>Boundary of Binary Tree</t>
+  </si>
+  <si>
+    <t>Binary Tree Longest Consecutive Sequence II</t>
+  </si>
+  <si>
+    <t>Subarray Sum Equals K</t>
+  </si>
+  <si>
+    <t>Delete Operation for Two Strings</t>
+  </si>
+  <si>
+    <t>Shopping Offers</t>
+  </si>
+  <si>
+    <t>4 Keys Keyboard</t>
+  </si>
+  <si>
+    <t>Find K Closest Elements</t>
+  </si>
+  <si>
+    <t>Split Array into Consecutive Subsequences</t>
+  </si>
+  <si>
+    <t>Beautiful Arrangement II</t>
+  </si>
+  <si>
+    <t>My Calendar II</t>
+  </si>
+  <si>
     <t>Maximum Vacation Days</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Shortest Distance from All Buildings</t>
-  </si>
-  <si>
-    <t>Number of Islands II</t>
-  </si>
-  <si>
-    <t>The Skyline Problem</t>
-  </si>
-  <si>
-    <t>Longest Substring with At Most Two Distinct Characters</t>
-  </si>
-  <si>
-    <t>Longest Increasing Path in a Matrix</t>
-  </si>
-  <si>
-    <t>Encode String with Shortest Length</t>
-  </si>
-  <si>
-    <t>Perfect Rectangle</t>
-  </si>
-  <si>
-    <t>Trapping Rain Water II</t>
-  </si>
-  <si>
-    <t>Serialize and Deserialize Binary Tree</t>
-  </si>
-  <si>
-    <t>LRU Cache</t>
-  </si>
-  <si>
-    <t>Find Median from Data Stream</t>
-  </si>
-  <si>
-    <t>Trapping Rain Water</t>
-  </si>
-  <si>
-    <t>Count of Smaller Numbers After Self</t>
-  </si>
-  <si>
-    <t>Minimum Unique Word Abbreviation</t>
-  </si>
-  <si>
-    <t>Alien Dictionary</t>
-  </si>
-  <si>
-    <t>Sliding Window Maximum</t>
-  </si>
-  <si>
-    <t>Optimal Account Balancing</t>
-  </si>
-  <si>
-    <t>Longest Consecutive Sequence</t>
-  </si>
-  <si>
-    <t>Read N Characters Given Read4 II - Call multiple times</t>
-  </si>
-  <si>
-    <t>Merge k Sorted Lists</t>
-  </si>
-  <si>
-    <t>Regular Expression Matching</t>
-  </si>
-  <si>
-    <t>Word Search II</t>
-  </si>
-  <si>
-    <t>Median of Two Sorted Arrays</t>
-  </si>
-  <si>
-    <t>Rearrange String k Distance Apart</t>
-  </si>
-  <si>
-    <t>Erect the Fence</t>
-  </si>
-  <si>
-    <t>24 Game</t>
-  </si>
-  <si>
-    <t>Word Break II</t>
-  </si>
-  <si>
-    <t>Basic Calculator</t>
-  </si>
-  <si>
-    <t>Count of Range Sum</t>
-  </si>
-  <si>
-    <t>Insert Interval</t>
-  </si>
-  <si>
-    <t>Palindrome Pairs</t>
-  </si>
-  <si>
-    <t>Wildcard Matching</t>
-  </si>
-  <si>
-    <t>LFU Cache</t>
-  </si>
-  <si>
-    <t>Max Sum of Rectangle No Larger Than K</t>
-  </si>
-  <si>
-    <t>Russian Doll Envelopes</t>
-  </si>
-  <si>
-    <t>Closest Binary Search Tree Value II</t>
-  </si>
-  <si>
-    <t>Shortest Palindrome</t>
-  </si>
-  <si>
-    <t>Expression Add Operators</t>
-  </si>
-  <si>
-    <t>Smallest Rectangle Enclosing Black Pixels</t>
-  </si>
-  <si>
-    <t>Create Maximum Number</t>
-  </si>
-  <si>
-    <t>Sliding Window Median</t>
-  </si>
-  <si>
-    <t>Smallest Good Base</t>
-  </si>
-  <si>
-    <t>Burst Balloons</t>
-  </si>
-  <si>
-    <t>Reverse Pairs</t>
-  </si>
-  <si>
-    <t>Freedom Trail</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find K-th Smallest Pair Distance</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximum Sum of 3 Non-Overlapping Subarrays</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coin Path</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Word Abbreviation</t>
-  </si>
-  <si>
-    <t>Remove Duplicate Letters</t>
-  </si>
-  <si>
-    <t>Patching Array</t>
-  </si>
-  <si>
-    <t>Student Attendance Record II</t>
-  </si>
-  <si>
-    <t>Median Employee Salary</t>
-  </si>
-  <si>
-    <t>Maximum Average Subarray II</t>
-  </si>
-  <si>
-    <t>Coin Path</t>
-  </si>
-  <si>
-    <t>Kth Smallest Number in Multiplication Table</t>
-  </si>
-  <si>
-    <t>Redundant Connection II</t>
-  </si>
-  <si>
-    <t>Maximum Sum of 3 Non-Overlapping Subarrays</t>
-  </si>
-  <si>
-    <t>Find K-th Smallest Pair Distance</t>
-  </si>
-  <si>
-    <t>Number of Atoms</t>
-  </si>
-  <si>
-    <t>Minimum Window Subsequence</t>
-  </si>
-  <si>
-    <t>Design TinyURL</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>Longest Absolute File Path</t>
-  </si>
-  <si>
-    <t>Next Closest Time</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/IAet94C1FCc?feature=oembed</t>
-  </si>
-  <si>
-    <t>License Key Formatting</t>
-  </si>
-  <si>
-    <t>Binary Tree Longest Consecutive Sequence</t>
-  </si>
-  <si>
-    <t>Sentence Screen Fitting</t>
-  </si>
-  <si>
-    <t>Zigzag Iterator</t>
-  </si>
-  <si>
-    <t>http://www.cnblogs.com/grandyang/p/5212785.html</t>
-  </si>
-  <si>
-    <t>Bomb Enemy</t>
-  </si>
-  <si>
-    <t>Decode String</t>
-  </si>
-  <si>
-    <t>UTF-8 Validation</t>
-  </si>
-  <si>
-    <t>Missing Ranges</t>
-  </si>
-  <si>
-    <t>https://www.cnblogs.com/grandyang/p/5184890.html</t>
-  </si>
-  <si>
-    <t>Android Unlock Patterns</t>
-  </si>
-  <si>
-    <t>Encode and Decode Strings</t>
-  </si>
-  <si>
-    <t>Game of Life</t>
-  </si>
-  <si>
-    <t>Unique Word Abbreviation</t>
-  </si>
-  <si>
-    <t>Number of Islands</t>
-  </si>
-  <si>
-    <t>Wiggle Sort</t>
-  </si>
-  <si>
-    <t>Add Bold Tag in String</t>
-  </si>
-  <si>
-    <t>3Sum Smaller</t>
-  </si>
-  <si>
-    <t>Evaluate Division</t>
-  </si>
-  <si>
-    <t>Pacific Atlantic Water Flow</t>
-  </si>
-  <si>
-    <t>Queue Reconstruction by Height</t>
-  </si>
-  <si>
-    <t>Perfect Squares</t>
-  </si>
-  <si>
-    <t>Merge Intervals</t>
-  </si>
-  <si>
-    <t>Peeking Iterator</t>
-  </si>
-  <si>
-    <t>Strobogrammatic Number II</t>
-  </si>
-  <si>
-    <t>https://www.cnblogs.com/grandyang/p/5200919.html</t>
-  </si>
-  <si>
-    <t>Longest Word in Dictionary through Deleting</t>
-  </si>
-  <si>
-    <t>Summary Ranges</t>
-  </si>
-  <si>
-    <t>http://www.cnblogs.com/grandyang/p/4603555.html</t>
-  </si>
-  <si>
-    <t>Walls and Gates</t>
-  </si>
-  <si>
-    <t>Design Hit Counter</t>
-  </si>
-  <si>
-    <t>https://www.cnblogs.com/grandyang/p/5605552.html</t>
-  </si>
-  <si>
-    <t>Flip Game II</t>
-  </si>
-  <si>
-    <t>Insert Delete GetRandom O(1)</t>
-  </si>
-  <si>
-    <t>Group Shifted Strings</t>
-  </si>
-  <si>
-    <t>Generalized Abbreviation</t>
-  </si>
-  <si>
-    <t>The Maze II</t>
-  </si>
-  <si>
-    <t>Flatten Nested List Iterator</t>
-  </si>
-  <si>
-    <t>Sort Transformed Array</t>
-  </si>
-  <si>
-    <t>H-Index</t>
-  </si>
-  <si>
-    <t>Meeting Rooms II</t>
-  </si>
-  <si>
-    <t>Word Break</t>
-  </si>
-  <si>
-    <t>Kth Smallest Element in a BST</t>
-  </si>
-  <si>
-    <t>Find Peak Element</t>
-  </si>
-  <si>
-    <t>Diagonal Traverse</t>
-  </si>
-  <si>
-    <t>The Maze</t>
-  </si>
-  <si>
-    <t>Maximum Product of Word Lengths</t>
-  </si>
-  <si>
-    <t>Search a 2D Matrix II</t>
-  </si>
-  <si>
-    <t>Find K Pairs with Smallest Sums</t>
-  </si>
-  <si>
-    <t>Plus One Linked List</t>
-  </si>
-  <si>
-    <t>Flatten 2D Vector</t>
-  </si>
-  <si>
-    <t>https://www.cnblogs.com/grandyang/p/5209621.html</t>
-  </si>
-  <si>
-    <t>Reconstruct Itinerary</t>
-  </si>
-  <si>
-    <t>Binary Search Tree Iterator</t>
-  </si>
-  <si>
-    <t>Spiral Matrix</t>
-  </si>
-  <si>
-    <t>Wiggle Sort II</t>
-  </si>
-  <si>
-    <t>Letter Combinations of a Phone Number</t>
-  </si>
-  <si>
-    <t>Find Permutation</t>
-  </si>
-  <si>
-    <t>Longest Line of Consecutive One in Matrix</t>
-  </si>
-  <si>
-    <t>Fraction to Recurring Decimal</t>
-  </si>
-  <si>
-    <t>Generate Parentheses</t>
-  </si>
-  <si>
-    <t>Next Permutation</t>
-  </si>
-  <si>
-    <t>Implement Magic Dictionary</t>
-  </si>
-  <si>
-    <t>Maximum XOR of Two Numbers in an Array</t>
-  </si>
-  <si>
-    <t>Next Greater Element II</t>
-  </si>
-  <si>
-    <t>Redundant Connection</t>
-  </si>
-  <si>
-    <t>Clone Graph</t>
-  </si>
-  <si>
-    <t>Pow(x, n)</t>
-  </si>
-  <si>
-    <t>Implement Trie (Prefix Tree)</t>
-  </si>
-  <si>
-    <t>Design Tic-Tac-Toe</t>
-  </si>
-  <si>
-    <t>Find Duplicate Subtrees</t>
-  </si>
-  <si>
-    <t>Sequence Reconstruction</t>
-  </si>
-  <si>
-    <t>Best Time to Buy and Sell Stock with Cooldown</t>
-  </si>
-  <si>
-    <t>Linked List Random Node</t>
-  </si>
-  <si>
-    <t>Remove K Digits</t>
-  </si>
-  <si>
-    <t>Range Addition</t>
-  </si>
-  <si>
-    <t>Combination Sum IV</t>
-  </si>
-  <si>
-    <t>Design Phone Directory</t>
-  </si>
-  <si>
-    <t>Design Snake Game</t>
-  </si>
-  <si>
-    <t>Guess Number Higher or Lower II</t>
-  </si>
-  <si>
-    <t>Line Reflection</t>
-  </si>
-  <si>
-    <t>Graph Valid Tree</t>
-  </si>
-  <si>
-    <t>Predict the Winner</t>
-  </si>
-  <si>
-    <t>01 Matrix</t>
-  </si>
-  <si>
-    <t>Integer Replacement</t>
-  </si>
-  <si>
-    <t>Largest Divisible Subset</t>
-  </si>
-  <si>
-    <t>Kth Smallest Element in a Sorted Matrix</t>
-  </si>
-  <si>
-    <t>Super Ugly Number</t>
-  </si>
-  <si>
-    <t>Verify Preorder Serialization of a Binary Tree</t>
-  </si>
-  <si>
-    <t>Number of Connected Components in an Undirected Graph</t>
-  </si>
-  <si>
-    <t>Sort Characters By Frequency</t>
-  </si>
-  <si>
-    <t>Minimum Height Trees</t>
-  </si>
-  <si>
-    <t>My Calendar I</t>
-  </si>
-  <si>
-    <t>Convex Polygon</t>
-  </si>
-  <si>
-    <t>Ones and Zeroes</t>
-  </si>
-  <si>
-    <t>Magical String</t>
-  </si>
-  <si>
-    <t>Binary Tree Vertical Order Traversal</t>
-  </si>
-  <si>
-    <t>Count Numbers with Unique Digits</t>
-  </si>
-  <si>
-    <t>Max Consecutive Ones II</t>
-  </si>
-  <si>
-    <t>https://www.cnblogs.com/grandyang/p/6376115.html</t>
-  </si>
-  <si>
-    <t>Target Sum</t>
-  </si>
-  <si>
-    <t>Longest Uncommon Subsequence II</t>
-  </si>
-  <si>
-    <t>Beautiful Arrangement</t>
-  </si>
-  <si>
-    <t>Lonely Pixel I</t>
-  </si>
-  <si>
-    <t>Lonely Pixel II</t>
-  </si>
-  <si>
-    <t>Encode and Decode TinyURL</t>
-  </si>
-  <si>
-    <t>Output Contest Matches</t>
-  </si>
-  <si>
-    <t>Boundary of Binary Tree</t>
-  </si>
-  <si>
-    <t>Binary Tree Longest Consecutive Sequence II</t>
-  </si>
-  <si>
-    <t>Subarray Sum Equals K</t>
-  </si>
-  <si>
-    <t>Delete Operation for Two Strings</t>
-  </si>
-  <si>
-    <t>Shopping Offers</t>
-  </si>
-  <si>
-    <t>4 Keys Keyboard</t>
-  </si>
-  <si>
-    <t>Find K Closest Elements</t>
-  </si>
-  <si>
-    <t>Split Array into Consecutive Subsequences</t>
-  </si>
-  <si>
-    <t>Beautiful Arrangement II</t>
-  </si>
-  <si>
-    <t>My Calendar II</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -743,13 +749,13 @@
       <sz val="22"/>
       <color rgb="FF24292E"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF24292E"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -781,122 +787,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -933,176 +830,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1134,247 +863,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1392,72 +891,32 @@
     <xf numFmtId="10" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="31" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="7" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="32" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="5">
+    <cellStyle name="差" xfId="1" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
+    <cellStyle name="好" xfId="3" builtinId="26"/>
+    <cellStyle name="适中" xfId="4" builtinId="28"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1715,33 +1174,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.8796296296296" customWidth="1"/>
+    <col min="1" max="1" width="39.875" customWidth="1"/>
     <col min="2" max="2" width="41.75" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
-    <col min="4" max="4" width="29.6296296296296" customWidth="1"/>
-    <col min="6" max="6" width="17.3796296296296" customWidth="1"/>
+    <col min="4" max="4" width="29.625" customWidth="1"/>
+    <col min="6" max="6" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33.15" spans="1:1">
+    <row r="1" spans="1:5" ht="33" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="19.95" spans="1:4">
+    <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1755,7 +1214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="19.95" spans="1:5">
+    <row r="3" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>346</v>
       </c>
@@ -1763,14 +1222,14 @@
         <v>5</v>
       </c>
       <c r="C3" s="4">
-        <v>0.595</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" ht="19.95" spans="1:5">
+    <row r="4" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>66</v>
       </c>
@@ -1778,14 +1237,14 @@
         <v>7</v>
       </c>
       <c r="C4" s="4">
-        <v>0.391</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" ht="19.95" spans="1:5">
+    <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>686</v>
       </c>
@@ -1793,14 +1252,14 @@
         <v>8</v>
       </c>
       <c r="C5" s="7">
-        <v>0.329</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" ht="19.95" spans="1:5">
+    <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>246</v>
       </c>
@@ -1815,7 +1274,7 @@
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" ht="19.95" spans="1:5">
+    <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>345</v>
       </c>
@@ -1823,14 +1282,14 @@
         <v>10</v>
       </c>
       <c r="C7" s="4">
-        <v>0.387</v>
+        <v>0.38700000000000001</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" ht="19.95" spans="1:4">
+    <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>687</v>
       </c>
@@ -1838,13 +1297,13 @@
         <v>11</v>
       </c>
       <c r="C8" s="4">
-        <v>0.333</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" ht="19.95" spans="1:5">
+    <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>276</v>
       </c>
@@ -1852,14 +1311,14 @@
         <v>12</v>
       </c>
       <c r="C9" s="4">
-        <v>0.347</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" ht="19.95" spans="1:5">
+    <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>401</v>
       </c>
@@ -1867,14 +1326,14 @@
         <v>13</v>
       </c>
       <c r="C10" s="7">
-        <v>0.449</v>
+        <v>0.44900000000000001</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" ht="19.95" spans="1:4">
+    <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>463</v>
       </c>
@@ -1882,13 +1341,13 @@
         <v>14</v>
       </c>
       <c r="C11" s="4">
-        <v>0.575</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" ht="19.95" spans="1:5">
+    <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>266</v>
       </c>
@@ -1896,14 +1355,14 @@
         <v>15</v>
       </c>
       <c r="C12" s="7">
-        <v>0.575</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" ht="19.95" spans="1:5">
+    <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>389</v>
       </c>
@@ -1918,7 +1377,7 @@
       </c>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" ht="19.95" spans="1:5">
+    <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>20</v>
       </c>
@@ -1926,14 +1385,14 @@
         <v>17</v>
       </c>
       <c r="C14" s="4">
-        <v>0.337</v>
+        <v>0.33700000000000002</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" ht="19.95" spans="1:5">
+    <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>293</v>
       </c>
@@ -1941,14 +1400,14 @@
         <v>18</v>
       </c>
       <c r="C15" s="4">
-        <v>0.565</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" ht="19.95" spans="1:5">
+    <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>415</v>
       </c>
@@ -1956,14 +1415,14 @@
         <v>19</v>
       </c>
       <c r="C16" s="4">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" ht="19.95" spans="1:5">
+    <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>359</v>
       </c>
@@ -1971,14 +1430,14 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>0.601</v>
+        <v>0.60099999999999998</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" ht="19.95" spans="1:5">
+    <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>270</v>
       </c>
@@ -1986,14 +1445,14 @@
         <v>21</v>
       </c>
       <c r="C18" s="4">
-        <v>0.401</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" ht="19.95" spans="1:5">
+    <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>400</v>
       </c>
@@ -2001,14 +1460,14 @@
         <v>22</v>
       </c>
       <c r="C19" s="7">
-        <v>0.301</v>
+        <v>0.30099999999999999</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" ht="19.95" spans="1:4">
+    <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>422</v>
       </c>
@@ -2016,13 +1475,13 @@
         <v>23</v>
       </c>
       <c r="C20" s="4">
-        <v>0.364</v>
+        <v>0.36399999999999999</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" ht="19.95" spans="1:4">
+    <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>155</v>
       </c>
@@ -2030,13 +1489,13 @@
         <v>24</v>
       </c>
       <c r="C21" s="4">
-        <v>0.297</v>
+        <v>0.29699999999999999</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" ht="19.95" spans="1:5">
+    <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>409</v>
       </c>
@@ -2044,14 +1503,14 @@
         <v>25</v>
       </c>
       <c r="C22" s="4">
-        <v>0.455</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" ht="19.95" spans="1:5">
+    <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>543</v>
       </c>
@@ -2059,14 +1518,14 @@
         <v>26</v>
       </c>
       <c r="C23" s="7">
-        <v>0.447</v>
+        <v>0.44700000000000001</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" ht="19.95" spans="1:4">
+    <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>231</v>
       </c>
@@ -2074,13 +1533,13 @@
         <v>27</v>
       </c>
       <c r="C24" s="7">
-        <v>0.404</v>
+        <v>0.40400000000000003</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" ht="19.95" spans="1:4">
+    <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>501</v>
       </c>
@@ -2094,7 +1553,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" ht="19.95" spans="1:5">
+    <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>475</v>
       </c>
@@ -2102,14 +1561,14 @@
         <v>29</v>
       </c>
       <c r="C26" s="4">
-        <v>0.296</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" ht="19.95" spans="1:5">
+    <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>551</v>
       </c>
@@ -2124,7 +1583,7 @@
       </c>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" ht="19.95" spans="1:5">
+    <row r="28" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>459</v>
       </c>
@@ -2132,14 +1591,14 @@
         <v>31</v>
       </c>
       <c r="C28" s="7">
-        <v>0.382</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E28" s="9"/>
     </row>
-    <row r="29" ht="19.95" spans="1:5">
+    <row r="29" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>408</v>
       </c>
@@ -2147,14 +1606,14 @@
         <v>32</v>
       </c>
       <c r="C29" s="4">
-        <v>0.282</v>
+        <v>0.28199999999999997</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" ht="19.95" spans="1:5">
+    <row r="30" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>530</v>
       </c>
@@ -2162,14 +1621,14 @@
         <v>33</v>
       </c>
       <c r="C30" s="7">
-        <v>0.471</v>
+        <v>0.47099999999999997</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E30" s="5"/>
     </row>
-    <row r="31" ht="19.95" spans="1:5">
+    <row r="31" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>374</v>
       </c>
@@ -2177,14 +1636,14 @@
         <v>34</v>
       </c>
       <c r="C31" s="4">
-        <v>0.359</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E31" s="5"/>
     </row>
-    <row r="32" ht="39.15" spans="1:5">
+    <row r="32" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>448</v>
       </c>
@@ -2192,14 +1651,14 @@
         <v>35</v>
       </c>
       <c r="C32" s="7">
-        <v>0.512</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E32" s="5"/>
     </row>
-    <row r="33" ht="19.95" spans="1:4">
+    <row r="33" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>326</v>
       </c>
@@ -2207,13 +1666,13 @@
         <v>36</v>
       </c>
       <c r="C33" s="7">
-        <v>0.404</v>
+        <v>0.40400000000000003</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="34" ht="19.95" spans="1:4">
+    <row r="34" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>257</v>
       </c>
@@ -2221,13 +1680,13 @@
         <v>37</v>
       </c>
       <c r="C34" s="4">
-        <v>0.397</v>
+        <v>0.39700000000000002</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="35" ht="19.95" spans="1:5">
+    <row r="35" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>520</v>
       </c>
@@ -2235,14 +1694,14 @@
         <v>38</v>
       </c>
       <c r="C35" s="7">
-        <v>0.519</v>
+        <v>0.51900000000000002</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E35" s="5"/>
     </row>
-    <row r="36" ht="19.95" spans="1:5">
+    <row r="36" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>485</v>
       </c>
@@ -2257,7 +1716,7 @@
       </c>
       <c r="E36" s="5"/>
     </row>
-    <row r="37" ht="19.95" spans="1:4">
+    <row r="37" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>506</v>
       </c>
@@ -2265,13 +1724,13 @@
         <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>0.466</v>
+        <v>0.46600000000000003</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="38" ht="19.95" spans="1:4">
+    <row r="38" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>447</v>
       </c>
@@ -2279,13 +1738,13 @@
         <v>41</v>
       </c>
       <c r="C38" s="7">
-        <v>0.457</v>
+        <v>0.45700000000000002</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="39" ht="19.95" spans="1:4">
+    <row r="39" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>521</v>
       </c>
@@ -2293,13 +1752,13 @@
         <v>42</v>
       </c>
       <c r="C39" s="4">
-        <v>0.559</v>
+        <v>0.55900000000000005</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="40" ht="19.95" spans="1:4">
+    <row r="40" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>541</v>
       </c>
@@ -2313,7 +1772,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" ht="19.95" spans="1:5">
+    <row r="41" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>581</v>
       </c>
@@ -2321,14 +1780,14 @@
         <v>44</v>
       </c>
       <c r="C41" s="4">
-        <v>0.293</v>
+        <v>0.29299999999999998</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E41" s="5"/>
     </row>
-    <row r="42" ht="19.95" spans="1:4">
+    <row r="42" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>604</v>
       </c>
@@ -2336,13 +1795,13 @@
         <v>45</v>
       </c>
       <c r="C42" s="4">
-        <v>0.325</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="43" ht="19.95" spans="1:5">
+    <row r="43" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>643</v>
       </c>
@@ -2357,7 +1816,7 @@
       </c>
       <c r="E43" s="5"/>
     </row>
-    <row r="44" ht="19.95" spans="1:5">
+    <row r="44" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>657</v>
       </c>
@@ -2365,14 +1824,14 @@
         <v>47</v>
       </c>
       <c r="C44" s="4">
-        <v>0.686</v>
+        <v>0.68600000000000005</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E44" s="5"/>
     </row>
-    <row r="45" ht="19.95" spans="1:5">
+    <row r="45" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
         <v>665</v>
       </c>
@@ -2380,14 +1839,14 @@
         <v>48</v>
       </c>
       <c r="C45" s="7">
-        <v>0.211</v>
+        <v>0.21099999999999999</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E45" s="5"/>
     </row>
-    <row r="46" ht="19.95" spans="1:4">
+    <row r="46" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
         <v>683</v>
       </c>
@@ -2395,13 +1854,13 @@
         <v>49</v>
       </c>
       <c r="C46" s="7">
-        <v>0.366</v>
+        <v>0.36599999999999999</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="47" ht="39.15" spans="1:4">
+    <row r="47" spans="1:5" ht="34.5" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
         <v>340</v>
       </c>
@@ -2409,13 +1868,13 @@
         <v>51</v>
       </c>
       <c r="C47" s="7">
-        <v>0.392</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="48" ht="19.95" spans="1:5">
+    <row r="48" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
         <v>308</v>
       </c>
@@ -2423,14 +1882,14 @@
         <v>52</v>
       </c>
       <c r="C48" s="7">
-        <v>0.241</v>
+        <v>0.24099999999999999</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E48" s="9"/>
     </row>
-    <row r="49" ht="19.95" spans="1:4">
+    <row r="49" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>425</v>
       </c>
@@ -2444,124 +1903,124 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" ht="19.95" spans="1:4">
+    <row r="50" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>568</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>54</v>
+        <v>229</v>
       </c>
       <c r="C50" s="4">
-        <v>0.391</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" ht="19.95" spans="1:4">
+    <row r="51" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
         <v>317</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>55</v>
+        <v>230</v>
       </c>
       <c r="C51" s="7">
-        <v>0.344</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" ht="19.95" spans="1:4">
+    <row r="52" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
         <v>305</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C52" s="7">
-        <v>0.393</v>
+        <v>0.39300000000000002</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="53" ht="19.95" spans="1:4">
+    <row r="53" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>218</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C53" s="4">
-        <v>0.282</v>
+        <v>0.28199999999999997</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="54" ht="39.15" spans="1:4">
+    <row r="54" spans="1:4" ht="34.5" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>159</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C54" s="4">
-        <v>0.419</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="55" ht="19.95" spans="1:4">
+    <row r="55" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>329</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C55" s="4">
-        <v>0.369</v>
+        <v>0.36899999999999999</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="56" ht="19.95" spans="1:4">
+    <row r="56" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>471</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C56" s="4">
-        <v>0.428</v>
+        <v>0.42799999999999999</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="57" ht="19.95" spans="1:4">
+    <row r="57" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>391</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C57" s="4">
-        <v>0.271</v>
+        <v>0.27100000000000002</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="58" ht="19.95" spans="1:4">
+    <row r="58" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
         <v>407</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C58" s="7">
         <v>0.376</v>
@@ -2570,12 +2029,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" ht="19.95" spans="1:4">
+    <row r="59" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>297</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C59" s="4">
         <v>0.34</v>
@@ -2584,12 +2043,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" ht="19.95" spans="1:4">
+    <row r="60" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>146</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C60" s="4">
         <v>0.187</v>
@@ -2598,26 +2057,26 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" ht="19.95" spans="1:4">
+    <row r="61" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>295</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C61" s="4">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="62" ht="19.95" spans="1:4">
+    <row r="62" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
         <v>42</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C62" s="7">
         <v>0.372</v>
@@ -2626,40 +2085,40 @@
         <v>50</v>
       </c>
     </row>
-    <row r="63" ht="19.95" spans="1:4">
+    <row r="63" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>315</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C63" s="4">
-        <v>0.348</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="64" ht="19.95" spans="1:4">
+    <row r="64" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>411</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C64" s="4">
-        <v>0.333</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="65" ht="19.95" spans="1:4">
+    <row r="65" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A65" s="6">
         <v>269</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C65" s="7">
         <v>0.252</v>
@@ -2668,26 +2127,26 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" ht="19.95" spans="1:4">
+    <row r="66" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>239</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C66" s="4">
-        <v>0.336</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="67" ht="19.95" spans="1:4">
+    <row r="67" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>465</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C67" s="4">
         <v>0.378</v>
@@ -2696,12 +2155,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="68" ht="19.95" spans="1:4">
+    <row r="68" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A68" s="6">
         <v>128</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C68" s="7">
         <v>0.375</v>
@@ -2710,12 +2169,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="69" ht="39.15" spans="1:4">
+    <row r="69" spans="1:5" ht="34.5" x14ac:dyDescent="0.2">
       <c r="A69" s="6">
         <v>158</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C69" s="7">
         <v>0.245</v>
@@ -2724,40 +2183,40 @@
         <v>50</v>
       </c>
     </row>
-    <row r="70" ht="19.95" spans="1:4">
+    <row r="70" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A70" s="6">
         <v>23</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C70" s="7">
-        <v>0.277</v>
+        <v>0.27700000000000002</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="71" ht="19.95" spans="1:4">
+    <row r="71" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>10</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C71" s="4">
-        <v>0.243</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="72" ht="19.95" spans="1:4">
+    <row r="72" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A72" s="6">
         <v>212</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C72" s="7">
         <v>0.24</v>
@@ -2766,12 +2225,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="73" ht="19.95" spans="1:4">
+    <row r="73" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>4</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C73" s="4">
         <v>0.223</v>
@@ -2780,12 +2239,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="74" ht="19.95" spans="1:4">
+    <row r="74" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A74" s="6">
         <v>358</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C74" s="7">
         <v>0.317</v>
@@ -2794,182 +2253,182 @@
         <v>50</v>
       </c>
     </row>
-    <row r="75" ht="19.95" spans="1:4">
+    <row r="75" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A75" s="6">
         <v>587</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C75" s="7">
-        <v>0.326</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="76" ht="19.95" spans="1:4">
+    <row r="76" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>679</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C76" s="4">
-        <v>0.389</v>
+        <v>0.38900000000000001</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="77" ht="19.95" spans="1:4">
+    <row r="77" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A77" s="6">
         <v>140</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C77" s="7">
-        <v>0.239</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="D77" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="78" ht="19.95" spans="1:4">
+    <row r="78" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A78" s="6">
         <v>224</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C78" s="7">
-        <v>0.278</v>
+        <v>0.27800000000000002</v>
       </c>
       <c r="D78" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="79" ht="19.95" spans="1:5">
+    <row r="79" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>327</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C79" s="4">
-        <v>0.301</v>
+        <v>0.30099999999999999</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E79" s="9"/>
     </row>
-    <row r="80" ht="19.95" spans="1:5">
+    <row r="80" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>57</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C80" s="4">
-        <v>0.283</v>
+        <v>0.28299999999999997</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E80" s="9"/>
     </row>
-    <row r="81" ht="19.95" spans="1:4">
+    <row r="81" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>336</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C81" s="4">
-        <v>0.266</v>
+        <v>0.26600000000000001</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="82" ht="19.95" spans="1:4">
+    <row r="82" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A82" s="6">
         <v>44</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C82" s="7">
-        <v>0.206</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="D82" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="83" ht="19.95" spans="1:4">
+    <row r="83" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>460</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C83" s="4">
-        <v>0.244</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="84" ht="39.15" spans="1:4">
+    <row r="84" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A84" s="6">
         <v>363</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C84" s="7">
-        <v>0.334</v>
+        <v>0.33400000000000002</v>
       </c>
       <c r="D84" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="85" ht="19.95" spans="1:4">
+    <row r="85" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>354</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C85" s="4">
-        <v>0.323</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="86" ht="19.95" spans="1:4">
+    <row r="86" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A86" s="6">
         <v>272</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C86" s="7">
-        <v>0.394</v>
+        <v>0.39400000000000002</v>
       </c>
       <c r="D86" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="87" ht="19.95" spans="1:4">
+    <row r="87" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A87" s="6">
         <v>214</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C87" s="7">
         <v>0.247</v>
@@ -2978,41 +2437,41 @@
         <v>50</v>
       </c>
     </row>
-    <row r="88" ht="19.95" spans="1:4">
+    <row r="88" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>282</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C88" s="4">
-        <v>0.302</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="89" ht="39.15" spans="1:5">
+    <row r="89" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A89" s="6">
         <v>302</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C89" s="7">
-        <v>0.459</v>
+        <v>0.45900000000000002</v>
       </c>
       <c r="D89" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E89" s="5"/>
     </row>
-    <row r="90" ht="19.95" spans="1:4">
+    <row r="90" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A90" s="6">
         <v>321</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C90" s="7">
         <v>0.248</v>
@@ -3021,12 +2480,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="91" ht="19.95" spans="1:4">
+    <row r="91" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A91" s="6">
         <v>480</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C91" s="7">
         <v>0.311</v>
@@ -3035,26 +2494,26 @@
         <v>50</v>
       </c>
     </row>
-    <row r="92" ht="19.95" spans="1:4">
+    <row r="92" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A92" s="6">
         <v>483</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C92" s="7">
-        <v>0.334</v>
+        <v>0.33400000000000002</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="93" ht="19.95" spans="1:4">
+    <row r="93" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A93" s="6">
         <v>312</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C93" s="7">
         <v>0.432</v>
@@ -3063,82 +2522,82 @@
         <v>50</v>
       </c>
     </row>
-    <row r="94" ht="19.95" spans="1:4">
+    <row r="94" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A94" s="6">
         <v>493</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C94" s="7">
-        <v>0.206</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="D94" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="95" ht="19.95" spans="1:4">
+    <row r="95" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>514</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C95" s="4">
-        <v>0.391</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="96" ht="19.95" spans="1:4">
+    <row r="96" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A96" s="6">
         <v>527</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>100</v>
+        <v>234</v>
       </c>
       <c r="C96" s="7">
-        <v>0.419</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="D96" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="97" ht="19.95" spans="1:4">
+    <row r="97" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>316</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C97" s="4">
-        <v>0.299</v>
+        <v>0.29899999999999999</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="98" ht="19.95" spans="1:4">
+    <row r="98" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A98" s="6">
         <v>330</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C98" s="7">
-        <v>0.323</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="D98" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="99" ht="19.95" spans="1:4">
+    <row r="99" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A99" s="6">
         <v>552</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C99" s="7">
         <v>0.313</v>
@@ -3147,26 +2606,26 @@
         <v>50</v>
       </c>
     </row>
-    <row r="100" ht="19.95" spans="1:4">
+    <row r="100" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A100" s="6">
         <v>569</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C100" s="7">
-        <v>0.342</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="D100" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="101" ht="19.95" spans="1:4">
+    <row r="101" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A101" s="6">
         <v>644</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C101" s="7">
         <v>0.23</v>
@@ -3175,12 +2634,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="102" ht="19.95" spans="1:4">
+    <row r="102" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A102" s="6">
         <v>656</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>106</v>
+        <v>233</v>
       </c>
       <c r="C102" s="7">
         <v>0.251</v>
@@ -3189,12 +2648,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="103" ht="39.15" spans="1:4">
+    <row r="103" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A103" s="6">
         <v>668</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C103" s="7">
         <v>0.377</v>
@@ -3203,40 +2662,40 @@
         <v>50</v>
       </c>
     </row>
-    <row r="104" ht="19.95" spans="1:4">
+    <row r="104" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
         <v>685</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C104" s="4">
-        <v>0.284</v>
+        <v>0.28399999999999997</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="105" ht="39.15" spans="1:4">
+    <row r="105" spans="1:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="A105" s="6">
         <v>689</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>109</v>
+        <v>232</v>
       </c>
       <c r="C105" s="7">
-        <v>0.413</v>
+        <v>0.41299999999999998</v>
       </c>
       <c r="D105" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="106" ht="19.95" spans="1:4">
+    <row r="106" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
         <v>719</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>110</v>
+        <v>231</v>
       </c>
       <c r="C106" s="4">
         <v>0.253</v>
@@ -3245,1677 +2704,1677 @@
         <v>50</v>
       </c>
     </row>
-    <row r="107" ht="19.95" spans="1:4">
+    <row r="107" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A107" s="6">
         <v>726</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C107" s="7">
-        <v>0.457</v>
+        <v>0.45700000000000002</v>
       </c>
       <c r="D107" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="108" ht="19.95" spans="1:4">
+    <row r="108" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
         <v>727</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C108" s="4">
-        <v>0.291</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="109" ht="19.95" spans="1:4">
+    <row r="109" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A109" s="6">
         <v>534</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C109" s="7">
         <v>0</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="110" ht="19.95" spans="1:5">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
         <v>388</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C110" s="4">
         <v>0.371</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E110" s="9"/>
     </row>
-    <row r="111" ht="19.95" spans="1:6">
+    <row r="111" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
         <v>681</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C111" s="4">
-        <v>0.429</v>
+        <v>0.42899999999999999</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E111" s="5"/>
       <c r="F111" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="112" ht="19.95" spans="1:5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
         <v>482</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C112" s="4">
-        <v>0.418</v>
+        <v>0.41799999999999998</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E112" s="9"/>
     </row>
-    <row r="113" ht="39.15" spans="1:4">
+    <row r="113" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A113" s="6">
         <v>298</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C113" s="7">
-        <v>0.414</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="114" ht="19.95" spans="1:4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
         <v>418</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C114" s="4">
-        <v>0.278</v>
+        <v>0.27800000000000002</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="115" ht="19.95" spans="1:6">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A115" s="6">
         <v>281</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C115" s="7">
-        <v>0.514</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E115" s="5"/>
       <c r="F115" s="10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="116" ht="19.95" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A116" s="6">
         <v>361</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C116" s="7">
-        <v>0.394</v>
+        <v>0.39400000000000002</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E116" s="9"/>
     </row>
-    <row r="117" ht="19.95" spans="1:5">
+    <row r="117" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
         <v>394</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C117" s="4">
-        <v>0.417</v>
+        <v>0.41699999999999998</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E117" s="9"/>
     </row>
-    <row r="118" ht="19.95" spans="1:5">
+    <row r="118" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A118" s="6">
         <v>393</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C118" s="7">
-        <v>0.347</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E118" s="9"/>
     </row>
-    <row r="119" ht="19.95" spans="1:6">
+    <row r="119" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A119" s="6">
         <v>163</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C119" s="7">
-        <v>0.238</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E119" s="9"/>
       <c r="F119" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="120" ht="19.95" spans="1:4">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
         <v>351</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C120" s="4">
         <v>0.443</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="121" ht="19.95" spans="1:4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
         <v>271</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C121" s="4">
-        <v>0.262</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="122" ht="19.95" spans="1:4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A122" s="6">
         <v>289</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C122" s="7">
         <v>0.371</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="123" ht="19.95" spans="1:5">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
         <v>288</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C123" s="4">
-        <v>0.173</v>
+        <v>0.17299999999999999</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E123" s="5"/>
     </row>
-    <row r="124" ht="19.95" spans="1:5">
+    <row r="124" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
         <v>200</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C124" s="4">
-        <v>0.356</v>
+        <v>0.35599999999999998</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E124" s="5"/>
     </row>
-    <row r="125" ht="19.95" spans="1:5">
+    <row r="125" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A125" s="6">
         <v>280</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C125" s="7">
-        <v>0.579</v>
+        <v>0.57899999999999996</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E125" s="9"/>
     </row>
-    <row r="126" ht="19.95" spans="1:5">
+    <row r="126" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
         <v>616</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C126" s="4">
-        <v>0.387</v>
+        <v>0.38700000000000001</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E126" s="8"/>
     </row>
-    <row r="127" ht="19.95" spans="1:4">
+    <row r="127" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A127" s="6">
         <v>259</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C127" s="7">
-        <v>0.417</v>
+        <v>0.41699999999999998</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="128" ht="19.95" spans="1:5">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A128" s="6">
         <v>399</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C128" s="7">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E128" s="9"/>
     </row>
-    <row r="129" ht="19.95" spans="1:4">
+    <row r="129" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A129" s="6">
         <v>417</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C129" s="7">
-        <v>0.341</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="130" ht="19.95" spans="1:4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
         <v>406</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C130" s="4">
-        <v>0.562</v>
+        <v>0.56200000000000006</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="131" ht="19.95" spans="1:5">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A131" s="6">
         <v>279</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C131" s="7">
         <v>0.375</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E131" s="8"/>
     </row>
-    <row r="132" ht="19.95" spans="1:4">
+    <row r="132" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A132" s="6">
         <v>56</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C132" s="7">
         <v>0.31</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="133" ht="19.95" spans="1:4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A133" s="6">
         <v>284</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C133" s="7">
-        <v>0.355</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="134" ht="19.95" spans="1:6">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
         <v>247</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C134" s="4">
-        <v>0.405</v>
+        <v>0.40500000000000003</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E134" s="5"/>
       <c r="F134" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="135" ht="39.15" spans="1:4">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A135" s="6">
         <v>524</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C135" s="7">
         <v>0.433</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="136" ht="19.95" spans="1:6">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A136" s="6">
         <v>228</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C136" s="7">
         <v>0.308</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E136" s="9"/>
       <c r="F136" s="10" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="137" ht="19.95" spans="1:4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A137" s="3">
         <v>286</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C137" s="4">
-        <v>0.448</v>
+        <v>0.44800000000000001</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="138" ht="19.95" spans="1:6">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A138" s="6">
         <v>362</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C138" s="7">
-        <v>0.544</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E138" s="9"/>
       <c r="F138" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="139" ht="19.95" spans="1:5">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A139" s="6">
         <v>294</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C139" s="7">
-        <v>0.466</v>
+        <v>0.46600000000000003</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E139" s="8"/>
     </row>
-    <row r="140" ht="19.95" spans="1:5">
+    <row r="140" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A140" s="6">
         <v>380</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C140" s="7">
-        <v>0.394</v>
+        <v>0.39400000000000002</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E140" s="9"/>
     </row>
-    <row r="141" ht="19.95" spans="1:5">
+    <row r="141" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A141" s="6">
         <v>249</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C141" s="7">
-        <v>0.427</v>
+        <v>0.42699999999999999</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E141" s="9"/>
     </row>
-    <row r="142" ht="19.95" spans="1:5">
+    <row r="142" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A142" s="3">
         <v>320</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C142" s="4">
-        <v>0.455</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E142" s="9"/>
     </row>
-    <row r="143" ht="19.95" spans="1:4">
+    <row r="143" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A143" s="6">
         <v>505</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C143" s="7">
-        <v>0.382</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="144" ht="19.95" spans="1:4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A144" s="3">
         <v>341</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C144" s="4">
-        <v>0.422</v>
+        <v>0.42199999999999999</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="145" ht="19.95" spans="1:4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A145" s="6">
         <v>360</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C145" s="7">
-        <v>0.445</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="146" ht="19.95" spans="1:4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A146" s="6">
         <v>274</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C146" s="7">
-        <v>0.335</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="147" ht="19.95" spans="1:4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A147" s="3">
         <v>253</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C147" s="4">
-        <v>0.393</v>
+        <v>0.39300000000000002</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="148" ht="19.95" spans="1:4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A148" s="6">
         <v>139</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C148" s="7">
         <v>0.308</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="149" ht="19.95" spans="1:5">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A149" s="3">
         <v>230</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C149" s="4">
-        <v>0.445</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E149" s="5"/>
     </row>
-    <row r="150" ht="19.95" spans="1:5">
+    <row r="150" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A150" s="6">
         <v>162</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C150" s="7">
-        <v>0.381</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E150" s="8"/>
     </row>
-    <row r="151" ht="19.95" spans="1:4">
+    <row r="151" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A151" s="3">
         <v>498</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C151" s="4">
-        <v>0.461</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="152" ht="19.95" spans="1:4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A152" s="3">
         <v>490</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C152" s="4">
         <v>0.432</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="153" ht="19.95" spans="1:4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A153" s="6">
         <v>318</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C153" s="7">
-        <v>0.449</v>
+        <v>0.44900000000000001</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="154" ht="19.95" spans="1:4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A154" s="3">
         <v>240</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C154" s="4">
-        <v>0.388</v>
+        <v>0.38800000000000001</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="155" ht="19.95" spans="1:4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A155" s="6">
         <v>373</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C155" s="7">
         <v>0.309</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="156" ht="19.95" spans="1:5">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A156" s="6">
         <v>369</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C156" s="7">
-        <v>0.548</v>
+        <v>0.54800000000000004</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E156" s="9"/>
     </row>
-    <row r="157" ht="19.95" spans="1:6">
+    <row r="157" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A157" s="6">
         <v>251</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C157" s="7">
-        <v>0.409</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F157" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="158" ht="19.95" spans="1:4">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A158" s="3">
         <v>332</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C158" s="4">
-        <v>0.294</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="159" ht="19.95" spans="1:4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A159" s="6">
         <v>173</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C159" s="7">
-        <v>0.424</v>
+        <v>0.42399999999999999</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="160" ht="19.95" spans="1:4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A160" s="3">
         <v>54</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C160" s="4">
-        <v>0.266</v>
+        <v>0.26600000000000001</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="161" ht="19.95" spans="1:4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A161" s="3">
         <v>324</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C161" s="4">
-        <v>0.262</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="162" ht="39.15" spans="1:4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A162" s="6">
         <v>17</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C162" s="7">
-        <v>0.354</v>
+        <v>0.35399999999999998</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="163" ht="19.95" spans="1:5">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A163" s="3">
         <v>484</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C163" s="4">
-        <v>0.551</v>
+        <v>0.55100000000000005</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E163" s="9"/>
     </row>
-    <row r="164" ht="39.15" spans="1:4">
+    <row r="164" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A164" s="6">
         <v>562</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C164" s="7">
-        <v>0.409</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="165" ht="19.95" spans="1:4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A165" s="3">
         <v>166</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C165" s="4">
-        <v>0.178</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="166" ht="19.95" spans="1:4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A166" s="6">
         <v>22</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C166" s="7">
-        <v>0.463</v>
+        <v>0.46300000000000002</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="167" ht="19.95" spans="1:4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A167" s="3">
         <v>31</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C167" s="4">
-        <v>0.288</v>
+        <v>0.28799999999999998</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="168" ht="19.95" spans="1:4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A168" s="6">
         <v>676</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C168" s="7">
         <v>0.5</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="169" ht="39.15" spans="1:4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A169" s="6">
         <v>421</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C169" s="7">
-        <v>0.469</v>
+        <v>0.46899999999999997</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="170" ht="19.95" spans="1:4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A170" s="6">
         <v>503</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C170" s="7">
-        <v>0.473</v>
+        <v>0.47299999999999998</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="171" ht="19.95" spans="1:4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A171" s="6">
         <v>684</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C171" s="7">
-        <v>0.392</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="172" ht="19.95" spans="1:4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A172" s="3">
         <v>133</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C172" s="4">
         <v>0.251</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="173" ht="19.95" spans="1:4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A173" s="3">
         <v>50</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C173" s="4">
         <v>0.26</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="174" ht="19.95" spans="1:4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A174" s="3">
         <v>208</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C174" s="4">
-        <v>0.295</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="175" ht="19.95" spans="1:4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A175" s="6">
         <v>348</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C175" s="7">
-        <v>0.458</v>
+        <v>0.45800000000000002</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="176" ht="19.95" spans="1:4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A176" s="3">
         <v>652</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C176" s="4">
-        <v>0.358</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="177" ht="19.95" spans="1:4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A177" s="6">
         <v>444</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C177" s="7">
-        <v>0.196</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="178" ht="39.15" spans="1:4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="34.5" x14ac:dyDescent="0.2">
       <c r="A178" s="3">
         <v>309</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C178" s="4">
-        <v>0.413</v>
+        <v>0.41299999999999998</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="179" ht="19.95" spans="1:4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A179" s="3">
         <v>382</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C179" s="4">
-        <v>0.471</v>
+        <v>0.47099999999999997</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="180" ht="19.95" spans="1:4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A180" s="6">
         <v>402</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C180" s="7">
         <v>0.26</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="181" ht="19.95" spans="1:4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A181" s="3">
         <v>370</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C181" s="4">
-        <v>0.565</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="182" ht="19.95" spans="1:4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A182" s="6">
         <v>377</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C182" s="7">
-        <v>0.424</v>
+        <v>0.42399999999999999</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="183" ht="19.95" spans="1:4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A183" s="3">
         <v>379</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C183" s="4">
-        <v>0.341</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="184" ht="19.95" spans="1:4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A184" s="6">
         <v>353</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C184" s="7">
-        <v>0.268</v>
+        <v>0.26800000000000002</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="185" ht="19.95" spans="1:4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A185" s="3">
         <v>375</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C185" s="4">
-        <v>0.359</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="186" ht="19.95" spans="1:4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A186" s="3">
         <v>356</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C186" s="4">
-        <v>0.301</v>
+        <v>0.30099999999999999</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="187" ht="19.95" spans="1:4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A187" s="6">
         <v>261</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C187" s="7">
-        <v>0.381</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="188" ht="19.95" spans="1:4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A188" s="3">
         <v>486</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C188" s="4">
-        <v>0.451</v>
+        <v>0.45100000000000001</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="189" ht="19.95" spans="1:4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A189" s="6">
         <v>542</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C189" s="7">
         <v>0.33</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="190" ht="19.95" spans="1:5">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A190" s="3">
         <v>397</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C190" s="4">
-        <v>0.302</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E190" s="8"/>
     </row>
-    <row r="191" ht="19.95" spans="1:4">
+    <row r="191" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A191" s="6">
         <v>368</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C191" s="7">
-        <v>0.337</v>
+        <v>0.33700000000000002</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="192" ht="19.95" spans="1:4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A192" s="3">
         <v>378</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C192" s="4">
-        <v>0.452</v>
+        <v>0.45200000000000001</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="193" ht="19.95" spans="1:4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A193" s="3">
         <v>313</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C193" s="4">
         <v>0.38</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="194" ht="39.15" spans="1:5">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A194" s="6">
         <v>331</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C194" s="7">
-        <v>0.366</v>
+        <v>0.36599999999999999</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E194" s="8"/>
     </row>
-    <row r="195" ht="39.15" spans="1:4">
+    <row r="195" spans="1:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="A195" s="3">
         <v>323</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C195" s="4">
-        <v>0.483</v>
+        <v>0.48299999999999998</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="196" ht="19.95" spans="1:5">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A196" s="6">
         <v>451</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C196" s="7">
-        <v>0.511</v>
+        <v>0.51100000000000001</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E196" s="5"/>
     </row>
-    <row r="197" ht="19.95" spans="1:4">
+    <row r="197" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A197" s="3">
         <v>310</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C197" s="4">
-        <v>0.289</v>
+        <v>0.28899999999999998</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="198" ht="19.95" spans="1:5">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A198" s="3">
         <v>729</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C198" s="4">
-        <v>0.361</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E198" s="5"/>
     </row>
-    <row r="199" ht="19.95" spans="1:4">
+    <row r="199" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A199" s="6">
         <v>469</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C199" s="7">
-        <v>0.334</v>
+        <v>0.33400000000000002</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="200" ht="19.95" spans="1:4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A200" s="3">
         <v>474</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C200" s="4">
-        <v>0.391</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="201" ht="19.95" spans="1:4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A201" s="3">
         <v>481</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C201" s="4">
-        <v>0.456</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="202" ht="19.95" spans="1:5">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A202" s="3">
         <v>314</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C202" s="4">
         <v>0.373</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E202" s="5"/>
     </row>
-    <row r="203" ht="19.95" spans="1:4">
+    <row r="203" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A203" s="6">
         <v>357</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C203" s="7">
-        <v>0.461</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="204" ht="19.95" spans="1:6">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A204" s="3">
         <v>487</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C204" s="4">
-        <v>0.456</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E204" s="9"/>
       <c r="F204" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="205" ht="19.95" spans="1:5">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A205" s="3">
         <v>494</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C205" s="4">
         <v>0.436</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E205" s="9"/>
     </row>
-    <row r="206" ht="19.95" spans="1:5">
+    <row r="206" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A206" s="6">
         <v>522</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C206" s="7">
         <v>0.318</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E206" s="9"/>
     </row>
-    <row r="207" ht="19.95" spans="1:5">
+    <row r="207" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A207" s="3">
         <v>526</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C207" s="4">
-        <v>0.542</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E207" s="5"/>
     </row>
-    <row r="208" ht="19.95" spans="1:4">
+    <row r="208" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A208" s="6">
         <v>531</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C208" s="7">
-        <v>0.556</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="209" ht="19.95" spans="1:4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A209" s="3">
         <v>533</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C209" s="4">
-        <v>0.446</v>
+        <v>0.44600000000000001</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="210" ht="19.95" spans="1:4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A210" s="6">
         <v>535</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C210" s="7">
-        <v>0.742</v>
+        <v>0.74199999999999999</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="211" ht="19.95" spans="1:5">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A211" s="3">
         <v>544</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C211" s="4">
-        <v>0.709</v>
+        <v>0.70899999999999996</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E211" s="5"/>
     </row>
-    <row r="212" ht="19.95" spans="1:5">
+    <row r="212" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A212" s="6">
         <v>545</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C212" s="7">
-        <v>0.319</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="D212" s="6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E212" s="9"/>
     </row>
-    <row r="213" ht="39.15" spans="1:4">
+    <row r="213" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A213" s="3">
         <v>549</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C213" s="4">
-        <v>0.419</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="214" ht="19.95" spans="1:5">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A214" s="3">
         <v>560</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C214" s="4">
-        <v>0.404</v>
+        <v>0.40400000000000003</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E214" s="9"/>
     </row>
-    <row r="215" ht="19.95" spans="1:4">
+    <row r="215" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A215" s="6">
         <v>583</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C215" s="7">
         <v>0.442</v>
       </c>
       <c r="D215" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="216" ht="19.95" spans="1:4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A216" s="6">
         <v>638</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C216" s="7">
         <v>0.434</v>
       </c>
       <c r="D216" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="217" ht="19.95" spans="1:5">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A217" s="3">
         <v>651</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C217" s="4">
-        <v>0.488</v>
+        <v>0.48799999999999999</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E217" s="9"/>
     </row>
-    <row r="218" ht="19.95" spans="1:5">
+    <row r="218" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A218" s="6">
         <v>658</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C218" s="7">
-        <v>0.353</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E218" s="9"/>
     </row>
-    <row r="219" ht="39.15" spans="1:4">
+    <row r="219" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A219" s="3">
         <v>659</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C219" s="4">
-        <v>0.357</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="220" ht="19.95" spans="1:4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A220" s="3">
         <v>667</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C220" s="4">
-        <v>0.515</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="221" ht="19.95" spans="1:5">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A221" s="6">
         <v>731</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C221" s="7">
         <v>0.316</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E221" s="5"/>
     </row>
@@ -4923,13 +4382,13 @@
   <sortState ref="A3:D221">
     <sortCondition ref="D10"/>
   </sortState>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F111" r:id="rId1" display="https://www.youtube.com/embed/IAet94C1FCc?feature=oembed"/>
-    <hyperlink ref="F136" r:id="rId2" display="http://www.cnblogs.com/grandyang/p/4603555.html"/>
-    <hyperlink ref="F115" r:id="rId3" display="http://www.cnblogs.com/grandyang/p/5212785.html"/>
+    <hyperlink ref="F111" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F136" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F115" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/google_ranked.xlsx
+++ b/google_ranked.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\leet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D970EAE-95C3-4581-A298-1AC3238CD2AF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE7C1CF-61B5-4347-A794-10D0A82B7A6A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22365" windowHeight="9930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,678 +58,730 @@
     <t>Longest Univalue Path</t>
   </si>
   <si>
+    <t>Binary Watch</t>
+  </si>
+  <si>
+    <t>Palindrome Permutation</t>
+  </si>
+  <si>
+    <t>Find the Difference</t>
+  </si>
+  <si>
+    <t>Valid Parentheses</t>
+  </si>
+  <si>
+    <t>Flip Game</t>
+  </si>
+  <si>
+    <t>Add Strings</t>
+  </si>
+  <si>
+    <t>Logger Rate Limiter</t>
+  </si>
+  <si>
+    <t>Closest Binary Search Tree Value</t>
+  </si>
+  <si>
+    <t>Nth Digit</t>
+  </si>
+  <si>
+    <t>Min Stack</t>
+  </si>
+  <si>
+    <t>Longest Palindrome</t>
+  </si>
+  <si>
+    <t>Diameter of Binary Tree</t>
+  </si>
+  <si>
+    <t>Power of Two</t>
+  </si>
+  <si>
+    <t>Heaters</t>
+  </si>
+  <si>
+    <t>Student Attendance Record I</t>
+  </si>
+  <si>
+    <t>Repeated Substring Pattern</t>
+  </si>
+  <si>
+    <t>Valid Word Abbreviation</t>
+  </si>
+  <si>
+    <t>Minimum Absolute Difference in BST</t>
+  </si>
+  <si>
+    <t>Guess Number Higher or Lower</t>
+  </si>
+  <si>
+    <t>Find All Numbers Disappeared in an Array</t>
+  </si>
+  <si>
+    <t>Power of Three</t>
+  </si>
+  <si>
+    <t>Detect Capital</t>
+  </si>
+  <si>
+    <t>Max Consecutive Ones</t>
+  </si>
+  <si>
+    <t>Relative Ranks</t>
+  </si>
+  <si>
+    <t>Number of Boomerangs</t>
+  </si>
+  <si>
+    <t>Longest Uncommon Subsequence I</t>
+  </si>
+  <si>
+    <t>Reverse String II</t>
+  </si>
+  <si>
+    <t>Shortest Unsorted Continuous Subarray</t>
+  </si>
+  <si>
+    <t>Design Compressed String Iterator</t>
+  </si>
+  <si>
+    <t>Maximum Average Subarray I</t>
+  </si>
+  <si>
+    <t>Judge Route Circle</t>
+  </si>
+  <si>
+    <t>Non-decreasing Array</t>
+  </si>
+  <si>
+    <t>K Empty Slots</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>Longest Substring with At Most K Distinct Characters</t>
+  </si>
+  <si>
+    <t>Range Sum Query 2D - Mutable</t>
+  </si>
+  <si>
+    <t>Number of Islands II</t>
+  </si>
+  <si>
+    <t>The Skyline Problem</t>
+  </si>
+  <si>
+    <t>Longest Increasing Path in a Matrix</t>
+  </si>
+  <si>
+    <t>Encode String with Shortest Length</t>
+  </si>
+  <si>
+    <t>Perfect Rectangle</t>
+  </si>
+  <si>
+    <t>Trapping Rain Water II</t>
+  </si>
+  <si>
+    <t>Serialize and Deserialize Binary Tree</t>
+  </si>
+  <si>
+    <t>LRU Cache</t>
+  </si>
+  <si>
+    <t>Find Median from Data Stream</t>
+  </si>
+  <si>
+    <t>Trapping Rain Water</t>
+  </si>
+  <si>
+    <t>Count of Smaller Numbers After Self</t>
+  </si>
+  <si>
+    <t>Minimum Unique Word Abbreviation</t>
+  </si>
+  <si>
+    <t>Alien Dictionary</t>
+  </si>
+  <si>
+    <t>Longest Consecutive Sequence</t>
+  </si>
+  <si>
+    <t>Read N Characters Given Read4 II - Call multiple times</t>
+  </si>
+  <si>
+    <t>Merge k Sorted Lists</t>
+  </si>
+  <si>
+    <t>Word Search II</t>
+  </si>
+  <si>
+    <t>Median of Two Sorted Arrays</t>
+  </si>
+  <si>
+    <t>Rearrange String k Distance Apart</t>
+  </si>
+  <si>
+    <t>Erect the Fence</t>
+  </si>
+  <si>
+    <t>24 Game</t>
+  </si>
+  <si>
+    <t>Palindrome Pairs</t>
+  </si>
+  <si>
+    <t>LFU Cache</t>
+  </si>
+  <si>
+    <t>Max Sum of Rectangle No Larger Than K</t>
+  </si>
+  <si>
+    <t>Russian Doll Envelopes</t>
+  </si>
+  <si>
+    <t>Closest Binary Search Tree Value II</t>
+  </si>
+  <si>
+    <t>Shortest Palindrome</t>
+  </si>
+  <si>
+    <t>Expression Add Operators</t>
+  </si>
+  <si>
+    <t>Smallest Rectangle Enclosing Black Pixels</t>
+  </si>
+  <si>
+    <t>Reverse Pairs</t>
+  </si>
+  <si>
+    <t>Freedom Trail</t>
+  </si>
+  <si>
+    <t>Remove Duplicate Letters</t>
+  </si>
+  <si>
+    <t>Patching Array</t>
+  </si>
+  <si>
+    <t>Student Attendance Record II</t>
+  </si>
+  <si>
+    <t>Median Employee Salary</t>
+  </si>
+  <si>
+    <t>Maximum Average Subarray II</t>
+  </si>
+  <si>
+    <t>Kth Smallest Number in Multiplication Table</t>
+  </si>
+  <si>
+    <t>Redundant Connection II</t>
+  </si>
+  <si>
+    <t>Minimum Window Subsequence</t>
+  </si>
+  <si>
+    <t>Design TinyURL</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Longest Absolute File Path</t>
+  </si>
+  <si>
+    <t>Next Closest Time</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/IAet94C1FCc?feature=oembed</t>
+  </si>
+  <si>
+    <t>License Key Formatting</t>
+  </si>
+  <si>
+    <t>Zigzag Iterator</t>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/grandyang/p/5212785.html</t>
+  </si>
+  <si>
+    <t>Bomb Enemy</t>
+  </si>
+  <si>
+    <t>Decode String</t>
+  </si>
+  <si>
+    <t>UTF-8 Validation</t>
+  </si>
+  <si>
+    <t>Missing Ranges</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/grandyang/p/5184890.html</t>
+  </si>
+  <si>
+    <t>Android Unlock Patterns</t>
+  </si>
+  <si>
+    <t>Game of Life</t>
+  </si>
+  <si>
+    <t>Unique Word Abbreviation</t>
+  </si>
+  <si>
+    <t>Number of Islands</t>
+  </si>
+  <si>
+    <t>Wiggle Sort</t>
+  </si>
+  <si>
+    <t>Add Bold Tag in String</t>
+  </si>
+  <si>
+    <t>Evaluate Division</t>
+  </si>
+  <si>
+    <t>Pacific Atlantic Water Flow</t>
+  </si>
+  <si>
+    <t>Strobogrammatic Number II</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/grandyang/p/5200919.html</t>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/grandyang/p/4603555.html</t>
+  </si>
+  <si>
+    <t>Design Hit Counter</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/grandyang/p/5605552.html</t>
+  </si>
+  <si>
+    <t>Flip Game II</t>
+  </si>
+  <si>
+    <t>Insert Delete GetRandom O(1)</t>
+  </si>
+  <si>
+    <t>Group Shifted Strings</t>
+  </si>
+  <si>
+    <t>Generalized Abbreviation</t>
+  </si>
+  <si>
+    <t>The Maze II</t>
+  </si>
+  <si>
+    <t>Flatten Nested List Iterator</t>
+  </si>
+  <si>
+    <t>H-Index</t>
+  </si>
+  <si>
+    <t>Meeting Rooms II</t>
+  </si>
+  <si>
+    <t>Word Break</t>
+  </si>
+  <si>
+    <t>Kth Smallest Element in a BST</t>
+  </si>
+  <si>
+    <t>Find Peak Element</t>
+  </si>
+  <si>
+    <t>Diagonal Traverse</t>
+  </si>
+  <si>
+    <t>The Maze</t>
+  </si>
+  <si>
+    <t>Find K Pairs with Smallest Sums</t>
+  </si>
+  <si>
+    <t>Plus One Linked List</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/grandyang/p/5209621.html</t>
+  </si>
+  <si>
+    <t>Binary Search Tree Iterator</t>
+  </si>
+  <si>
+    <t>Spiral Matrix</t>
+  </si>
+  <si>
+    <t>Wiggle Sort II</t>
+  </si>
+  <si>
+    <t>Fraction to Recurring Decimal</t>
+  </si>
+  <si>
+    <t>Next Permutation</t>
+  </si>
+  <si>
+    <t>Maximum XOR of Two Numbers in an Array</t>
+  </si>
+  <si>
+    <t>Next Greater Element II</t>
+  </si>
+  <si>
+    <t>Redundant Connection</t>
+  </si>
+  <si>
+    <t>Clone Graph</t>
+  </si>
+  <si>
+    <t>Pow(x, n)</t>
+  </si>
+  <si>
+    <t>Implement Trie (Prefix Tree)</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock with Cooldown</t>
+  </si>
+  <si>
+    <t>Linked List Random Node</t>
+  </si>
+  <si>
+    <t>Remove K Digits</t>
+  </si>
+  <si>
+    <t>Range Addition</t>
+  </si>
+  <si>
+    <t>Combination Sum IV</t>
+  </si>
+  <si>
+    <t>Design Snake Game</t>
+  </si>
+  <si>
+    <t>Guess Number Higher or Lower II</t>
+  </si>
+  <si>
+    <t>Line Reflection</t>
+  </si>
+  <si>
+    <t>Graph Valid Tree</t>
+  </si>
+  <si>
+    <t>Predict the Winner</t>
+  </si>
+  <si>
+    <t>01 Matrix</t>
+  </si>
+  <si>
+    <t>Integer Replacement</t>
+  </si>
+  <si>
+    <t>Largest Divisible Subset</t>
+  </si>
+  <si>
+    <t>Kth Smallest Element in a Sorted Matrix</t>
+  </si>
+  <si>
+    <t>Super Ugly Number</t>
+  </si>
+  <si>
+    <t>Verify Preorder Serialization of a Binary Tree</t>
+  </si>
+  <si>
+    <t>Number of Connected Components in an Undirected Graph</t>
+  </si>
+  <si>
+    <t>Sort Characters By Frequency</t>
+  </si>
+  <si>
+    <t>Binary Tree Vertical Order Traversal</t>
+  </si>
+  <si>
+    <t>Max Consecutive Ones II</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/grandyang/p/6376115.html</t>
+  </si>
+  <si>
+    <t>Target Sum</t>
+  </si>
+  <si>
+    <t>Longest Uncommon Subsequence II</t>
+  </si>
+  <si>
+    <t>Beautiful Arrangement</t>
+  </si>
+  <si>
+    <t>Lonely Pixel I</t>
+  </si>
+  <si>
+    <t>Lonely Pixel II</t>
+  </si>
+  <si>
+    <t>Encode and Decode TinyURL</t>
+  </si>
+  <si>
+    <t>Output Contest Matches</t>
+  </si>
+  <si>
+    <t>Boundary of Binary Tree</t>
+  </si>
+  <si>
+    <t>Binary Tree Longest Consecutive Sequence II</t>
+  </si>
+  <si>
+    <t>Subarray Sum Equals K</t>
+  </si>
+  <si>
+    <t>Delete Operation for Two Strings</t>
+  </si>
+  <si>
+    <t>Shopping Offers</t>
+  </si>
+  <si>
+    <t>4 Keys Keyboard</t>
+  </si>
+  <si>
+    <t>Find K Closest Elements</t>
+  </si>
+  <si>
+    <t>Split Array into Consecutive Subsequences</t>
+  </si>
+  <si>
+    <t>Beautiful Arrangement II</t>
+  </si>
+  <si>
+    <t>Maximum Vacation Days</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shortest Distance from All Buildings</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find K-th Smallest Pair Distance</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximum Sum of 3 Non-Overlapping Subarrays</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coin Path</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Word Abbreviation</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Island Perimeter</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>Paint Fence</t>
-  </si>
-  <si>
-    <t>Binary Watch</t>
-  </si>
-  <si>
-    <t>Island Perimeter</t>
-  </si>
-  <si>
-    <t>Palindrome Permutation</t>
-  </si>
-  <si>
-    <t>Find the Difference</t>
-  </si>
-  <si>
-    <t>Valid Parentheses</t>
-  </si>
-  <si>
-    <t>Flip Game</t>
-  </si>
-  <si>
-    <t>Add Strings</t>
-  </si>
-  <si>
-    <t>Logger Rate Limiter</t>
-  </si>
-  <si>
-    <t>Closest Binary Search Tree Value</t>
-  </si>
-  <si>
-    <t>Nth Digit</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Valid Word Square</t>
-  </si>
-  <si>
-    <t>Min Stack</t>
-  </si>
-  <si>
-    <t>Longest Palindrome</t>
-  </si>
-  <si>
-    <t>Diameter of Binary Tree</t>
-  </si>
-  <si>
-    <t>Power of Two</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Find Mode in Binary Search Tree</t>
-  </si>
-  <si>
-    <t>Heaters</t>
-  </si>
-  <si>
-    <t>Student Attendance Record I</t>
-  </si>
-  <si>
-    <t>Repeated Substring Pattern</t>
-  </si>
-  <si>
-    <t>Valid Word Abbreviation</t>
-  </si>
-  <si>
-    <t>Minimum Absolute Difference in BST</t>
-  </si>
-  <si>
-    <t>Guess Number Higher or Lower</t>
-  </si>
-  <si>
-    <t>Find All Numbers Disappeared in an Array</t>
-  </si>
-  <si>
-    <t>Power of Three</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Binary Tree Paths</t>
-  </si>
-  <si>
-    <t>Detect Capital</t>
-  </si>
-  <si>
-    <t>Max Consecutive Ones</t>
-  </si>
-  <si>
-    <t>Relative Ranks</t>
-  </si>
-  <si>
-    <t>Number of Boomerangs</t>
-  </si>
-  <si>
-    <t>Longest Uncommon Subsequence I</t>
-  </si>
-  <si>
-    <t>Reverse String II</t>
-  </si>
-  <si>
-    <t>Shortest Unsorted Continuous Subarray</t>
-  </si>
-  <si>
-    <t>Design Compressed String Iterator</t>
-  </si>
-  <si>
-    <t>Maximum Average Subarray I</t>
-  </si>
-  <si>
-    <t>Judge Route Circle</t>
-  </si>
-  <si>
-    <t>Non-decreasing Array</t>
-  </si>
-  <si>
-    <t>K Empty Slots</t>
-  </si>
-  <si>
-    <t>Hard</t>
-  </si>
-  <si>
-    <t>Longest Substring with At Most K Distinct Characters</t>
-  </si>
-  <si>
-    <t>Range Sum Query 2D - Mutable</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reconstruct Itinerary</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find Permutation</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sentence Screen Fitting</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Encode and Decode Strings</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3Sum Smaller</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Queue Reconstruction by Height</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Perfect Squares</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Merge Intervals</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sort Transformed Array</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximum Product of Word Lengths</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Search a 2D Matrix II</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flatten 2D Vector</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Letter Combinations of a Phone Number</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Convex Polygon</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peeking Iterator</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Longest Word in Dictionary through Deleting</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Summary Ranges</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Walls and Gates</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wildcard Matching</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of Atoms</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smallest Good Base</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Design Tic-Tac-Toe</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find Duplicate Subtrees</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sequence Reconstruction</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Design Phone Directory</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>My Calendar II</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>My Calendar I</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ones and Zeroes</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magical String</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Word Squares</t>
-  </si>
-  <si>
-    <t>Number of Islands II</t>
-  </si>
-  <si>
-    <t>The Skyline Problem</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Longest Substring with At Most Two Distinct Characters</t>
-  </si>
-  <si>
-    <t>Longest Increasing Path in a Matrix</t>
-  </si>
-  <si>
-    <t>Encode String with Shortest Length</t>
-  </si>
-  <si>
-    <t>Perfect Rectangle</t>
-  </si>
-  <si>
-    <t>Trapping Rain Water II</t>
-  </si>
-  <si>
-    <t>Serialize and Deserialize Binary Tree</t>
-  </si>
-  <si>
-    <t>LRU Cache</t>
-  </si>
-  <si>
-    <t>Find Median from Data Stream</t>
-  </si>
-  <si>
-    <t>Trapping Rain Water</t>
-  </si>
-  <si>
-    <t>Count of Smaller Numbers After Self</t>
-  </si>
-  <si>
-    <t>Minimum Unique Word Abbreviation</t>
-  </si>
-  <si>
-    <t>Alien Dictionary</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Regular Expression Matching</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Count of Range Sum</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Insert Interval</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Basic Calculator</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Word Break II</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Sliding Window Maximum</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Burst Balloons</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sliding Window Median</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create Maximum Number</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Optimal Account Balancing</t>
-  </si>
-  <si>
-    <t>Longest Consecutive Sequence</t>
-  </si>
-  <si>
-    <t>Read N Characters Given Read4 II - Call multiple times</t>
-  </si>
-  <si>
-    <t>Merge k Sorted Lists</t>
-  </si>
-  <si>
-    <t>Regular Expression Matching</t>
-  </si>
-  <si>
-    <t>Word Search II</t>
-  </si>
-  <si>
-    <t>Median of Two Sorted Arrays</t>
-  </si>
-  <si>
-    <t>Rearrange String k Distance Apart</t>
-  </si>
-  <si>
-    <t>Erect the Fence</t>
-  </si>
-  <si>
-    <t>24 Game</t>
-  </si>
-  <si>
-    <t>Word Break II</t>
-  </si>
-  <si>
-    <t>Basic Calculator</t>
-  </si>
-  <si>
-    <t>Count of Range Sum</t>
-  </si>
-  <si>
-    <t>Insert Interval</t>
-  </si>
-  <si>
-    <t>Palindrome Pairs</t>
-  </si>
-  <si>
-    <t>Wildcard Matching</t>
-  </si>
-  <si>
-    <t>LFU Cache</t>
-  </si>
-  <si>
-    <t>Max Sum of Rectangle No Larger Than K</t>
-  </si>
-  <si>
-    <t>Russian Doll Envelopes</t>
-  </si>
-  <si>
-    <t>Closest Binary Search Tree Value II</t>
-  </si>
-  <si>
-    <t>Shortest Palindrome</t>
-  </si>
-  <si>
-    <t>Expression Add Operators</t>
-  </si>
-  <si>
-    <t>Smallest Rectangle Enclosing Black Pixels</t>
-  </si>
-  <si>
-    <t>Create Maximum Number</t>
-  </si>
-  <si>
-    <t>Sliding Window Median</t>
-  </si>
-  <si>
-    <t>Smallest Good Base</t>
-  </si>
-  <si>
-    <t>Burst Balloons</t>
-  </si>
-  <si>
-    <t>Reverse Pairs</t>
-  </si>
-  <si>
-    <t>Freedom Trail</t>
-  </si>
-  <si>
-    <t>Remove Duplicate Letters</t>
-  </si>
-  <si>
-    <t>Patching Array</t>
-  </si>
-  <si>
-    <t>Student Attendance Record II</t>
-  </si>
-  <si>
-    <t>Median Employee Salary</t>
-  </si>
-  <si>
-    <t>Maximum Average Subarray II</t>
-  </si>
-  <si>
-    <t>Kth Smallest Number in Multiplication Table</t>
-  </si>
-  <si>
-    <t>Redundant Connection II</t>
-  </si>
-  <si>
-    <t>Number of Atoms</t>
-  </si>
-  <si>
-    <t>Minimum Window Subsequence</t>
-  </si>
-  <si>
-    <t>Design TinyURL</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>Longest Absolute File Path</t>
-  </si>
-  <si>
-    <t>Next Closest Time</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/IAet94C1FCc?feature=oembed</t>
-  </si>
-  <si>
-    <t>License Key Formatting</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Binary Tree Longest Consecutive Sequence</t>
-  </si>
-  <si>
-    <t>Sentence Screen Fitting</t>
-  </si>
-  <si>
-    <t>Zigzag Iterator</t>
-  </si>
-  <si>
-    <t>http://www.cnblogs.com/grandyang/p/5212785.html</t>
-  </si>
-  <si>
-    <t>Bomb Enemy</t>
-  </si>
-  <si>
-    <t>Decode String</t>
-  </si>
-  <si>
-    <t>UTF-8 Validation</t>
-  </si>
-  <si>
-    <t>Missing Ranges</t>
-  </si>
-  <si>
-    <t>https://www.cnblogs.com/grandyang/p/5184890.html</t>
-  </si>
-  <si>
-    <t>Android Unlock Patterns</t>
-  </si>
-  <si>
-    <t>Encode and Decode Strings</t>
-  </si>
-  <si>
-    <t>Game of Life</t>
-  </si>
-  <si>
-    <t>Unique Word Abbreviation</t>
-  </si>
-  <si>
-    <t>Number of Islands</t>
-  </si>
-  <si>
-    <t>Wiggle Sort</t>
-  </si>
-  <si>
-    <t>Add Bold Tag in String</t>
-  </si>
-  <si>
-    <t>3Sum Smaller</t>
-  </si>
-  <si>
-    <t>Evaluate Division</t>
-  </si>
-  <si>
-    <t>Pacific Atlantic Water Flow</t>
-  </si>
-  <si>
-    <t>Queue Reconstruction by Height</t>
-  </si>
-  <si>
-    <t>Perfect Squares</t>
-  </si>
-  <si>
-    <t>Merge Intervals</t>
-  </si>
-  <si>
-    <t>Peeking Iterator</t>
-  </si>
-  <si>
-    <t>Strobogrammatic Number II</t>
-  </si>
-  <si>
-    <t>https://www.cnblogs.com/grandyang/p/5200919.html</t>
-  </si>
-  <si>
-    <t>Longest Word in Dictionary through Deleting</t>
-  </si>
-  <si>
-    <t>Summary Ranges</t>
-  </si>
-  <si>
-    <t>http://www.cnblogs.com/grandyang/p/4603555.html</t>
-  </si>
-  <si>
-    <t>Walls and Gates</t>
-  </si>
-  <si>
-    <t>Design Hit Counter</t>
-  </si>
-  <si>
-    <t>https://www.cnblogs.com/grandyang/p/5605552.html</t>
-  </si>
-  <si>
-    <t>Flip Game II</t>
-  </si>
-  <si>
-    <t>Insert Delete GetRandom O(1)</t>
-  </si>
-  <si>
-    <t>Group Shifted Strings</t>
-  </si>
-  <si>
-    <t>Generalized Abbreviation</t>
-  </si>
-  <si>
-    <t>The Maze II</t>
-  </si>
-  <si>
-    <t>Flatten Nested List Iterator</t>
-  </si>
-  <si>
-    <t>Sort Transformed Array</t>
-  </si>
-  <si>
-    <t>H-Index</t>
-  </si>
-  <si>
-    <t>Meeting Rooms II</t>
-  </si>
-  <si>
-    <t>Word Break</t>
-  </si>
-  <si>
-    <t>Kth Smallest Element in a BST</t>
-  </si>
-  <si>
-    <t>Find Peak Element</t>
-  </si>
-  <si>
-    <t>Diagonal Traverse</t>
-  </si>
-  <si>
-    <t>The Maze</t>
-  </si>
-  <si>
-    <t>Maximum Product of Word Lengths</t>
-  </si>
-  <si>
-    <t>Search a 2D Matrix II</t>
-  </si>
-  <si>
-    <t>Find K Pairs with Smallest Sums</t>
-  </si>
-  <si>
-    <t>Plus One Linked List</t>
-  </si>
-  <si>
-    <t>Flatten 2D Vector</t>
-  </si>
-  <si>
-    <t>https://www.cnblogs.com/grandyang/p/5209621.html</t>
-  </si>
-  <si>
-    <t>Reconstruct Itinerary</t>
-  </si>
-  <si>
-    <t>Binary Search Tree Iterator</t>
-  </si>
-  <si>
-    <t>Spiral Matrix</t>
-  </si>
-  <si>
-    <t>Wiggle Sort II</t>
-  </si>
-  <si>
-    <t>Letter Combinations of a Phone Number</t>
-  </si>
-  <si>
-    <t>Find Permutation</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Longest Line of Consecutive One in Matrix</t>
-  </si>
-  <si>
-    <t>Fraction to Recurring Decimal</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Implement Magic Dictionary</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Generate Parentheses</t>
-  </si>
-  <si>
-    <t>Next Permutation</t>
-  </si>
-  <si>
-    <t>Implement Magic Dictionary</t>
-  </si>
-  <si>
-    <t>Maximum XOR of Two Numbers in an Array</t>
-  </si>
-  <si>
-    <t>Next Greater Element II</t>
-  </si>
-  <si>
-    <t>Redundant Connection</t>
-  </si>
-  <si>
-    <t>Clone Graph</t>
-  </si>
-  <si>
-    <t>Pow(x, n)</t>
-  </si>
-  <si>
-    <t>Implement Trie (Prefix Tree)</t>
-  </si>
-  <si>
-    <t>Design Tic-Tac-Toe</t>
-  </si>
-  <si>
-    <t>Find Duplicate Subtrees</t>
-  </si>
-  <si>
-    <t>Sequence Reconstruction</t>
-  </si>
-  <si>
-    <t>Best Time to Buy and Sell Stock with Cooldown</t>
-  </si>
-  <si>
-    <t>Linked List Random Node</t>
-  </si>
-  <si>
-    <t>Remove K Digits</t>
-  </si>
-  <si>
-    <t>Range Addition</t>
-  </si>
-  <si>
-    <t>Combination Sum IV</t>
-  </si>
-  <si>
-    <t>Design Phone Directory</t>
-  </si>
-  <si>
-    <t>Design Snake Game</t>
-  </si>
-  <si>
-    <t>Guess Number Higher or Lower II</t>
-  </si>
-  <si>
-    <t>Line Reflection</t>
-  </si>
-  <si>
-    <t>Graph Valid Tree</t>
-  </si>
-  <si>
-    <t>Predict the Winner</t>
-  </si>
-  <si>
-    <t>01 Matrix</t>
-  </si>
-  <si>
-    <t>Integer Replacement</t>
-  </si>
-  <si>
-    <t>Largest Divisible Subset</t>
-  </si>
-  <si>
-    <t>Kth Smallest Element in a Sorted Matrix</t>
-  </si>
-  <si>
-    <t>Super Ugly Number</t>
-  </si>
-  <si>
-    <t>Verify Preorder Serialization of a Binary Tree</t>
-  </si>
-  <si>
-    <t>Number of Connected Components in an Undirected Graph</t>
-  </si>
-  <si>
-    <t>Sort Characters By Frequency</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Minimum Height Trees</t>
-  </si>
-  <si>
-    <t>My Calendar I</t>
-  </si>
-  <si>
-    <t>Convex Polygon</t>
-  </si>
-  <si>
-    <t>Ones and Zeroes</t>
-  </si>
-  <si>
-    <t>Magical String</t>
-  </si>
-  <si>
-    <t>Binary Tree Vertical Order Traversal</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Count Numbers with Unique Digits</t>
-  </si>
-  <si>
-    <t>Max Consecutive Ones II</t>
-  </si>
-  <si>
-    <t>https://www.cnblogs.com/grandyang/p/6376115.html</t>
-  </si>
-  <si>
-    <t>Target Sum</t>
-  </si>
-  <si>
-    <t>Longest Uncommon Subsequence II</t>
-  </si>
-  <si>
-    <t>Beautiful Arrangement</t>
-  </si>
-  <si>
-    <t>Lonely Pixel I</t>
-  </si>
-  <si>
-    <t>Lonely Pixel II</t>
-  </si>
-  <si>
-    <t>Encode and Decode TinyURL</t>
-  </si>
-  <si>
-    <t>Output Contest Matches</t>
-  </si>
-  <si>
-    <t>Boundary of Binary Tree</t>
-  </si>
-  <si>
-    <t>Binary Tree Longest Consecutive Sequence II</t>
-  </si>
-  <si>
-    <t>Subarray Sum Equals K</t>
-  </si>
-  <si>
-    <t>Delete Operation for Two Strings</t>
-  </si>
-  <si>
-    <t>Shopping Offers</t>
-  </si>
-  <si>
-    <t>4 Keys Keyboard</t>
-  </si>
-  <si>
-    <t>Find K Closest Elements</t>
-  </si>
-  <si>
-    <t>Split Array into Consecutive Subsequences</t>
-  </si>
-  <si>
-    <t>Beautiful Arrangement II</t>
-  </si>
-  <si>
-    <t>My Calendar II</t>
-  </si>
-  <si>
-    <t>Maximum Vacation Days</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shortest Distance from All Buildings</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Find K-th Smallest Pair Distance</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Maximum Sum of 3 Non-Overlapping Subarrays</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coin Path</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Word Abbreviation</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1182,8 +1234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="B96" sqref="B96"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="B220" sqref="B220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1308,7 +1360,7 @@
         <v>276</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>12</v>
+        <v>184</v>
       </c>
       <c r="C9" s="4">
         <v>0.34699999999999998</v>
@@ -1323,7 +1375,7 @@
         <v>401</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="7">
         <v>0.44900000000000001</v>
@@ -1338,7 +1390,7 @@
         <v>463</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>14</v>
+        <v>183</v>
       </c>
       <c r="C11" s="4">
         <v>0.57499999999999996</v>
@@ -1352,7 +1404,7 @@
         <v>266</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C12" s="7">
         <v>0.57499999999999996</v>
@@ -1367,7 +1419,7 @@
         <v>389</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13" s="7">
         <v>0.51</v>
@@ -1382,7 +1434,7 @@
         <v>20</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C14" s="4">
         <v>0.33700000000000002</v>
@@ -1397,7 +1449,7 @@
         <v>293</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C15" s="4">
         <v>0.56499999999999995</v>
@@ -1412,7 +1464,7 @@
         <v>415</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C16" s="4">
         <v>0.41499999999999998</v>
@@ -1427,7 +1479,7 @@
         <v>359</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
         <v>0.60099999999999998</v>
@@ -1442,7 +1494,7 @@
         <v>270</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C18" s="4">
         <v>0.40100000000000002</v>
@@ -1457,7 +1509,7 @@
         <v>400</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C19" s="7">
         <v>0.30099999999999999</v>
@@ -1472,7 +1524,7 @@
         <v>422</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="C20" s="4">
         <v>0.36399999999999999</v>
@@ -1480,13 +1532,14 @@
       <c r="D20" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>155</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C21" s="4">
         <v>0.29699999999999999</v>
@@ -1500,7 +1553,7 @@
         <v>409</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C22" s="4">
         <v>0.45500000000000002</v>
@@ -1515,7 +1568,7 @@
         <v>543</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C23" s="7">
         <v>0.44700000000000001</v>
@@ -1530,7 +1583,7 @@
         <v>231</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C24" s="7">
         <v>0.40400000000000003</v>
@@ -1544,7 +1597,7 @@
         <v>501</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>28</v>
+        <v>186</v>
       </c>
       <c r="C25" s="7">
         <v>0.377</v>
@@ -1558,7 +1611,7 @@
         <v>475</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C26" s="4">
         <v>0.29599999999999999</v>
@@ -1573,7 +1626,7 @@
         <v>551</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C27" s="4">
         <v>0.441</v>
@@ -1588,7 +1641,7 @@
         <v>459</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C28" s="7">
         <v>0.38200000000000001</v>
@@ -1603,7 +1656,7 @@
         <v>408</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C29" s="4">
         <v>0.28199999999999997</v>
@@ -1618,7 +1671,7 @@
         <v>530</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C30" s="7">
         <v>0.47099999999999997</v>
@@ -1633,7 +1686,7 @@
         <v>374</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C31" s="4">
         <v>0.35899999999999999</v>
@@ -1648,7 +1701,7 @@
         <v>448</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C32" s="7">
         <v>0.51200000000000001</v>
@@ -1663,7 +1716,7 @@
         <v>326</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C33" s="7">
         <v>0.40400000000000003</v>
@@ -1677,7 +1730,7 @@
         <v>257</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>37</v>
+        <v>187</v>
       </c>
       <c r="C34" s="4">
         <v>0.39700000000000002</v>
@@ -1685,13 +1738,14 @@
       <c r="D34" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="E34" s="5"/>
     </row>
     <row r="35" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>520</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C35" s="7">
         <v>0.51900000000000002</v>
@@ -1706,7 +1760,7 @@
         <v>485</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C36" s="4">
         <v>0.54</v>
@@ -1721,7 +1775,7 @@
         <v>506</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C37" s="7">
         <v>0.46600000000000003</v>
@@ -1735,7 +1789,7 @@
         <v>447</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C38" s="7">
         <v>0.45700000000000002</v>
@@ -1749,7 +1803,7 @@
         <v>521</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C39" s="4">
         <v>0.55900000000000005</v>
@@ -1763,7 +1817,7 @@
         <v>541</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C40" s="4">
         <v>0.437</v>
@@ -1777,7 +1831,7 @@
         <v>581</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C41" s="4">
         <v>0.29299999999999998</v>
@@ -1792,7 +1846,7 @@
         <v>604</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C42" s="4">
         <v>0.32500000000000001</v>
@@ -1806,7 +1860,7 @@
         <v>643</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C43" s="4">
         <v>0.378</v>
@@ -1821,7 +1875,7 @@
         <v>657</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C44" s="4">
         <v>0.68600000000000005</v>
@@ -1836,7 +1890,7 @@
         <v>665</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C45" s="7">
         <v>0.21099999999999999</v>
@@ -1851,13 +1905,13 @@
         <v>683</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C46" s="7">
         <v>0.36599999999999999</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="34.5" x14ac:dyDescent="0.2">
@@ -1865,13 +1919,13 @@
         <v>340</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C47" s="7">
         <v>0.39200000000000002</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1879,13 +1933,13 @@
         <v>308</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C48" s="7">
         <v>0.24099999999999999</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E48" s="9"/>
     </row>
@@ -1894,13 +1948,13 @@
         <v>425</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="C49" s="4">
         <v>0.435</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -1908,13 +1962,13 @@
         <v>568</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>229</v>
+        <v>177</v>
       </c>
       <c r="C50" s="4">
         <v>0.39100000000000001</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -1922,13 +1976,13 @@
         <v>317</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>230</v>
+        <v>178</v>
       </c>
       <c r="C51" s="7">
         <v>0.34399999999999997</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -1936,13 +1990,13 @@
         <v>305</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C52" s="7">
         <v>0.39300000000000002</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -1950,13 +2004,13 @@
         <v>218</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C53" s="4">
         <v>0.28199999999999997</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="34.5" x14ac:dyDescent="0.2">
@@ -1964,13 +2018,13 @@
         <v>159</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>56</v>
+        <v>218</v>
       </c>
       <c r="C54" s="4">
         <v>0.41899999999999998</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -1978,13 +2032,13 @@
         <v>329</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C55" s="4">
         <v>0.36899999999999999</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -1992,13 +2046,13 @@
         <v>471</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C56" s="4">
         <v>0.42799999999999999</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -2006,13 +2060,13 @@
         <v>391</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C57" s="4">
         <v>0.27100000000000002</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -2020,13 +2074,13 @@
         <v>407</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C58" s="7">
         <v>0.376</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -2034,13 +2088,13 @@
         <v>297</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C59" s="4">
         <v>0.34</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -2048,13 +2102,13 @@
         <v>146</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C60" s="4">
         <v>0.187</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -2062,13 +2116,13 @@
         <v>295</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C61" s="4">
         <v>0.28000000000000003</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -2076,13 +2130,13 @@
         <v>42</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C62" s="7">
         <v>0.372</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -2090,13 +2144,13 @@
         <v>315</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C63" s="4">
         <v>0.34799999999999998</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
@@ -2104,13 +2158,13 @@
         <v>411</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C64" s="4">
         <v>0.33300000000000002</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -2118,13 +2172,13 @@
         <v>269</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C65" s="7">
         <v>0.252</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -2132,13 +2186,13 @@
         <v>239</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>68</v>
+        <v>224</v>
       </c>
       <c r="C66" s="4">
         <v>0.33600000000000002</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -2146,13 +2200,13 @@
         <v>465</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>69</v>
+        <v>228</v>
       </c>
       <c r="C67" s="4">
         <v>0.378</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -2160,13 +2214,13 @@
         <v>128</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C68" s="7">
         <v>0.375</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="34.5" x14ac:dyDescent="0.2">
@@ -2174,13 +2228,13 @@
         <v>158</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C69" s="7">
         <v>0.245</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -2188,27 +2242,28 @@
         <v>23</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C70" s="7">
         <v>0.27700000000000002</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>50</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="E70" s="5"/>
     </row>
     <row r="71" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>10</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="C71" s="4">
         <v>0.24299999999999999</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -2216,13 +2271,13 @@
         <v>212</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C72" s="7">
         <v>0.24</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -2230,13 +2285,13 @@
         <v>4</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C73" s="4">
         <v>0.223</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -2244,13 +2299,13 @@
         <v>358</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C74" s="7">
         <v>0.317</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -2258,13 +2313,13 @@
         <v>587</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C75" s="7">
         <v>0.32600000000000001</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -2272,13 +2327,13 @@
         <v>679</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C76" s="4">
         <v>0.38900000000000001</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -2286,13 +2341,13 @@
         <v>140</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>79</v>
+        <v>223</v>
       </c>
       <c r="C77" s="7">
         <v>0.23899999999999999</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -2300,13 +2355,13 @@
         <v>224</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>80</v>
+        <v>222</v>
       </c>
       <c r="C78" s="7">
         <v>0.27800000000000002</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -2314,13 +2369,13 @@
         <v>327</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>81</v>
+        <v>220</v>
       </c>
       <c r="C79" s="4">
         <v>0.30099999999999999</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E79" s="9"/>
     </row>
@@ -2329,13 +2384,13 @@
         <v>57</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>82</v>
+        <v>221</v>
       </c>
       <c r="C80" s="4">
         <v>0.28299999999999997</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E80" s="9"/>
     </row>
@@ -2344,13 +2399,13 @@
         <v>336</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C81" s="4">
         <v>0.26600000000000001</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -2358,13 +2413,13 @@
         <v>44</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>84</v>
+        <v>206</v>
       </c>
       <c r="C82" s="7">
         <v>0.20599999999999999</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -2372,13 +2427,13 @@
         <v>460</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C83" s="4">
         <v>0.24399999999999999</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -2386,13 +2441,13 @@
         <v>363</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C84" s="7">
         <v>0.33400000000000002</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -2400,13 +2455,13 @@
         <v>354</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C85" s="4">
         <v>0.32300000000000001</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -2414,13 +2469,13 @@
         <v>272</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C86" s="7">
         <v>0.39400000000000002</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -2428,13 +2483,13 @@
         <v>214</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C87" s="7">
         <v>0.247</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -2442,13 +2497,13 @@
         <v>282</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C88" s="4">
         <v>0.30199999999999999</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -2456,13 +2511,13 @@
         <v>302</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="C89" s="7">
         <v>0.45900000000000002</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E89" s="5"/>
     </row>
@@ -2471,13 +2526,13 @@
         <v>321</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>92</v>
+        <v>227</v>
       </c>
       <c r="C90" s="7">
         <v>0.248</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -2485,13 +2540,13 @@
         <v>480</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>93</v>
+        <v>226</v>
       </c>
       <c r="C91" s="7">
         <v>0.311</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -2499,13 +2554,13 @@
         <v>483</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>94</v>
+        <v>208</v>
       </c>
       <c r="C92" s="7">
         <v>0.33400000000000002</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -2513,13 +2568,13 @@
         <v>312</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>95</v>
+        <v>225</v>
       </c>
       <c r="C93" s="7">
         <v>0.432</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -2527,13 +2582,13 @@
         <v>493</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="C94" s="7">
         <v>0.20599999999999999</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -2541,13 +2596,13 @@
         <v>514</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="C95" s="4">
         <v>0.39100000000000001</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -2555,13 +2610,13 @@
         <v>527</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>234</v>
+        <v>182</v>
       </c>
       <c r="C96" s="7">
         <v>0.41899999999999998</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -2569,13 +2624,13 @@
         <v>316</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="C97" s="4">
         <v>0.29899999999999999</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -2583,13 +2638,13 @@
         <v>330</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="C98" s="7">
         <v>0.32300000000000001</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -2597,13 +2652,13 @@
         <v>552</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C99" s="7">
         <v>0.313</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -2611,13 +2666,13 @@
         <v>569</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="C100" s="7">
         <v>0.34200000000000003</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -2625,13 +2680,13 @@
         <v>644</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="C101" s="7">
         <v>0.23</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -2639,13 +2694,13 @@
         <v>656</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>233</v>
+        <v>181</v>
       </c>
       <c r="C102" s="7">
         <v>0.251</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -2653,13 +2708,13 @@
         <v>668</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="C103" s="7">
         <v>0.377</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -2667,13 +2722,13 @@
         <v>685</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="C104" s="4">
         <v>0.28399999999999997</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="34.5" x14ac:dyDescent="0.2">
@@ -2681,13 +2736,13 @@
         <v>689</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>232</v>
+        <v>180</v>
       </c>
       <c r="C105" s="7">
         <v>0.41299999999999998</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -2695,13 +2750,13 @@
         <v>719</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>231</v>
+        <v>179</v>
       </c>
       <c r="C106" s="4">
         <v>0.253</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -2709,27 +2764,28 @@
         <v>726</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>105</v>
+        <v>207</v>
       </c>
       <c r="C107" s="7">
         <v>0.45700000000000002</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>50</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="E107" s="5"/>
     </row>
     <row r="108" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
         <v>727</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="C108" s="4">
         <v>0.29099999999999998</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -2737,13 +2793,13 @@
         <v>534</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C109" s="7">
         <v>0</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -2751,13 +2807,13 @@
         <v>388</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="C110" s="4">
         <v>0.371</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="E110" s="9"/>
     </row>
@@ -2766,17 +2822,17 @@
         <v>681</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="C111" s="4">
         <v>0.42899999999999999</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="E111" s="5"/>
       <c r="F111" s="10" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -2784,13 +2840,13 @@
         <v>482</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="C112" s="4">
         <v>0.41799999999999998</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="E112" s="9"/>
     </row>
@@ -2799,13 +2855,13 @@
         <v>298</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>113</v>
+        <v>229</v>
       </c>
       <c r="C113" s="7">
         <v>0.41399999999999998</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -2813,13 +2869,13 @@
         <v>418</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>114</v>
+        <v>190</v>
       </c>
       <c r="C114" s="4">
         <v>0.27800000000000002</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -2827,17 +2883,17 @@
         <v>281</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="C115" s="7">
         <v>0.51400000000000001</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="E115" s="5"/>
       <c r="F115" s="10" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -2845,13 +2901,13 @@
         <v>361</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="C116" s="7">
         <v>0.39400000000000002</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="E116" s="9"/>
     </row>
@@ -2860,13 +2916,13 @@
         <v>394</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="C117" s="4">
         <v>0.41699999999999998</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="E117" s="9"/>
     </row>
@@ -2875,13 +2931,13 @@
         <v>393</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="C118" s="7">
         <v>0.34699999999999998</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="E118" s="9"/>
     </row>
@@ -2890,17 +2946,17 @@
         <v>163</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="C119" s="7">
         <v>0.23799999999999999</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="E119" s="9"/>
       <c r="F119" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -2908,13 +2964,13 @@
         <v>351</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="C120" s="4">
         <v>0.443</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -2922,13 +2978,13 @@
         <v>271</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>123</v>
+        <v>191</v>
       </c>
       <c r="C121" s="4">
         <v>0.26200000000000001</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -2936,13 +2992,13 @@
         <v>289</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="C122" s="7">
         <v>0.371</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -2950,13 +3006,13 @@
         <v>288</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="C123" s="4">
         <v>0.17299999999999999</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="E123" s="5"/>
     </row>
@@ -2965,13 +3021,13 @@
         <v>200</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="C124" s="4">
         <v>0.35599999999999998</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="E124" s="5"/>
     </row>
@@ -2980,13 +3036,13 @@
         <v>280</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="C125" s="7">
         <v>0.57899999999999996</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="E125" s="9"/>
     </row>
@@ -2995,13 +3051,13 @@
         <v>616</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="C126" s="4">
         <v>0.38700000000000001</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="E126" s="8"/>
     </row>
@@ -3010,13 +3066,13 @@
         <v>259</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>129</v>
+        <v>192</v>
       </c>
       <c r="C127" s="7">
         <v>0.41699999999999998</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -3024,13 +3080,13 @@
         <v>399</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="C128" s="7">
         <v>0.41499999999999998</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="E128" s="9"/>
     </row>
@@ -3039,13 +3095,13 @@
         <v>417</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="C129" s="7">
         <v>0.34100000000000003</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -3053,13 +3109,13 @@
         <v>406</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>132</v>
+        <v>193</v>
       </c>
       <c r="C130" s="4">
         <v>0.56200000000000006</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -3067,42 +3123,43 @@
         <v>279</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>133</v>
+        <v>194</v>
       </c>
       <c r="C131" s="7">
         <v>0.375</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="E131" s="8"/>
+        <v>88</v>
+      </c>
+      <c r="E131" s="5"/>
     </row>
     <row r="132" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A132" s="6">
         <v>56</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="C132" s="7">
         <v>0.31</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>108</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="E132" s="5"/>
     </row>
     <row r="133" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A133" s="6">
         <v>284</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>135</v>
+        <v>202</v>
       </c>
       <c r="C133" s="7">
         <v>0.35499999999999998</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -3110,17 +3167,17 @@
         <v>247</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="C134" s="4">
         <v>0.40500000000000003</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="E134" s="5"/>
       <c r="F134" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -3128,13 +3185,13 @@
         <v>524</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>138</v>
+        <v>203</v>
       </c>
       <c r="C135" s="7">
         <v>0.433</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -3142,17 +3199,17 @@
         <v>228</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>139</v>
+        <v>204</v>
       </c>
       <c r="C136" s="7">
         <v>0.308</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="E136" s="9"/>
+        <v>88</v>
+      </c>
+      <c r="E136" s="5"/>
       <c r="F136" s="10" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -3160,13 +3217,13 @@
         <v>286</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>141</v>
+        <v>205</v>
       </c>
       <c r="C137" s="4">
         <v>0.44800000000000001</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -3174,17 +3231,17 @@
         <v>362</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="C138" s="7">
         <v>0.54400000000000004</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="E138" s="9"/>
       <c r="F138" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -3192,13 +3249,13 @@
         <v>294</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="C139" s="7">
         <v>0.46600000000000003</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="E139" s="8"/>
     </row>
@@ -3207,13 +3264,13 @@
         <v>380</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="C140" s="7">
         <v>0.39400000000000002</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="E140" s="9"/>
     </row>
@@ -3222,13 +3279,13 @@
         <v>249</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="C141" s="7">
         <v>0.42699999999999999</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="E141" s="9"/>
     </row>
@@ -3237,13 +3294,13 @@
         <v>320</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="C142" s="4">
         <v>0.45500000000000002</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="E142" s="9"/>
     </row>
@@ -3252,13 +3309,13 @@
         <v>505</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="C143" s="7">
         <v>0.38200000000000001</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -3266,13 +3323,13 @@
         <v>341</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="C144" s="4">
         <v>0.42199999999999999</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -3280,13 +3337,13 @@
         <v>360</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>150</v>
+        <v>196</v>
       </c>
       <c r="C145" s="7">
         <v>0.44500000000000001</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -3294,13 +3351,13 @@
         <v>274</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="C146" s="7">
         <v>0.33500000000000002</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -3308,27 +3365,28 @@
         <v>253</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="C147" s="4">
         <v>0.39300000000000002</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>108</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="E147" s="5"/>
     </row>
     <row r="148" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A148" s="6">
         <v>139</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="C148" s="7">
         <v>0.308</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -3336,13 +3394,13 @@
         <v>230</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="C149" s="4">
         <v>0.44500000000000001</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="E149" s="5"/>
     </row>
@@ -3351,13 +3409,13 @@
         <v>162</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="C150" s="7">
         <v>0.38100000000000001</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="E150" s="8"/>
     </row>
@@ -3366,13 +3424,13 @@
         <v>498</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="C151" s="4">
         <v>0.46100000000000002</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -3380,13 +3438,13 @@
         <v>490</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="C152" s="4">
         <v>0.432</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -3394,13 +3452,13 @@
         <v>318</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>158</v>
+        <v>197</v>
       </c>
       <c r="C153" s="7">
         <v>0.44900000000000001</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -3408,13 +3466,13 @@
         <v>240</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>159</v>
+        <v>198</v>
       </c>
       <c r="C154" s="4">
         <v>0.38800000000000001</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -3422,13 +3480,13 @@
         <v>373</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="C155" s="7">
         <v>0.309</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -3436,13 +3494,13 @@
         <v>369</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="C156" s="7">
         <v>0.54800000000000004</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="E156" s="9"/>
     </row>
@@ -3451,16 +3509,16 @@
         <v>251</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>162</v>
+        <v>199</v>
       </c>
       <c r="C157" s="7">
         <v>0.40899999999999997</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="F157" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -3468,13 +3526,13 @@
         <v>332</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="C158" s="4">
         <v>0.29399999999999998</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -3482,13 +3540,13 @@
         <v>173</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="C159" s="7">
         <v>0.42399999999999999</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -3496,13 +3554,13 @@
         <v>54</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>166</v>
+        <v>130</v>
       </c>
       <c r="C160" s="4">
         <v>0.26600000000000001</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -3510,13 +3568,13 @@
         <v>324</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>167</v>
+        <v>131</v>
       </c>
       <c r="C161" s="4">
         <v>0.26200000000000001</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -3524,27 +3582,28 @@
         <v>17</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="C162" s="7">
         <v>0.35399999999999998</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>108</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="E162" s="9"/>
     </row>
     <row r="163" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A163" s="3">
         <v>484</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="C163" s="4">
         <v>0.55100000000000005</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="E163" s="9"/>
     </row>
@@ -3553,13 +3612,13 @@
         <v>562</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="C164" s="7">
         <v>0.40899999999999997</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -3567,13 +3626,13 @@
         <v>166</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="C165" s="4">
         <v>0.17799999999999999</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -3581,13 +3640,13 @@
         <v>22</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="C166" s="7">
         <v>0.46300000000000002</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -3595,13 +3654,13 @@
         <v>31</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="C167" s="4">
         <v>0.28799999999999998</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -3609,13 +3668,13 @@
         <v>676</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>174</v>
+        <v>231</v>
       </c>
       <c r="C168" s="7">
         <v>0.5</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -3623,13 +3682,13 @@
         <v>421</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>175</v>
+        <v>134</v>
       </c>
       <c r="C169" s="7">
         <v>0.46899999999999997</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -3637,13 +3696,13 @@
         <v>503</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="C170" s="7">
         <v>0.47299999999999998</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -3651,13 +3710,13 @@
         <v>684</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>177</v>
+        <v>136</v>
       </c>
       <c r="C171" s="7">
         <v>0.39200000000000002</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -3665,13 +3724,13 @@
         <v>133</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>178</v>
+        <v>137</v>
       </c>
       <c r="C172" s="4">
         <v>0.251</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -3679,13 +3738,13 @@
         <v>50</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>179</v>
+        <v>138</v>
       </c>
       <c r="C173" s="4">
         <v>0.26</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -3693,13 +3752,13 @@
         <v>208</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>180</v>
+        <v>139</v>
       </c>
       <c r="C174" s="4">
         <v>0.29499999999999998</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -3707,13 +3766,13 @@
         <v>348</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="C175" s="7">
         <v>0.45800000000000002</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -3721,13 +3780,13 @@
         <v>652</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="C176" s="4">
         <v>0.35799999999999998</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -3735,13 +3794,13 @@
         <v>444</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="C177" s="7">
         <v>0.19600000000000001</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="34.5" x14ac:dyDescent="0.2">
@@ -3749,13 +3808,13 @@
         <v>309</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>184</v>
+        <v>140</v>
       </c>
       <c r="C178" s="4">
         <v>0.41299999999999998</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -3763,13 +3822,13 @@
         <v>382</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>185</v>
+        <v>141</v>
       </c>
       <c r="C179" s="4">
         <v>0.47099999999999997</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -3777,13 +3836,13 @@
         <v>402</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>186</v>
+        <v>142</v>
       </c>
       <c r="C180" s="7">
         <v>0.26</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -3791,13 +3850,13 @@
         <v>370</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="C181" s="4">
         <v>0.56499999999999995</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -3805,13 +3864,13 @@
         <v>377</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
       <c r="C182" s="7">
         <v>0.42399999999999999</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -3819,13 +3878,13 @@
         <v>379</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="C183" s="4">
         <v>0.34100000000000003</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -3833,13 +3892,13 @@
         <v>353</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>190</v>
+        <v>145</v>
       </c>
       <c r="C184" s="7">
         <v>0.26800000000000002</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -3847,13 +3906,13 @@
         <v>375</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>191</v>
+        <v>146</v>
       </c>
       <c r="C185" s="4">
         <v>0.35899999999999999</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -3861,13 +3920,13 @@
         <v>356</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>192</v>
+        <v>147</v>
       </c>
       <c r="C186" s="4">
         <v>0.30099999999999999</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -3875,13 +3934,13 @@
         <v>261</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="C187" s="7">
         <v>0.38100000000000001</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -3889,13 +3948,13 @@
         <v>486</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
       <c r="C188" s="4">
         <v>0.45100000000000001</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -3903,13 +3962,13 @@
         <v>542</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
       <c r="C189" s="7">
         <v>0.33</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -3917,13 +3976,13 @@
         <v>397</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>196</v>
+        <v>151</v>
       </c>
       <c r="C190" s="4">
         <v>0.30199999999999999</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="E190" s="8"/>
     </row>
@@ -3932,13 +3991,13 @@
         <v>368</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
       <c r="C191" s="7">
         <v>0.33700000000000002</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="192" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -3946,13 +4005,13 @@
         <v>378</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>198</v>
+        <v>153</v>
       </c>
       <c r="C192" s="4">
         <v>0.45200000000000001</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -3960,13 +4019,13 @@
         <v>313</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="C193" s="4">
         <v>0.38</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -3974,13 +4033,13 @@
         <v>331</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="C194" s="7">
         <v>0.36599999999999999</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="E194" s="8"/>
     </row>
@@ -3989,13 +4048,13 @@
         <v>323</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
       <c r="C195" s="4">
         <v>0.48299999999999998</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -4003,13 +4062,13 @@
         <v>451</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="C196" s="7">
         <v>0.51100000000000001</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="E196" s="5"/>
     </row>
@@ -4018,13 +4077,13 @@
         <v>310</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c r="C197" s="4">
         <v>0.28899999999999998</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="198" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -4032,13 +4091,13 @@
         <v>729</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="C198" s="4">
         <v>0.36099999999999999</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="E198" s="5"/>
     </row>
@@ -4047,13 +4106,13 @@
         <v>469</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C199" s="7">
         <v>0.33400000000000002</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="200" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -4061,13 +4120,13 @@
         <v>474</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="C200" s="4">
         <v>0.39100000000000001</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -4075,13 +4134,13 @@
         <v>481</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="C201" s="4">
         <v>0.45600000000000002</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -4089,13 +4148,13 @@
         <v>314</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>208</v>
+        <v>158</v>
       </c>
       <c r="C202" s="4">
         <v>0.373</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="E202" s="5"/>
     </row>
@@ -4104,31 +4163,32 @@
         <v>357</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="C203" s="7">
         <v>0.46100000000000002</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>108</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="E203" s="9"/>
     </row>
     <row r="204" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A204" s="3">
         <v>487</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>210</v>
+        <v>159</v>
       </c>
       <c r="C204" s="4">
         <v>0.45600000000000002</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="E204" s="9"/>
       <c r="F204" t="s">
-        <v>211</v>
+        <v>160</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -4136,13 +4196,13 @@
         <v>494</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>212</v>
+        <v>161</v>
       </c>
       <c r="C205" s="4">
         <v>0.436</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="E205" s="9"/>
     </row>
@@ -4151,13 +4211,13 @@
         <v>522</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>213</v>
+        <v>162</v>
       </c>
       <c r="C206" s="7">
         <v>0.318</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="E206" s="9"/>
     </row>
@@ -4166,13 +4226,13 @@
         <v>526</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>214</v>
+        <v>163</v>
       </c>
       <c r="C207" s="4">
         <v>0.54200000000000004</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="E207" s="5"/>
     </row>
@@ -4181,13 +4241,13 @@
         <v>531</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>215</v>
+        <v>164</v>
       </c>
       <c r="C208" s="7">
         <v>0.55600000000000005</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="209" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -4195,13 +4255,13 @@
         <v>533</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>216</v>
+        <v>165</v>
       </c>
       <c r="C209" s="4">
         <v>0.44600000000000001</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="210" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -4209,13 +4269,13 @@
         <v>535</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>217</v>
+        <v>166</v>
       </c>
       <c r="C210" s="7">
         <v>0.74199999999999999</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="211" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -4223,13 +4283,13 @@
         <v>544</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>218</v>
+        <v>167</v>
       </c>
       <c r="C211" s="4">
         <v>0.70899999999999996</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="E211" s="5"/>
     </row>
@@ -4238,13 +4298,13 @@
         <v>545</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>219</v>
+        <v>168</v>
       </c>
       <c r="C212" s="7">
         <v>0.31900000000000001</v>
       </c>
       <c r="D212" s="6" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="E212" s="9"/>
     </row>
@@ -4253,13 +4313,13 @@
         <v>549</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>220</v>
+        <v>169</v>
       </c>
       <c r="C213" s="4">
         <v>0.41899999999999998</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="214" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -4267,13 +4327,13 @@
         <v>560</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>221</v>
+        <v>170</v>
       </c>
       <c r="C214" s="4">
         <v>0.40400000000000003</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="E214" s="9"/>
     </row>
@@ -4282,13 +4342,13 @@
         <v>583</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>222</v>
+        <v>171</v>
       </c>
       <c r="C215" s="7">
         <v>0.442</v>
       </c>
       <c r="D215" s="6" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="216" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -4296,13 +4356,13 @@
         <v>638</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>223</v>
+        <v>172</v>
       </c>
       <c r="C216" s="7">
         <v>0.434</v>
       </c>
       <c r="D216" s="6" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="217" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -4310,13 +4370,13 @@
         <v>651</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>224</v>
+        <v>173</v>
       </c>
       <c r="C217" s="4">
         <v>0.48799999999999999</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="E217" s="9"/>
     </row>
@@ -4325,13 +4385,13 @@
         <v>658</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>225</v>
+        <v>174</v>
       </c>
       <c r="C218" s="7">
         <v>0.35299999999999998</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="E218" s="9"/>
     </row>
@@ -4340,13 +4400,13 @@
         <v>659</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>226</v>
+        <v>175</v>
       </c>
       <c r="C219" s="4">
         <v>0.35699999999999998</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="220" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -4354,13 +4414,13 @@
         <v>667</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="C220" s="4">
         <v>0.51500000000000001</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="221" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -4368,13 +4428,13 @@
         <v>731</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="C221" s="7">
         <v>0.316</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="E221" s="5"/>
     </row>

--- a/google_ranked.xlsx
+++ b/google_ranked.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\leet\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE7C1CF-61B5-4347-A794-10D0A82B7A6A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22365" windowHeight="9930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22368" windowHeight="9935"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235">
   <si>
     <t>Google</t>
   </si>
@@ -58,9 +52,15 @@
     <t>Longest Univalue Path</t>
   </si>
   <si>
+    <t>Paint Fence</t>
+  </si>
+  <si>
     <t>Binary Watch</t>
   </si>
   <si>
+    <t>Island Perimeter</t>
+  </si>
+  <si>
     <t>Palindrome Permutation</t>
   </si>
   <si>
@@ -85,6 +85,9 @@
     <t>Nth Digit</t>
   </si>
   <si>
+    <t>Valid Word Square</t>
+  </si>
+  <si>
     <t>Min Stack</t>
   </si>
   <si>
@@ -97,6 +100,9 @@
     <t>Power of Two</t>
   </si>
   <si>
+    <t>Find Mode in Binary Search Tree</t>
+  </si>
+  <si>
     <t>Heaters</t>
   </si>
   <si>
@@ -121,6 +127,9 @@
     <t>Power of Three</t>
   </si>
   <si>
+    <t>Binary Tree Paths</t>
+  </si>
+  <si>
     <t>Detect Capital</t>
   </si>
   <si>
@@ -166,12 +175,24 @@
     <t>Range Sum Query 2D - Mutable</t>
   </si>
   <si>
+    <t>Word Squares</t>
+  </si>
+  <si>
+    <t>Maximum Vacation Days</t>
+  </si>
+  <si>
+    <t>Shortest Distance from All Buildings</t>
+  </si>
+  <si>
     <t>Number of Islands II</t>
   </si>
   <si>
     <t>The Skyline Problem</t>
   </si>
   <si>
+    <t>Longest Substring with At Most Two Distinct Characters</t>
+  </si>
+  <si>
     <t>Longest Increasing Path in a Matrix</t>
   </si>
   <si>
@@ -205,6 +226,12 @@
     <t>Alien Dictionary</t>
   </si>
   <si>
+    <t>Sliding Window Maximum</t>
+  </si>
+  <si>
+    <t>Optimal Account Balancing</t>
+  </si>
+  <si>
     <t>Longest Consecutive Sequence</t>
   </si>
   <si>
@@ -214,6 +241,9 @@
     <t>Merge k Sorted Lists</t>
   </si>
   <si>
+    <t>Regular Expression Matching</t>
+  </si>
+  <si>
     <t>Word Search II</t>
   </si>
   <si>
@@ -229,9 +259,24 @@
     <t>24 Game</t>
   </si>
   <si>
+    <t>Word Break II</t>
+  </si>
+  <si>
+    <t>Basic Calculator</t>
+  </si>
+  <si>
+    <t>Count of Range Sum</t>
+  </si>
+  <si>
+    <t>Insert Interval</t>
+  </si>
+  <si>
     <t>Palindrome Pairs</t>
   </si>
   <si>
+    <t>Wildcard Matching</t>
+  </si>
+  <si>
     <t>LFU Cache</t>
   </si>
   <si>
@@ -253,12 +298,27 @@
     <t>Smallest Rectangle Enclosing Black Pixels</t>
   </si>
   <si>
+    <t>Create Maximum Number</t>
+  </si>
+  <si>
+    <t>Sliding Window Median</t>
+  </si>
+  <si>
+    <t>Smallest Good Base</t>
+  </si>
+  <si>
+    <t>Burst Balloons</t>
+  </si>
+  <si>
     <t>Reverse Pairs</t>
   </si>
   <si>
     <t>Freedom Trail</t>
   </si>
   <si>
+    <t>Word Abbreviation</t>
+  </si>
+  <si>
     <t>Remove Duplicate Letters</t>
   </si>
   <si>
@@ -274,12 +334,24 @@
     <t>Maximum Average Subarray II</t>
   </si>
   <si>
+    <t>Coin Path</t>
+  </si>
+  <si>
     <t>Kth Smallest Number in Multiplication Table</t>
   </si>
   <si>
     <t>Redundant Connection II</t>
   </si>
   <si>
+    <t>Maximum Sum of 3 Non-Overlapping Subarrays</t>
+  </si>
+  <si>
+    <t>Find K-th Smallest Pair Distance</t>
+  </si>
+  <si>
+    <t>Number of Atoms</t>
+  </si>
+  <si>
     <t>Minimum Window Subsequence</t>
   </si>
   <si>
@@ -301,6 +373,12 @@
     <t>License Key Formatting</t>
   </si>
   <si>
+    <t>Binary Tree Longest Consecutive Sequence</t>
+  </si>
+  <si>
+    <t>Sentence Screen Fitting</t>
+  </si>
+  <si>
     <t>Zigzag Iterator</t>
   </si>
   <si>
@@ -325,6 +403,9 @@
     <t>Android Unlock Patterns</t>
   </si>
   <si>
+    <t>Encode and Decode Strings</t>
+  </si>
+  <si>
     <t>Game of Life</t>
   </si>
   <si>
@@ -340,21 +421,45 @@
     <t>Add Bold Tag in String</t>
   </si>
   <si>
+    <t>3Sum Smaller</t>
+  </si>
+  <si>
     <t>Evaluate Division</t>
   </si>
   <si>
     <t>Pacific Atlantic Water Flow</t>
   </si>
   <si>
+    <t>Queue Reconstruction by Height</t>
+  </si>
+  <si>
+    <t>Perfect Squares</t>
+  </si>
+  <si>
+    <t>Merge Intervals</t>
+  </si>
+  <si>
+    <t>Peeking Iterator</t>
+  </si>
+  <si>
     <t>Strobogrammatic Number II</t>
   </si>
   <si>
     <t>https://www.cnblogs.com/grandyang/p/5200919.html</t>
   </si>
   <si>
+    <t>Longest Word in Dictionary through Deleting</t>
+  </si>
+  <si>
+    <t>Summary Ranges</t>
+  </si>
+  <si>
     <t>http://www.cnblogs.com/grandyang/p/4603555.html</t>
   </si>
   <si>
+    <t>Walls and Gates</t>
+  </si>
+  <si>
     <t>Design Hit Counter</t>
   </si>
   <si>
@@ -379,6 +484,9 @@
     <t>Flatten Nested List Iterator</t>
   </si>
   <si>
+    <t>Sort Transformed Array</t>
+  </si>
+  <si>
     <t>H-Index</t>
   </si>
   <si>
@@ -400,15 +508,27 @@
     <t>The Maze</t>
   </si>
   <si>
+    <t>Maximum Product of Word Lengths</t>
+  </si>
+  <si>
+    <t>Search a 2D Matrix II</t>
+  </si>
+  <si>
     <t>Find K Pairs with Smallest Sums</t>
   </si>
   <si>
     <t>Plus One Linked List</t>
   </si>
   <si>
+    <t>Flatten 2D Vector</t>
+  </si>
+  <si>
     <t>https://www.cnblogs.com/grandyang/p/5209621.html</t>
   </si>
   <si>
+    <t>Reconstruct Itinerary</t>
+  </si>
+  <si>
     <t>Binary Search Tree Iterator</t>
   </si>
   <si>
@@ -418,12 +538,27 @@
     <t>Wiggle Sort II</t>
   </si>
   <si>
+    <t>Letter Combinations of a Phone Number</t>
+  </si>
+  <si>
+    <t>Find Permutation</t>
+  </si>
+  <si>
+    <t>Longest Line of Consecutive One in Matrix</t>
+  </si>
+  <si>
     <t>Fraction to Recurring Decimal</t>
   </si>
   <si>
+    <t>Generate Parentheses</t>
+  </si>
+  <si>
     <t>Next Permutation</t>
   </si>
   <si>
+    <t>Implement Magic Dictionary</t>
+  </si>
+  <si>
     <t>Maximum XOR of Two Numbers in an Array</t>
   </si>
   <si>
@@ -442,6 +577,15 @@
     <t>Implement Trie (Prefix Tree)</t>
   </si>
   <si>
+    <t>Design Tic-Tac-Toe</t>
+  </si>
+  <si>
+    <t>Find Duplicate Subtrees</t>
+  </si>
+  <si>
+    <t>Sequence Reconstruction</t>
+  </si>
+  <si>
     <t>Best Time to Buy and Sell Stock with Cooldown</t>
   </si>
   <si>
@@ -457,6 +601,9 @@
     <t>Combination Sum IV</t>
   </si>
   <si>
+    <t>Design Phone Directory</t>
+  </si>
+  <si>
     <t>Design Snake Game</t>
   </si>
   <si>
@@ -496,9 +643,27 @@
     <t>Sort Characters By Frequency</t>
   </si>
   <si>
+    <t>Minimum Height Trees</t>
+  </si>
+  <si>
+    <t>My Calendar I</t>
+  </si>
+  <si>
+    <t>Convex Polygon</t>
+  </si>
+  <si>
+    <t>Ones and Zeroes</t>
+  </si>
+  <si>
+    <t>Magical String</t>
+  </si>
+  <si>
     <t>Binary Tree Vertical Order Traversal</t>
   </si>
   <si>
+    <t>Count Numbers with Unique Digits</t>
+  </si>
+  <si>
     <t>Max Consecutive Ones II</t>
   </si>
   <si>
@@ -553,243 +718,20 @@
     <t>Beautiful Arrangement II</t>
   </si>
   <si>
-    <t>Maximum Vacation Days</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shortest Distance from All Buildings</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Find K-th Smallest Pair Distance</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Maximum Sum of 3 Non-Overlapping Subarrays</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coin Path</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Word Abbreviation</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Island Perimeter</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Paint Fence</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Valid Word Square</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Find Mode in Binary Search Tree</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Binary Tree Paths</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reconstruct Itinerary</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Find Permutation</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sentence Screen Fitting</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Encode and Decode Strings</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3Sum Smaller</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Queue Reconstruction by Height</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Perfect Squares</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Merge Intervals</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sort Transformed Array</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Maximum Product of Word Lengths</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Search a 2D Matrix II</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flatten 2D Vector</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Letter Combinations of a Phone Number</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Convex Polygon</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Peeking Iterator</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Longest Word in Dictionary through Deleting</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Summary Ranges</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Walls and Gates</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wildcard Matching</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number of Atoms</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Smallest Good Base</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Design Tic-Tac-Toe</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Find Duplicate Subtrees</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sequence Reconstruction</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Design Phone Directory</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>My Calendar II</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>My Calendar I</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ones and Zeroes</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Magical String</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Word Squares</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Longest Substring with At Most Two Distinct Characters</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Regular Expression Matching</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Count of Range Sum</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Insert Interval</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Basic Calculator</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Word Break II</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sliding Window Maximum</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Burst Balloons</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sliding Window Median</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Create Maximum Number</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Optimal Account Balancing</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Binary Tree Longest Consecutive Sequence</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Longest Line of Consecutive One in Matrix</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Implement Magic Dictionary</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Generate Parentheses</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Minimum Height Trees</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Count Numbers with Unique Digits</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -801,13 +743,13 @@
       <sz val="22"/>
       <color rgb="FF24292E"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF24292E"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -839,13 +781,122 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -882,8 +933,176 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -915,17 +1134,247 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -943,32 +1392,72 @@
     <xf numFmtId="10" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="31" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="4" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="7" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="32" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10"/>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="差" xfId="1" builtinId="27"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
-    <cellStyle name="好" xfId="3" builtinId="26"/>
-    <cellStyle name="适中" xfId="4" builtinId="28"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1226,33 +1715,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="B220" sqref="B220"/>
+    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="B168" sqref="B168"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="39.875" customWidth="1"/>
+    <col min="1" max="1" width="39.8796296296296" customWidth="1"/>
     <col min="2" max="2" width="41.75" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
-    <col min="4" max="4" width="29.625" customWidth="1"/>
-    <col min="6" max="6" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="29.6296296296296" customWidth="1"/>
+    <col min="6" max="6" width="17.3796296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33" x14ac:dyDescent="0.2">
+    <row r="1" ht="33.15" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="2" ht="19.95" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1266,7 +1755,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="3" ht="19.95" spans="1:5">
       <c r="A3" s="3">
         <v>346</v>
       </c>
@@ -1274,14 +1763,14 @@
         <v>5</v>
       </c>
       <c r="C3" s="4">
-        <v>0.59499999999999997</v>
+        <v>0.595</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="4" ht="19.95" spans="1:5">
       <c r="A4" s="3">
         <v>66</v>
       </c>
@@ -1289,14 +1778,14 @@
         <v>7</v>
       </c>
       <c r="C4" s="4">
-        <v>0.39100000000000001</v>
+        <v>0.391</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="5" ht="19.95" spans="1:5">
       <c r="A5" s="6">
         <v>686</v>
       </c>
@@ -1304,14 +1793,14 @@
         <v>8</v>
       </c>
       <c r="C5" s="7">
-        <v>0.32900000000000001</v>
+        <v>0.329</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="6" ht="19.95" spans="1:5">
       <c r="A6" s="6">
         <v>246</v>
       </c>
@@ -1326,7 +1815,7 @@
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="7" ht="19.95" spans="1:5">
       <c r="A7" s="3">
         <v>345</v>
       </c>
@@ -1334,14 +1823,14 @@
         <v>10</v>
       </c>
       <c r="C7" s="4">
-        <v>0.38700000000000001</v>
+        <v>0.387</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="8" ht="19.95" spans="1:4">
       <c r="A8" s="3">
         <v>687</v>
       </c>
@@ -1349,77 +1838,77 @@
         <v>11</v>
       </c>
       <c r="C8" s="4">
-        <v>0.33300000000000002</v>
+        <v>0.333</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="9" ht="19.95" spans="1:5">
       <c r="A9" s="3">
         <v>276</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>184</v>
+        <v>12</v>
       </c>
       <c r="C9" s="4">
-        <v>0.34699999999999998</v>
+        <v>0.347</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="10" ht="19.95" spans="1:5">
       <c r="A10" s="6">
         <v>401</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" s="7">
-        <v>0.44900000000000001</v>
+        <v>0.449</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="11" ht="19.95" spans="1:4">
       <c r="A11" s="3">
         <v>463</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>183</v>
+        <v>14</v>
       </c>
       <c r="C11" s="4">
-        <v>0.57499999999999996</v>
+        <v>0.575</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="12" ht="19.95" spans="1:5">
       <c r="A12" s="6">
         <v>266</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C12" s="7">
-        <v>0.57499999999999996</v>
+        <v>0.575</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="13" ht="19.95" spans="1:5">
       <c r="A13" s="6">
         <v>389</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
         <v>0.51</v>
@@ -1429,175 +1918,175 @@
       </c>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="14" ht="19.95" spans="1:5">
       <c r="A14" s="3">
         <v>20</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C14" s="4">
-        <v>0.33700000000000002</v>
+        <v>0.337</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="15" ht="19.95" spans="1:5">
       <c r="A15" s="3">
         <v>293</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C15" s="4">
-        <v>0.56499999999999995</v>
+        <v>0.565</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="16" ht="19.95" spans="1:5">
       <c r="A16" s="3">
         <v>415</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C16" s="4">
-        <v>0.41499999999999998</v>
+        <v>0.415</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="17" ht="19.95" spans="1:5">
       <c r="A17" s="6">
         <v>359</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>0.60099999999999998</v>
+        <v>0.601</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="18" ht="19.95" spans="1:5">
       <c r="A18" s="3">
         <v>270</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C18" s="4">
-        <v>0.40100000000000002</v>
+        <v>0.401</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="19" ht="19.95" spans="1:5">
       <c r="A19" s="6">
         <v>400</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C19" s="7">
-        <v>0.30099999999999999</v>
+        <v>0.301</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="20" ht="19.95" spans="1:5">
       <c r="A20" s="3">
         <v>422</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>185</v>
+        <v>23</v>
       </c>
       <c r="C20" s="4">
-        <v>0.36399999999999999</v>
+        <v>0.364</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="21" ht="19.95" spans="1:4">
       <c r="A21" s="3">
         <v>155</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C21" s="4">
-        <v>0.29699999999999999</v>
+        <v>0.297</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="22" ht="19.95" spans="1:5">
       <c r="A22" s="3">
         <v>409</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C22" s="4">
-        <v>0.45500000000000002</v>
+        <v>0.455</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="23" ht="19.95" spans="1:5">
       <c r="A23" s="6">
         <v>543</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C23" s="7">
-        <v>0.44700000000000001</v>
+        <v>0.447</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="24" ht="19.95" spans="1:4">
       <c r="A24" s="6">
         <v>231</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C24" s="7">
-        <v>0.40400000000000003</v>
+        <v>0.404</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="25" ht="19.95" spans="1:4">
       <c r="A25" s="6">
         <v>501</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>186</v>
+        <v>28</v>
       </c>
       <c r="C25" s="7">
         <v>0.377</v>
@@ -1606,27 +2095,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="26" ht="19.95" spans="1:5">
       <c r="A26" s="3">
         <v>475</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C26" s="4">
-        <v>0.29599999999999999</v>
+        <v>0.296</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="27" ht="19.95" spans="1:5">
       <c r="A27" s="3">
         <v>551</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C27" s="4">
         <v>0.441</v>
@@ -1636,131 +2125,131 @@
       </c>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="28" ht="19.95" spans="1:5">
       <c r="A28" s="6">
         <v>459</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C28" s="7">
-        <v>0.38200000000000001</v>
+        <v>0.382</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E28" s="9"/>
     </row>
-    <row r="29" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="29" ht="19.95" spans="1:5">
       <c r="A29" s="3">
         <v>408</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C29" s="4">
-        <v>0.28199999999999997</v>
+        <v>0.282</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="30" ht="19.95" spans="1:5">
       <c r="A30" s="6">
         <v>530</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C30" s="7">
-        <v>0.47099999999999997</v>
+        <v>0.471</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E30" s="5"/>
     </row>
-    <row r="31" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="31" ht="19.95" spans="1:5">
       <c r="A31" s="3">
         <v>374</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C31" s="4">
-        <v>0.35899999999999999</v>
+        <v>0.359</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E31" s="5"/>
     </row>
-    <row r="32" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="32" ht="19.95" spans="1:5">
       <c r="A32" s="6">
         <v>448</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C32" s="7">
-        <v>0.51200000000000001</v>
+        <v>0.512</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E32" s="5"/>
     </row>
-    <row r="33" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="33" ht="19.95" spans="1:4">
       <c r="A33" s="6">
         <v>326</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C33" s="7">
-        <v>0.40400000000000003</v>
+        <v>0.404</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="34" ht="19.95" spans="1:5">
       <c r="A34" s="3">
         <v>257</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>187</v>
+        <v>37</v>
       </c>
       <c r="C34" s="4">
-        <v>0.39700000000000002</v>
+        <v>0.397</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E34" s="5"/>
     </row>
-    <row r="35" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="35" ht="19.95" spans="1:5">
       <c r="A35" s="6">
         <v>520</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C35" s="7">
-        <v>0.51900000000000002</v>
+        <v>0.519</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E35" s="5"/>
     </row>
-    <row r="36" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="36" ht="19.95" spans="1:5">
       <c r="A36" s="3">
         <v>485</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C36" s="4">
         <v>0.54</v>
@@ -1770,54 +2259,54 @@
       </c>
       <c r="E36" s="5"/>
     </row>
-    <row r="37" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="37" ht="19.95" spans="1:4">
       <c r="A37" s="6">
         <v>506</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>0.46600000000000003</v>
+        <v>0.466</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="38" ht="19.95" spans="1:4">
       <c r="A38" s="6">
         <v>447</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C38" s="7">
-        <v>0.45700000000000002</v>
+        <v>0.457</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="39" ht="19.95" spans="1:4">
       <c r="A39" s="3">
         <v>521</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C39" s="4">
-        <v>0.55900000000000005</v>
+        <v>0.559</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="40" ht="19.95" spans="1:4">
       <c r="A40" s="3">
         <v>541</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C40" s="4">
         <v>0.437</v>
@@ -1826,41 +2315,41 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="41" ht="19.95" spans="1:5">
       <c r="A41" s="3">
         <v>581</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C41" s="4">
-        <v>0.29299999999999998</v>
+        <v>0.293</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E41" s="5"/>
     </row>
-    <row r="42" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="42" ht="19.95" spans="1:4">
       <c r="A42" s="3">
         <v>604</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C42" s="4">
-        <v>0.32500000000000001</v>
+        <v>0.325</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="43" ht="19.95" spans="1:5">
       <c r="A43" s="3">
         <v>643</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C43" s="4">
         <v>0.378</v>
@@ -1870,2571 +2359,2573 @@
       </c>
       <c r="E43" s="5"/>
     </row>
-    <row r="44" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="44" ht="19.95" spans="1:5">
       <c r="A44" s="3">
         <v>657</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C44" s="4">
-        <v>0.68600000000000005</v>
+        <v>0.686</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E44" s="5"/>
     </row>
-    <row r="45" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="45" ht="19.95" spans="1:5">
       <c r="A45" s="6">
         <v>665</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C45" s="7">
-        <v>0.21099999999999999</v>
+        <v>0.211</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E45" s="5"/>
     </row>
-    <row r="46" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="46" ht="19.95" spans="1:4">
       <c r="A46" s="6">
         <v>683</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C46" s="7">
-        <v>0.36599999999999999</v>
+        <v>0.366</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="34.5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" ht="39.15" spans="1:4">
       <c r="A47" s="6">
         <v>340</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C47" s="7">
-        <v>0.39200000000000002</v>
+        <v>0.392</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" ht="19.95" spans="1:5">
       <c r="A48" s="6">
         <v>308</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C48" s="7">
-        <v>0.24099999999999999</v>
+        <v>0.241</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E48" s="9"/>
     </row>
-    <row r="49" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="49" ht="19.95" spans="1:4">
       <c r="A49" s="3">
         <v>425</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>217</v>
+        <v>53</v>
       </c>
       <c r="C49" s="4">
         <v>0.435</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" ht="19.95" spans="1:4">
       <c r="A50" s="3">
         <v>568</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>177</v>
+        <v>54</v>
       </c>
       <c r="C50" s="4">
-        <v>0.39100000000000001</v>
+        <v>0.391</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" ht="19.95" spans="1:4">
       <c r="A51" s="6">
         <v>317</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>178</v>
+        <v>55</v>
       </c>
       <c r="C51" s="7">
-        <v>0.34399999999999997</v>
+        <v>0.344</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" ht="19.95" spans="1:4">
       <c r="A52" s="6">
         <v>305</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C52" s="7">
-        <v>0.39300000000000002</v>
+        <v>0.393</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" ht="19.95" spans="1:4">
       <c r="A53" s="3">
         <v>218</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C53" s="4">
-        <v>0.28199999999999997</v>
+        <v>0.282</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="34.5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" ht="39.15" spans="1:4">
       <c r="A54" s="3">
         <v>159</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>218</v>
+        <v>58</v>
       </c>
       <c r="C54" s="4">
-        <v>0.41899999999999998</v>
+        <v>0.419</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" ht="19.95" spans="1:4">
       <c r="A55" s="3">
         <v>329</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C55" s="4">
-        <v>0.36899999999999999</v>
+        <v>0.369</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" ht="19.95" spans="1:4">
       <c r="A56" s="3">
         <v>471</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C56" s="4">
-        <v>0.42799999999999999</v>
+        <v>0.428</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" ht="19.95" spans="1:4">
       <c r="A57" s="3">
         <v>391</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C57" s="4">
-        <v>0.27100000000000002</v>
+        <v>0.271</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" ht="19.95" spans="1:4">
       <c r="A58" s="6">
         <v>407</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C58" s="7">
         <v>0.376</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" ht="19.95" spans="1:4">
       <c r="A59" s="3">
         <v>297</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C59" s="4">
         <v>0.34</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" ht="19.95" spans="1:4">
       <c r="A60" s="3">
         <v>146</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C60" s="4">
         <v>0.187</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" ht="19.95" spans="1:4">
       <c r="A61" s="3">
         <v>295</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C61" s="4">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" ht="19.95" spans="1:4">
       <c r="A62" s="6">
         <v>42</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C62" s="7">
         <v>0.372</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" ht="19.95" spans="1:4">
       <c r="A63" s="3">
         <v>315</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C63" s="4">
-        <v>0.34799999999999998</v>
+        <v>0.348</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" ht="19.95" spans="1:4">
       <c r="A64" s="3">
         <v>411</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C64" s="4">
-        <v>0.33300000000000002</v>
+        <v>0.333</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" ht="19.95" spans="1:4">
       <c r="A65" s="6">
         <v>269</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C65" s="7">
         <v>0.252</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" ht="19.95" spans="1:4">
       <c r="A66" s="3">
         <v>239</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>224</v>
+        <v>70</v>
       </c>
       <c r="C66" s="4">
-        <v>0.33600000000000002</v>
+        <v>0.336</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" ht="19.95" spans="1:4">
       <c r="A67" s="3">
         <v>465</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>228</v>
+        <v>71</v>
       </c>
       <c r="C67" s="4">
         <v>0.378</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" ht="19.95" spans="1:4">
       <c r="A68" s="6">
         <v>128</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C68" s="7">
         <v>0.375</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="34.5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" ht="39.15" spans="1:4">
       <c r="A69" s="6">
         <v>158</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C69" s="7">
         <v>0.245</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" ht="19.95" spans="1:5">
       <c r="A70" s="6">
         <v>23</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C70" s="7">
-        <v>0.27700000000000002</v>
+        <v>0.277</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E70" s="5"/>
     </row>
-    <row r="71" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="71" ht="19.95" spans="1:4">
       <c r="A71" s="3">
         <v>10</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>219</v>
+        <v>75</v>
       </c>
       <c r="C71" s="4">
-        <v>0.24299999999999999</v>
+        <v>0.243</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" ht="19.95" spans="1:4">
       <c r="A72" s="6">
         <v>212</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C72" s="7">
         <v>0.24</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" ht="19.95" spans="1:4">
       <c r="A73" s="3">
         <v>4</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C73" s="4">
         <v>0.223</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" ht="19.95" spans="1:4">
       <c r="A74" s="6">
         <v>358</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C74" s="7">
         <v>0.317</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" ht="19.95" spans="1:4">
       <c r="A75" s="6">
         <v>587</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C75" s="7">
-        <v>0.32600000000000001</v>
+        <v>0.326</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" ht="19.95" spans="1:4">
       <c r="A76" s="3">
         <v>679</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C76" s="4">
-        <v>0.38900000000000001</v>
+        <v>0.389</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77" ht="19.95" spans="1:4">
       <c r="A77" s="6">
         <v>140</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>223</v>
+        <v>81</v>
       </c>
       <c r="C77" s="7">
-        <v>0.23899999999999999</v>
+        <v>0.239</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78" ht="19.95" spans="1:4">
       <c r="A78" s="6">
         <v>224</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>222</v>
+        <v>82</v>
       </c>
       <c r="C78" s="7">
-        <v>0.27800000000000002</v>
+        <v>0.278</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" ht="19.95" spans="1:5">
       <c r="A79" s="3">
         <v>327</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>220</v>
+        <v>83</v>
       </c>
       <c r="C79" s="4">
-        <v>0.30099999999999999</v>
+        <v>0.301</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E79" s="9"/>
     </row>
-    <row r="80" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="80" ht="19.95" spans="1:5">
       <c r="A80" s="3">
         <v>57</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>221</v>
+        <v>84</v>
       </c>
       <c r="C80" s="4">
-        <v>0.28299999999999997</v>
+        <v>0.283</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E80" s="9"/>
     </row>
-    <row r="81" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="81" ht="19.95" spans="1:4">
       <c r="A81" s="3">
         <v>336</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="C81" s="4">
-        <v>0.26600000000000001</v>
+        <v>0.266</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82" ht="19.95" spans="1:4">
       <c r="A82" s="6">
         <v>44</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>206</v>
+        <v>86</v>
       </c>
       <c r="C82" s="7">
-        <v>0.20599999999999999</v>
+        <v>0.206</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" ht="19.95" spans="1:4">
       <c r="A83" s="3">
         <v>460</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C83" s="4">
-        <v>0.24399999999999999</v>
+        <v>0.244</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" ht="19.95" spans="1:4">
       <c r="A84" s="6">
         <v>363</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C84" s="7">
-        <v>0.33400000000000002</v>
+        <v>0.334</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="85" ht="19.95" spans="1:4">
       <c r="A85" s="3">
         <v>354</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C85" s="4">
-        <v>0.32300000000000001</v>
+        <v>0.323</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="86" ht="19.95" spans="1:4">
       <c r="A86" s="6">
         <v>272</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="C86" s="7">
-        <v>0.39400000000000002</v>
+        <v>0.394</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="87" ht="19.95" spans="1:4">
       <c r="A87" s="6">
         <v>214</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="C87" s="7">
         <v>0.247</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" ht="19.95" spans="1:4">
       <c r="A88" s="3">
         <v>282</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="C88" s="4">
-        <v>0.30199999999999999</v>
+        <v>0.302</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="89" ht="19.95" spans="1:5">
       <c r="A89" s="6">
         <v>302</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="C89" s="7">
-        <v>0.45900000000000002</v>
+        <v>0.459</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E89" s="5"/>
     </row>
-    <row r="90" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="90" ht="19.95" spans="1:4">
       <c r="A90" s="6">
         <v>321</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>227</v>
+        <v>94</v>
       </c>
       <c r="C90" s="7">
         <v>0.248</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="91" ht="19.95" spans="1:4">
       <c r="A91" s="6">
         <v>480</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>226</v>
+        <v>95</v>
       </c>
       <c r="C91" s="7">
         <v>0.311</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="92" ht="19.95" spans="1:4">
       <c r="A92" s="6">
         <v>483</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>208</v>
+        <v>96</v>
       </c>
       <c r="C92" s="7">
-        <v>0.33400000000000002</v>
+        <v>0.334</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="93" ht="19.95" spans="1:4">
       <c r="A93" s="6">
         <v>312</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>225</v>
+        <v>97</v>
       </c>
       <c r="C93" s="7">
         <v>0.432</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="94" ht="19.95" spans="1:4">
       <c r="A94" s="6">
         <v>493</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="C94" s="7">
-        <v>0.20599999999999999</v>
+        <v>0.206</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="95" ht="19.95" spans="1:4">
       <c r="A95" s="3">
         <v>514</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="C95" s="4">
-        <v>0.39100000000000001</v>
+        <v>0.391</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="96" ht="19.95" spans="1:4">
       <c r="A96" s="6">
         <v>527</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>182</v>
+        <v>100</v>
       </c>
       <c r="C96" s="7">
-        <v>0.41899999999999998</v>
+        <v>0.419</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="97" ht="19.95" spans="1:4">
       <c r="A97" s="3">
         <v>316</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="C97" s="4">
-        <v>0.29899999999999999</v>
+        <v>0.299</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="98" ht="19.95" spans="1:4">
       <c r="A98" s="6">
         <v>330</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="C98" s="7">
-        <v>0.32300000000000001</v>
+        <v>0.323</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="99" ht="19.95" spans="1:4">
       <c r="A99" s="6">
         <v>552</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="C99" s="7">
         <v>0.313</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="100" ht="19.95" spans="1:4">
       <c r="A100" s="6">
         <v>569</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="C100" s="7">
-        <v>0.34200000000000003</v>
+        <v>0.342</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="101" ht="19.95" spans="1:4">
       <c r="A101" s="6">
         <v>644</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="C101" s="7">
         <v>0.23</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="102" ht="19.95" spans="1:4">
       <c r="A102" s="6">
         <v>656</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>181</v>
+        <v>106</v>
       </c>
       <c r="C102" s="7">
         <v>0.251</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="103" ht="39.15" spans="1:4">
       <c r="A103" s="6">
         <v>668</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="C103" s="7">
         <v>0.377</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="104" ht="19.95" spans="1:4">
       <c r="A104" s="3">
         <v>685</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="C104" s="4">
-        <v>0.28399999999999997</v>
+        <v>0.284</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="34.5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="105" ht="39.15" spans="1:4">
       <c r="A105" s="6">
         <v>689</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>180</v>
+        <v>109</v>
       </c>
       <c r="C105" s="7">
-        <v>0.41299999999999998</v>
+        <v>0.413</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="106" ht="19.95" spans="1:4">
       <c r="A106" s="3">
         <v>719</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>179</v>
+        <v>110</v>
       </c>
       <c r="C106" s="4">
         <v>0.253</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="107" ht="19.95" spans="1:5">
       <c r="A107" s="6">
         <v>726</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>207</v>
+        <v>111</v>
       </c>
       <c r="C107" s="7">
-        <v>0.45700000000000002</v>
+        <v>0.457</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E107" s="5"/>
     </row>
-    <row r="108" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="108" ht="19.95" spans="1:4">
       <c r="A108" s="3">
         <v>727</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="C108" s="4">
-        <v>0.29099999999999998</v>
+        <v>0.291</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="109" ht="19.95" spans="1:4">
       <c r="A109" s="6">
         <v>534</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="C109" s="7">
         <v>0</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="110" ht="19.95" spans="1:5">
       <c r="A110" s="3">
         <v>388</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="C110" s="4">
         <v>0.371</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="E110" s="9"/>
     </row>
-    <row r="111" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="111" ht="19.95" spans="1:6">
       <c r="A111" s="3">
         <v>681</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="C111" s="4">
-        <v>0.42899999999999999</v>
+        <v>0.429</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="E111" s="5"/>
       <c r="F111" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="112" ht="19.95" spans="1:5">
       <c r="A112" s="3">
         <v>482</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="C112" s="4">
-        <v>0.41799999999999998</v>
+        <v>0.418</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="E112" s="9"/>
     </row>
-    <row r="113" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="113" ht="39.15" spans="1:4">
       <c r="A113" s="6">
         <v>298</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>229</v>
+        <v>119</v>
       </c>
       <c r="C113" s="7">
-        <v>0.41399999999999998</v>
+        <v>0.414</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="114" ht="19.95" spans="1:4">
       <c r="A114" s="3">
         <v>418</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="C114" s="4">
-        <v>0.27800000000000002</v>
+        <v>0.278</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="115" ht="19.95" spans="1:6">
       <c r="A115" s="6">
         <v>281</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="C115" s="7">
-        <v>0.51400000000000001</v>
+        <v>0.514</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="E115" s="5"/>
       <c r="F115" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="116" ht="19.95" spans="1:5">
       <c r="A116" s="6">
         <v>361</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="C116" s="7">
-        <v>0.39400000000000002</v>
+        <v>0.394</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="E116" s="9"/>
     </row>
-    <row r="117" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="117" ht="19.95" spans="1:5">
       <c r="A117" s="3">
         <v>394</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="C117" s="4">
-        <v>0.41699999999999998</v>
+        <v>0.417</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="E117" s="9"/>
     </row>
-    <row r="118" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="118" ht="19.95" spans="1:5">
       <c r="A118" s="6">
         <v>393</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="C118" s="7">
-        <v>0.34699999999999998</v>
+        <v>0.347</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="E118" s="9"/>
     </row>
-    <row r="119" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="119" ht="19.95" spans="1:6">
       <c r="A119" s="6">
         <v>163</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="C119" s="7">
-        <v>0.23799999999999999</v>
+        <v>0.238</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="E119" s="9"/>
       <c r="F119" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="120" ht="19.95" spans="1:4">
       <c r="A120" s="3">
         <v>351</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="C120" s="4">
         <v>0.443</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="121" ht="19.95" spans="1:4">
       <c r="A121" s="3">
         <v>271</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>191</v>
+        <v>129</v>
       </c>
       <c r="C121" s="4">
-        <v>0.26200000000000001</v>
+        <v>0.262</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="122" ht="19.95" spans="1:4">
       <c r="A122" s="6">
         <v>289</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="C122" s="7">
         <v>0.371</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="123" ht="19.95" spans="1:5">
       <c r="A123" s="3">
         <v>288</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="C123" s="4">
-        <v>0.17299999999999999</v>
+        <v>0.173</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="E123" s="5"/>
     </row>
-    <row r="124" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="124" ht="19.95" spans="1:5">
       <c r="A124" s="3">
         <v>200</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="C124" s="4">
-        <v>0.35599999999999998</v>
+        <v>0.356</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="E124" s="5"/>
     </row>
-    <row r="125" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="125" ht="19.95" spans="1:5">
       <c r="A125" s="6">
         <v>280</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="C125" s="7">
-        <v>0.57899999999999996</v>
+        <v>0.579</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="E125" s="9"/>
     </row>
-    <row r="126" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="126" ht="19.95" spans="1:5">
       <c r="A126" s="3">
         <v>616</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="C126" s="4">
-        <v>0.38700000000000001</v>
+        <v>0.387</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="E126" s="8"/>
     </row>
-    <row r="127" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="127" ht="19.95" spans="1:4">
       <c r="A127" s="6">
         <v>259</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>192</v>
+        <v>135</v>
       </c>
       <c r="C127" s="7">
-        <v>0.41699999999999998</v>
+        <v>0.417</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="128" ht="19.95" spans="1:5">
       <c r="A128" s="6">
         <v>399</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="C128" s="7">
-        <v>0.41499999999999998</v>
+        <v>0.415</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="E128" s="9"/>
     </row>
-    <row r="129" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="129" ht="19.95" spans="1:4">
       <c r="A129" s="6">
         <v>417</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="C129" s="7">
-        <v>0.34100000000000003</v>
+        <v>0.341</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="130" ht="19.95" spans="1:4">
       <c r="A130" s="3">
         <v>406</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>193</v>
+        <v>138</v>
       </c>
       <c r="C130" s="4">
-        <v>0.56200000000000006</v>
+        <v>0.562</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="131" ht="19.95" spans="1:5">
       <c r="A131" s="6">
         <v>279</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>194</v>
+        <v>139</v>
       </c>
       <c r="C131" s="7">
         <v>0.375</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="E131" s="5"/>
     </row>
-    <row r="132" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="132" ht="19.95" spans="1:5">
       <c r="A132" s="6">
         <v>56</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>195</v>
+        <v>140</v>
       </c>
       <c r="C132" s="7">
         <v>0.31</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="E132" s="5"/>
     </row>
-    <row r="133" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="133" ht="19.95" spans="1:4">
       <c r="A133" s="6">
         <v>284</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>202</v>
+        <v>141</v>
       </c>
       <c r="C133" s="7">
-        <v>0.35499999999999998</v>
+        <v>0.355</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="134" ht="19.95" spans="1:6">
       <c r="A134" s="3">
         <v>247</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="C134" s="4">
-        <v>0.40500000000000003</v>
+        <v>0.405</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="E134" s="5"/>
       <c r="F134" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="135" ht="39.15" spans="1:4">
       <c r="A135" s="6">
         <v>524</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>203</v>
+        <v>144</v>
       </c>
       <c r="C135" s="7">
         <v>0.433</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="136" ht="19.95" spans="1:6">
       <c r="A136" s="6">
         <v>228</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>204</v>
+        <v>145</v>
       </c>
       <c r="C136" s="7">
         <v>0.308</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="E136" s="5"/>
       <c r="F136" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="137" ht="19.95" spans="1:4">
       <c r="A137" s="3">
         <v>286</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>205</v>
+        <v>147</v>
       </c>
       <c r="C137" s="4">
-        <v>0.44800000000000001</v>
+        <v>0.448</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="138" ht="19.95" spans="1:6">
       <c r="A138" s="6">
         <v>362</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="C138" s="7">
-        <v>0.54400000000000004</v>
+        <v>0.544</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="E138" s="9"/>
       <c r="F138" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="139" ht="19.95" spans="1:5">
       <c r="A139" s="6">
         <v>294</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="C139" s="7">
-        <v>0.46600000000000003</v>
+        <v>0.466</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="E139" s="8"/>
     </row>
-    <row r="140" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="140" ht="19.95" spans="1:5">
       <c r="A140" s="6">
         <v>380</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>114</v>
+        <v>151</v>
       </c>
       <c r="C140" s="7">
-        <v>0.39400000000000002</v>
+        <v>0.394</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="E140" s="9"/>
     </row>
-    <row r="141" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="141" ht="19.95" spans="1:5">
       <c r="A141" s="6">
         <v>249</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="C141" s="7">
-        <v>0.42699999999999999</v>
+        <v>0.427</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="E141" s="9"/>
     </row>
-    <row r="142" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="142" ht="19.95" spans="1:5">
       <c r="A142" s="3">
         <v>320</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="C142" s="4">
-        <v>0.45500000000000002</v>
+        <v>0.455</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="E142" s="9"/>
     </row>
-    <row r="143" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="143" ht="19.95" spans="1:4">
       <c r="A143" s="6">
         <v>505</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="C143" s="7">
-        <v>0.38200000000000001</v>
+        <v>0.382</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="144" ht="19.95" spans="1:4">
       <c r="A144" s="3">
         <v>341</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>118</v>
+        <v>155</v>
       </c>
       <c r="C144" s="4">
-        <v>0.42199999999999999</v>
+        <v>0.422</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="145" ht="19.95" spans="1:4">
       <c r="A145" s="6">
         <v>360</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c r="C145" s="7">
-        <v>0.44500000000000001</v>
+        <v>0.445</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="146" ht="19.95" spans="1:4">
       <c r="A146" s="6">
         <v>274</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>119</v>
+        <v>157</v>
       </c>
       <c r="C146" s="7">
-        <v>0.33500000000000002</v>
+        <v>0.335</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="147" ht="19.95" spans="1:5">
       <c r="A147" s="3">
         <v>253</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>120</v>
+        <v>158</v>
       </c>
       <c r="C147" s="4">
-        <v>0.39300000000000002</v>
+        <v>0.393</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="E147" s="5"/>
     </row>
-    <row r="148" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="148" ht="19.95" spans="1:4">
       <c r="A148" s="6">
         <v>139</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="C148" s="7">
         <v>0.308</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="149" ht="19.95" spans="1:5">
       <c r="A149" s="3">
         <v>230</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="C149" s="4">
-        <v>0.44500000000000001</v>
+        <v>0.445</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="E149" s="5"/>
     </row>
-    <row r="150" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="150" ht="19.95" spans="1:5">
       <c r="A150" s="6">
         <v>162</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>123</v>
+        <v>161</v>
       </c>
       <c r="C150" s="7">
-        <v>0.38100000000000001</v>
+        <v>0.381</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="E150" s="8"/>
     </row>
-    <row r="151" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="151" ht="19.95" spans="1:4">
       <c r="A151" s="3">
         <v>498</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="C151" s="4">
-        <v>0.46100000000000002</v>
+        <v>0.461</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="152" ht="19.95" spans="1:4">
       <c r="A152" s="3">
         <v>490</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="C152" s="4">
         <v>0.432</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="153" ht="19.95" spans="1:4">
       <c r="A153" s="6">
         <v>318</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>197</v>
+        <v>164</v>
       </c>
       <c r="C153" s="7">
-        <v>0.44900000000000001</v>
+        <v>0.449</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="154" ht="19.95" spans="1:4">
       <c r="A154" s="3">
         <v>240</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>198</v>
+        <v>165</v>
       </c>
       <c r="C154" s="4">
-        <v>0.38800000000000001</v>
+        <v>0.388</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="155" ht="19.95" spans="1:4">
       <c r="A155" s="6">
         <v>373</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>126</v>
+        <v>166</v>
       </c>
       <c r="C155" s="7">
         <v>0.309</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="156" ht="19.95" spans="1:5">
       <c r="A156" s="6">
         <v>369</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="C156" s="7">
-        <v>0.54800000000000004</v>
+        <v>0.548</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="E156" s="9"/>
     </row>
-    <row r="157" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="157" ht="19.95" spans="1:6">
       <c r="A157" s="6">
         <v>251</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>199</v>
+        <v>168</v>
       </c>
       <c r="C157" s="7">
-        <v>0.40899999999999997</v>
+        <v>0.409</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="F157" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="158" ht="19.95" spans="1:4">
       <c r="A158" s="3">
         <v>332</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="C158" s="4">
-        <v>0.29399999999999998</v>
+        <v>0.294</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="159" ht="19.95" spans="1:4">
       <c r="A159" s="6">
         <v>173</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C159" s="7">
-        <v>0.42399999999999999</v>
+        <v>0.424</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="160" ht="19.95" spans="1:4">
       <c r="A160" s="3">
         <v>54</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>130</v>
+        <v>172</v>
       </c>
       <c r="C160" s="4">
-        <v>0.26600000000000001</v>
+        <v>0.266</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="161" ht="19.95" spans="1:4">
       <c r="A161" s="3">
         <v>324</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="C161" s="4">
-        <v>0.26200000000000001</v>
+        <v>0.262</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="162" ht="19.95" spans="1:5">
       <c r="A162" s="6">
         <v>17</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="C162" s="7">
-        <v>0.35399999999999998</v>
+        <v>0.354</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="E162" s="9"/>
     </row>
-    <row r="163" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="163" ht="19.95" spans="1:5">
       <c r="A163" s="3">
         <v>484</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="C163" s="4">
-        <v>0.55100000000000005</v>
+        <v>0.551</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="E163" s="9"/>
     </row>
-    <row r="164" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="164" ht="39.15" spans="1:4">
       <c r="A164" s="6">
         <v>562</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>230</v>
+        <v>176</v>
       </c>
       <c r="C164" s="7">
-        <v>0.40899999999999997</v>
+        <v>0.409</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="165" ht="19.95" spans="1:4">
       <c r="A165" s="3">
         <v>166</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>132</v>
+        <v>177</v>
       </c>
       <c r="C165" s="4">
-        <v>0.17799999999999999</v>
+        <v>0.178</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="166" ht="19.95" spans="1:5">
       <c r="A166" s="6">
         <v>22</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>232</v>
+        <v>178</v>
       </c>
       <c r="C166" s="7">
-        <v>0.46300000000000002</v>
+        <v>0.463</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="E166" s="5"/>
+    </row>
+    <row r="167" ht="19.95" spans="1:5">
       <c r="A167" s="3">
         <v>31</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>133</v>
+        <v>179</v>
       </c>
       <c r="C167" s="4">
-        <v>0.28799999999999998</v>
+        <v>0.288</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="E167" s="9"/>
+    </row>
+    <row r="168" ht="19.95" spans="1:4">
       <c r="A168" s="6">
         <v>676</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>231</v>
+        <v>180</v>
       </c>
       <c r="C168" s="7">
         <v>0.5</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="169" ht="39.15" spans="1:4">
       <c r="A169" s="6">
         <v>421</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>134</v>
+        <v>181</v>
       </c>
       <c r="C169" s="7">
-        <v>0.46899999999999997</v>
+        <v>0.469</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="170" ht="19.95" spans="1:4">
       <c r="A170" s="6">
         <v>503</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>135</v>
+        <v>182</v>
       </c>
       <c r="C170" s="7">
-        <v>0.47299999999999998</v>
+        <v>0.473</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="171" ht="19.95" spans="1:4">
       <c r="A171" s="6">
         <v>684</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>136</v>
+        <v>183</v>
       </c>
       <c r="C171" s="7">
-        <v>0.39200000000000002</v>
+        <v>0.392</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="172" ht="19.95" spans="1:4">
       <c r="A172" s="3">
         <v>133</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>137</v>
+        <v>184</v>
       </c>
       <c r="C172" s="4">
         <v>0.251</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="173" ht="19.95" spans="1:4">
       <c r="A173" s="3">
         <v>50</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>138</v>
+        <v>185</v>
       </c>
       <c r="C173" s="4">
         <v>0.26</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="174" ht="19.95" spans="1:4">
       <c r="A174" s="3">
         <v>208</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>139</v>
+        <v>186</v>
       </c>
       <c r="C174" s="4">
-        <v>0.29499999999999998</v>
+        <v>0.295</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="175" ht="19.95" spans="1:4">
       <c r="A175" s="6">
         <v>348</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="C175" s="7">
-        <v>0.45800000000000002</v>
+        <v>0.458</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="176" ht="19.95" spans="1:4">
       <c r="A176" s="3">
         <v>652</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="C176" s="4">
-        <v>0.35799999999999998</v>
+        <v>0.358</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="177" ht="19.95" spans="1:4">
       <c r="A177" s="6">
         <v>444</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="C177" s="7">
-        <v>0.19600000000000001</v>
+        <v>0.196</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" ht="34.5" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="178" ht="39.15" spans="1:4">
       <c r="A178" s="3">
         <v>309</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="C178" s="4">
-        <v>0.41299999999999998</v>
+        <v>0.413</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="179" ht="19.95" spans="1:4">
       <c r="A179" s="3">
         <v>382</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>141</v>
+        <v>191</v>
       </c>
       <c r="C179" s="4">
-        <v>0.47099999999999997</v>
+        <v>0.471</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="180" ht="19.95" spans="1:4">
       <c r="A180" s="6">
         <v>402</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>142</v>
+        <v>192</v>
       </c>
       <c r="C180" s="7">
         <v>0.26</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="181" ht="19.95" spans="1:4">
       <c r="A181" s="3">
         <v>370</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>143</v>
+        <v>193</v>
       </c>
       <c r="C181" s="4">
-        <v>0.56499999999999995</v>
+        <v>0.565</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="182" ht="19.95" spans="1:4">
       <c r="A182" s="6">
         <v>377</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>144</v>
+        <v>194</v>
       </c>
       <c r="C182" s="7">
-        <v>0.42399999999999999</v>
+        <v>0.424</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="183" ht="19.95" spans="1:4">
       <c r="A183" s="3">
         <v>379</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="C183" s="4">
-        <v>0.34100000000000003</v>
+        <v>0.341</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="184" ht="19.95" spans="1:4">
       <c r="A184" s="6">
         <v>353</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>145</v>
+        <v>196</v>
       </c>
       <c r="C184" s="7">
-        <v>0.26800000000000002</v>
+        <v>0.268</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="185" ht="19.95" spans="1:4">
       <c r="A185" s="3">
         <v>375</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>146</v>
+        <v>197</v>
       </c>
       <c r="C185" s="4">
-        <v>0.35899999999999999</v>
+        <v>0.359</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="186" ht="19.95" spans="1:4">
       <c r="A186" s="3">
         <v>356</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>147</v>
+        <v>198</v>
       </c>
       <c r="C186" s="4">
-        <v>0.30099999999999999</v>
+        <v>0.301</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="187" ht="19.95" spans="1:4">
       <c r="A187" s="6">
         <v>261</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>148</v>
+        <v>199</v>
       </c>
       <c r="C187" s="7">
-        <v>0.38100000000000001</v>
+        <v>0.381</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="188" ht="19.95" spans="1:4">
       <c r="A188" s="3">
         <v>486</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="C188" s="4">
-        <v>0.45100000000000001</v>
+        <v>0.451</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="189" ht="19.95" spans="1:4">
       <c r="A189" s="6">
         <v>542</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>150</v>
+        <v>201</v>
       </c>
       <c r="C189" s="7">
         <v>0.33</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="190" ht="19.95" spans="1:5">
       <c r="A190" s="3">
         <v>397</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="C190" s="4">
-        <v>0.30199999999999999</v>
+        <v>0.302</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="E190" s="8"/>
     </row>
-    <row r="191" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="191" ht="19.95" spans="1:4">
       <c r="A191" s="6">
         <v>368</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="C191" s="7">
-        <v>0.33700000000000002</v>
+        <v>0.337</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="192" ht="19.95" spans="1:4">
       <c r="A192" s="3">
         <v>378</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="C192" s="4">
-        <v>0.45200000000000001</v>
+        <v>0.452</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="193" ht="19.95" spans="1:4">
       <c r="A193" s="3">
         <v>313</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
       <c r="C193" s="4">
         <v>0.38</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="194" ht="39.15" spans="1:5">
       <c r="A194" s="6">
         <v>331</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>155</v>
+        <v>206</v>
       </c>
       <c r="C194" s="7">
-        <v>0.36599999999999999</v>
+        <v>0.366</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="E194" s="8"/>
     </row>
-    <row r="195" spans="1:6" ht="34.5" x14ac:dyDescent="0.2">
+    <row r="195" ht="39.15" spans="1:4">
       <c r="A195" s="3">
         <v>323</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>156</v>
+        <v>207</v>
       </c>
       <c r="C195" s="4">
-        <v>0.48299999999999998</v>
+        <v>0.483</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="196" ht="19.95" spans="1:5">
       <c r="A196" s="6">
         <v>451</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>157</v>
+        <v>208</v>
       </c>
       <c r="C196" s="7">
-        <v>0.51100000000000001</v>
+        <v>0.511</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="E196" s="5"/>
     </row>
-    <row r="197" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="197" ht="19.95" spans="1:4">
       <c r="A197" s="3">
         <v>310</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="C197" s="4">
-        <v>0.28899999999999998</v>
+        <v>0.289</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="198" ht="19.95" spans="1:5">
       <c r="A198" s="3">
         <v>729</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C198" s="4">
-        <v>0.36099999999999999</v>
+        <v>0.361</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="E198" s="5"/>
     </row>
-    <row r="199" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="199" ht="19.95" spans="1:4">
       <c r="A199" s="6">
         <v>469</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="C199" s="7">
-        <v>0.33400000000000002</v>
+        <v>0.334</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="200" ht="19.95" spans="1:4">
       <c r="A200" s="3">
         <v>474</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C200" s="4">
-        <v>0.39100000000000001</v>
+        <v>0.391</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="201" ht="19.95" spans="1:4">
       <c r="A201" s="3">
         <v>481</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C201" s="4">
-        <v>0.45600000000000002</v>
+        <v>0.456</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="202" ht="19.95" spans="1:5">
       <c r="A202" s="3">
         <v>314</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>158</v>
+        <v>214</v>
       </c>
       <c r="C202" s="4">
         <v>0.373</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="E202" s="5"/>
     </row>
-    <row r="203" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="203" ht="19.95" spans="1:5">
       <c r="A203" s="6">
         <v>357</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="C203" s="7">
-        <v>0.46100000000000002</v>
+        <v>0.461</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="E203" s="9"/>
     </row>
-    <row r="204" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="204" ht="19.95" spans="1:6">
       <c r="A204" s="3">
         <v>487</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>159</v>
+        <v>216</v>
       </c>
       <c r="C204" s="4">
-        <v>0.45600000000000002</v>
+        <v>0.456</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="E204" s="9"/>
       <c r="F204" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="205" ht="19.95" spans="1:5">
       <c r="A205" s="3">
         <v>494</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>161</v>
+        <v>218</v>
       </c>
       <c r="C205" s="4">
         <v>0.436</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="E205" s="9"/>
     </row>
-    <row r="206" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="206" ht="19.95" spans="1:5">
       <c r="A206" s="6">
         <v>522</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>162</v>
+        <v>219</v>
       </c>
       <c r="C206" s="7">
         <v>0.318</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="E206" s="9"/>
     </row>
-    <row r="207" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="207" ht="19.95" spans="1:5">
       <c r="A207" s="3">
         <v>526</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>163</v>
+        <v>220</v>
       </c>
       <c r="C207" s="4">
-        <v>0.54200000000000004</v>
+        <v>0.542</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="E207" s="5"/>
     </row>
-    <row r="208" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="208" ht="19.95" spans="1:4">
       <c r="A208" s="6">
         <v>531</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>164</v>
+        <v>221</v>
       </c>
       <c r="C208" s="7">
-        <v>0.55600000000000005</v>
+        <v>0.556</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="209" ht="19.95" spans="1:4">
       <c r="A209" s="3">
         <v>533</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>165</v>
+        <v>222</v>
       </c>
       <c r="C209" s="4">
-        <v>0.44600000000000001</v>
+        <v>0.446</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="210" ht="19.95" spans="1:4">
       <c r="A210" s="6">
         <v>535</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>166</v>
+        <v>223</v>
       </c>
       <c r="C210" s="7">
-        <v>0.74199999999999999</v>
+        <v>0.742</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="211" ht="19.95" spans="1:5">
       <c r="A211" s="3">
         <v>544</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>167</v>
+        <v>224</v>
       </c>
       <c r="C211" s="4">
-        <v>0.70899999999999996</v>
+        <v>0.709</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="E211" s="5"/>
     </row>
-    <row r="212" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="212" ht="19.95" spans="1:5">
       <c r="A212" s="6">
         <v>545</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>168</v>
+        <v>225</v>
       </c>
       <c r="C212" s="7">
-        <v>0.31900000000000001</v>
+        <v>0.319</v>
       </c>
       <c r="D212" s="6" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="E212" s="9"/>
     </row>
-    <row r="213" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="213" ht="39.15" spans="1:4">
       <c r="A213" s="3">
         <v>549</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>169</v>
+        <v>226</v>
       </c>
       <c r="C213" s="4">
-        <v>0.41899999999999998</v>
+        <v>0.419</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="214" ht="19.95" spans="1:5">
       <c r="A214" s="3">
         <v>560</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>170</v>
+        <v>227</v>
       </c>
       <c r="C214" s="4">
-        <v>0.40400000000000003</v>
+        <v>0.404</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="E214" s="9"/>
     </row>
-    <row r="215" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="215" ht="19.95" spans="1:4">
       <c r="A215" s="6">
         <v>583</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>171</v>
+        <v>228</v>
       </c>
       <c r="C215" s="7">
         <v>0.442</v>
       </c>
       <c r="D215" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="216" ht="19.95" spans="1:4">
       <c r="A216" s="6">
         <v>638</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>172</v>
+        <v>229</v>
       </c>
       <c r="C216" s="7">
         <v>0.434</v>
       </c>
       <c r="D216" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="217" ht="19.95" spans="1:5">
       <c r="A217" s="3">
         <v>651</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>173</v>
+        <v>230</v>
       </c>
       <c r="C217" s="4">
-        <v>0.48799999999999999</v>
+        <v>0.488</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="E217" s="9"/>
     </row>
-    <row r="218" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="218" ht="19.95" spans="1:5">
       <c r="A218" s="6">
         <v>658</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>174</v>
+        <v>231</v>
       </c>
       <c r="C218" s="7">
-        <v>0.35299999999999998</v>
+        <v>0.353</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="E218" s="9"/>
     </row>
-    <row r="219" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="219" ht="39.15" spans="1:4">
       <c r="A219" s="3">
         <v>659</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>175</v>
+        <v>232</v>
       </c>
       <c r="C219" s="4">
-        <v>0.35699999999999998</v>
+        <v>0.357</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="220" ht="19.95" spans="1:4">
       <c r="A220" s="3">
         <v>667</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>176</v>
+        <v>233</v>
       </c>
       <c r="C220" s="4">
-        <v>0.51500000000000001</v>
+        <v>0.515</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="221" ht="19.95" spans="1:5">
       <c r="A221" s="6">
         <v>731</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="C221" s="7">
         <v>0.316</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="E221" s="5"/>
     </row>
@@ -4442,13 +4933,13 @@
   <sortState ref="A3:D221">
     <sortCondition ref="D10"/>
   </sortState>
-  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F111" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F136" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F115" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F111" r:id="rId1" display="https://www.youtube.com/embed/IAet94C1FCc?feature=oembed"/>
+    <hyperlink ref="F136" r:id="rId2" display="http://www.cnblogs.com/grandyang/p/4603555.html"/>
+    <hyperlink ref="F115" r:id="rId3" display="http://www.cnblogs.com/grandyang/p/5212785.html"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/google_ranked.xlsx
+++ b/google_ranked.xlsx
@@ -726,9 +726,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -795,21 +795,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -827,6 +812,45 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -840,19 +864,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -866,33 +890,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -941,31 +941,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -977,85 +1007,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1067,7 +1019,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1085,19 +1037,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1138,67 +1138,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1232,95 +1173,154 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1329,49 +1329,49 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1723,8 +1723,8 @@
   <sheetPr/>
   <dimension ref="A1:F221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
-      <selection activeCell="B168" sqref="B168"/>
+    <sheetView tabSelected="1" topLeftCell="A210" workbookViewId="0">
+      <selection activeCell="C225" sqref="C225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
@@ -4096,7 +4096,7 @@
       </c>
       <c r="E163" s="9"/>
     </row>
-    <row r="164" ht="39.15" spans="1:4">
+    <row r="164" ht="19.95" spans="1:4">
       <c r="A164" s="6">
         <v>562</v>
       </c>
@@ -4182,7 +4182,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="170" ht="19.95" spans="1:4">
+    <row r="170" ht="19.95" spans="1:5">
       <c r="A170" s="6">
         <v>503</v>
       </c>
@@ -4195,6 +4195,7 @@
       <c r="D170" s="6" t="s">
         <v>114</v>
       </c>
+      <c r="E170" s="5"/>
     </row>
     <row r="171" ht="19.95" spans="1:4">
       <c r="A171" s="6">
@@ -4238,7 +4239,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="174" ht="19.95" spans="1:4">
+    <row r="174" ht="19.95" spans="1:5">
       <c r="A174" s="3">
         <v>208</v>
       </c>
@@ -4251,6 +4252,7 @@
       <c r="D174" s="3" t="s">
         <v>114</v>
       </c>
+      <c r="E174" s="5"/>
     </row>
     <row r="175" ht="19.95" spans="1:4">
       <c r="A175" s="6">
@@ -4294,7 +4296,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="178" ht="39.15" spans="1:4">
+    <row r="178" ht="39.15" spans="1:5">
       <c r="A178" s="3">
         <v>309</v>
       </c>
@@ -4307,6 +4309,7 @@
       <c r="D178" s="3" t="s">
         <v>114</v>
       </c>
+      <c r="E178" s="9"/>
     </row>
     <row r="179" ht="19.95" spans="1:4">
       <c r="A179" s="3">

--- a/google_ranked.xlsx
+++ b/google_ranked.xlsx
@@ -726,9 +726,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -795,6 +795,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -812,9 +858,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -828,37 +882,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -867,30 +891,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -935,13 +935,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -953,55 +947,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1019,7 +971,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1031,73 +1079,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1135,6 +1135,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1144,17 +1179,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1174,46 +1203,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1241,7 +1241,7 @@
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1250,7 +1250,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1259,122 +1259,122 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1723,8 +1723,8 @@
   <sheetPr/>
   <dimension ref="A1:F221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A210" workbookViewId="0">
-      <selection activeCell="C225" sqref="C225"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>

--- a/google_ranked.xlsx
+++ b/google_ranked.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\mine\GitHub\leet\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9DC90A-DF85-4848-8197-9B00A72C870C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9935"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22368" windowHeight="9936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="235">
   <si>
     <t>Google</t>
   </si>
@@ -280,458 +286,460 @@
     <t>LFU Cache</t>
   </si>
   <si>
+    <t>Closest Binary Search Tree Value II</t>
+  </si>
+  <si>
+    <t>Shortest Palindrome</t>
+  </si>
+  <si>
+    <t>Expression Add Operators</t>
+  </si>
+  <si>
+    <t>Smallest Rectangle Enclosing Black Pixels</t>
+  </si>
+  <si>
+    <t>Create Maximum Number</t>
+  </si>
+  <si>
+    <t>Sliding Window Median</t>
+  </si>
+  <si>
+    <t>Smallest Good Base</t>
+  </si>
+  <si>
+    <t>Burst Balloons</t>
+  </si>
+  <si>
+    <t>Freedom Trail</t>
+  </si>
+  <si>
+    <t>Word Abbreviation</t>
+  </si>
+  <si>
+    <t>Student Attendance Record II</t>
+  </si>
+  <si>
+    <t>Maximum Average Subarray II</t>
+  </si>
+  <si>
+    <t>Redundant Connection II</t>
+  </si>
+  <si>
+    <t>Maximum Sum of 3 Non-Overlapping Subarrays</t>
+  </si>
+  <si>
+    <t>Find K-th Smallest Pair Distance</t>
+  </si>
+  <si>
+    <t>Number of Atoms</t>
+  </si>
+  <si>
+    <t>Minimum Window Subsequence</t>
+  </si>
+  <si>
+    <t>Design TinyURL</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Longest Absolute File Path</t>
+  </si>
+  <si>
+    <t>Next Closest Time</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/IAet94C1FCc?feature=oembed</t>
+  </si>
+  <si>
+    <t>License Key Formatting</t>
+  </si>
+  <si>
+    <t>Binary Tree Longest Consecutive Sequence</t>
+  </si>
+  <si>
+    <t>Sentence Screen Fitting</t>
+  </si>
+  <si>
+    <t>Zigzag Iterator</t>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/grandyang/p/5212785.html</t>
+  </si>
+  <si>
+    <t>Bomb Enemy</t>
+  </si>
+  <si>
+    <t>Decode String</t>
+  </si>
+  <si>
+    <t>UTF-8 Validation</t>
+  </si>
+  <si>
+    <t>Missing Ranges</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/grandyang/p/5184890.html</t>
+  </si>
+  <si>
+    <t>Android Unlock Patterns</t>
+  </si>
+  <si>
+    <t>Encode and Decode Strings</t>
+  </si>
+  <si>
+    <t>Game of Life</t>
+  </si>
+  <si>
+    <t>Unique Word Abbreviation</t>
+  </si>
+  <si>
+    <t>Number of Islands</t>
+  </si>
+  <si>
+    <t>Wiggle Sort</t>
+  </si>
+  <si>
+    <t>Add Bold Tag in String</t>
+  </si>
+  <si>
+    <t>3Sum Smaller</t>
+  </si>
+  <si>
+    <t>Evaluate Division</t>
+  </si>
+  <si>
+    <t>Pacific Atlantic Water Flow</t>
+  </si>
+  <si>
+    <t>Queue Reconstruction by Height</t>
+  </si>
+  <si>
+    <t>Perfect Squares</t>
+  </si>
+  <si>
+    <t>Merge Intervals</t>
+  </si>
+  <si>
+    <t>Peeking Iterator</t>
+  </si>
+  <si>
+    <t>Strobogrammatic Number II</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/grandyang/p/5200919.html</t>
+  </si>
+  <si>
+    <t>Longest Word in Dictionary through Deleting</t>
+  </si>
+  <si>
+    <t>Summary Ranges</t>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/grandyang/p/4603555.html</t>
+  </si>
+  <si>
+    <t>Walls and Gates</t>
+  </si>
+  <si>
+    <t>Design Hit Counter</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/grandyang/p/5605552.html</t>
+  </si>
+  <si>
+    <t>Flip Game II</t>
+  </si>
+  <si>
+    <t>Insert Delete GetRandom O(1)</t>
+  </si>
+  <si>
+    <t>Group Shifted Strings</t>
+  </si>
+  <si>
+    <t>Generalized Abbreviation</t>
+  </si>
+  <si>
+    <t>The Maze II</t>
+  </si>
+  <si>
+    <t>Flatten Nested List Iterator</t>
+  </si>
+  <si>
+    <t>Sort Transformed Array</t>
+  </si>
+  <si>
+    <t>H-Index</t>
+  </si>
+  <si>
+    <t>Meeting Rooms II</t>
+  </si>
+  <si>
+    <t>Word Break</t>
+  </si>
+  <si>
+    <t>Kth Smallest Element in a BST</t>
+  </si>
+  <si>
+    <t>Find Peak Element</t>
+  </si>
+  <si>
+    <t>Diagonal Traverse</t>
+  </si>
+  <si>
+    <t>The Maze</t>
+  </si>
+  <si>
+    <t>Maximum Product of Word Lengths</t>
+  </si>
+  <si>
+    <t>Search a 2D Matrix II</t>
+  </si>
+  <si>
+    <t>Find K Pairs with Smallest Sums</t>
+  </si>
+  <si>
+    <t>Plus One Linked List</t>
+  </si>
+  <si>
+    <t>Flatten 2D Vector</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/grandyang/p/5209621.html</t>
+  </si>
+  <si>
+    <t>Reconstruct Itinerary</t>
+  </si>
+  <si>
+    <t>Binary Search Tree Iterator</t>
+  </si>
+  <si>
+    <t>Spiral Matrix</t>
+  </si>
+  <si>
+    <t>Wiggle Sort II</t>
+  </si>
+  <si>
+    <t>Letter Combinations of a Phone Number</t>
+  </si>
+  <si>
+    <t>Find Permutation</t>
+  </si>
+  <si>
+    <t>Longest Line of Consecutive One in Matrix</t>
+  </si>
+  <si>
+    <t>Fraction to Recurring Decimal</t>
+  </si>
+  <si>
+    <t>Generate Parentheses</t>
+  </si>
+  <si>
+    <t>Next Permutation</t>
+  </si>
+  <si>
+    <t>Implement Magic Dictionary</t>
+  </si>
+  <si>
+    <t>Maximum XOR of Two Numbers in an Array</t>
+  </si>
+  <si>
+    <t>Next Greater Element II</t>
+  </si>
+  <si>
+    <t>Redundant Connection</t>
+  </si>
+  <si>
+    <t>Clone Graph</t>
+  </si>
+  <si>
+    <t>Pow(x, n)</t>
+  </si>
+  <si>
+    <t>Implement Trie (Prefix Tree)</t>
+  </si>
+  <si>
+    <t>Design Tic-Tac-Toe</t>
+  </si>
+  <si>
+    <t>Find Duplicate Subtrees</t>
+  </si>
+  <si>
+    <t>Sequence Reconstruction</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock with Cooldown</t>
+  </si>
+  <si>
+    <t>Linked List Random Node</t>
+  </si>
+  <si>
+    <t>Remove K Digits</t>
+  </si>
+  <si>
+    <t>Range Addition</t>
+  </si>
+  <si>
+    <t>Combination Sum IV</t>
+  </si>
+  <si>
+    <t>Design Phone Directory</t>
+  </si>
+  <si>
+    <t>Design Snake Game</t>
+  </si>
+  <si>
+    <t>Guess Number Higher or Lower II</t>
+  </si>
+  <si>
+    <t>Line Reflection</t>
+  </si>
+  <si>
+    <t>Graph Valid Tree</t>
+  </si>
+  <si>
+    <t>Predict the Winner</t>
+  </si>
+  <si>
+    <t>01 Matrix</t>
+  </si>
+  <si>
+    <t>Integer Replacement</t>
+  </si>
+  <si>
+    <t>Largest Divisible Subset</t>
+  </si>
+  <si>
+    <t>Kth Smallest Element in a Sorted Matrix</t>
+  </si>
+  <si>
+    <t>Super Ugly Number</t>
+  </si>
+  <si>
+    <t>Verify Preorder Serialization of a Binary Tree</t>
+  </si>
+  <si>
+    <t>Number of Connected Components in an Undirected Graph</t>
+  </si>
+  <si>
+    <t>Sort Characters By Frequency</t>
+  </si>
+  <si>
+    <t>Minimum Height Trees</t>
+  </si>
+  <si>
+    <t>My Calendar I</t>
+  </si>
+  <si>
+    <t>Convex Polygon</t>
+  </si>
+  <si>
+    <t>Ones and Zeroes</t>
+  </si>
+  <si>
+    <t>Magical String</t>
+  </si>
+  <si>
+    <t>Binary Tree Vertical Order Traversal</t>
+  </si>
+  <si>
+    <t>Count Numbers with Unique Digits</t>
+  </si>
+  <si>
+    <t>Max Consecutive Ones II</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/grandyang/p/6376115.html</t>
+  </si>
+  <si>
+    <t>Target Sum</t>
+  </si>
+  <si>
+    <t>Longest Uncommon Subsequence II</t>
+  </si>
+  <si>
+    <t>Beautiful Arrangement</t>
+  </si>
+  <si>
+    <t>Lonely Pixel I</t>
+  </si>
+  <si>
+    <t>Lonely Pixel II</t>
+  </si>
+  <si>
+    <t>Encode and Decode TinyURL</t>
+  </si>
+  <si>
+    <t>Output Contest Matches</t>
+  </si>
+  <si>
+    <t>Boundary of Binary Tree</t>
+  </si>
+  <si>
+    <t>Binary Tree Longest Consecutive Sequence II</t>
+  </si>
+  <si>
+    <t>Subarray Sum Equals K</t>
+  </si>
+  <si>
+    <t>Delete Operation for Two Strings</t>
+  </si>
+  <si>
+    <t>Shopping Offers</t>
+  </si>
+  <si>
+    <t>4 Keys Keyboard</t>
+  </si>
+  <si>
+    <t>Find K Closest Elements</t>
+  </si>
+  <si>
+    <t>Split Array into Consecutive Subsequences</t>
+  </si>
+  <si>
+    <t>Beautiful Arrangement II</t>
+  </si>
+  <si>
+    <t>My Calendar II</t>
+  </si>
+  <si>
+    <t>Russian Doll Envelopes</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>Max Sum of Rectangle No Larger Than K</t>
-  </si>
-  <si>
-    <t>Russian Doll Envelopes</t>
-  </si>
-  <si>
-    <t>Closest Binary Search Tree Value II</t>
-  </si>
-  <si>
-    <t>Shortest Palindrome</t>
-  </si>
-  <si>
-    <t>Expression Add Operators</t>
-  </si>
-  <si>
-    <t>Smallest Rectangle Enclosing Black Pixels</t>
-  </si>
-  <si>
-    <t>Create Maximum Number</t>
-  </si>
-  <si>
-    <t>Sliding Window Median</t>
-  </si>
-  <si>
-    <t>Smallest Good Base</t>
-  </si>
-  <si>
-    <t>Burst Balloons</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Reverse Pairs</t>
-  </si>
-  <si>
-    <t>Freedom Trail</t>
-  </si>
-  <si>
-    <t>Word Abbreviation</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kth Smallest Number in Multiplication Table</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coin Path</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Patching Array</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Median Employee Salary</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Remove Duplicate Letters</t>
-  </si>
-  <si>
-    <t>Patching Array</t>
-  </si>
-  <si>
-    <t>Student Attendance Record II</t>
-  </si>
-  <si>
-    <t>Median Employee Salary</t>
-  </si>
-  <si>
-    <t>Maximum Average Subarray II</t>
-  </si>
-  <si>
-    <t>Coin Path</t>
-  </si>
-  <si>
-    <t>Kth Smallest Number in Multiplication Table</t>
-  </si>
-  <si>
-    <t>Redundant Connection II</t>
-  </si>
-  <si>
-    <t>Maximum Sum of 3 Non-Overlapping Subarrays</t>
-  </si>
-  <si>
-    <t>Find K-th Smallest Pair Distance</t>
-  </si>
-  <si>
-    <t>Number of Atoms</t>
-  </si>
-  <si>
-    <t>Minimum Window Subsequence</t>
-  </si>
-  <si>
-    <t>Design TinyURL</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>Longest Absolute File Path</t>
-  </si>
-  <si>
-    <t>Next Closest Time</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/IAet94C1FCc?feature=oembed</t>
-  </si>
-  <si>
-    <t>License Key Formatting</t>
-  </si>
-  <si>
-    <t>Binary Tree Longest Consecutive Sequence</t>
-  </si>
-  <si>
-    <t>Sentence Screen Fitting</t>
-  </si>
-  <si>
-    <t>Zigzag Iterator</t>
-  </si>
-  <si>
-    <t>http://www.cnblogs.com/grandyang/p/5212785.html</t>
-  </si>
-  <si>
-    <t>Bomb Enemy</t>
-  </si>
-  <si>
-    <t>Decode String</t>
-  </si>
-  <si>
-    <t>UTF-8 Validation</t>
-  </si>
-  <si>
-    <t>Missing Ranges</t>
-  </si>
-  <si>
-    <t>https://www.cnblogs.com/grandyang/p/5184890.html</t>
-  </si>
-  <si>
-    <t>Android Unlock Patterns</t>
-  </si>
-  <si>
-    <t>Encode and Decode Strings</t>
-  </si>
-  <si>
-    <t>Game of Life</t>
-  </si>
-  <si>
-    <t>Unique Word Abbreviation</t>
-  </si>
-  <si>
-    <t>Number of Islands</t>
-  </si>
-  <si>
-    <t>Wiggle Sort</t>
-  </si>
-  <si>
-    <t>Add Bold Tag in String</t>
-  </si>
-  <si>
-    <t>3Sum Smaller</t>
-  </si>
-  <si>
-    <t>Evaluate Division</t>
-  </si>
-  <si>
-    <t>Pacific Atlantic Water Flow</t>
-  </si>
-  <si>
-    <t>Queue Reconstruction by Height</t>
-  </si>
-  <si>
-    <t>Perfect Squares</t>
-  </si>
-  <si>
-    <t>Merge Intervals</t>
-  </si>
-  <si>
-    <t>Peeking Iterator</t>
-  </si>
-  <si>
-    <t>Strobogrammatic Number II</t>
-  </si>
-  <si>
-    <t>https://www.cnblogs.com/grandyang/p/5200919.html</t>
-  </si>
-  <si>
-    <t>Longest Word in Dictionary through Deleting</t>
-  </si>
-  <si>
-    <t>Summary Ranges</t>
-  </si>
-  <si>
-    <t>http://www.cnblogs.com/grandyang/p/4603555.html</t>
-  </si>
-  <si>
-    <t>Walls and Gates</t>
-  </si>
-  <si>
-    <t>Design Hit Counter</t>
-  </si>
-  <si>
-    <t>https://www.cnblogs.com/grandyang/p/5605552.html</t>
-  </si>
-  <si>
-    <t>Flip Game II</t>
-  </si>
-  <si>
-    <t>Insert Delete GetRandom O(1)</t>
-  </si>
-  <si>
-    <t>Group Shifted Strings</t>
-  </si>
-  <si>
-    <t>Generalized Abbreviation</t>
-  </si>
-  <si>
-    <t>The Maze II</t>
-  </si>
-  <si>
-    <t>Flatten Nested List Iterator</t>
-  </si>
-  <si>
-    <t>Sort Transformed Array</t>
-  </si>
-  <si>
-    <t>H-Index</t>
-  </si>
-  <si>
-    <t>Meeting Rooms II</t>
-  </si>
-  <si>
-    <t>Word Break</t>
-  </si>
-  <si>
-    <t>Kth Smallest Element in a BST</t>
-  </si>
-  <si>
-    <t>Find Peak Element</t>
-  </si>
-  <si>
-    <t>Diagonal Traverse</t>
-  </si>
-  <si>
-    <t>The Maze</t>
-  </si>
-  <si>
-    <t>Maximum Product of Word Lengths</t>
-  </si>
-  <si>
-    <t>Search a 2D Matrix II</t>
-  </si>
-  <si>
-    <t>Find K Pairs with Smallest Sums</t>
-  </si>
-  <si>
-    <t>Plus One Linked List</t>
-  </si>
-  <si>
-    <t>Flatten 2D Vector</t>
-  </si>
-  <si>
-    <t>https://www.cnblogs.com/grandyang/p/5209621.html</t>
-  </si>
-  <si>
-    <t>Reconstruct Itinerary</t>
-  </si>
-  <si>
-    <t>Binary Search Tree Iterator</t>
-  </si>
-  <si>
-    <t>Spiral Matrix</t>
-  </si>
-  <si>
-    <t>Wiggle Sort II</t>
-  </si>
-  <si>
-    <t>Letter Combinations of a Phone Number</t>
-  </si>
-  <si>
-    <t>Find Permutation</t>
-  </si>
-  <si>
-    <t>Longest Line of Consecutive One in Matrix</t>
-  </si>
-  <si>
-    <t>Fraction to Recurring Decimal</t>
-  </si>
-  <si>
-    <t>Generate Parentheses</t>
-  </si>
-  <si>
-    <t>Next Permutation</t>
-  </si>
-  <si>
-    <t>Implement Magic Dictionary</t>
-  </si>
-  <si>
-    <t>Maximum XOR of Two Numbers in an Array</t>
-  </si>
-  <si>
-    <t>Next Greater Element II</t>
-  </si>
-  <si>
-    <t>Redundant Connection</t>
-  </si>
-  <si>
-    <t>Clone Graph</t>
-  </si>
-  <si>
-    <t>Pow(x, n)</t>
-  </si>
-  <si>
-    <t>Implement Trie (Prefix Tree)</t>
-  </si>
-  <si>
-    <t>Design Tic-Tac-Toe</t>
-  </si>
-  <si>
-    <t>Find Duplicate Subtrees</t>
-  </si>
-  <si>
-    <t>Sequence Reconstruction</t>
-  </si>
-  <si>
-    <t>Best Time to Buy and Sell Stock with Cooldown</t>
-  </si>
-  <si>
-    <t>Linked List Random Node</t>
-  </si>
-  <si>
-    <t>Remove K Digits</t>
-  </si>
-  <si>
-    <t>Range Addition</t>
-  </si>
-  <si>
-    <t>Combination Sum IV</t>
-  </si>
-  <si>
-    <t>Design Phone Directory</t>
-  </si>
-  <si>
-    <t>Design Snake Game</t>
-  </si>
-  <si>
-    <t>Guess Number Higher or Lower II</t>
-  </si>
-  <si>
-    <t>Line Reflection</t>
-  </si>
-  <si>
-    <t>Graph Valid Tree</t>
-  </si>
-  <si>
-    <t>Predict the Winner</t>
-  </si>
-  <si>
-    <t>01 Matrix</t>
-  </si>
-  <si>
-    <t>Integer Replacement</t>
-  </si>
-  <si>
-    <t>Largest Divisible Subset</t>
-  </si>
-  <si>
-    <t>Kth Smallest Element in a Sorted Matrix</t>
-  </si>
-  <si>
-    <t>Super Ugly Number</t>
-  </si>
-  <si>
-    <t>Verify Preorder Serialization of a Binary Tree</t>
-  </si>
-  <si>
-    <t>Number of Connected Components in an Undirected Graph</t>
-  </si>
-  <si>
-    <t>Sort Characters By Frequency</t>
-  </si>
-  <si>
-    <t>Minimum Height Trees</t>
-  </si>
-  <si>
-    <t>My Calendar I</t>
-  </si>
-  <si>
-    <t>Convex Polygon</t>
-  </si>
-  <si>
-    <t>Ones and Zeroes</t>
-  </si>
-  <si>
-    <t>Magical String</t>
-  </si>
-  <si>
-    <t>Binary Tree Vertical Order Traversal</t>
-  </si>
-  <si>
-    <t>Count Numbers with Unique Digits</t>
-  </si>
-  <si>
-    <t>Max Consecutive Ones II</t>
-  </si>
-  <si>
-    <t>https://www.cnblogs.com/grandyang/p/6376115.html</t>
-  </si>
-  <si>
-    <t>Target Sum</t>
-  </si>
-  <si>
-    <t>Longest Uncommon Subsequence II</t>
-  </si>
-  <si>
-    <t>Beautiful Arrangement</t>
-  </si>
-  <si>
-    <t>Lonely Pixel I</t>
-  </si>
-  <si>
-    <t>Lonely Pixel II</t>
-  </si>
-  <si>
-    <t>Encode and Decode TinyURL</t>
-  </si>
-  <si>
-    <t>Output Contest Matches</t>
-  </si>
-  <si>
-    <t>Boundary of Binary Tree</t>
-  </si>
-  <si>
-    <t>Binary Tree Longest Consecutive Sequence II</t>
-  </si>
-  <si>
-    <t>Subarray Sum Equals K</t>
-  </si>
-  <si>
-    <t>Delete Operation for Two Strings</t>
-  </si>
-  <si>
-    <t>Shopping Offers</t>
-  </si>
-  <si>
-    <t>4 Keys Keyboard</t>
-  </si>
-  <si>
-    <t>Find K Closest Elements</t>
-  </si>
-  <si>
-    <t>Split Array into Consecutive Subsequences</t>
-  </si>
-  <si>
-    <t>Beautiful Arrangement II</t>
-  </si>
-  <si>
-    <t>My Calendar II</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -743,13 +751,13 @@
       <sz val="22"/>
       <color rgb="FF24292E"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF24292E"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -781,122 +789,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -933,176 +832,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1134,247 +865,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1392,72 +893,32 @@
     <xf numFmtId="10" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="31" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="7" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="32" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="5">
+    <cellStyle name="差" xfId="1" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
+    <cellStyle name="好" xfId="3" builtinId="26"/>
+    <cellStyle name="适中" xfId="4" builtinId="28"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1715,33 +1176,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.8796296296296" customWidth="1"/>
-    <col min="2" max="2" width="41.75" customWidth="1"/>
-    <col min="3" max="3" width="12.75" customWidth="1"/>
-    <col min="4" max="4" width="29.6296296296296" customWidth="1"/>
-    <col min="6" max="6" width="17.3796296296296" customWidth="1"/>
+    <col min="1" max="1" width="39.88671875" customWidth="1"/>
+    <col min="2" max="2" width="41.77734375" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33.15" spans="1:1">
+    <row r="1" spans="1:5" ht="32.4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="19.95" spans="1:4">
+    <row r="2" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1755,7 +1216,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="19.95" spans="1:5">
+    <row r="3" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>346</v>
       </c>
@@ -1763,14 +1224,14 @@
         <v>5</v>
       </c>
       <c r="C3" s="4">
-        <v>0.595</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" ht="19.95" spans="1:5">
+    <row r="4" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>66</v>
       </c>
@@ -1778,14 +1239,14 @@
         <v>7</v>
       </c>
       <c r="C4" s="4">
-        <v>0.391</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" ht="19.95" spans="1:5">
+    <row r="5" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>686</v>
       </c>
@@ -1793,14 +1254,14 @@
         <v>8</v>
       </c>
       <c r="C5" s="7">
-        <v>0.329</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" ht="19.95" spans="1:5">
+    <row r="6" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>246</v>
       </c>
@@ -1815,7 +1276,7 @@
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" ht="19.95" spans="1:5">
+    <row r="7" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>345</v>
       </c>
@@ -1823,14 +1284,14 @@
         <v>10</v>
       </c>
       <c r="C7" s="4">
-        <v>0.387</v>
+        <v>0.38700000000000001</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" ht="19.95" spans="1:4">
+    <row r="8" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>687</v>
       </c>
@@ -1838,13 +1299,13 @@
         <v>11</v>
       </c>
       <c r="C8" s="4">
-        <v>0.333</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" ht="19.95" spans="1:5">
+    <row r="9" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>276</v>
       </c>
@@ -1852,14 +1313,14 @@
         <v>12</v>
       </c>
       <c r="C9" s="4">
-        <v>0.347</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" ht="19.95" spans="1:5">
+    <row r="10" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>401</v>
       </c>
@@ -1867,14 +1328,14 @@
         <v>13</v>
       </c>
       <c r="C10" s="7">
-        <v>0.449</v>
+        <v>0.44900000000000001</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" ht="19.95" spans="1:4">
+    <row r="11" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>463</v>
       </c>
@@ -1882,13 +1343,13 @@
         <v>14</v>
       </c>
       <c r="C11" s="4">
-        <v>0.575</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" ht="19.95" spans="1:5">
+    <row r="12" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>266</v>
       </c>
@@ -1896,14 +1357,14 @@
         <v>15</v>
       </c>
       <c r="C12" s="7">
-        <v>0.575</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" ht="19.95" spans="1:5">
+    <row r="13" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>389</v>
       </c>
@@ -1918,7 +1379,7 @@
       </c>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" ht="19.95" spans="1:5">
+    <row r="14" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>20</v>
       </c>
@@ -1926,14 +1387,14 @@
         <v>17</v>
       </c>
       <c r="C14" s="4">
-        <v>0.337</v>
+        <v>0.33700000000000002</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" ht="19.95" spans="1:5">
+    <row r="15" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>293</v>
       </c>
@@ -1941,14 +1402,14 @@
         <v>18</v>
       </c>
       <c r="C15" s="4">
-        <v>0.565</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" ht="19.95" spans="1:5">
+    <row r="16" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>415</v>
       </c>
@@ -1956,14 +1417,14 @@
         <v>19</v>
       </c>
       <c r="C16" s="4">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" ht="19.95" spans="1:5">
+    <row r="17" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>359</v>
       </c>
@@ -1971,14 +1432,14 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>0.601</v>
+        <v>0.60099999999999998</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" ht="19.95" spans="1:5">
+    <row r="18" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>270</v>
       </c>
@@ -1986,14 +1447,14 @@
         <v>21</v>
       </c>
       <c r="C18" s="4">
-        <v>0.401</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" ht="19.95" spans="1:5">
+    <row r="19" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>400</v>
       </c>
@@ -2001,14 +1462,14 @@
         <v>22</v>
       </c>
       <c r="C19" s="7">
-        <v>0.301</v>
+        <v>0.30099999999999999</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" ht="19.95" spans="1:5">
+    <row r="20" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>422</v>
       </c>
@@ -2016,14 +1477,14 @@
         <v>23</v>
       </c>
       <c r="C20" s="4">
-        <v>0.364</v>
+        <v>0.36399999999999999</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" ht="19.95" spans="1:4">
+    <row r="21" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>155</v>
       </c>
@@ -2031,13 +1492,13 @@
         <v>24</v>
       </c>
       <c r="C21" s="4">
-        <v>0.297</v>
+        <v>0.29699999999999999</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" ht="19.95" spans="1:5">
+    <row r="22" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>409</v>
       </c>
@@ -2045,14 +1506,14 @@
         <v>25</v>
       </c>
       <c r="C22" s="4">
-        <v>0.455</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" ht="19.95" spans="1:5">
+    <row r="23" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>543</v>
       </c>
@@ -2060,14 +1521,14 @@
         <v>26</v>
       </c>
       <c r="C23" s="7">
-        <v>0.447</v>
+        <v>0.44700000000000001</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" ht="19.95" spans="1:4">
+    <row r="24" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>231</v>
       </c>
@@ -2075,13 +1536,13 @@
         <v>27</v>
       </c>
       <c r="C24" s="7">
-        <v>0.404</v>
+        <v>0.40400000000000003</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" ht="19.95" spans="1:4">
+    <row r="25" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>501</v>
       </c>
@@ -2095,7 +1556,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" ht="19.95" spans="1:5">
+    <row r="26" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>475</v>
       </c>
@@ -2103,14 +1564,14 @@
         <v>29</v>
       </c>
       <c r="C26" s="4">
-        <v>0.296</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" ht="19.95" spans="1:5">
+    <row r="27" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>551</v>
       </c>
@@ -2125,7 +1586,7 @@
       </c>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" ht="19.95" spans="1:5">
+    <row r="28" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>459</v>
       </c>
@@ -2133,14 +1594,14 @@
         <v>31</v>
       </c>
       <c r="C28" s="7">
-        <v>0.382</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E28" s="9"/>
     </row>
-    <row r="29" ht="19.95" spans="1:5">
+    <row r="29" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>408</v>
       </c>
@@ -2148,14 +1609,14 @@
         <v>32</v>
       </c>
       <c r="C29" s="4">
-        <v>0.282</v>
+        <v>0.28199999999999997</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" ht="19.95" spans="1:5">
+    <row r="30" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>530</v>
       </c>
@@ -2163,14 +1624,14 @@
         <v>33</v>
       </c>
       <c r="C30" s="7">
-        <v>0.471</v>
+        <v>0.47099999999999997</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E30" s="5"/>
     </row>
-    <row r="31" ht="19.95" spans="1:5">
+    <row r="31" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>374</v>
       </c>
@@ -2178,14 +1639,14 @@
         <v>34</v>
       </c>
       <c r="C31" s="4">
-        <v>0.359</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E31" s="5"/>
     </row>
-    <row r="32" ht="19.95" spans="1:5">
+    <row r="32" spans="1:5" ht="38.4" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>448</v>
       </c>
@@ -2193,14 +1654,14 @@
         <v>35</v>
       </c>
       <c r="C32" s="7">
-        <v>0.512</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E32" s="5"/>
     </row>
-    <row r="33" ht="19.95" spans="1:4">
+    <row r="33" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>326</v>
       </c>
@@ -2208,13 +1669,13 @@
         <v>36</v>
       </c>
       <c r="C33" s="7">
-        <v>0.404</v>
+        <v>0.40400000000000003</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="34" ht="19.95" spans="1:5">
+    <row r="34" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>257</v>
       </c>
@@ -2222,14 +1683,14 @@
         <v>37</v>
       </c>
       <c r="C34" s="4">
-        <v>0.397</v>
+        <v>0.39700000000000002</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E34" s="5"/>
     </row>
-    <row r="35" ht="19.95" spans="1:5">
+    <row r="35" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>520</v>
       </c>
@@ -2237,14 +1698,14 @@
         <v>38</v>
       </c>
       <c r="C35" s="7">
-        <v>0.519</v>
+        <v>0.51900000000000002</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E35" s="5"/>
     </row>
-    <row r="36" ht="19.95" spans="1:5">
+    <row r="36" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>485</v>
       </c>
@@ -2259,7 +1720,7 @@
       </c>
       <c r="E36" s="5"/>
     </row>
-    <row r="37" ht="19.95" spans="1:4">
+    <row r="37" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>506</v>
       </c>
@@ -2267,13 +1728,13 @@
         <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>0.466</v>
+        <v>0.46600000000000003</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="38" ht="19.95" spans="1:4">
+    <row r="38" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>447</v>
       </c>
@@ -2281,13 +1742,13 @@
         <v>41</v>
       </c>
       <c r="C38" s="7">
-        <v>0.457</v>
+        <v>0.45700000000000002</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="39" ht="19.95" spans="1:4">
+    <row r="39" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>521</v>
       </c>
@@ -2295,13 +1756,13 @@
         <v>42</v>
       </c>
       <c r="C39" s="4">
-        <v>0.559</v>
+        <v>0.55900000000000005</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="40" ht="19.95" spans="1:4">
+    <row r="40" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>541</v>
       </c>
@@ -2315,7 +1776,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" ht="19.95" spans="1:5">
+    <row r="41" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>581</v>
       </c>
@@ -2323,14 +1784,14 @@
         <v>44</v>
       </c>
       <c r="C41" s="4">
-        <v>0.293</v>
+        <v>0.29299999999999998</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E41" s="5"/>
     </row>
-    <row r="42" ht="19.95" spans="1:4">
+    <row r="42" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>604</v>
       </c>
@@ -2338,13 +1799,13 @@
         <v>45</v>
       </c>
       <c r="C42" s="4">
-        <v>0.325</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="43" ht="19.95" spans="1:5">
+    <row r="43" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>643</v>
       </c>
@@ -2359,7 +1820,7 @@
       </c>
       <c r="E43" s="5"/>
     </row>
-    <row r="44" ht="19.95" spans="1:5">
+    <row r="44" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>657</v>
       </c>
@@ -2367,14 +1828,14 @@
         <v>47</v>
       </c>
       <c r="C44" s="4">
-        <v>0.686</v>
+        <v>0.68600000000000005</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E44" s="5"/>
     </row>
-    <row r="45" ht="19.95" spans="1:5">
+    <row r="45" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>665</v>
       </c>
@@ -2382,14 +1843,14 @@
         <v>48</v>
       </c>
       <c r="C45" s="7">
-        <v>0.211</v>
+        <v>0.21099999999999999</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E45" s="5"/>
     </row>
-    <row r="46" ht="19.95" spans="1:4">
+    <row r="46" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>683</v>
       </c>
@@ -2397,13 +1858,13 @@
         <v>49</v>
       </c>
       <c r="C46" s="7">
-        <v>0.366</v>
+        <v>0.36599999999999999</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="47" ht="39.15" spans="1:4">
+    <row r="47" spans="1:5" ht="38.4" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>340</v>
       </c>
@@ -2411,13 +1872,13 @@
         <v>51</v>
       </c>
       <c r="C47" s="7">
-        <v>0.392</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="48" ht="19.95" spans="1:5">
+    <row r="48" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>308</v>
       </c>
@@ -2425,14 +1886,14 @@
         <v>52</v>
       </c>
       <c r="C48" s="7">
-        <v>0.241</v>
+        <v>0.24099999999999999</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E48" s="9"/>
     </row>
-    <row r="49" ht="19.95" spans="1:4">
+    <row r="49" spans="1:4" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>425</v>
       </c>
@@ -2446,7 +1907,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" ht="19.95" spans="1:4">
+    <row r="50" spans="1:4" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>568</v>
       </c>
@@ -2454,13 +1915,13 @@
         <v>54</v>
       </c>
       <c r="C50" s="4">
-        <v>0.391</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" ht="19.95" spans="1:4">
+    <row r="51" spans="1:4" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>317</v>
       </c>
@@ -2468,13 +1929,13 @@
         <v>55</v>
       </c>
       <c r="C51" s="7">
-        <v>0.344</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" ht="19.95" spans="1:4">
+    <row r="52" spans="1:4" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>305</v>
       </c>
@@ -2482,13 +1943,13 @@
         <v>56</v>
       </c>
       <c r="C52" s="7">
-        <v>0.393</v>
+        <v>0.39300000000000002</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="53" ht="19.95" spans="1:4">
+    <row r="53" spans="1:4" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>218</v>
       </c>
@@ -2496,13 +1957,13 @@
         <v>57</v>
       </c>
       <c r="C53" s="4">
-        <v>0.282</v>
+        <v>0.28199999999999997</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="54" ht="39.15" spans="1:4">
+    <row r="54" spans="1:4" ht="38.4" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>159</v>
       </c>
@@ -2510,13 +1971,13 @@
         <v>58</v>
       </c>
       <c r="C54" s="4">
-        <v>0.419</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="55" ht="19.95" spans="1:4">
+    <row r="55" spans="1:4" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>329</v>
       </c>
@@ -2524,13 +1985,13 @@
         <v>59</v>
       </c>
       <c r="C55" s="4">
-        <v>0.369</v>
+        <v>0.36899999999999999</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="56" ht="19.95" spans="1:4">
+    <row r="56" spans="1:4" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>471</v>
       </c>
@@ -2538,13 +1999,13 @@
         <v>60</v>
       </c>
       <c r="C56" s="4">
-        <v>0.428</v>
+        <v>0.42799999999999999</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="57" ht="19.95" spans="1:4">
+    <row r="57" spans="1:4" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>391</v>
       </c>
@@ -2552,13 +2013,13 @@
         <v>61</v>
       </c>
       <c r="C57" s="4">
-        <v>0.271</v>
+        <v>0.27100000000000002</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="58" ht="19.95" spans="1:4">
+    <row r="58" spans="1:4" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>407</v>
       </c>
@@ -2572,7 +2033,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" ht="19.95" spans="1:4">
+    <row r="59" spans="1:4" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>297</v>
       </c>
@@ -2586,7 +2047,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" ht="19.95" spans="1:4">
+    <row r="60" spans="1:4" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>146</v>
       </c>
@@ -2600,7 +2061,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" ht="19.95" spans="1:4">
+    <row r="61" spans="1:4" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>295</v>
       </c>
@@ -2608,13 +2069,13 @@
         <v>65</v>
       </c>
       <c r="C61" s="4">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="62" ht="19.95" spans="1:4">
+    <row r="62" spans="1:4" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>42</v>
       </c>
@@ -2628,7 +2089,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="63" ht="19.95" spans="1:4">
+    <row r="63" spans="1:4" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>315</v>
       </c>
@@ -2636,13 +2097,13 @@
         <v>67</v>
       </c>
       <c r="C63" s="4">
-        <v>0.348</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="64" ht="19.95" spans="1:4">
+    <row r="64" spans="1:4" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>411</v>
       </c>
@@ -2650,13 +2111,13 @@
         <v>68</v>
       </c>
       <c r="C64" s="4">
-        <v>0.333</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="65" ht="19.95" spans="1:4">
+    <row r="65" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>269</v>
       </c>
@@ -2670,7 +2131,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" ht="19.95" spans="1:4">
+    <row r="66" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>239</v>
       </c>
@@ -2678,13 +2139,13 @@
         <v>70</v>
       </c>
       <c r="C66" s="4">
-        <v>0.336</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="67" ht="19.95" spans="1:4">
+    <row r="67" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>465</v>
       </c>
@@ -2698,7 +2159,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="68" ht="19.95" spans="1:4">
+    <row r="68" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>128</v>
       </c>
@@ -2712,7 +2173,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="69" ht="39.15" spans="1:4">
+    <row r="69" spans="1:5" ht="38.4" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>158</v>
       </c>
@@ -2726,7 +2187,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="70" ht="19.95" spans="1:5">
+    <row r="70" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>23</v>
       </c>
@@ -2734,14 +2195,14 @@
         <v>74</v>
       </c>
       <c r="C70" s="7">
-        <v>0.277</v>
+        <v>0.27700000000000002</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E70" s="5"/>
     </row>
-    <row r="71" ht="19.95" spans="1:4">
+    <row r="71" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>10</v>
       </c>
@@ -2749,13 +2210,13 @@
         <v>75</v>
       </c>
       <c r="C71" s="4">
-        <v>0.243</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="72" ht="19.95" spans="1:4">
+    <row r="72" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>212</v>
       </c>
@@ -2769,7 +2230,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="73" ht="19.95" spans="1:4">
+    <row r="73" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>4</v>
       </c>
@@ -2783,7 +2244,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="74" ht="19.95" spans="1:4">
+    <row r="74" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>358</v>
       </c>
@@ -2797,7 +2258,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="75" ht="19.95" spans="1:4">
+    <row r="75" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>587</v>
       </c>
@@ -2805,13 +2266,13 @@
         <v>79</v>
       </c>
       <c r="C75" s="7">
-        <v>0.326</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="76" ht="19.95" spans="1:4">
+    <row r="76" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>679</v>
       </c>
@@ -2819,13 +2280,13 @@
         <v>80</v>
       </c>
       <c r="C76" s="4">
-        <v>0.389</v>
+        <v>0.38900000000000001</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="77" ht="19.95" spans="1:4">
+    <row r="77" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
         <v>140</v>
       </c>
@@ -2833,13 +2294,13 @@
         <v>81</v>
       </c>
       <c r="C77" s="7">
-        <v>0.239</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="D77" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="78" ht="19.95" spans="1:4">
+    <row r="78" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
         <v>224</v>
       </c>
@@ -2847,13 +2308,13 @@
         <v>82</v>
       </c>
       <c r="C78" s="7">
-        <v>0.278</v>
+        <v>0.27800000000000002</v>
       </c>
       <c r="D78" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="79" ht="19.95" spans="1:5">
+    <row r="79" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>327</v>
       </c>
@@ -2861,14 +2322,14 @@
         <v>83</v>
       </c>
       <c r="C79" s="4">
-        <v>0.301</v>
+        <v>0.30099999999999999</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E79" s="9"/>
     </row>
-    <row r="80" ht="19.95" spans="1:5">
+    <row r="80" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>57</v>
       </c>
@@ -2876,14 +2337,14 @@
         <v>84</v>
       </c>
       <c r="C80" s="4">
-        <v>0.283</v>
+        <v>0.28299999999999997</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E80" s="9"/>
     </row>
-    <row r="81" ht="19.95" spans="1:4">
+    <row r="81" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>336</v>
       </c>
@@ -2891,13 +2352,13 @@
         <v>85</v>
       </c>
       <c r="C81" s="4">
-        <v>0.266</v>
+        <v>0.26600000000000001</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="82" ht="19.95" spans="1:4">
+    <row r="82" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
         <v>44</v>
       </c>
@@ -2905,13 +2366,13 @@
         <v>86</v>
       </c>
       <c r="C82" s="7">
-        <v>0.206</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="D82" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="83" ht="19.95" spans="1:4">
+    <row r="83" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>460</v>
       </c>
@@ -2919,60 +2380,60 @@
         <v>87</v>
       </c>
       <c r="C83" s="4">
-        <v>0.244</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="84" ht="19.95" spans="1:4">
+    <row r="84" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
         <v>363</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>88</v>
+        <v>228</v>
       </c>
       <c r="C84" s="7">
-        <v>0.334</v>
+        <v>0.33400000000000002</v>
       </c>
       <c r="D84" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="85" ht="19.95" spans="1:4">
+    <row r="85" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>354</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>89</v>
+        <v>227</v>
       </c>
       <c r="C85" s="4">
-        <v>0.323</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="86" ht="19.95" spans="1:4">
+    <row r="86" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
         <v>272</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C86" s="7">
-        <v>0.394</v>
+        <v>0.39400000000000002</v>
       </c>
       <c r="D86" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="87" ht="19.95" spans="1:4">
+    <row r="87" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <v>214</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C87" s="7">
         <v>0.247</v>
@@ -2981,41 +2442,41 @@
         <v>50</v>
       </c>
     </row>
-    <row r="88" ht="19.95" spans="1:4">
+    <row r="88" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>282</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C88" s="4">
-        <v>0.302</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="89" ht="19.95" spans="1:5">
+    <row r="89" spans="1:5" ht="38.4" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
         <v>302</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C89" s="7">
-        <v>0.459</v>
+        <v>0.45900000000000002</v>
       </c>
       <c r="D89" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E89" s="5"/>
     </row>
-    <row r="90" ht="19.95" spans="1:4">
+    <row r="90" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
         <v>321</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C90" s="7">
         <v>0.248</v>
@@ -3024,12 +2485,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="91" ht="19.95" spans="1:4">
+    <row r="91" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
         <v>480</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C91" s="7">
         <v>0.311</v>
@@ -3038,26 +2499,26 @@
         <v>50</v>
       </c>
     </row>
-    <row r="92" ht="19.95" spans="1:4">
+    <row r="92" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
         <v>483</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C92" s="7">
-        <v>0.334</v>
+        <v>0.33400000000000002</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="93" ht="19.95" spans="1:4">
+    <row r="93" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
         <v>312</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C93" s="7">
         <v>0.432</v>
@@ -3066,82 +2527,82 @@
         <v>50</v>
       </c>
     </row>
-    <row r="94" ht="19.95" spans="1:4">
+    <row r="94" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
         <v>493</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>98</v>
+        <v>229</v>
       </c>
       <c r="C94" s="7">
-        <v>0.206</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="D94" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="95" ht="19.95" spans="1:4">
+    <row r="95" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>514</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C95" s="4">
-        <v>0.391</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="96" ht="19.95" spans="1:4">
+    <row r="96" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
         <v>527</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C96" s="7">
-        <v>0.419</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="D96" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="97" ht="19.95" spans="1:4">
+    <row r="97" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>316</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>101</v>
+        <v>234</v>
       </c>
       <c r="C97" s="4">
-        <v>0.299</v>
+        <v>0.29899999999999999</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="98" ht="19.95" spans="1:4">
+    <row r="98" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
         <v>330</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>102</v>
+        <v>232</v>
       </c>
       <c r="C98" s="7">
-        <v>0.323</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="D98" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="99" ht="19.95" spans="1:4">
+    <row r="99" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
         <v>552</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C99" s="7">
         <v>0.313</v>
@@ -3150,26 +2611,26 @@
         <v>50</v>
       </c>
     </row>
-    <row r="100" ht="19.95" spans="1:4">
+    <row r="100" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
         <v>569</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>104</v>
+        <v>233</v>
       </c>
       <c r="C100" s="7">
-        <v>0.342</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="D100" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="101" ht="19.95" spans="1:4">
+    <row r="101" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
         <v>644</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C101" s="7">
         <v>0.23</v>
@@ -3178,12 +2639,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="102" ht="19.95" spans="1:4">
+    <row r="102" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
         <v>656</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>106</v>
+        <v>231</v>
       </c>
       <c r="C102" s="7">
         <v>0.251</v>
@@ -3192,12 +2653,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="103" ht="39.15" spans="1:4">
+    <row r="103" spans="1:6" ht="38.4" x14ac:dyDescent="0.25">
       <c r="A103" s="6">
         <v>668</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>107</v>
+        <v>230</v>
       </c>
       <c r="C103" s="7">
         <v>0.377</v>
@@ -3206,40 +2667,40 @@
         <v>50</v>
       </c>
     </row>
-    <row r="104" ht="19.95" spans="1:4">
+    <row r="104" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>685</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C104" s="4">
-        <v>0.284</v>
+        <v>0.28399999999999997</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="105" ht="39.15" spans="1:4">
+    <row r="105" spans="1:6" ht="38.4" x14ac:dyDescent="0.25">
       <c r="A105" s="6">
         <v>689</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C105" s="7">
-        <v>0.413</v>
+        <v>0.41299999999999998</v>
       </c>
       <c r="D105" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="106" ht="19.95" spans="1:4">
+    <row r="106" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>719</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C106" s="4">
         <v>0.253</v>
@@ -3248,1687 +2709,1687 @@
         <v>50</v>
       </c>
     </row>
-    <row r="107" ht="19.95" spans="1:5">
+    <row r="107" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A107" s="6">
         <v>726</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C107" s="7">
-        <v>0.457</v>
+        <v>0.45700000000000002</v>
       </c>
       <c r="D107" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E107" s="5"/>
     </row>
-    <row r="108" ht="19.95" spans="1:4">
+    <row r="108" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>727</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C108" s="4">
-        <v>0.291</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="109" ht="19.95" spans="1:4">
+    <row r="109" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
         <v>534</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C109" s="7">
         <v>0</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="110" ht="19.95" spans="1:5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>388</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C110" s="4">
         <v>0.371</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E110" s="9"/>
     </row>
-    <row r="111" ht="19.95" spans="1:6">
+    <row r="111" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>681</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C111" s="4">
-        <v>0.429</v>
+        <v>0.42899999999999999</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E111" s="5"/>
       <c r="F111" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="112" ht="19.95" spans="1:5">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>482</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C112" s="4">
-        <v>0.418</v>
+        <v>0.41799999999999998</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E112" s="9"/>
     </row>
-    <row r="113" ht="39.15" spans="1:4">
+    <row r="113" spans="1:6" ht="38.4" x14ac:dyDescent="0.25">
       <c r="A113" s="6">
         <v>298</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C113" s="7">
-        <v>0.414</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="114" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>418</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C114" s="4">
-        <v>0.278</v>
+        <v>0.27800000000000002</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="115" ht="19.95" spans="1:6">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A115" s="6">
         <v>281</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C115" s="7">
-        <v>0.514</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E115" s="5"/>
       <c r="F115" s="10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="116" ht="19.95" spans="1:5">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A116" s="6">
         <v>361</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C116" s="7">
-        <v>0.394</v>
+        <v>0.39400000000000002</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E116" s="9"/>
     </row>
-    <row r="117" ht="19.95" spans="1:5">
+    <row r="117" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>394</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C117" s="4">
-        <v>0.417</v>
+        <v>0.41699999999999998</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E117" s="9"/>
     </row>
-    <row r="118" ht="19.95" spans="1:5">
+    <row r="118" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A118" s="6">
         <v>393</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C118" s="7">
-        <v>0.347</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E118" s="9"/>
     </row>
-    <row r="119" ht="19.95" spans="1:6">
+    <row r="119" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A119" s="6">
         <v>163</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C119" s="7">
-        <v>0.238</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E119" s="9"/>
       <c r="F119" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="120" ht="19.95" spans="1:4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>351</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C120" s="4">
         <v>0.443</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="121" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>271</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C121" s="4">
-        <v>0.262</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="122" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A122" s="6">
         <v>289</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C122" s="7">
         <v>0.371</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="123" ht="19.95" spans="1:5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>288</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C123" s="4">
-        <v>0.173</v>
+        <v>0.17299999999999999</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E123" s="5"/>
     </row>
-    <row r="124" ht="19.95" spans="1:5">
+    <row r="124" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>200</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C124" s="4">
-        <v>0.356</v>
+        <v>0.35599999999999998</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E124" s="5"/>
     </row>
-    <row r="125" ht="19.95" spans="1:5">
+    <row r="125" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A125" s="6">
         <v>280</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C125" s="7">
-        <v>0.579</v>
+        <v>0.57899999999999996</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E125" s="9"/>
     </row>
-    <row r="126" ht="19.95" spans="1:5">
+    <row r="126" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>616</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C126" s="4">
-        <v>0.387</v>
+        <v>0.38700000000000001</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E126" s="8"/>
     </row>
-    <row r="127" ht="19.95" spans="1:4">
+    <row r="127" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A127" s="6">
         <v>259</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C127" s="7">
-        <v>0.417</v>
+        <v>0.41699999999999998</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="128" ht="19.95" spans="1:5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A128" s="6">
         <v>399</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C128" s="7">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E128" s="9"/>
     </row>
-    <row r="129" ht="19.95" spans="1:4">
+    <row r="129" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A129" s="6">
         <v>417</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C129" s="7">
-        <v>0.341</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="130" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>406</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C130" s="4">
-        <v>0.562</v>
+        <v>0.56200000000000006</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="131" ht="19.95" spans="1:5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A131" s="6">
         <v>279</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C131" s="7">
         <v>0.375</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E131" s="5"/>
     </row>
-    <row r="132" ht="19.95" spans="1:5">
+    <row r="132" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A132" s="6">
         <v>56</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C132" s="7">
         <v>0.31</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E132" s="5"/>
     </row>
-    <row r="133" ht="19.95" spans="1:4">
+    <row r="133" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A133" s="6">
         <v>284</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C133" s="7">
-        <v>0.355</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="134" ht="19.95" spans="1:6">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>247</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C134" s="4">
-        <v>0.405</v>
+        <v>0.40500000000000003</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E134" s="5"/>
       <c r="F134" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="135" ht="39.15" spans="1:4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="38.4" x14ac:dyDescent="0.25">
       <c r="A135" s="6">
         <v>524</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C135" s="7">
         <v>0.433</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="136" ht="19.95" spans="1:6">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A136" s="6">
         <v>228</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C136" s="7">
         <v>0.308</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E136" s="5"/>
       <c r="F136" s="10" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="137" ht="19.95" spans="1:4">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>286</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C137" s="4">
-        <v>0.448</v>
+        <v>0.44800000000000001</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="138" ht="19.95" spans="1:6">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A138" s="6">
         <v>362</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C138" s="7">
-        <v>0.544</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E138" s="9"/>
       <c r="F138" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="139" ht="19.95" spans="1:5">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A139" s="6">
         <v>294</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C139" s="7">
-        <v>0.466</v>
+        <v>0.46600000000000003</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E139" s="8"/>
     </row>
-    <row r="140" ht="19.95" spans="1:5">
+    <row r="140" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A140" s="6">
         <v>380</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C140" s="7">
-        <v>0.394</v>
+        <v>0.39400000000000002</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E140" s="9"/>
     </row>
-    <row r="141" ht="19.95" spans="1:5">
+    <row r="141" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A141" s="6">
         <v>249</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C141" s="7">
-        <v>0.427</v>
+        <v>0.42699999999999999</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E141" s="9"/>
     </row>
-    <row r="142" ht="19.95" spans="1:5">
+    <row r="142" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>320</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C142" s="4">
-        <v>0.455</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E142" s="9"/>
     </row>
-    <row r="143" ht="19.95" spans="1:4">
+    <row r="143" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A143" s="6">
         <v>505</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C143" s="7">
-        <v>0.382</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="144" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>341</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C144" s="4">
-        <v>0.422</v>
+        <v>0.42199999999999999</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="145" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A145" s="6">
         <v>360</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C145" s="7">
-        <v>0.445</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="146" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A146" s="6">
         <v>274</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C146" s="7">
-        <v>0.335</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="147" ht="19.95" spans="1:5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>253</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C147" s="4">
-        <v>0.393</v>
+        <v>0.39300000000000002</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E147" s="5"/>
     </row>
-    <row r="148" ht="19.95" spans="1:4">
+    <row r="148" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A148" s="6">
         <v>139</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C148" s="7">
         <v>0.308</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="149" ht="19.95" spans="1:5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>230</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C149" s="4">
-        <v>0.445</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E149" s="5"/>
     </row>
-    <row r="150" ht="19.95" spans="1:5">
+    <row r="150" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A150" s="6">
         <v>162</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C150" s="7">
-        <v>0.381</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E150" s="8"/>
     </row>
-    <row r="151" ht="19.95" spans="1:4">
+    <row r="151" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>498</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C151" s="4">
-        <v>0.461</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="152" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>490</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C152" s="4">
         <v>0.432</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="153" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A153" s="6">
         <v>318</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C153" s="7">
-        <v>0.449</v>
+        <v>0.44900000000000001</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="154" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>240</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C154" s="4">
-        <v>0.388</v>
+        <v>0.38800000000000001</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="155" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A155" s="6">
         <v>373</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C155" s="7">
         <v>0.309</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="156" ht="19.95" spans="1:5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A156" s="6">
         <v>369</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C156" s="7">
-        <v>0.548</v>
+        <v>0.54800000000000004</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E156" s="9"/>
     </row>
-    <row r="157" ht="19.95" spans="1:6">
+    <row r="157" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A157" s="6">
         <v>251</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C157" s="7">
-        <v>0.409</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F157" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="158" ht="19.95" spans="1:4">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>332</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C158" s="4">
-        <v>0.294</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="159" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A159" s="6">
         <v>173</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C159" s="7">
-        <v>0.424</v>
+        <v>0.42399999999999999</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="160" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>54</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C160" s="4">
-        <v>0.266</v>
+        <v>0.26600000000000001</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="161" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>324</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C161" s="4">
-        <v>0.262</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="162" ht="19.95" spans="1:5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A162" s="6">
         <v>17</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C162" s="7">
-        <v>0.354</v>
+        <v>0.35399999999999998</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E162" s="9"/>
     </row>
-    <row r="163" ht="19.95" spans="1:5">
+    <row r="163" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>484</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C163" s="4">
-        <v>0.551</v>
+        <v>0.55100000000000005</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E163" s="9"/>
     </row>
-    <row r="164" ht="19.95" spans="1:4">
+    <row r="164" spans="1:5" ht="38.4" x14ac:dyDescent="0.25">
       <c r="A164" s="6">
         <v>562</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C164" s="7">
-        <v>0.409</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="165" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>166</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C165" s="4">
-        <v>0.178</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="166" ht="19.95" spans="1:5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A166" s="6">
         <v>22</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C166" s="7">
-        <v>0.463</v>
+        <v>0.46300000000000002</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E166" s="5"/>
     </row>
-    <row r="167" ht="19.95" spans="1:5">
+    <row r="167" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>31</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C167" s="4">
-        <v>0.288</v>
+        <v>0.28799999999999998</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E167" s="9"/>
     </row>
-    <row r="168" ht="19.95" spans="1:4">
+    <row r="168" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A168" s="6">
         <v>676</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C168" s="7">
         <v>0.5</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="169" ht="39.15" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="38.4" x14ac:dyDescent="0.25">
       <c r="A169" s="6">
         <v>421</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C169" s="7">
-        <v>0.469</v>
+        <v>0.46899999999999997</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="170" ht="19.95" spans="1:5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A170" s="6">
         <v>503</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C170" s="7">
-        <v>0.473</v>
+        <v>0.47299999999999998</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E170" s="5"/>
     </row>
-    <row r="171" ht="19.95" spans="1:4">
+    <row r="171" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A171" s="6">
         <v>684</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C171" s="7">
-        <v>0.392</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="172" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>133</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C172" s="4">
         <v>0.251</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="173" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>50</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C173" s="4">
         <v>0.26</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="174" ht="19.95" spans="1:5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>208</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C174" s="4">
-        <v>0.295</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E174" s="5"/>
     </row>
-    <row r="175" ht="19.95" spans="1:4">
+    <row r="175" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A175" s="6">
         <v>348</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C175" s="7">
-        <v>0.458</v>
+        <v>0.45800000000000002</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="176" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>652</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C176" s="4">
-        <v>0.358</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="177" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A177" s="6">
         <v>444</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C177" s="7">
-        <v>0.196</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="178" ht="39.15" spans="1:5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="38.4" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>309</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C178" s="4">
-        <v>0.413</v>
+        <v>0.41299999999999998</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E178" s="9"/>
     </row>
-    <row r="179" ht="19.95" spans="1:4">
+    <row r="179" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <v>382</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C179" s="4">
-        <v>0.471</v>
+        <v>0.47099999999999997</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="180" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A180" s="6">
         <v>402</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C180" s="7">
         <v>0.26</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="181" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>370</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C181" s="4">
-        <v>0.565</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="182" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A182" s="6">
         <v>377</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C182" s="7">
-        <v>0.424</v>
+        <v>0.42399999999999999</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="183" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>379</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C183" s="4">
-        <v>0.341</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="184" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A184" s="6">
         <v>353</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C184" s="7">
-        <v>0.268</v>
+        <v>0.26800000000000002</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="185" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>375</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C185" s="4">
-        <v>0.359</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="186" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>356</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C186" s="4">
-        <v>0.301</v>
+        <v>0.30099999999999999</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="187" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A187" s="6">
         <v>261</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C187" s="7">
-        <v>0.381</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="188" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <v>486</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C188" s="4">
-        <v>0.451</v>
+        <v>0.45100000000000001</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="189" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A189" s="6">
         <v>542</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C189" s="7">
         <v>0.33</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="190" ht="19.95" spans="1:5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <v>397</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C190" s="4">
-        <v>0.302</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E190" s="8"/>
     </row>
-    <row r="191" ht="19.95" spans="1:4">
+    <row r="191" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A191" s="6">
         <v>368</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C191" s="7">
-        <v>0.337</v>
+        <v>0.33700000000000002</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="192" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
         <v>378</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C192" s="4">
-        <v>0.452</v>
+        <v>0.45200000000000001</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="193" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
         <v>313</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C193" s="4">
         <v>0.38</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="194" ht="39.15" spans="1:5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="38.4" x14ac:dyDescent="0.25">
       <c r="A194" s="6">
         <v>331</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C194" s="7">
-        <v>0.366</v>
+        <v>0.36599999999999999</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E194" s="8"/>
     </row>
-    <row r="195" ht="39.15" spans="1:4">
+    <row r="195" spans="1:6" ht="38.4" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
         <v>323</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C195" s="4">
-        <v>0.483</v>
+        <v>0.48299999999999998</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="196" ht="19.95" spans="1:5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A196" s="6">
         <v>451</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C196" s="7">
-        <v>0.511</v>
+        <v>0.51100000000000001</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E196" s="5"/>
     </row>
-    <row r="197" ht="19.95" spans="1:4">
+    <row r="197" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
         <v>310</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C197" s="4">
-        <v>0.289</v>
+        <v>0.28899999999999998</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="198" ht="19.95" spans="1:5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
         <v>729</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C198" s="4">
-        <v>0.361</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E198" s="5"/>
     </row>
-    <row r="199" ht="19.95" spans="1:4">
+    <row r="199" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A199" s="6">
         <v>469</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C199" s="7">
-        <v>0.334</v>
+        <v>0.33400000000000002</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="200" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
         <v>474</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C200" s="4">
-        <v>0.391</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="201" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
         <v>481</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C201" s="4">
-        <v>0.456</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="202" ht="19.95" spans="1:5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
         <v>314</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C202" s="4">
         <v>0.373</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E202" s="5"/>
     </row>
-    <row r="203" ht="19.95" spans="1:5">
+    <row r="203" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A203" s="6">
         <v>357</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C203" s="7">
-        <v>0.461</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E203" s="9"/>
     </row>
-    <row r="204" ht="19.95" spans="1:6">
+    <row r="204" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
         <v>487</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C204" s="4">
-        <v>0.456</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E204" s="9"/>
       <c r="F204" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="205" ht="19.95" spans="1:5">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
         <v>494</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C205" s="4">
         <v>0.436</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E205" s="9"/>
     </row>
-    <row r="206" ht="19.95" spans="1:5">
+    <row r="206" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A206" s="6">
         <v>522</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C206" s="7">
         <v>0.318</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E206" s="9"/>
     </row>
-    <row r="207" ht="19.95" spans="1:5">
+    <row r="207" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
         <v>526</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C207" s="4">
-        <v>0.542</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E207" s="5"/>
     </row>
-    <row r="208" ht="19.95" spans="1:4">
+    <row r="208" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A208" s="6">
         <v>531</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C208" s="7">
-        <v>0.556</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="209" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A209" s="3">
         <v>533</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C209" s="4">
-        <v>0.446</v>
+        <v>0.44600000000000001</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="210" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A210" s="6">
         <v>535</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C210" s="7">
-        <v>0.742</v>
+        <v>0.74199999999999999</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="211" ht="19.95" spans="1:5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
         <v>544</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C211" s="4">
-        <v>0.709</v>
+        <v>0.70899999999999996</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E211" s="5"/>
     </row>
-    <row r="212" ht="19.95" spans="1:5">
+    <row r="212" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A212" s="6">
         <v>545</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C212" s="7">
-        <v>0.319</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="D212" s="6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E212" s="9"/>
     </row>
-    <row r="213" ht="39.15" spans="1:4">
+    <row r="213" spans="1:5" ht="38.4" x14ac:dyDescent="0.25">
       <c r="A213" s="3">
         <v>549</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C213" s="4">
-        <v>0.419</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="214" ht="19.95" spans="1:5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A214" s="3">
         <v>560</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C214" s="4">
-        <v>0.404</v>
+        <v>0.40400000000000003</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E214" s="9"/>
     </row>
-    <row r="215" ht="19.95" spans="1:4">
+    <row r="215" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A215" s="6">
         <v>583</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C215" s="7">
         <v>0.442</v>
       </c>
       <c r="D215" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="216" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A216" s="6">
         <v>638</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C216" s="7">
         <v>0.434</v>
       </c>
       <c r="D216" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="217" ht="19.95" spans="1:5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A217" s="3">
         <v>651</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C217" s="4">
-        <v>0.488</v>
+        <v>0.48799999999999999</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E217" s="9"/>
     </row>
-    <row r="218" ht="19.95" spans="1:5">
+    <row r="218" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A218" s="6">
         <v>658</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C218" s="7">
-        <v>0.353</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E218" s="9"/>
     </row>
-    <row r="219" ht="39.15" spans="1:4">
+    <row r="219" spans="1:5" ht="38.4" x14ac:dyDescent="0.25">
       <c r="A219" s="3">
         <v>659</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C219" s="4">
-        <v>0.357</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="220" ht="19.95" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A220" s="3">
         <v>667</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C220" s="4">
-        <v>0.515</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="221" ht="19.95" spans="1:5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A221" s="6">
         <v>731</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C221" s="7">
         <v>0.316</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E221" s="5"/>
     </row>
@@ -4936,13 +4397,13 @@
   <sortState ref="A3:D221">
     <sortCondition ref="D10"/>
   </sortState>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F111" r:id="rId1" display="https://www.youtube.com/embed/IAet94C1FCc?feature=oembed"/>
-    <hyperlink ref="F136" r:id="rId2" display="http://www.cnblogs.com/grandyang/p/4603555.html"/>
-    <hyperlink ref="F115" r:id="rId3" display="http://www.cnblogs.com/grandyang/p/5212785.html"/>
+    <hyperlink ref="F111" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F136" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F115" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/google_ranked.xlsx
+++ b/google_ranked.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\mine\GitHub\leet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9DC90A-DF85-4848-8197-9B00A72C870C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B551CC8-728A-4BB6-BBA1-64FE7E8F80C1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22368" windowHeight="9936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22368" windowHeight="9936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -310,12 +310,6 @@
     <t>Burst Balloons</t>
   </si>
   <si>
-    <t>Freedom Trail</t>
-  </si>
-  <si>
-    <t>Word Abbreviation</t>
-  </si>
-  <si>
     <t>Student Attendance Record II</t>
   </si>
   <si>
@@ -732,6 +726,14 @@
   </si>
   <si>
     <t>Remove Duplicate Letters</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Freedom Trail</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Word Abbreviation</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1185,7 +1187,7 @@
   <dimension ref="A1:F221"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="B99" sqref="B99"/>
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2391,7 +2393,7 @@
         <v>363</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C84" s="7">
         <v>0.33400000000000002</v>
@@ -2405,7 +2407,7 @@
         <v>354</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C85" s="4">
         <v>0.32300000000000001</v>
@@ -2532,7 +2534,7 @@
         <v>493</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C94" s="7">
         <v>0.20599999999999999</v>
@@ -2546,7 +2548,7 @@
         <v>514</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>96</v>
+        <v>233</v>
       </c>
       <c r="C95" s="4">
         <v>0.39100000000000001</v>
@@ -2560,7 +2562,7 @@
         <v>527</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>97</v>
+        <v>234</v>
       </c>
       <c r="C96" s="7">
         <v>0.41899999999999998</v>
@@ -2574,7 +2576,7 @@
         <v>316</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C97" s="4">
         <v>0.29899999999999999</v>
@@ -2588,7 +2590,7 @@
         <v>330</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C98" s="7">
         <v>0.32300000000000001</v>
@@ -2602,7 +2604,7 @@
         <v>552</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C99" s="7">
         <v>0.313</v>
@@ -2616,7 +2618,7 @@
         <v>569</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C100" s="7">
         <v>0.34200000000000003</v>
@@ -2630,7 +2632,7 @@
         <v>644</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C101" s="7">
         <v>0.23</v>
@@ -2644,7 +2646,7 @@
         <v>656</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C102" s="7">
         <v>0.251</v>
@@ -2658,7 +2660,7 @@
         <v>668</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C103" s="7">
         <v>0.377</v>
@@ -2672,7 +2674,7 @@
         <v>685</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C104" s="4">
         <v>0.28399999999999997</v>
@@ -2686,7 +2688,7 @@
         <v>689</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C105" s="7">
         <v>0.41299999999999998</v>
@@ -2700,7 +2702,7 @@
         <v>719</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C106" s="4">
         <v>0.253</v>
@@ -2714,7 +2716,7 @@
         <v>726</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C107" s="7">
         <v>0.45700000000000002</v>
@@ -2729,7 +2731,7 @@
         <v>727</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C108" s="4">
         <v>0.29099999999999998</v>
@@ -2743,13 +2745,13 @@
         <v>534</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C109" s="7">
         <v>0</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
@@ -2757,13 +2759,13 @@
         <v>388</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C110" s="4">
         <v>0.371</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E110" s="9"/>
     </row>
@@ -2772,17 +2774,17 @@
         <v>681</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C111" s="4">
         <v>0.42899999999999999</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E111" s="5"/>
       <c r="F111" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
@@ -2790,13 +2792,13 @@
         <v>482</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C112" s="4">
         <v>0.41799999999999998</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E112" s="9"/>
     </row>
@@ -2805,13 +2807,13 @@
         <v>298</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C113" s="7">
         <v>0.41399999999999998</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
@@ -2819,13 +2821,13 @@
         <v>418</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C114" s="4">
         <v>0.27800000000000002</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
@@ -2833,17 +2835,17 @@
         <v>281</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C115" s="7">
         <v>0.51400000000000001</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E115" s="5"/>
       <c r="F115" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
@@ -2851,13 +2853,13 @@
         <v>361</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C116" s="7">
         <v>0.39400000000000002</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E116" s="9"/>
     </row>
@@ -2866,13 +2868,13 @@
         <v>394</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C117" s="4">
         <v>0.41699999999999998</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E117" s="9"/>
     </row>
@@ -2881,13 +2883,13 @@
         <v>393</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C118" s="7">
         <v>0.34699999999999998</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E118" s="9"/>
     </row>
@@ -2896,17 +2898,17 @@
         <v>163</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C119" s="7">
         <v>0.23799999999999999</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E119" s="9"/>
       <c r="F119" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
@@ -2914,13 +2916,13 @@
         <v>351</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C120" s="4">
         <v>0.443</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
@@ -2928,13 +2930,13 @@
         <v>271</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C121" s="4">
         <v>0.26200000000000001</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
@@ -2942,13 +2944,13 @@
         <v>289</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C122" s="7">
         <v>0.371</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
@@ -2956,13 +2958,13 @@
         <v>288</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C123" s="4">
         <v>0.17299999999999999</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E123" s="5"/>
     </row>
@@ -2971,13 +2973,13 @@
         <v>200</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C124" s="4">
         <v>0.35599999999999998</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E124" s="5"/>
     </row>
@@ -2986,13 +2988,13 @@
         <v>280</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C125" s="7">
         <v>0.57899999999999996</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E125" s="9"/>
     </row>
@@ -3001,13 +3003,13 @@
         <v>616</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C126" s="4">
         <v>0.38700000000000001</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E126" s="8"/>
     </row>
@@ -3016,13 +3018,13 @@
         <v>259</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C127" s="7">
         <v>0.41699999999999998</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
@@ -3030,13 +3032,13 @@
         <v>399</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C128" s="7">
         <v>0.41499999999999998</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E128" s="9"/>
     </row>
@@ -3045,13 +3047,13 @@
         <v>417</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C129" s="7">
         <v>0.34100000000000003</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
@@ -3059,13 +3061,13 @@
         <v>406</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C130" s="4">
         <v>0.56200000000000006</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
@@ -3073,13 +3075,13 @@
         <v>279</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C131" s="7">
         <v>0.375</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E131" s="5"/>
     </row>
@@ -3088,13 +3090,13 @@
         <v>56</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C132" s="7">
         <v>0.31</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E132" s="5"/>
     </row>
@@ -3103,13 +3105,13 @@
         <v>284</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C133" s="7">
         <v>0.35499999999999998</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
@@ -3117,17 +3119,17 @@
         <v>247</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C134" s="4">
         <v>0.40500000000000003</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E134" s="5"/>
       <c r="F134" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="38.4" x14ac:dyDescent="0.25">
@@ -3135,13 +3137,13 @@
         <v>524</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C135" s="7">
         <v>0.433</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
@@ -3149,17 +3151,17 @@
         <v>228</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C136" s="7">
         <v>0.308</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E136" s="5"/>
       <c r="F136" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
@@ -3167,13 +3169,13 @@
         <v>286</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C137" s="4">
         <v>0.44800000000000001</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
@@ -3181,17 +3183,17 @@
         <v>362</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C138" s="7">
         <v>0.54400000000000004</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E138" s="9"/>
       <c r="F138" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
@@ -3199,13 +3201,13 @@
         <v>294</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C139" s="7">
         <v>0.46600000000000003</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E139" s="8"/>
     </row>
@@ -3214,13 +3216,13 @@
         <v>380</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C140" s="7">
         <v>0.39400000000000002</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E140" s="9"/>
     </row>
@@ -3229,13 +3231,13 @@
         <v>249</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C141" s="7">
         <v>0.42699999999999999</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E141" s="9"/>
     </row>
@@ -3244,13 +3246,13 @@
         <v>320</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C142" s="4">
         <v>0.45500000000000002</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E142" s="9"/>
     </row>
@@ -3259,13 +3261,13 @@
         <v>505</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C143" s="7">
         <v>0.38200000000000001</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
@@ -3273,13 +3275,13 @@
         <v>341</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C144" s="4">
         <v>0.42199999999999999</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
@@ -3287,13 +3289,13 @@
         <v>360</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C145" s="7">
         <v>0.44500000000000001</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
@@ -3301,13 +3303,13 @@
         <v>274</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C146" s="7">
         <v>0.33500000000000002</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
@@ -3315,13 +3317,13 @@
         <v>253</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C147" s="4">
         <v>0.39300000000000002</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E147" s="5"/>
     </row>
@@ -3330,13 +3332,13 @@
         <v>139</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C148" s="7">
         <v>0.308</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
@@ -3344,13 +3346,13 @@
         <v>230</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C149" s="4">
         <v>0.44500000000000001</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E149" s="5"/>
     </row>
@@ -3359,13 +3361,13 @@
         <v>162</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C150" s="7">
         <v>0.38100000000000001</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E150" s="8"/>
     </row>
@@ -3374,13 +3376,13 @@
         <v>498</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C151" s="4">
         <v>0.46100000000000002</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
@@ -3388,13 +3390,13 @@
         <v>490</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C152" s="4">
         <v>0.432</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
@@ -3402,13 +3404,13 @@
         <v>318</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C153" s="7">
         <v>0.44900000000000001</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
@@ -3416,13 +3418,13 @@
         <v>240</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C154" s="4">
         <v>0.38800000000000001</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
@@ -3430,13 +3432,13 @@
         <v>373</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C155" s="7">
         <v>0.309</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
@@ -3444,13 +3446,13 @@
         <v>369</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C156" s="7">
         <v>0.54800000000000004</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E156" s="9"/>
     </row>
@@ -3459,16 +3461,16 @@
         <v>251</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C157" s="7">
         <v>0.40899999999999997</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F157" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
@@ -3476,13 +3478,13 @@
         <v>332</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C158" s="4">
         <v>0.29399999999999998</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
@@ -3490,13 +3492,13 @@
         <v>173</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C159" s="7">
         <v>0.42399999999999999</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
@@ -3504,13 +3506,13 @@
         <v>54</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C160" s="4">
         <v>0.26600000000000001</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
@@ -3518,13 +3520,13 @@
         <v>324</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C161" s="4">
         <v>0.26200000000000001</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
@@ -3532,13 +3534,13 @@
         <v>17</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C162" s="7">
         <v>0.35399999999999998</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E162" s="9"/>
     </row>
@@ -3547,13 +3549,13 @@
         <v>484</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C163" s="4">
         <v>0.55100000000000005</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E163" s="9"/>
     </row>
@@ -3562,13 +3564,13 @@
         <v>562</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C164" s="7">
         <v>0.40899999999999997</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
@@ -3576,13 +3578,13 @@
         <v>166</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C165" s="4">
         <v>0.17799999999999999</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
@@ -3590,13 +3592,13 @@
         <v>22</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C166" s="7">
         <v>0.46300000000000002</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E166" s="5"/>
     </row>
@@ -3605,13 +3607,13 @@
         <v>31</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C167" s="4">
         <v>0.28799999999999998</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E167" s="9"/>
     </row>
@@ -3620,13 +3622,13 @@
         <v>676</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C168" s="7">
         <v>0.5</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="38.4" x14ac:dyDescent="0.25">
@@ -3634,13 +3636,13 @@
         <v>421</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C169" s="7">
         <v>0.46899999999999997</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
@@ -3648,13 +3650,13 @@
         <v>503</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C170" s="7">
         <v>0.47299999999999998</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E170" s="5"/>
     </row>
@@ -3663,13 +3665,13 @@
         <v>684</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C171" s="7">
         <v>0.39200000000000002</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
@@ -3677,13 +3679,13 @@
         <v>133</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C172" s="4">
         <v>0.251</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
@@ -3691,13 +3693,13 @@
         <v>50</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C173" s="4">
         <v>0.26</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
@@ -3705,13 +3707,13 @@
         <v>208</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C174" s="4">
         <v>0.29499999999999998</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E174" s="5"/>
     </row>
@@ -3720,13 +3722,13 @@
         <v>348</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C175" s="7">
         <v>0.45800000000000002</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
@@ -3734,13 +3736,13 @@
         <v>652</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C176" s="4">
         <v>0.35799999999999998</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
@@ -3748,13 +3750,13 @@
         <v>444</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C177" s="7">
         <v>0.19600000000000001</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="38.4" x14ac:dyDescent="0.25">
@@ -3762,13 +3764,13 @@
         <v>309</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C178" s="4">
         <v>0.41299999999999998</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E178" s="9"/>
     </row>
@@ -3777,13 +3779,13 @@
         <v>382</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C179" s="4">
         <v>0.47099999999999997</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
@@ -3791,13 +3793,13 @@
         <v>402</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C180" s="7">
         <v>0.26</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
@@ -3805,13 +3807,13 @@
         <v>370</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C181" s="4">
         <v>0.56499999999999995</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
@@ -3819,13 +3821,13 @@
         <v>377</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C182" s="7">
         <v>0.42399999999999999</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
@@ -3833,13 +3835,13 @@
         <v>379</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C183" s="4">
         <v>0.34100000000000003</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
@@ -3847,13 +3849,13 @@
         <v>353</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C184" s="7">
         <v>0.26800000000000002</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
@@ -3861,13 +3863,13 @@
         <v>375</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C185" s="4">
         <v>0.35899999999999999</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
@@ -3875,13 +3877,13 @@
         <v>356</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C186" s="4">
         <v>0.30099999999999999</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
@@ -3889,13 +3891,13 @@
         <v>261</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C187" s="7">
         <v>0.38100000000000001</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
@@ -3903,13 +3905,13 @@
         <v>486</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C188" s="4">
         <v>0.45100000000000001</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
@@ -3917,13 +3919,13 @@
         <v>542</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C189" s="7">
         <v>0.33</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
@@ -3931,13 +3933,13 @@
         <v>397</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C190" s="4">
         <v>0.30199999999999999</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E190" s="8"/>
     </row>
@@ -3946,13 +3948,13 @@
         <v>368</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C191" s="7">
         <v>0.33700000000000002</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="192" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
@@ -3960,13 +3962,13 @@
         <v>378</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C192" s="4">
         <v>0.45200000000000001</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
@@ -3974,13 +3976,13 @@
         <v>313</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C193" s="4">
         <v>0.38</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="38.4" x14ac:dyDescent="0.25">
@@ -3988,13 +3990,13 @@
         <v>331</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C194" s="7">
         <v>0.36599999999999999</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E194" s="8"/>
     </row>
@@ -4003,13 +4005,13 @@
         <v>323</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C195" s="4">
         <v>0.48299999999999998</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
@@ -4017,13 +4019,13 @@
         <v>451</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C196" s="7">
         <v>0.51100000000000001</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E196" s="5"/>
     </row>
@@ -4032,13 +4034,13 @@
         <v>310</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C197" s="4">
         <v>0.28899999999999998</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="198" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
@@ -4046,13 +4048,13 @@
         <v>729</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C198" s="4">
         <v>0.36099999999999999</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E198" s="5"/>
     </row>
@@ -4061,13 +4063,13 @@
         <v>469</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C199" s="7">
         <v>0.33400000000000002</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="200" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
@@ -4075,13 +4077,13 @@
         <v>474</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C200" s="4">
         <v>0.39100000000000001</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
@@ -4089,13 +4091,13 @@
         <v>481</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C201" s="4">
         <v>0.45600000000000002</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
@@ -4103,13 +4105,13 @@
         <v>314</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C202" s="4">
         <v>0.373</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E202" s="5"/>
     </row>
@@ -4118,13 +4120,13 @@
         <v>357</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C203" s="7">
         <v>0.46100000000000002</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E203" s="9"/>
     </row>
@@ -4133,17 +4135,17 @@
         <v>487</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C204" s="4">
         <v>0.45600000000000002</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E204" s="9"/>
       <c r="F204" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
@@ -4151,13 +4153,13 @@
         <v>494</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C205" s="4">
         <v>0.436</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E205" s="9"/>
     </row>
@@ -4166,13 +4168,13 @@
         <v>522</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C206" s="7">
         <v>0.318</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E206" s="9"/>
     </row>
@@ -4181,13 +4183,13 @@
         <v>526</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C207" s="4">
         <v>0.54200000000000004</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E207" s="5"/>
     </row>
@@ -4196,13 +4198,13 @@
         <v>531</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C208" s="7">
         <v>0.55600000000000005</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="209" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
@@ -4210,13 +4212,13 @@
         <v>533</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C209" s="4">
         <v>0.44600000000000001</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="210" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
@@ -4224,13 +4226,13 @@
         <v>535</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C210" s="7">
         <v>0.74199999999999999</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="211" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
@@ -4238,13 +4240,13 @@
         <v>544</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C211" s="4">
         <v>0.70899999999999996</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E211" s="5"/>
     </row>
@@ -4253,13 +4255,13 @@
         <v>545</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C212" s="7">
         <v>0.31900000000000001</v>
       </c>
       <c r="D212" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E212" s="9"/>
     </row>
@@ -4268,13 +4270,13 @@
         <v>549</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C213" s="4">
         <v>0.41899999999999998</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="214" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
@@ -4282,13 +4284,13 @@
         <v>560</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C214" s="4">
         <v>0.40400000000000003</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E214" s="9"/>
     </row>
@@ -4297,13 +4299,13 @@
         <v>583</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C215" s="7">
         <v>0.442</v>
       </c>
       <c r="D215" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="216" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
@@ -4311,13 +4313,13 @@
         <v>638</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C216" s="7">
         <v>0.434</v>
       </c>
       <c r="D216" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="217" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
@@ -4325,13 +4327,13 @@
         <v>651</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C217" s="4">
         <v>0.48799999999999999</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E217" s="9"/>
     </row>
@@ -4340,13 +4342,13 @@
         <v>658</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C218" s="7">
         <v>0.35299999999999998</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E218" s="9"/>
     </row>
@@ -4355,13 +4357,13 @@
         <v>659</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C219" s="4">
         <v>0.35699999999999998</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="220" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
@@ -4369,13 +4371,13 @@
         <v>667</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C220" s="4">
         <v>0.51500000000000001</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="221" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
@@ -4383,13 +4385,13 @@
         <v>731</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C221" s="7">
         <v>0.316</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E221" s="5"/>
     </row>

--- a/google_ranked.xlsx
+++ b/google_ranked.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\mine\GitHub\leet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B551CC8-728A-4BB6-BBA1-64FE7E8F80C1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30908878-94B5-4930-BD9C-C9B41FC2E090}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22368" windowHeight="9936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22368" windowHeight="9936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -490,9 +490,6 @@
     <t>Search a 2D Matrix II</t>
   </si>
   <si>
-    <t>Find K Pairs with Smallest Sums</t>
-  </si>
-  <si>
     <t>Plus One Linked List</t>
   </si>
   <si>
@@ -520,9 +517,6 @@
     <t>Find Permutation</t>
   </si>
   <si>
-    <t>Longest Line of Consecutive One in Matrix</t>
-  </si>
-  <si>
     <t>Fraction to Recurring Decimal</t>
   </si>
   <si>
@@ -565,13 +559,7 @@
     <t>Best Time to Buy and Sell Stock with Cooldown</t>
   </si>
   <si>
-    <t>Linked List Random Node</t>
-  </si>
-  <si>
     <t>Remove K Digits</t>
-  </si>
-  <si>
-    <t>Range Addition</t>
   </si>
   <si>
     <t>Combination Sum IV</t>
@@ -734,6 +722,22 @@
   </si>
   <si>
     <t>Word Abbreviation</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find K Pairs with Smallest Sums</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Longest Line of Consecutive One in Matrix</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linked List Random Node</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Range Addition</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1186,8 +1190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E219" sqref="E219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2393,7 +2397,7 @@
         <v>363</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C84" s="7">
         <v>0.33400000000000002</v>
@@ -2407,7 +2411,7 @@
         <v>354</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C85" s="4">
         <v>0.32300000000000001</v>
@@ -2534,7 +2538,7 @@
         <v>493</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C94" s="7">
         <v>0.20599999999999999</v>
@@ -2548,7 +2552,7 @@
         <v>514</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C95" s="4">
         <v>0.39100000000000001</v>
@@ -2562,7 +2566,7 @@
         <v>527</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C96" s="7">
         <v>0.41899999999999998</v>
@@ -2576,7 +2580,7 @@
         <v>316</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C97" s="4">
         <v>0.29899999999999999</v>
@@ -2590,7 +2594,7 @@
         <v>330</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C98" s="7">
         <v>0.32300000000000001</v>
@@ -2618,7 +2622,7 @@
         <v>569</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C100" s="7">
         <v>0.34200000000000003</v>
@@ -2646,7 +2650,7 @@
         <v>656</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C102" s="7">
         <v>0.251</v>
@@ -2660,7 +2664,7 @@
         <v>668</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C103" s="7">
         <v>0.377</v>
@@ -3432,7 +3436,7 @@
         <v>373</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>156</v>
+        <v>231</v>
       </c>
       <c r="C155" s="7">
         <v>0.309</v>
@@ -3446,7 +3450,7 @@
         <v>369</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C156" s="7">
         <v>0.54800000000000004</v>
@@ -3461,7 +3465,7 @@
         <v>251</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C157" s="7">
         <v>0.40899999999999997</v>
@@ -3470,7 +3474,7 @@
         <v>104</v>
       </c>
       <c r="F157" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
@@ -3478,7 +3482,7 @@
         <v>332</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C158" s="4">
         <v>0.29399999999999998</v>
@@ -3492,7 +3496,7 @@
         <v>173</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C159" s="7">
         <v>0.42399999999999999</v>
@@ -3506,7 +3510,7 @@
         <v>54</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C160" s="4">
         <v>0.26600000000000001</v>
@@ -3520,7 +3524,7 @@
         <v>324</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C161" s="4">
         <v>0.26200000000000001</v>
@@ -3534,7 +3538,7 @@
         <v>17</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C162" s="7">
         <v>0.35399999999999998</v>
@@ -3549,7 +3553,7 @@
         <v>484</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C163" s="4">
         <v>0.55100000000000005</v>
@@ -3564,7 +3568,7 @@
         <v>562</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>166</v>
+        <v>232</v>
       </c>
       <c r="C164" s="7">
         <v>0.40899999999999997</v>
@@ -3578,7 +3582,7 @@
         <v>166</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C165" s="4">
         <v>0.17799999999999999</v>
@@ -3592,7 +3596,7 @@
         <v>22</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C166" s="7">
         <v>0.46300000000000002</v>
@@ -3607,7 +3611,7 @@
         <v>31</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C167" s="4">
         <v>0.28799999999999998</v>
@@ -3622,7 +3626,7 @@
         <v>676</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C168" s="7">
         <v>0.5</v>
@@ -3636,7 +3640,7 @@
         <v>421</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C169" s="7">
         <v>0.46899999999999997</v>
@@ -3650,7 +3654,7 @@
         <v>503</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C170" s="7">
         <v>0.47299999999999998</v>
@@ -3665,7 +3669,7 @@
         <v>684</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C171" s="7">
         <v>0.39200000000000002</v>
@@ -3679,7 +3683,7 @@
         <v>133</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C172" s="4">
         <v>0.251</v>
@@ -3693,7 +3697,7 @@
         <v>50</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C173" s="4">
         <v>0.26</v>
@@ -3707,7 +3711,7 @@
         <v>208</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C174" s="4">
         <v>0.29499999999999998</v>
@@ -3722,7 +3726,7 @@
         <v>348</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C175" s="7">
         <v>0.45800000000000002</v>
@@ -3736,7 +3740,7 @@
         <v>652</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C176" s="4">
         <v>0.35799999999999998</v>
@@ -3750,7 +3754,7 @@
         <v>444</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C177" s="7">
         <v>0.19600000000000001</v>
@@ -3764,7 +3768,7 @@
         <v>309</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C178" s="4">
         <v>0.41299999999999998</v>
@@ -3779,7 +3783,7 @@
         <v>382</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>181</v>
+        <v>233</v>
       </c>
       <c r="C179" s="4">
         <v>0.47099999999999997</v>
@@ -3793,7 +3797,7 @@
         <v>402</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C180" s="7">
         <v>0.26</v>
@@ -3807,7 +3811,7 @@
         <v>370</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>183</v>
+        <v>234</v>
       </c>
       <c r="C181" s="4">
         <v>0.56499999999999995</v>
@@ -3821,7 +3825,7 @@
         <v>377</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C182" s="7">
         <v>0.42399999999999999</v>
@@ -3835,7 +3839,7 @@
         <v>379</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C183" s="4">
         <v>0.34100000000000003</v>
@@ -3849,7 +3853,7 @@
         <v>353</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C184" s="7">
         <v>0.26800000000000002</v>
@@ -3863,7 +3867,7 @@
         <v>375</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C185" s="4">
         <v>0.35899999999999999</v>
@@ -3877,7 +3881,7 @@
         <v>356</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C186" s="4">
         <v>0.30099999999999999</v>
@@ -3891,7 +3895,7 @@
         <v>261</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C187" s="7">
         <v>0.38100000000000001</v>
@@ -3905,7 +3909,7 @@
         <v>486</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C188" s="4">
         <v>0.45100000000000001</v>
@@ -3919,7 +3923,7 @@
         <v>542</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C189" s="7">
         <v>0.33</v>
@@ -3933,7 +3937,7 @@
         <v>397</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C190" s="4">
         <v>0.30199999999999999</v>
@@ -3948,7 +3952,7 @@
         <v>368</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C191" s="7">
         <v>0.33700000000000002</v>
@@ -3962,7 +3966,7 @@
         <v>378</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C192" s="4">
         <v>0.45200000000000001</v>
@@ -3976,7 +3980,7 @@
         <v>313</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C193" s="4">
         <v>0.38</v>
@@ -3990,7 +3994,7 @@
         <v>331</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C194" s="7">
         <v>0.36599999999999999</v>
@@ -4005,7 +4009,7 @@
         <v>323</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C195" s="4">
         <v>0.48299999999999998</v>
@@ -4019,7 +4023,7 @@
         <v>451</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C196" s="7">
         <v>0.51100000000000001</v>
@@ -4034,7 +4038,7 @@
         <v>310</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C197" s="4">
         <v>0.28899999999999998</v>
@@ -4048,7 +4052,7 @@
         <v>729</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C198" s="4">
         <v>0.36099999999999999</v>
@@ -4063,7 +4067,7 @@
         <v>469</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C199" s="7">
         <v>0.33400000000000002</v>
@@ -4077,7 +4081,7 @@
         <v>474</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C200" s="4">
         <v>0.39100000000000001</v>
@@ -4091,7 +4095,7 @@
         <v>481</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C201" s="4">
         <v>0.45600000000000002</v>
@@ -4105,7 +4109,7 @@
         <v>314</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C202" s="4">
         <v>0.373</v>
@@ -4120,7 +4124,7 @@
         <v>357</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C203" s="7">
         <v>0.46100000000000002</v>
@@ -4135,7 +4139,7 @@
         <v>487</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C204" s="4">
         <v>0.45600000000000002</v>
@@ -4145,7 +4149,7 @@
       </c>
       <c r="E204" s="9"/>
       <c r="F204" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
@@ -4153,7 +4157,7 @@
         <v>494</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C205" s="4">
         <v>0.436</v>
@@ -4168,7 +4172,7 @@
         <v>522</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C206" s="7">
         <v>0.318</v>
@@ -4183,7 +4187,7 @@
         <v>526</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C207" s="4">
         <v>0.54200000000000004</v>
@@ -4198,7 +4202,7 @@
         <v>531</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C208" s="7">
         <v>0.55600000000000005</v>
@@ -4212,7 +4216,7 @@
         <v>533</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C209" s="4">
         <v>0.44600000000000001</v>
@@ -4226,7 +4230,7 @@
         <v>535</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C210" s="7">
         <v>0.74199999999999999</v>
@@ -4240,7 +4244,7 @@
         <v>544</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C211" s="4">
         <v>0.70899999999999996</v>
@@ -4255,7 +4259,7 @@
         <v>545</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C212" s="7">
         <v>0.31900000000000001</v>
@@ -4270,7 +4274,7 @@
         <v>549</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C213" s="4">
         <v>0.41899999999999998</v>
@@ -4284,7 +4288,7 @@
         <v>560</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C214" s="4">
         <v>0.40400000000000003</v>
@@ -4299,7 +4303,7 @@
         <v>583</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C215" s="7">
         <v>0.442</v>
@@ -4313,7 +4317,7 @@
         <v>638</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C216" s="7">
         <v>0.434</v>
@@ -4327,7 +4331,7 @@
         <v>651</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C217" s="4">
         <v>0.48799999999999999</v>
@@ -4342,7 +4346,7 @@
         <v>658</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C218" s="7">
         <v>0.35299999999999998</v>
@@ -4357,7 +4361,7 @@
         <v>659</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C219" s="4">
         <v>0.35699999999999998</v>
@@ -4371,7 +4375,7 @@
         <v>667</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C220" s="4">
         <v>0.51500000000000001</v>
@@ -4385,7 +4389,7 @@
         <v>731</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C221" s="7">
         <v>0.316</v>

--- a/google_ranked.xlsx
+++ b/google_ranked.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\mine\GitHub\leet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30908878-94B5-4930-BD9C-C9B41FC2E090}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24561FEA-3E07-4454-9A80-79570AE9AC02}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22368" windowHeight="9936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22368" windowHeight="9936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -307,9 +307,6 @@
     <t>Smallest Good Base</t>
   </si>
   <si>
-    <t>Burst Balloons</t>
-  </si>
-  <si>
     <t>Student Attendance Record II</t>
   </si>
   <si>
@@ -738,6 +735,10 @@
   </si>
   <si>
     <t>Range Addition</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Burst Balloons</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1190,8 +1191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E219" sqref="E219"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2397,7 +2398,7 @@
         <v>363</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C84" s="7">
         <v>0.33400000000000002</v>
@@ -2411,7 +2412,7 @@
         <v>354</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C85" s="4">
         <v>0.32300000000000001</v>
@@ -2524,7 +2525,7 @@
         <v>312</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>95</v>
+        <v>234</v>
       </c>
       <c r="C93" s="7">
         <v>0.432</v>
@@ -2538,7 +2539,7 @@
         <v>493</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C94" s="7">
         <v>0.20599999999999999</v>
@@ -2552,7 +2553,7 @@
         <v>514</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C95" s="4">
         <v>0.39100000000000001</v>
@@ -2566,7 +2567,7 @@
         <v>527</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C96" s="7">
         <v>0.41899999999999998</v>
@@ -2580,7 +2581,7 @@
         <v>316</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C97" s="4">
         <v>0.29899999999999999</v>
@@ -2594,7 +2595,7 @@
         <v>330</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C98" s="7">
         <v>0.32300000000000001</v>
@@ -2608,7 +2609,7 @@
         <v>552</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C99" s="7">
         <v>0.313</v>
@@ -2622,7 +2623,7 @@
         <v>569</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C100" s="7">
         <v>0.34200000000000003</v>
@@ -2636,7 +2637,7 @@
         <v>644</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C101" s="7">
         <v>0.23</v>
@@ -2650,7 +2651,7 @@
         <v>656</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C102" s="7">
         <v>0.251</v>
@@ -2664,7 +2665,7 @@
         <v>668</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C103" s="7">
         <v>0.377</v>
@@ -2678,7 +2679,7 @@
         <v>685</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C104" s="4">
         <v>0.28399999999999997</v>
@@ -2692,7 +2693,7 @@
         <v>689</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C105" s="7">
         <v>0.41299999999999998</v>
@@ -2706,7 +2707,7 @@
         <v>719</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C106" s="4">
         <v>0.253</v>
@@ -2720,7 +2721,7 @@
         <v>726</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C107" s="7">
         <v>0.45700000000000002</v>
@@ -2735,7 +2736,7 @@
         <v>727</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C108" s="4">
         <v>0.29099999999999998</v>
@@ -2749,13 +2750,13 @@
         <v>534</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C109" s="7">
         <v>0</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
@@ -2763,13 +2764,13 @@
         <v>388</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C110" s="4">
         <v>0.371</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E110" s="9"/>
     </row>
@@ -2778,17 +2779,17 @@
         <v>681</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C111" s="4">
         <v>0.42899999999999999</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E111" s="5"/>
       <c r="F111" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
@@ -2796,13 +2797,13 @@
         <v>482</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C112" s="4">
         <v>0.41799999999999998</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E112" s="9"/>
     </row>
@@ -2811,13 +2812,13 @@
         <v>298</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C113" s="7">
         <v>0.41399999999999998</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="19.2" x14ac:dyDescent="0.25">
@@ -2825,13 +2826,13 @@
         <v>418</v>
       </c>
       <c r="B114" s="3" t="s"